--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="G2" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I2" t="n">
         <v>5</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="Q2" t="n">
         <v>1.84</v>
@@ -805,19 +805,19 @@
         <v>2.28</v>
       </c>
       <c r="G3" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I3" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J3" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.89</v>
+        <v>3.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P3" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1249,13 +1249,13 @@
         <v>4.4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U6" t="n">
         <v>2.06</v>
       </c>
       <c r="V6" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W6" t="n">
         <v>1.66</v>
@@ -1345,7 +1345,7 @@
         <v>1.42</v>
       </c>
       <c r="G7" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="H7" t="n">
         <v>4.2</v>
@@ -1372,10 +1372,10 @@
         <v>1.16</v>
       </c>
       <c r="P7" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="G8" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="H8" t="n">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="J8" t="n">
-        <v>2.7</v>
+        <v>4.4</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1501,16 +1501,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>2.08</v>
+        <v>4.7</v>
       </c>
       <c r="O8" t="n">
         <v>1.21</v>
       </c>
       <c r="P8" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1615,16 +1615,16 @@
         <v>5.3</v>
       </c>
       <c r="G9" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="H9" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="I9" t="n">
         <v>1.8</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="K9" t="n">
         <v>4.1</v>
@@ -1780,7 +1780,7 @@
         <v>2.66</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="G11" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="H11" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="I11" t="n">
         <v>10</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2422,23 +2422,23 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="G15" t="n">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="H15" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K15" t="n">
         <v>5</v>
       </c>
-      <c r="I15" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4.9</v>
-      </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
@@ -2446,16 +2446,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="P15" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.86</v>
+        <v>1.99</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2581,10 +2581,10 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="P16" t="n">
         <v>1.65</v>
@@ -2704,7 +2704,7 @@
         <v>2.46</v>
       </c>
       <c r="J17" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="K17" t="n">
         <v>3.5</v>
@@ -2851,7 +2851,7 @@
         <v>1.1</v>
       </c>
       <c r="N18" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O18" t="n">
         <v>1.44</v>
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="G19" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I19" t="n">
         <v>4.6</v>
@@ -3004,7 +3004,7 @@
         <v>3</v>
       </c>
       <c r="T19" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U19" t="n">
         <v>2.16</v>
@@ -3016,19 +3016,19 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="Y19" t="n">
         <v>19.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AA19" t="n">
         <v>110</v>
       </c>
       <c r="AB19" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AC19" t="n">
         <v>10.5</v>
@@ -3043,10 +3043,10 @@
         <v>15.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI19" t="n">
         <v>60</v>
@@ -3055,7 +3055,7 @@
         <v>24</v>
       </c>
       <c r="AK19" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AL19" t="n">
         <v>36</v>
@@ -3121,7 +3121,7 @@
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O20" t="n">
         <v>1.35</v>
@@ -3142,7 +3142,7 @@
         <v>1.82</v>
       </c>
       <c r="U20" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3175,7 +3175,7 @@
         <v>36</v>
       </c>
       <c r="AF20" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG20" t="n">
         <v>12.5</v>
@@ -3193,7 +3193,7 @@
         <v>34</v>
       </c>
       <c r="AL20" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM20" t="n">
         <v>110</v>
@@ -3268,16 +3268,16 @@
         <v>1.6</v>
       </c>
       <c r="R21" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="S21" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="T21" t="n">
         <v>1.6</v>
       </c>
       <c r="U21" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3292,7 +3292,7 @@
         <v>20</v>
       </c>
       <c r="Z21" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA21" t="n">
         <v>1000</v>
@@ -3322,7 +3322,7 @@
         <v>42</v>
       </c>
       <c r="AJ21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK21" t="n">
         <v>17</v>
@@ -3376,13 +3376,13 @@
         <v>20</v>
       </c>
       <c r="I22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J22" t="n">
         <v>7.4</v>
       </c>
       <c r="K22" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="Q22" t="n">
         <v>1.61</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO22"/>
+  <dimension ref="A1:AO23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1228,34 +1228,34 @@
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P6" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="S6" t="n">
         <v>4.4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U6" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W6" t="n">
         <v>1.66</v>
@@ -1276,7 +1276,7 @@
         <v>9.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD6" t="n">
         <v>14.5</v>
@@ -1294,7 +1294,7 @@
         <v>19.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ6" t="n">
         <v>36</v>
@@ -1645,7 +1645,7 @@
         <v>1.81</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="G11" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="H11" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="I11" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J11" t="n">
         <v>4.1</v>
       </c>
       <c r="K11" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.22</v>
+        <v>2.06</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,33 +2003,33 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CD Castellon</t>
+          <t>San Antonio Bulo Bulo</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>CDT Real Oruro</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>1.04</v>
       </c>
       <c r="G12" t="n">
-        <v>1.59</v>
+        <v>1000</v>
       </c>
       <c r="H12" t="n">
-        <v>2.7</v>
+        <v>1.04</v>
       </c>
       <c r="I12" t="n">
         <v>1000</v>
       </c>
       <c r="J12" t="n">
-        <v>2.7</v>
+        <v>1.01</v>
       </c>
       <c r="K12" t="n">
         <v>1000</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.02</v>
+        <v>1.24</v>
       </c>
       <c r="Q12" t="n">
         <v>1.01</v>
@@ -2143,31 +2143,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ASD Pineto Calcio</t>
+          <t>Ravenna</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="G13" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>1.21</v>
+        <v>2.28</v>
       </c>
       <c r="I13" t="n">
-        <v>1000</v>
+        <v>2.58</v>
       </c>
       <c r="J13" t="n">
-        <v>3.8</v>
+        <v>2.96</v>
       </c>
       <c r="K13" t="n">
-        <v>5.7</v>
+        <v>3.45</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2176,16 +2176,16 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="O13" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="P13" t="n">
-        <v>1.72</v>
+        <v>1.58</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2278,31 +2278,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Ravenna</t>
+          <t>S.S.D. Casarano Calcio</t>
         </is>
       </c>
       <c r="F14" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>9</v>
+      </c>
+      <c r="J14" t="n">
         <v>3.5</v>
       </c>
-      <c r="G14" t="n">
-        <v>4</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.96</v>
-      </c>
       <c r="K14" t="n">
-        <v>3.45</v>
+        <v>5.1</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2311,16 +2311,16 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2.74</v>
+        <v>3.35</v>
       </c>
       <c r="O14" t="n">
-        <v>1.46</v>
+        <v>1.31</v>
       </c>
       <c r="P14" t="n">
-        <v>1.58</v>
+        <v>1.87</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2413,31 +2413,31 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>S.S.D. Casarano Calcio</t>
+          <t>Monopoli</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.54</v>
+        <v>1.77</v>
       </c>
       <c r="G15" t="n">
-        <v>1.79</v>
+        <v>1000</v>
       </c>
       <c r="H15" t="n">
-        <v>6.4</v>
+        <v>1.92</v>
       </c>
       <c r="I15" t="n">
-        <v>8.4</v>
+        <v>2.3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.4</v>
+        <v>1.77</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2446,16 +2446,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>3.2</v>
+        <v>2.74</v>
       </c>
       <c r="O15" t="n">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="P15" t="n">
-        <v>1.87</v>
+        <v>1.47</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.99</v>
+        <v>2.14</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2548,31 +2548,31 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Foggia</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Monopoli</t>
+          <t>ASD Pineto Calcio</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.77</v>
+        <v>1.41</v>
       </c>
       <c r="G16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="I16" t="n">
         <v>1000</v>
       </c>
-      <c r="H16" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.3</v>
-      </c>
       <c r="J16" t="n">
-        <v>1.77</v>
+        <v>3.8</v>
       </c>
       <c r="K16" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2581,16 +2581,16 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="O16" t="n">
         <v>1.38</v>
       </c>
       <c r="P16" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,42 +2678,42 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Boulogne</t>
+          <t>CD Castellon</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ESTAC Troyes</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.8</v>
+        <v>1.04</v>
       </c>
       <c r="G17" t="n">
-        <v>5.5</v>
+        <v>1.57</v>
       </c>
       <c r="H17" t="n">
-        <v>1.97</v>
+        <v>2.76</v>
       </c>
       <c r="I17" t="n">
-        <v>2.46</v>
+        <v>1000</v>
       </c>
       <c r="J17" t="n">
-        <v>2.98</v>
+        <v>2.76</v>
       </c>
       <c r="K17" t="n">
-        <v>3.5</v>
+        <v>1000</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.54</v>
+        <v>2.16</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2746,64 +2746,64 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,61 +2818,61 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Boulogne</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>ESTAC Troyes</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.24</v>
+        <v>3.8</v>
       </c>
       <c r="G18" t="n">
-        <v>2.28</v>
+        <v>5.3</v>
       </c>
       <c r="H18" t="n">
-        <v>3.95</v>
+        <v>1.99</v>
       </c>
       <c r="I18" t="n">
-        <v>4.1</v>
+        <v>2.4</v>
       </c>
       <c r="J18" t="n">
-        <v>3.25</v>
+        <v>2.98</v>
       </c>
       <c r="K18" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.34</v>
+        <v>2.08</v>
       </c>
       <c r="R18" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1.99</v>
+        <v>1.01</v>
       </c>
       <c r="U18" t="n">
-        <v>1.97</v>
+        <v>1.01</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2881,55 +2881,55 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2938,7 +2938,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,61 +2953,61 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.93</v>
+        <v>2.24</v>
       </c>
       <c r="G19" t="n">
-        <v>2.02</v>
+        <v>2.28</v>
       </c>
       <c r="H19" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I19" t="n">
         <v>4.1</v>
       </c>
-      <c r="I19" t="n">
-        <v>4.6</v>
-      </c>
       <c r="J19" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="K19" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N19" t="n">
-        <v>4</v>
+        <v>3.15</v>
       </c>
       <c r="O19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R19" t="n">
         <v>1.27</v>
       </c>
-      <c r="P19" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.41</v>
-      </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="T19" t="n">
-        <v>1.71</v>
+        <v>1.99</v>
       </c>
       <c r="U19" t="n">
-        <v>2.16</v>
+        <v>1.97</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3016,64 +3016,64 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AA19" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AB19" t="n">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>10.5</v>
+        <v>7.2</v>
       </c>
       <c r="AD19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH19" t="n">
         <v>20</v>
       </c>
-      <c r="AE19" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>19</v>
-      </c>
       <c r="AI19" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AJ19" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AK19" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AL19" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="AM19" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="AN19" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AO19" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,63 +3083,63 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.7</v>
+        <v>1.92</v>
       </c>
       <c r="G20" t="n">
-        <v>2.76</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>2.82</v>
+        <v>4.1</v>
       </c>
       <c r="I20" t="n">
-        <v>2.86</v>
+        <v>4.6</v>
       </c>
       <c r="J20" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="K20" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="P20" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.08</v>
+        <v>1.81</v>
       </c>
       <c r="R20" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="S20" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T20" t="n">
-        <v>1.82</v>
+        <v>1.71</v>
       </c>
       <c r="U20" t="n">
         <v>2.16</v>
@@ -3151,58 +3151,58 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>13.5</v>
+        <v>18</v>
       </c>
       <c r="Y20" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG20" t="n">
         <v>11</v>
       </c>
-      <c r="Z20" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE20" t="n">
+      <c r="AH20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL20" t="n">
         <v>36</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>46</v>
       </c>
       <c r="AM20" t="n">
         <v>110</v>
       </c>
       <c r="AN20" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="AO20" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
@@ -3238,7 +3238,7 @@
         <v>1.9</v>
       </c>
       <c r="H21" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I21" t="n">
         <v>4.3</v>
@@ -3277,7 +3277,7 @@
         <v>1.6</v>
       </c>
       <c r="U21" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3295,7 +3295,7 @@
         <v>36</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB21" t="n">
         <v>12.5</v>
@@ -3307,7 +3307,7 @@
         <v>17</v>
       </c>
       <c r="AE21" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AF21" t="n">
         <v>14.5</v>
@@ -3337,141 +3337,276 @@
         <v>8.4</v>
       </c>
       <c r="AO21" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>Portuguese Primeira Liga</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>2025-12-15</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>17:45:00</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Porto</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>Club Football Estrela</t>
         </is>
       </c>
-      <c r="F22" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="G22" t="n">
+      <c r="F23" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G23" t="n">
         <v>1.21</v>
       </c>
-      <c r="H22" t="n">
-        <v>20</v>
-      </c>
-      <c r="I22" t="n">
-        <v>24</v>
-      </c>
-      <c r="J22" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="K22" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q22" t="n">
+      <c r="H23" t="n">
+        <v>22</v>
+      </c>
+      <c r="I23" t="n">
+        <v>23</v>
+      </c>
+      <c r="J23" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="K23" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q23" t="n">
         <v>1.61</v>
       </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO22" t="n">
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="G2" t="n">
-        <v>2.52</v>
+        <v>2.14</v>
       </c>
       <c r="H2" t="n">
-        <v>3.35</v>
+        <v>3.95</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="J2" t="n">
-        <v>2.98</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="J6" t="n">
         <v>3.2</v>
@@ -1225,25 +1225,25 @@
         <v>3.3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M6" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O6" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P6" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="R6" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S6" t="n">
         <v>4.4</v>
@@ -1252,28 +1252,28 @@
         <v>1.9</v>
       </c>
       <c r="U6" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="V6" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W6" t="n">
         <v>1.66</v>
       </c>
       <c r="X6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA6" t="n">
         <v>65</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AC6" t="n">
         <v>7.2</v>
@@ -1282,7 +1282,7 @@
         <v>14.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AF6" t="n">
         <v>15</v>
@@ -1294,7 +1294,7 @@
         <v>19.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ6" t="n">
         <v>36</v>
@@ -1309,10 +1309,10 @@
         <v>120</v>
       </c>
       <c r="AN6" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AO6" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
@@ -1345,7 +1345,7 @@
         <v>1.42</v>
       </c>
       <c r="G7" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="H7" t="n">
         <v>4.2</v>
@@ -1354,7 +1354,7 @@
         <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="K7" t="n">
         <v>6.8</v>
@@ -1627,7 +1627,7 @@
         <v>3.65</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1750,10 +1750,10 @@
         <v>5.2</v>
       </c>
       <c r="G10" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H10" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="I10" t="n">
         <v>1.42</v>
@@ -1885,13 +1885,13 @@
         <v>1.53</v>
       </c>
       <c r="G11" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="H11" t="n">
         <v>8.6</v>
       </c>
       <c r="I11" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="J11" t="n">
         <v>4.1</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="Q11" t="n">
         <v>2.06</v>
@@ -2164,7 +2164,7 @@
         <v>2.58</v>
       </c>
       <c r="J13" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K13" t="n">
         <v>3.45</v>
@@ -2176,16 +2176,16 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>2.74</v>
+        <v>2.64</v>
       </c>
       <c r="O13" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="P13" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>1.54</v>
       </c>
       <c r="G14" t="n">
-        <v>1.69</v>
+        <v>1.77</v>
       </c>
       <c r="H14" t="n">
         <v>6.4</v>
       </c>
       <c r="I14" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J14" t="n">
         <v>3.5</v>
@@ -2320,7 +2320,7 @@
         <v>1.87</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="G15" t="n">
         <v>1000</v>
@@ -2431,10 +2431,10 @@
         <v>1.92</v>
       </c>
       <c r="I15" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="J15" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="K15" t="n">
         <v>1000</v>
@@ -2446,10 +2446,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>2.74</v>
+        <v>1.48</v>
       </c>
       <c r="O15" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="P15" t="n">
         <v>1.47</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="G18" t="n">
         <v>5.3</v>
@@ -2869,10 +2869,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="U18" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2881,37 +2881,37 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
@@ -2965,7 +2965,7 @@
         <v>2.24</v>
       </c>
       <c r="G19" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H19" t="n">
         <v>3.95</v>
@@ -3040,7 +3040,7 @@
         <v>65</v>
       </c>
       <c r="AF19" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG19" t="n">
         <v>11.5</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="H20" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I20" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J20" t="n">
         <v>3.7</v>
@@ -3124,7 +3124,7 @@
         <v>4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P20" t="n">
         <v>2.04</v>
@@ -3235,7 +3235,7 @@
         <v>1.88</v>
       </c>
       <c r="G21" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="H21" t="n">
         <v>4.2</v>
@@ -3268,7 +3268,7 @@
         <v>1.6</v>
       </c>
       <c r="R21" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="S21" t="n">
         <v>2.5</v>
@@ -3307,7 +3307,7 @@
         <v>17</v>
       </c>
       <c r="AE21" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AF21" t="n">
         <v>14.5</v>
@@ -3331,7 +3331,7 @@
         <v>24</v>
       </c>
       <c r="AM21" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN21" t="n">
         <v>8.4</v>
@@ -3382,7 +3382,7 @@
         <v>3.5</v>
       </c>
       <c r="K22" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3391,16 +3391,16 @@
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O22" t="n">
         <v>1.35</v>
       </c>
       <c r="P22" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R22" t="n">
         <v>1.34</v>
@@ -3505,16 +3505,16 @@
         <v>1.2</v>
       </c>
       <c r="G23" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="H23" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I23" t="n">
         <v>23</v>
       </c>
       <c r="J23" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="K23" t="n">
         <v>8.199999999999999</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q23" t="n">
         <v>1.61</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.91</v>
+        <v>1.76</v>
       </c>
       <c r="G2" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="H2" t="n">
-        <v>3.95</v>
+        <v>1.8</v>
       </c>
       <c r="I2" t="n">
-        <v>5.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="K2" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.88</v>
+        <v>1.74</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.28</v>
+        <v>1.04</v>
       </c>
       <c r="G3" t="n">
-        <v>2.68</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>3.15</v>
+        <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>3.95</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>3.25</v>
+        <v>1.03</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5</v>
+        <v>1.25</v>
       </c>
       <c r="O3" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.84</v>
+        <v>1.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.83</v>
+        <v>1.34</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="G4" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I4" t="n">
         <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="K4" t="n">
         <v>1000</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q4" t="n">
         <v>1.41</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="G5" t="n">
         <v>1.3</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="G6" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I6" t="n">
         <v>3.5</v>
@@ -1225,34 +1225,34 @@
         <v>3.3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O6" t="n">
         <v>1.42</v>
       </c>
       <c r="P6" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="R6" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S6" t="n">
         <v>4.4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U6" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="V6" t="n">
         <v>1.4</v>
@@ -1264,7 +1264,7 @@
         <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z6" t="n">
         <v>23</v>
@@ -1273,7 +1273,7 @@
         <v>65</v>
       </c>
       <c r="AB6" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC6" t="n">
         <v>7.2</v>
@@ -1282,7 +1282,7 @@
         <v>14.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AF6" t="n">
         <v>15</v>
@@ -1309,7 +1309,7 @@
         <v>120</v>
       </c>
       <c r="AN6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO6" t="n">
         <v>48</v>
@@ -1345,16 +1345,16 @@
         <v>1.42</v>
       </c>
       <c r="G7" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H7" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="J7" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="K7" t="n">
         <v>6.8</v>
@@ -1372,7 +1372,7 @@
         <v>1.16</v>
       </c>
       <c r="P7" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="Q7" t="n">
         <v>1.49</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="G8" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="I8" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>4.4</v>
+        <v>2.7</v>
       </c>
       <c r="K8" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1501,13 +1501,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>4.7</v>
+        <v>2.08</v>
       </c>
       <c r="O8" t="n">
         <v>1.21</v>
       </c>
       <c r="P8" t="n">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="Q8" t="n">
         <v>1.54</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="G9" t="n">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="H9" t="n">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="I9" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="J9" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.2</v>
+        <v>1.04</v>
       </c>
       <c r="G10" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="H10" t="n">
-        <v>1.3</v>
+        <v>1.04</v>
       </c>
       <c r="I10" t="n">
-        <v>1.42</v>
+        <v>1000</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1.01</v>
       </c>
       <c r="K10" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.66</v>
+        <v>2.48</v>
       </c>
       <c r="Q10" t="n">
         <v>1.42</v>
@@ -1885,19 +1885,19 @@
         <v>1.53</v>
       </c>
       <c r="G11" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="H11" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="I11" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J11" t="n">
         <v>4.1</v>
       </c>
       <c r="K11" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.06</v>
+        <v>2.28</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H13" t="n">
         <v>2.28</v>
       </c>
       <c r="I13" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="J13" t="n">
-        <v>2.98</v>
+        <v>2.7</v>
       </c>
       <c r="K13" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2176,10 +2176,10 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>2.64</v>
+        <v>1.42</v>
       </c>
       <c r="O13" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="P13" t="n">
         <v>1.55</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="G14" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="H14" t="n">
-        <v>6.4</v>
+        <v>2.16</v>
       </c>
       <c r="I14" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="J14" t="n">
-        <v>3.5</v>
+        <v>2.16</v>
       </c>
       <c r="K14" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2311,16 +2311,16 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3.35</v>
+        <v>1.87</v>
       </c>
       <c r="O14" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="P14" t="n">
         <v>1.87</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="G15" t="n">
         <v>1000</v>
       </c>
       <c r="H15" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="I15" t="n">
-        <v>2.26</v>
+        <v>2.44</v>
       </c>
       <c r="J15" t="n">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="K15" t="n">
         <v>1000</v>
@@ -2455,7 +2455,7 @@
         <v>1.47</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="G16" t="n">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="H16" t="n">
-        <v>1.21</v>
+        <v>2.64</v>
       </c>
       <c r="I16" t="n">
         <v>1000</v>
       </c>
       <c r="J16" t="n">
-        <v>3.8</v>
+        <v>2.64</v>
       </c>
       <c r="K16" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2581,16 +2581,16 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>2.8</v>
+        <v>1.61</v>
       </c>
       <c r="O16" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="P16" t="n">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2695,16 +2695,16 @@
         <v>1.04</v>
       </c>
       <c r="G17" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="H17" t="n">
-        <v>2.76</v>
+        <v>2.58</v>
       </c>
       <c r="I17" t="n">
         <v>1000</v>
       </c>
       <c r="J17" t="n">
-        <v>2.76</v>
+        <v>2.58</v>
       </c>
       <c r="K17" t="n">
         <v>1000</v>
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.85</v>
+        <v>3.2</v>
       </c>
       <c r="G18" t="n">
-        <v>5.3</v>
+        <v>1000</v>
       </c>
       <c r="H18" t="n">
-        <v>1.99</v>
+        <v>1.4</v>
       </c>
       <c r="I18" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="J18" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="K18" t="n">
         <v>3.5</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2869,10 +2869,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="U18" t="n">
-        <v>1.73</v>
+        <v>1.01</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2881,37 +2881,37 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
@@ -2998,16 +2998,16 @@
         <v>2.34</v>
       </c>
       <c r="R19" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S19" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T19" t="n">
         <v>1.99</v>
       </c>
       <c r="U19" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3016,55 +3016,55 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
         <v>7.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH19" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="G20" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="H20" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="J20" t="n">
         <v>3.7</v>
@@ -3121,28 +3121,28 @@
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O20" t="n">
         <v>1.28</v>
       </c>
       <c r="P20" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.81</v>
+        <v>1.28</v>
       </c>
       <c r="R20" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="S20" t="n">
-        <v>3</v>
+        <v>2.66</v>
       </c>
       <c r="T20" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="U20" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3151,58 +3151,58 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD20" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -3268,13 +3268,13 @@
         <v>1.6</v>
       </c>
       <c r="R21" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="S21" t="n">
         <v>2.5</v>
       </c>
       <c r="T21" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="U21" t="n">
         <v>2.58</v>
@@ -3286,31 +3286,31 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y21" t="n">
         <v>20</v>
       </c>
       <c r="Z21" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AA21" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
         <v>12.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD21" t="n">
         <v>17</v>
       </c>
       <c r="AE21" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AF21" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG21" t="n">
         <v>10</v>
@@ -3319,10 +3319,10 @@
         <v>16</v>
       </c>
       <c r="AI21" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK21" t="n">
         <v>17</v>
@@ -3334,10 +3334,10 @@
         <v>55</v>
       </c>
       <c r="AN21" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AO21" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22">
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="G22" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="H22" t="n">
         <v>2.84</v>
       </c>
       <c r="I22" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J22" t="n">
         <v>3.5</v>
@@ -3391,28 +3391,28 @@
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="O22" t="n">
         <v>1.35</v>
       </c>
       <c r="P22" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R22" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S22" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T22" t="n">
         <v>1.82</v>
       </c>
       <c r="U22" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -3430,7 +3430,7 @@
         <v>18.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB22" t="n">
         <v>11</v>
@@ -3442,7 +3442,7 @@
         <v>13</v>
       </c>
       <c r="AE22" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF22" t="n">
         <v>17.5</v>
@@ -3451,28 +3451,28 @@
         <v>12.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AJ22" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AK22" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL22" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AM22" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN22" t="n">
         <v>28</v>
       </c>
       <c r="AO22" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="G23" t="n">
         <v>1.22</v>
       </c>
       <c r="H23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J23" t="n">
         <v>7.2</v>
       </c>
       <c r="K23" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="G2" t="n">
-        <v>2.24</v>
+        <v>2.08</v>
       </c>
       <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T2" t="n">
         <v>1.8</v>
       </c>
-      <c r="I2" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>2.26</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>2.58</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>3.55</v>
       </c>
       <c r="J3" t="n">
-        <v>1.03</v>
+        <v>3.05</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.25</v>
+        <v>1.76</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.34</v>
+        <v>1.77</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="G4" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="H4" t="n">
-        <v>2.92</v>
+        <v>8.4</v>
       </c>
       <c r="I4" t="n">
+        <v>12</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="X4" t="n">
         <v>1000</v>
       </c>
-      <c r="J4" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="Y4" t="n">
         <v>1000</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1084,100 +1084,100 @@
         <v>14.5</v>
       </c>
       <c r="J5" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="K5" t="n">
         <v>7.2</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P5" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1210,13 +1210,13 @@
         <v>2.42</v>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="H6" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J6" t="n">
         <v>3.2</v>
@@ -1225,40 +1225,40 @@
         <v>3.3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O6" t="n">
         <v>1.42</v>
       </c>
       <c r="P6" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S6" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="T6" t="n">
         <v>1.91</v>
       </c>
       <c r="U6" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="V6" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="W6" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="X6" t="n">
         <v>11</v>
@@ -1267,13 +1267,13 @@
         <v>12</v>
       </c>
       <c r="Z6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA6" t="n">
         <v>65</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC6" t="n">
         <v>7.2</v>
@@ -1282,7 +1282,7 @@
         <v>14.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AF6" t="n">
         <v>15</v>
@@ -1345,10 +1345,10 @@
         <v>1.42</v>
       </c>
       <c r="G7" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="I7" t="n">
         <v>9.4</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="G8" t="n">
-        <v>1.59</v>
+        <v>1.47</v>
       </c>
       <c r="H8" t="n">
-        <v>2.7</v>
+        <v>1.18</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="J8" t="n">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1501,16 +1501,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="O8" t="n">
         <v>1.21</v>
       </c>
       <c r="P8" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="G9" t="n">
         <v>5.5</v>
       </c>
       <c r="H9" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="I9" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="J9" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K9" t="n">
         <v>3.95</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.04</v>
+        <v>1.15</v>
       </c>
       <c r="G10" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.04</v>
+        <v>1.33</v>
       </c>
       <c r="I10" t="n">
-        <v>1000</v>
+        <v>1.44</v>
       </c>
       <c r="J10" t="n">
-        <v>1.01</v>
+        <v>4.8</v>
       </c>
       <c r="K10" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>2.48</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="G11" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="H11" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="J11" t="n">
         <v>4.1</v>
       </c>
       <c r="K11" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -2155,19 +2155,19 @@
         <v>3.4</v>
       </c>
       <c r="G13" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="H13" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="I13" t="n">
         <v>2.6</v>
       </c>
       <c r="J13" t="n">
-        <v>2.7</v>
+        <v>2.96</v>
       </c>
       <c r="K13" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2176,10 +2176,10 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.42</v>
+        <v>2.64</v>
       </c>
       <c r="O13" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="P13" t="n">
         <v>1.55</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="G14" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="H14" t="n">
-        <v>2.16</v>
+        <v>4.1</v>
       </c>
       <c r="I14" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J14" t="n">
-        <v>2.16</v>
+        <v>3.05</v>
       </c>
       <c r="K14" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2314,13 +2314,13 @@
         <v>1.87</v>
       </c>
       <c r="O14" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="P14" t="n">
         <v>1.87</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.69</v>
+        <v>4.2</v>
       </c>
       <c r="G15" t="n">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
       <c r="H15" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="I15" t="n">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="J15" t="n">
-        <v>1.69</v>
+        <v>3.15</v>
       </c>
       <c r="K15" t="n">
-        <v>1000</v>
+        <v>3.75</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2446,16 +2446,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1.48</v>
+        <v>2.72</v>
       </c>
       <c r="O15" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="P15" t="n">
-        <v>1.47</v>
+        <v>1.59</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.16</v>
+        <v>2.42</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="G16" t="n">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="H16" t="n">
-        <v>2.64</v>
+        <v>1.21</v>
       </c>
       <c r="I16" t="n">
         <v>1000</v>
       </c>
       <c r="J16" t="n">
-        <v>2.64</v>
+        <v>3.8</v>
       </c>
       <c r="K16" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2581,16 +2581,16 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.61</v>
+        <v>2.8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="P16" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.04</v>
+        <v>1.44</v>
       </c>
       <c r="G17" t="n">
-        <v>1.63</v>
+        <v>1.51</v>
       </c>
       <c r="H17" t="n">
-        <v>2.58</v>
+        <v>7.8</v>
       </c>
       <c r="I17" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="J17" t="n">
-        <v>2.58</v>
+        <v>4.7</v>
       </c>
       <c r="K17" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="G18" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="H18" t="n">
-        <v>1.4</v>
+        <v>2.04</v>
       </c>
       <c r="I18" t="n">
-        <v>2.46</v>
+        <v>2.28</v>
       </c>
       <c r="J18" t="n">
-        <v>2.94</v>
+        <v>3.1</v>
       </c>
       <c r="K18" t="n">
         <v>3.5</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2869,10 +2869,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="U18" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2881,43 +2881,43 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AF18" t="n">
         <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK18" t="n">
         <v>1000</v>
@@ -2926,13 +2926,13 @@
         <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN18" t="n">
         <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
@@ -2986,10 +2986,10 @@
         <v>1.1</v>
       </c>
       <c r="N19" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O19" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P19" t="n">
         <v>1.71</v>
@@ -2998,16 +2998,16 @@
         <v>2.34</v>
       </c>
       <c r="R19" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S19" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T19" t="n">
         <v>1.99</v>
       </c>
       <c r="U19" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3016,58 +3016,58 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC19" t="n">
         <v>7.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G20" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
         <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="J20" t="n">
         <v>3.7</v>
@@ -3121,28 +3121,28 @@
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O20" t="n">
         <v>1.28</v>
       </c>
       <c r="P20" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.28</v>
+        <v>1.73</v>
       </c>
       <c r="R20" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="S20" t="n">
-        <v>2.66</v>
+        <v>3</v>
       </c>
       <c r="T20" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="U20" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3151,58 +3151,58 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC20" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="G21" t="n">
         <v>1.88</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1.89</v>
       </c>
       <c r="H21" t="n">
         <v>4.2</v>
       </c>
       <c r="I21" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J21" t="n">
         <v>4.2</v>
@@ -3262,22 +3262,22 @@
         <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q21" t="n">
         <v>1.6</v>
       </c>
       <c r="R21" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="S21" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="T21" t="n">
         <v>1.59</v>
       </c>
       <c r="U21" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3286,16 +3286,16 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y21" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Z21" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB21" t="n">
         <v>12.5</v>
@@ -3307,10 +3307,10 @@
         <v>17</v>
       </c>
       <c r="AE21" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AF21" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG21" t="n">
         <v>10</v>
@@ -3319,10 +3319,10 @@
         <v>16</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK21" t="n">
         <v>17</v>
@@ -3334,10 +3334,10 @@
         <v>55</v>
       </c>
       <c r="AN21" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AO21" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
@@ -3373,10 +3373,10 @@
         <v>2.74</v>
       </c>
       <c r="H22" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="I22" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J22" t="n">
         <v>3.5</v>
@@ -3391,19 +3391,19 @@
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O22" t="n">
         <v>1.35</v>
       </c>
       <c r="P22" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="Q22" t="n">
         <v>2.04</v>
       </c>
       <c r="R22" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S22" t="n">
         <v>3.7</v>
@@ -3454,7 +3454,7 @@
         <v>18.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ22" t="n">
         <v>42</v>
@@ -3508,7 +3508,7 @@
         <v>1.22</v>
       </c>
       <c r="H23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I23" t="n">
         <v>24</v>
@@ -3535,7 +3535,7 @@
         <v>2.32</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
@@ -712,7 +712,7 @@
         <v>1.8</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V2" t="n">
         <v>1.26</v>
@@ -736,7 +736,7 @@
         <v>9.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD2" t="n">
         <v>18.5</v>
@@ -754,7 +754,7 @@
         <v>20</v>
       </c>
       <c r="AI2" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ2" t="n">
         <v>24</v>
@@ -772,7 +772,7 @@
         <v>15.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G3" t="n">
         <v>2.58</v>
@@ -814,100 +814,100 @@
         <v>3.55</v>
       </c>
       <c r="J3" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
         <v>4.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5</v>
+        <v>1.89</v>
       </c>
       <c r="O3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T3" t="n">
         <v>1.01</v>
       </c>
-      <c r="P3" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,34 +937,34 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="G4" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H4" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="I4" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="J4" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="K4" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.01</v>
+        <v>5.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P4" t="n">
         <v>2.66</v>
@@ -976,19 +976,19 @@
         <v>1.65</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="V4" t="n">
         <v>1.09</v>
       </c>
       <c r="W4" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1096,10 +1096,10 @@
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>2.58</v>
+        <v>5.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P5" t="n">
         <v>2.58</v>
@@ -1108,16 +1108,16 @@
         <v>1.52</v>
       </c>
       <c r="R5" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S5" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.85</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="V5" t="n">
         <v>1.07</v>
@@ -1129,52 +1129,52 @@
         <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>590</v>
       </c>
       <c r="AB5" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AC5" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AD5" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AF5" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AJ5" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,25 +1207,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="G6" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J6" t="n">
         <v>3.2</v>
       </c>
       <c r="K6" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L6" t="n">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="M6" t="n">
         <v>1.09</v>
@@ -1234,10 +1234,10 @@
         <v>3.15</v>
       </c>
       <c r="O6" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q6" t="n">
         <v>2.2</v>
@@ -1249,13 +1249,13 @@
         <v>4.2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="U6" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V6" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W6" t="n">
         <v>1.65</v>
@@ -1264,7 +1264,7 @@
         <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z6" t="n">
         <v>22</v>
@@ -1312,7 +1312,7 @@
         <v>26</v>
       </c>
       <c r="AO6" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -1345,10 +1345,10 @@
         <v>1.42</v>
       </c>
       <c r="G7" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="H7" t="n">
-        <v>4.2</v>
+        <v>5.8</v>
       </c>
       <c r="I7" t="n">
         <v>9.4</v>
@@ -1360,10 +1360,10 @@
         <v>6.8</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
         <v>5</v>
@@ -1378,76 +1378,76 @@
         <v>1.49</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -1480,28 +1480,28 @@
         <v>1.38</v>
       </c>
       <c r="G8" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="H8" t="n">
-        <v>1.18</v>
+        <v>5.7</v>
       </c>
       <c r="I8" t="n">
         <v>12</v>
       </c>
       <c r="J8" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="K8" t="n">
         <v>6.6</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>2.28</v>
+        <v>3.45</v>
       </c>
       <c r="O8" t="n">
         <v>1.21</v>
@@ -1513,76 +1513,76 @@
         <v>1.53</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="G9" t="n">
         <v>5.5</v>
@@ -1621,103 +1621,103 @@
         <v>1.82</v>
       </c>
       <c r="I9" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
         <v>3.95</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P9" t="n">
         <v>1.79</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="10">
@@ -1747,34 +1747,34 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.15</v>
+        <v>3.75</v>
       </c>
       <c r="G10" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="H10" t="n">
         <v>1.33</v>
       </c>
       <c r="I10" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="J10" t="n">
         <v>4.8</v>
       </c>
       <c r="K10" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="P10" t="n">
         <v>2.48</v>
@@ -1783,76 +1783,76 @@
         <v>1.43</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1882,112 +1882,112 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="G11" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="H11" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="I11" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J11" t="n">
         <v>4.1</v>
       </c>
       <c r="K11" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="P11" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="Q11" t="n">
         <v>2.28</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12">
@@ -2035,94 +2035,94 @@
         <v>1000</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="P12" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q12" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="T12" t="n">
         <v>1.01</v>
       </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2155,19 +2155,19 @@
         <v>3.4</v>
       </c>
       <c r="G13" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="H13" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="I13" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="J13" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="K13" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2176,16 +2176,16 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>2.64</v>
+        <v>2.92</v>
       </c>
       <c r="O13" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="P13" t="n">
-        <v>1.55</v>
+        <v>1.66</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.46</v>
+        <v>2.22</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="G14" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="H14" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I14" t="n">
-        <v>9.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="K14" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2314,13 +2314,13 @@
         <v>1.87</v>
       </c>
       <c r="O14" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="P14" t="n">
         <v>1.87</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="G15" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="H15" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="I15" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="J15" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K15" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="G16" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="H16" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="I16" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="J16" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2581,16 +2581,16 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="O16" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P16" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>2.18</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="G18" t="n">
         <v>4.7</v>
       </c>
       <c r="H18" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="I18" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="J18" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K18" t="n">
         <v>3.5</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q18" t="n">
         <v>2.22</v>
@@ -2869,10 +2869,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="U18" t="n">
-        <v>1.73</v>
+        <v>1.86</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2881,40 +2881,40 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Z18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB18" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD18" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AE18" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AG18" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AH18" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ18" t="n">
         <v>120</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y19" t="n">
         <v>12.5</v>
@@ -3025,7 +3025,7 @@
         <v>29</v>
       </c>
       <c r="AA19" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AB19" t="n">
         <v>8.4</v>
@@ -3052,7 +3052,7 @@
         <v>75</v>
       </c>
       <c r="AJ19" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK19" t="n">
         <v>28</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="G20" t="n">
         <v>2</v>
@@ -3127,10 +3127,10 @@
         <v>1.28</v>
       </c>
       <c r="P20" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="R20" t="n">
         <v>1.41</v>
@@ -3169,7 +3169,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE20" t="n">
         <v>55</v>
@@ -3178,7 +3178,7 @@
         <v>13.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH20" t="n">
         <v>21</v>
@@ -3241,7 +3241,7 @@
         <v>4.2</v>
       </c>
       <c r="I21" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J21" t="n">
         <v>4.2</v>
@@ -3262,10 +3262,10 @@
         <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R21" t="n">
         <v>1.64</v>
@@ -3277,7 +3277,7 @@
         <v>1.59</v>
       </c>
       <c r="U21" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3286,16 +3286,16 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Z21" t="n">
         <v>36</v>
       </c>
       <c r="AA21" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AB21" t="n">
         <v>12.5</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="G23" t="n">
         <v>1.22</v>
       </c>
       <c r="H23" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="I23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J23" t="n">
         <v>7.2</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="G2" t="n">
         <v>2.08</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J2" t="n">
         <v>3.45</v>
@@ -685,25 +685,25 @@
         <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O2" t="n">
         <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S2" t="n">
         <v>3.4</v>
@@ -715,7 +715,7 @@
         <v>2.02</v>
       </c>
       <c r="V2" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W2" t="n">
         <v>1.92</v>
@@ -730,13 +730,13 @@
         <v>34</v>
       </c>
       <c r="AA2" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB2" t="n">
         <v>9.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
         <v>18.5</v>
@@ -754,7 +754,7 @@
         <v>20</v>
       </c>
       <c r="AI2" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ2" t="n">
         <v>24</v>
@@ -772,7 +772,7 @@
         <v>15.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -805,61 +805,61 @@
         <v>2.28</v>
       </c>
       <c r="G3" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I3" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>1.89</v>
+        <v>3.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P3" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="S3" t="n">
-        <v>1.9</v>
+        <v>3.45</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="V3" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="W3" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -868,13 +868,13 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -883,10 +883,10 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="G4" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H4" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J4" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="K4" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="L4" t="n">
         <v>1.21</v>
@@ -961,34 +961,34 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O4" t="n">
         <v>1.16</v>
       </c>
       <c r="P4" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="R4" t="n">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="S4" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="T4" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="U4" t="n">
-        <v>1.87</v>
+        <v>2.04</v>
       </c>
       <c r="V4" t="n">
         <v>1.09</v>
       </c>
       <c r="W4" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="G5" t="n">
         <v>1.3</v>
@@ -1096,19 +1096,19 @@
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O5" t="n">
         <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="Q5" t="n">
         <v>1.52</v>
       </c>
       <c r="R5" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="S5" t="n">
         <v>2.22</v>
@@ -1117,7 +1117,7 @@
         <v>1.85</v>
       </c>
       <c r="U5" t="n">
-        <v>1.69</v>
+        <v>1.84</v>
       </c>
       <c r="V5" t="n">
         <v>1.07</v>
@@ -1129,7 +1129,7 @@
         <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Z5" t="n">
         <v>150</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="G6" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J6" t="n">
         <v>3.2</v>
@@ -1231,34 +1231,34 @@
         <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O6" t="n">
         <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R6" t="n">
         <v>1.27</v>
       </c>
       <c r="S6" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="U6" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V6" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W6" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X6" t="n">
         <v>11</v>
@@ -1273,7 +1273,7 @@
         <v>65</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC6" t="n">
         <v>7.2</v>
@@ -1360,7 +1360,7 @@
         <v>6.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
@@ -1390,7 +1390,7 @@
         <v>1.98</v>
       </c>
       <c r="V7" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W7" t="n">
         <v>2.82</v>
@@ -1480,16 +1480,16 @@
         <v>1.38</v>
       </c>
       <c r="G8" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="H8" t="n">
-        <v>5.7</v>
+        <v>7.2</v>
       </c>
       <c r="I8" t="n">
         <v>12</v>
       </c>
       <c r="J8" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="K8" t="n">
         <v>6.6</v>
@@ -1501,7 +1501,7 @@
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>3.45</v>
+        <v>4.7</v>
       </c>
       <c r="O8" t="n">
         <v>1.21</v>
@@ -1510,31 +1510,31 @@
         <v>2.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R8" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="S8" t="n">
-        <v>2.32</v>
+        <v>2.16</v>
       </c>
       <c r="T8" t="n">
-        <v>1.89</v>
+        <v>1.76</v>
       </c>
       <c r="U8" t="n">
-        <v>1.91</v>
+        <v>1.77</v>
       </c>
       <c r="V8" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W8" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="X8" t="n">
         <v>28</v>
       </c>
       <c r="Y8" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Z8" t="n">
         <v>100</v>
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="G9" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="H9" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="I9" t="n">
         <v>1.92</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K9" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O9" t="n">
         <v>1.34</v>
@@ -1651,7 +1651,7 @@
         <v>1.3</v>
       </c>
       <c r="S9" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="T9" t="n">
         <v>1.76</v>
@@ -1663,49 +1663,49 @@
         <v>2.08</v>
       </c>
       <c r="W9" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X9" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB9" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AC9" t="n">
         <v>10</v>
       </c>
       <c r="AD9" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
         <v>26</v>
       </c>
       <c r="AF9" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH9" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
         <v>55</v>
       </c>
       <c r="AJ9" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AK9" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AL9" t="n">
         <v>95</v>
@@ -1714,10 +1714,10 @@
         <v>160</v>
       </c>
       <c r="AN9" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AO9" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="10">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.75</v>
+        <v>7.6</v>
       </c>
       <c r="G10" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="H10" t="n">
         <v>1.33</v>
@@ -1771,28 +1771,28 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>2.48</v>
+        <v>5.7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P10" t="n">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="R10" t="n">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="S10" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>1.85</v>
       </c>
       <c r="V10" t="n">
         <v>3.25</v>
@@ -1801,40 +1801,40 @@
         <v>1.1</v>
       </c>
       <c r="X10" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="Y10" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Z10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA10" t="n">
         <v>14.5</v>
       </c>
-      <c r="AA10" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AB10" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AC10" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AD10" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
         <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH10" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AI10" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AJ10" t="n">
         <v>1000</v>
@@ -1852,7 +1852,7 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="11">
@@ -1888,7 +1888,7 @@
         <v>1.57</v>
       </c>
       <c r="H11" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="I11" t="n">
         <v>9.199999999999999</v>
@@ -1903,25 +1903,25 @@
         <v>1.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>2.78</v>
+        <v>2.96</v>
       </c>
       <c r="O11" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="R11" t="n">
         <v>1.24</v>
       </c>
       <c r="S11" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="T11" t="n">
         <v>2.38</v>
@@ -2029,7 +2029,7 @@
         <v>1000</v>
       </c>
       <c r="J12" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K12" t="n">
         <v>1000</v>
@@ -2041,19 +2041,19 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="O12" t="n">
         <v>1.07</v>
       </c>
       <c r="P12" t="n">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="Q12" t="n">
         <v>1.07</v>
       </c>
       <c r="R12" t="n">
-        <v>1.1</v>
+        <v>1.55</v>
       </c>
       <c r="S12" t="n">
         <v>1.07</v>
@@ -2065,10 +2065,10 @@
         <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="W12" t="n">
-        <v>2.22</v>
+        <v>1.01</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2161,7 +2161,7 @@
         <v>2.26</v>
       </c>
       <c r="I13" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="J13" t="n">
         <v>3.05</v>
@@ -2170,94 +2170,94 @@
         <v>3.8</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="O13" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P13" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="G14" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="H14" t="n">
-        <v>4.2</v>
+        <v>5.9</v>
       </c>
       <c r="I14" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K14" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2311,16 +2311,16 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1.87</v>
+        <v>3.4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
         <v>1.87</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2422,112 +2422,112 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="H15" t="n">
         <v>2.04</v>
       </c>
       <c r="I15" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="J15" t="n">
         <v>3.05</v>
       </c>
       <c r="K15" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="O15" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P15" t="n">
         <v>1.59</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -2563,10 +2563,10 @@
         <v>1.55</v>
       </c>
       <c r="H16" t="n">
-        <v>1.22</v>
+        <v>7.6</v>
       </c>
       <c r="I16" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="J16" t="n">
         <v>3.6</v>
@@ -2575,94 +2575,94 @@
         <v>5.4</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>2.72</v>
+        <v>3.05</v>
       </c>
       <c r="O16" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P16" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.99</v>
+        <v>2.12</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="G17" t="n">
         <v>1.51</v>
@@ -2701,103 +2701,103 @@
         <v>7.8</v>
       </c>
       <c r="I17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J17" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K17" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P17" t="n">
         <v>2.18</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="G18" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="H18" t="n">
         <v>2.02</v>
       </c>
       <c r="I18" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="J18" t="n">
         <v>3.15</v>
@@ -2845,43 +2845,43 @@
         <v>3.5</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="P18" t="n">
         <v>1.66</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="T18" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="U18" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="X18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y18" t="n">
         <v>9.4</v>
@@ -2980,7 +2980,7 @@
         <v>3.3</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M19" t="n">
         <v>1.1</v>
@@ -2992,16 +2992,16 @@
         <v>1.43</v>
       </c>
       <c r="P19" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q19" t="n">
         <v>2.34</v>
       </c>
       <c r="R19" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S19" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T19" t="n">
         <v>1.99</v>
@@ -3010,40 +3010,40 @@
         <v>1.96</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="X19" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y19" t="n">
         <v>12.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA19" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB19" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC19" t="n">
         <v>7.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF19" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH19" t="n">
         <v>20</v>
@@ -3052,22 +3052,22 @@
         <v>75</v>
       </c>
       <c r="AJ19" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AK19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL19" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM19" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AN19" t="n">
         <v>23</v>
       </c>
       <c r="AO19" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
@@ -3097,25 +3097,25 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="G20" t="n">
         <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I20" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J20" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K20" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
@@ -3130,7 +3130,7 @@
         <v>2.04</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R20" t="n">
         <v>1.41</v>
@@ -3139,67 +3139,67 @@
         <v>3</v>
       </c>
       <c r="T20" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U20" t="n">
         <v>2.16</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X20" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AA20" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB20" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE20" t="n">
         <v>55</v>
       </c>
       <c r="AF20" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
         <v>12.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI20" t="n">
         <v>60</v>
       </c>
       <c r="AJ20" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AK20" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AL20" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM20" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO20" t="n">
         <v>55</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="G21" t="n">
         <v>1.88</v>
@@ -3250,7 +3250,7 @@
         <v>4.3</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M21" t="n">
         <v>1.04</v>
@@ -3274,19 +3274,19 @@
         <v>2.48</v>
       </c>
       <c r="T21" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U21" t="n">
         <v>2.58</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="X21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y21" t="n">
         <v>20</v>
@@ -3295,7 +3295,7 @@
         <v>36</v>
       </c>
       <c r="AA21" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB21" t="n">
         <v>12.5</v>
@@ -3307,16 +3307,16 @@
         <v>17</v>
       </c>
       <c r="AE21" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF21" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG21" t="n">
         <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI21" t="n">
         <v>42</v>
@@ -3325,7 +3325,7 @@
         <v>22</v>
       </c>
       <c r="AK21" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL21" t="n">
         <v>24</v>
@@ -3334,7 +3334,7 @@
         <v>55</v>
       </c>
       <c r="AN21" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AO21" t="n">
         <v>32</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="G22" t="n">
         <v>2.74</v>
@@ -3385,13 +3385,13 @@
         <v>3.6</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M22" t="n">
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O22" t="n">
         <v>1.35</v>
@@ -3409,19 +3409,19 @@
         <v>3.7</v>
       </c>
       <c r="T22" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U22" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="X22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -3430,49 +3430,49 @@
         <v>18.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB22" t="n">
         <v>11</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF22" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG22" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH22" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI22" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AJ22" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK22" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL22" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM22" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AN22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
@@ -3514,100 +3514,100 @@
         <v>23</v>
       </c>
       <c r="J23" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="K23" t="n">
         <v>8.4</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P23" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="Q23" t="n">
         <v>1.61</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
@@ -685,7 +685,7 @@
         <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -736,10 +736,10 @@
         <v>9.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE2" t="n">
         <v>60</v>
@@ -751,7 +751,7 @@
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI2" t="n">
         <v>65</v>
@@ -805,7 +805,7 @@
         <v>2.28</v>
       </c>
       <c r="G3" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H3" t="n">
         <v>3.15</v>
@@ -820,10 +820,10 @@
         <v>4.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
         <v>3.5</v>
@@ -835,7 +835,7 @@
         <v>1.86</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R3" t="n">
         <v>1.32</v>
@@ -850,10 +850,10 @@
         <v>1.92</v>
       </c>
       <c r="V3" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="W3" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="X3" t="n">
         <v>16.5</v>
@@ -970,13 +970,13 @@
         <v>2.68</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R4" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="S4" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="T4" t="n">
         <v>1.77</v>
@@ -988,7 +988,7 @@
         <v>1.09</v>
       </c>
       <c r="W4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1081,7 +1081,7 @@
         <v>12.5</v>
       </c>
       <c r="I5" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="J5" t="n">
         <v>6.8</v>
@@ -1096,28 +1096,28 @@
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O5" t="n">
         <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="Q5" t="n">
         <v>1.52</v>
       </c>
       <c r="R5" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S5" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="T5" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.85</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.84</v>
       </c>
       <c r="V5" t="n">
         <v>1.07</v>
@@ -1141,7 +1141,7 @@
         <v>11</v>
       </c>
       <c r="AC5" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AD5" t="n">
         <v>48</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J6" t="n">
         <v>3.2</v>
@@ -1225,13 +1225,13 @@
         <v>3.35</v>
       </c>
       <c r="L6" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M6" t="n">
         <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O6" t="n">
         <v>1.4</v>
@@ -1255,10 +1255,10 @@
         <v>1.99</v>
       </c>
       <c r="V6" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W6" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="X6" t="n">
         <v>11</v>
@@ -1309,10 +1309,10 @@
         <v>120</v>
       </c>
       <c r="AN6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO6" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
@@ -1393,7 +1393,7 @@
         <v>1.12</v>
       </c>
       <c r="W7" t="n">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="X7" t="n">
         <v>36</v>
@@ -1510,13 +1510,13 @@
         <v>2.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="R8" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S8" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="T8" t="n">
         <v>1.76</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="G9" t="n">
         <v>5.7</v>
@@ -1915,7 +1915,7 @@
         <v>1.67</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="R11" t="n">
         <v>1.24</v>
@@ -2206,7 +2206,7 @@
         <v>1.33</v>
       </c>
       <c r="X13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y13" t="n">
         <v>8.6</v>
@@ -2290,7 +2290,7 @@
         <v>1.57</v>
       </c>
       <c r="G14" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="H14" t="n">
         <v>5.9</v>
@@ -2299,10 +2299,10 @@
         <v>7.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="K14" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="G15" t="n">
         <v>4.8</v>
       </c>
       <c r="H15" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I15" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="J15" t="n">
         <v>3.05</v>
@@ -2461,16 +2461,16 @@
         <v>1.21</v>
       </c>
       <c r="S15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="T15" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U15" t="n">
-        <v>1.81</v>
+        <v>1.68</v>
       </c>
       <c r="V15" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="W15" t="n">
         <v>1.26</v>
@@ -2578,7 +2578,7 @@
         <v>1.38</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
         <v>3.05</v>
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G18" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="H18" t="n">
         <v>2.02</v>
       </c>
       <c r="I18" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="J18" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K18" t="n">
         <v>3.5</v>
@@ -2857,28 +2857,28 @@
         <v>1.41</v>
       </c>
       <c r="P18" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q18" t="n">
         <v>2.2</v>
       </c>
       <c r="R18" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="S18" t="n">
         <v>3.6</v>
       </c>
       <c r="T18" t="n">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="U18" t="n">
-        <v>1.73</v>
+        <v>1.86</v>
       </c>
       <c r="V18" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="W18" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="X18" t="n">
         <v>12</v>
@@ -2890,10 +2890,10 @@
         <v>15</v>
       </c>
       <c r="AA18" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB18" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC18" t="n">
         <v>9.199999999999999</v>
@@ -2917,7 +2917,7 @@
         <v>60</v>
       </c>
       <c r="AJ18" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AK18" t="n">
         <v>1000</v>
@@ -2932,7 +2932,7 @@
         <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H20" t="n">
         <v>4.2</v>
@@ -3109,10 +3109,10 @@
         <v>4.7</v>
       </c>
       <c r="J20" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K20" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L20" t="n">
         <v>1.37</v>
@@ -3145,10 +3145,10 @@
         <v>2.16</v>
       </c>
       <c r="V20" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W20" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X20" t="n">
         <v>17.5</v>
@@ -3169,7 +3169,7 @@
         <v>9</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="AE20" t="n">
         <v>55</v>
@@ -3181,7 +3181,7 @@
         <v>12.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AI20" t="n">
         <v>60</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="G21" t="n">
         <v>1.88</v>
@@ -3244,10 +3244,10 @@
         <v>4.3</v>
       </c>
       <c r="J21" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K21" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L21" t="n">
         <v>1.29</v>
@@ -3412,7 +3412,7 @@
         <v>1.81</v>
       </c>
       <c r="U22" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V22" t="n">
         <v>1.53</v>
@@ -3430,7 +3430,7 @@
         <v>18.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AB22" t="n">
         <v>11</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="G23" t="n">
         <v>1.22</v>
       </c>
       <c r="H23" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="I23" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J23" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="K23" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L23" t="n">
         <v>1.3</v>
@@ -3529,7 +3529,7 @@
         <v>5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P23" t="n">
         <v>2.36</v>
@@ -3541,16 +3541,16 @@
         <v>1.55</v>
       </c>
       <c r="S23" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="T23" t="n">
         <v>2.44</v>
       </c>
-      <c r="T23" t="n">
-        <v>2.24</v>
-      </c>
       <c r="U23" t="n">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="V23" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="W23" t="n">
         <v>5.5</v>
@@ -3559,10 +3559,10 @@
         <v>32</v>
       </c>
       <c r="Y23" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Z23" t="n">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="AA23" t="n">
         <v>1000</v>
@@ -3574,22 +3574,22 @@
         <v>19</v>
       </c>
       <c r="AD23" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AE23" t="n">
-        <v>560</v>
+        <v>470</v>
       </c>
       <c r="AF23" t="n">
         <v>7.4</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AI23" t="n">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="AJ23" t="n">
         <v>8.6</v>
@@ -3598,10 +3598,10 @@
         <v>16</v>
       </c>
       <c r="AL23" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM23" t="n">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="AN23" t="n">
         <v>4.3</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
@@ -685,7 +685,7 @@
         <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -736,7 +736,7 @@
         <v>9.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
         <v>18</v>
@@ -811,7 +811,7 @@
         <v>3.15</v>
       </c>
       <c r="I3" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="J3" t="n">
         <v>3.25</v>
@@ -826,7 +826,7 @@
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O3" t="n">
         <v>1.32</v>
@@ -850,10 +850,10 @@
         <v>1.92</v>
       </c>
       <c r="V3" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="W3" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="X3" t="n">
         <v>16.5</v>
@@ -940,7 +940,7 @@
         <v>1.35</v>
       </c>
       <c r="G4" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="H4" t="n">
         <v>8.199999999999999</v>
@@ -973,10 +973,10 @@
         <v>1.48</v>
       </c>
       <c r="R4" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S4" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="T4" t="n">
         <v>1.77</v>
@@ -991,10 +991,10 @@
         <v>3.2</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,43 +1003,43 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1141,7 +1141,7 @@
         <v>11</v>
       </c>
       <c r="AC5" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AD5" t="n">
         <v>48</v>
@@ -1231,13 +1231,13 @@
         <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O6" t="n">
         <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q6" t="n">
         <v>2.22</v>
@@ -1393,7 +1393,7 @@
         <v>1.12</v>
       </c>
       <c r="W7" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="X7" t="n">
         <v>36</v>
@@ -1408,10 +1408,10 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AC7" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AD7" t="n">
         <v>34</v>
@@ -1423,7 +1423,7 @@
         <v>13.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AH7" t="n">
         <v>26</v>
@@ -1432,10 +1432,10 @@
         <v>90</v>
       </c>
       <c r="AJ7" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AK7" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AL7" t="n">
         <v>34</v>
@@ -1492,7 +1492,7 @@
         <v>4.4</v>
       </c>
       <c r="K8" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L8" t="n">
         <v>1.25</v>
@@ -1507,16 +1507,16 @@
         <v>1.21</v>
       </c>
       <c r="P8" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="Q8" t="n">
         <v>1.56</v>
       </c>
       <c r="R8" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="S8" t="n">
-        <v>2.2</v>
+        <v>2.56</v>
       </c>
       <c r="T8" t="n">
         <v>1.76</v>
@@ -1804,25 +1804,25 @@
         <v>36</v>
       </c>
       <c r="Y10" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="Z10" t="n">
         <v>12</v>
       </c>
       <c r="AA10" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AB10" t="n">
         <v>46</v>
       </c>
       <c r="AC10" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AD10" t="n">
         <v>13.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AF10" t="n">
         <v>1000</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="G11" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="H11" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="I11" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="J11" t="n">
         <v>4.1</v>
       </c>
       <c r="K11" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L11" t="n">
         <v>1.5</v>
@@ -1906,13 +1906,13 @@
         <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O11" t="n">
         <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q11" t="n">
         <v>2.2</v>
@@ -1930,7 +1930,7 @@
         <v>1.6</v>
       </c>
       <c r="V11" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W11" t="n">
         <v>2.74</v>
@@ -1966,10 +1966,10 @@
         <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AI11" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AJ11" t="n">
         <v>13</v>
@@ -1981,7 +1981,7 @@
         <v>60</v>
       </c>
       <c r="AM11" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AN11" t="n">
         <v>12</v>
@@ -2170,7 +2170,7 @@
         <v>3.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="M13" t="n">
         <v>1.09</v>
@@ -2431,7 +2431,7 @@
         <v>2.06</v>
       </c>
       <c r="I15" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="J15" t="n">
         <v>3.05</v>
@@ -2440,10 +2440,10 @@
         <v>3.85</v>
       </c>
       <c r="L15" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N15" t="n">
         <v>2.76</v>
@@ -2461,16 +2461,16 @@
         <v>1.21</v>
       </c>
       <c r="S15" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T15" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="U15" t="n">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="V15" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="W15" t="n">
         <v>1.26</v>
@@ -2623,10 +2623,10 @@
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>6.6</v>
+        <v>970</v>
       </c>
       <c r="AC16" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AD16" t="n">
         <v>1000</v>
@@ -2635,10 +2635,10 @@
         <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>7.8</v>
+        <v>970</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AH16" t="n">
         <v>36</v>
@@ -2647,7 +2647,7 @@
         <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AK16" t="n">
         <v>20</v>
@@ -2695,7 +2695,7 @@
         <v>1.45</v>
       </c>
       <c r="G17" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="H17" t="n">
         <v>7.8</v>
@@ -2743,7 +2743,7 @@
         <v>1.11</v>
       </c>
       <c r="W17" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2845,34 +2845,34 @@
         <v>3.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M18" t="n">
         <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>1.67</v>
+        <v>2.96</v>
       </c>
       <c r="O18" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P18" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="R18" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S18" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="U18" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="V18" t="n">
         <v>1.84</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G19" t="n">
         <v>2.26</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G20" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I20" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J20" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K20" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L20" t="n">
         <v>1.37</v>
@@ -3127,10 +3127,10 @@
         <v>1.28</v>
       </c>
       <c r="P20" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="R20" t="n">
         <v>1.41</v>
@@ -3145,10 +3145,10 @@
         <v>2.16</v>
       </c>
       <c r="V20" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W20" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X20" t="n">
         <v>17.5</v>
@@ -3169,19 +3169,19 @@
         <v>9</v>
       </c>
       <c r="AD20" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="AE20" t="n">
         <v>55</v>
       </c>
       <c r="AF20" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AG20" t="n">
         <v>12.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AI20" t="n">
         <v>60</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="G21" t="n">
         <v>1.88</v>
@@ -3274,10 +3274,10 @@
         <v>2.48</v>
       </c>
       <c r="T21" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U21" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="V21" t="n">
         <v>1.3</v>
@@ -3313,7 +3313,7 @@
         <v>14</v>
       </c>
       <c r="AG21" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH21" t="n">
         <v>15.5</v>
@@ -3385,7 +3385,7 @@
         <v>3.6</v>
       </c>
       <c r="L22" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M22" t="n">
         <v>1.08</v>
@@ -3508,7 +3508,7 @@
         <v>1.22</v>
       </c>
       <c r="H23" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="I23" t="n">
         <v>20</v>
@@ -3517,7 +3517,7 @@
         <v>7.6</v>
       </c>
       <c r="K23" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="L23" t="n">
         <v>1.3</v>
@@ -3532,13 +3532,13 @@
         <v>1.21</v>
       </c>
       <c r="P23" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q23" t="n">
         <v>1.61</v>
       </c>
       <c r="R23" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S23" t="n">
         <v>2.52</v>
@@ -3598,7 +3598,7 @@
         <v>16</v>
       </c>
       <c r="AL23" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM23" t="n">
         <v>370</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO23"/>
+  <dimension ref="A1:AO24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="G2" t="n">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="I2" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -697,10 +697,10 @@
         <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R2" t="n">
         <v>1.34</v>
@@ -715,22 +715,22 @@
         <v>2.02</v>
       </c>
       <c r="V2" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="W2" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
         <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z2" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AB2" t="n">
         <v>9.4</v>
@@ -739,10 +739,10 @@
         <v>10</v>
       </c>
       <c r="AD2" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF2" t="n">
         <v>13</v>
@@ -754,7 +754,7 @@
         <v>19.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AJ2" t="n">
         <v>24</v>
@@ -772,7 +772,7 @@
         <v>15.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -805,28 +805,28 @@
         <v>2.28</v>
       </c>
       <c r="G3" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="H3" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I3" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="J3" t="n">
         <v>3.25</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.32</v>
@@ -841,7 +841,7 @@
         <v>1.32</v>
       </c>
       <c r="S3" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T3" t="n">
         <v>1.64</v>
@@ -853,10 +853,10 @@
         <v>1.37</v>
       </c>
       <c r="W3" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="X3" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
         <v>15.5</v>
@@ -880,13 +880,13 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AG3" t="n">
         <v>14</v>
       </c>
       <c r="AH3" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="G4" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="H4" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="I4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" t="n">
         <v>5.3</v>
@@ -961,34 +961,34 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P4" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="R4" t="n">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="S4" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="T4" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="U4" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="X4" t="n">
         <v>38</v>
@@ -1003,7 +1003,7 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC4" t="n">
         <v>16.5</v>
@@ -1015,13 +1015,13 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1030,16 +1030,16 @@
         <v>15</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="G5" t="n">
         <v>1.3</v>
@@ -1087,7 +1087,7 @@
         <v>6.8</v>
       </c>
       <c r="K5" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="L5" t="n">
         <v>1.28</v>
@@ -1096,7 +1096,7 @@
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="O5" t="n">
         <v>1.18</v>
@@ -1105,19 +1105,19 @@
         <v>2.64</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="R5" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="S5" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="T5" t="n">
         <v>2.02</v>
       </c>
       <c r="U5" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V5" t="n">
         <v>1.07</v>
@@ -1237,16 +1237,16 @@
         <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R6" t="n">
         <v>1.27</v>
       </c>
       <c r="S6" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T6" t="n">
         <v>1.9</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="G7" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H7" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="I7" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="K7" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L7" t="n">
         <v>1.22</v>
@@ -1369,7 +1369,7 @@
         <v>5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P7" t="n">
         <v>2.6</v>
@@ -1390,16 +1390,16 @@
         <v>1.98</v>
       </c>
       <c r="V7" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="W7" t="n">
-        <v>2.82</v>
+        <v>2.7</v>
       </c>
       <c r="X7" t="n">
         <v>36</v>
       </c>
       <c r="Y7" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Z7" t="n">
         <v>80</v>
@@ -1420,16 +1420,16 @@
         <v>110</v>
       </c>
       <c r="AF7" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AG7" t="n">
         <v>970</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI7" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ7" t="n">
         <v>970</v>
@@ -1444,10 +1444,10 @@
         <v>110</v>
       </c>
       <c r="AN7" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
@@ -1492,10 +1492,10 @@
         <v>4.4</v>
       </c>
       <c r="K8" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1615,28 +1615,28 @@
         <v>4.8</v>
       </c>
       <c r="G9" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="H9" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="I9" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L9" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O9" t="n">
         <v>1.34</v>
@@ -1660,37 +1660,37 @@
         <v>1.78</v>
       </c>
       <c r="V9" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="W9" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X9" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y9" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Z9" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AB9" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC9" t="n">
         <v>10</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AE9" t="n">
         <v>26</v>
       </c>
       <c r="AF9" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG9" t="n">
         <v>25</v>
@@ -1702,10 +1702,10 @@
         <v>55</v>
       </c>
       <c r="AJ9" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AK9" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AL9" t="n">
         <v>95</v>
@@ -1714,7 +1714,7 @@
         <v>160</v>
       </c>
       <c r="AN9" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AO9" t="n">
         <v>16.5</v>
@@ -1765,7 +1765,7 @@
         <v>7.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="M10" t="n">
         <v>1.01</v>
@@ -1777,16 +1777,16 @@
         <v>1.16</v>
       </c>
       <c r="P10" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="Q10" t="n">
         <v>1.42</v>
       </c>
       <c r="R10" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="S10" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="T10" t="n">
         <v>1.79</v>
@@ -1819,7 +1819,7 @@
         <v>970</v>
       </c>
       <c r="AD10" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AE10" t="n">
         <v>970</v>
@@ -1852,7 +1852,7 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="11">
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="G11" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="H11" t="n">
         <v>7.8</v>
       </c>
       <c r="I11" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="J11" t="n">
         <v>4.1</v>
@@ -1906,7 +1906,7 @@
         <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="O11" t="n">
         <v>1.44</v>
@@ -1915,7 +1915,7 @@
         <v>1.68</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R11" t="n">
         <v>1.24</v>
@@ -1957,7 +1957,7 @@
         <v>36</v>
       </c>
       <c r="AE11" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AF11" t="n">
         <v>7.4</v>
@@ -1981,7 +1981,7 @@
         <v>60</v>
       </c>
       <c r="AM11" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AN11" t="n">
         <v>12</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,118 +2143,118 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>CD Castellon</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Ravenna</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.4</v>
+        <v>1.45</v>
       </c>
       <c r="G13" t="n">
-        <v>3.95</v>
+        <v>1.51</v>
       </c>
       <c r="H13" t="n">
-        <v>2.26</v>
+        <v>7.8</v>
       </c>
       <c r="I13" t="n">
-        <v>2.52</v>
+        <v>9</v>
       </c>
       <c r="J13" t="n">
-        <v>3.05</v>
+        <v>4.6</v>
       </c>
       <c r="K13" t="n">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.51</v>
+        <v>1.33</v>
       </c>
       <c r="M13" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>2.82</v>
+        <v>4.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="P13" t="n">
-        <v>1.63</v>
+        <v>2.18</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.28</v>
+        <v>1.69</v>
       </c>
       <c r="R13" t="n">
-        <v>1.22</v>
+        <v>1.47</v>
       </c>
       <c r="S13" t="n">
-        <v>4.4</v>
+        <v>2.74</v>
       </c>
       <c r="T13" t="n">
         <v>1.94</v>
       </c>
       <c r="U13" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="V13" t="n">
-        <v>1.65</v>
+        <v>1.12</v>
       </c>
       <c r="W13" t="n">
-        <v>1.33</v>
+        <v>2.96</v>
       </c>
       <c r="X13" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>320</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC13" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y13" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>36</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7.8</v>
-      </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="AF13" t="n">
-        <v>27</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK13" t="n">
         <v>16</v>
       </c>
-      <c r="AH13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>55</v>
-      </c>
       <c r="AL13" t="n">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>S.S.D. Casarano Calcio</t>
+          <t>ASD Pineto Calcio</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="G14" t="n">
-        <v>1.78</v>
+        <v>1.55</v>
       </c>
       <c r="H14" t="n">
-        <v>5.9</v>
+        <v>7.6</v>
       </c>
       <c r="I14" t="n">
-        <v>7.4</v>
+        <v>12.5</v>
       </c>
       <c r="J14" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K14" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="P14" t="n">
-        <v>1.87</v>
+        <v>1.71</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.9</v>
+        <v>2.12</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2413,82 +2413,82 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Foggia</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Monopoli</t>
+          <t>Ravenna</t>
         </is>
       </c>
       <c r="F15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G15" t="n">
         <v>3.95</v>
       </c>
-      <c r="G15" t="n">
-        <v>4.8</v>
-      </c>
       <c r="H15" t="n">
-        <v>2.06</v>
+        <v>2.26</v>
       </c>
       <c r="I15" t="n">
-        <v>2.34</v>
+        <v>2.52</v>
       </c>
       <c r="J15" t="n">
         <v>3.05</v>
       </c>
       <c r="K15" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="M15" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>2.76</v>
+        <v>2.94</v>
       </c>
       <c r="O15" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="P15" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="R15" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="S15" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="T15" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="U15" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="V15" t="n">
-        <v>1.77</v>
+        <v>1.66</v>
       </c>
       <c r="W15" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="X15" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Y15" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA15" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AB15" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC15" t="n">
         <v>7.8</v>
@@ -2497,29 +2497,29 @@
         <v>12</v>
       </c>
       <c r="AE15" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AF15" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI15" t="n">
         <v>55</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AK15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL15" t="n">
         <v>70</v>
       </c>
-      <c r="AL15" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM15" t="n">
         <v>1000</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ASD Pineto Calcio</t>
+          <t>S.S.D. Casarano Calcio</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="G16" t="n">
-        <v>1.55</v>
+        <v>1.78</v>
       </c>
       <c r="H16" t="n">
-        <v>7.6</v>
+        <v>5.9</v>
       </c>
       <c r="I16" t="n">
-        <v>12.5</v>
+        <v>7.4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K16" t="n">
-        <v>5.4</v>
+        <v>4.6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="O16" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>1.71</v>
+        <v>1.87</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.12</v>
+        <v>1.9</v>
       </c>
       <c r="R16" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AH16" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,109 +2683,109 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CD Castellon</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Monopoli</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.45</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L17" t="n">
         <v>1.52</v>
       </c>
-      <c r="H17" t="n">
+      <c r="M17" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y17" t="n">
         <v>7.8</v>
       </c>
-      <c r="I17" t="n">
-        <v>10</v>
-      </c>
-      <c r="J17" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K17" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W17" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="X17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>1000</v>
-      </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ17" t="n">
         <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL17" t="n">
         <v>1000</v>
@@ -2797,7 +2797,7 @@
         <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -2839,7 +2839,7 @@
         <v>2.18</v>
       </c>
       <c r="J18" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K18" t="n">
         <v>3.5</v>
@@ -2860,19 +2860,19 @@
         <v>1.66</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="R18" t="n">
         <v>1.24</v>
       </c>
       <c r="S18" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="T18" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U18" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="V18" t="n">
         <v>1.84</v>
@@ -2881,7 +2881,7 @@
         <v>1.29</v>
       </c>
       <c r="X18" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y18" t="n">
         <v>9.4</v>
@@ -2992,13 +2992,13 @@
         <v>1.43</v>
       </c>
       <c r="P19" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q19" t="n">
         <v>2.34</v>
       </c>
       <c r="R19" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S19" t="n">
         <v>4.4</v>
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G20" t="n">
         <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
         <v>4.6</v>
       </c>
       <c r="J20" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K20" t="n">
         <v>3.95</v>
@@ -3127,7 +3127,7 @@
         <v>1.28</v>
       </c>
       <c r="P20" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q20" t="n">
         <v>1.73</v>
@@ -3154,7 +3154,7 @@
         <v>17.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z20" t="n">
         <v>34</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="G21" t="n">
         <v>1.88</v>
@@ -3271,7 +3271,7 @@
         <v>1.64</v>
       </c>
       <c r="S21" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T21" t="n">
         <v>1.61</v>
@@ -3310,7 +3310,7 @@
         <v>42</v>
       </c>
       <c r="AF21" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG21" t="n">
         <v>9.800000000000001</v>
@@ -3508,13 +3508,13 @@
         <v>1.22</v>
       </c>
       <c r="H23" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="I23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J23" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="K23" t="n">
         <v>8.4</v>
@@ -3526,31 +3526,31 @@
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O23" t="n">
         <v>1.21</v>
       </c>
       <c r="P23" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="R23" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="S23" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="T23" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="U23" t="n">
         <v>1.58</v>
       </c>
       <c r="V23" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="W23" t="n">
         <v>5.5</v>
@@ -3559,7 +3559,7 @@
         <v>32</v>
       </c>
       <c r="Y23" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z23" t="n">
         <v>230</v>
@@ -3568,13 +3568,13 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC23" t="n">
         <v>19</v>
       </c>
       <c r="AD23" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AE23" t="n">
         <v>470</v>
@@ -3586,7 +3586,7 @@
         <v>12.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AI23" t="n">
         <v>320</v>
@@ -3608,6 +3608,141 @@
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ecuadorian Serie A</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Emelec</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>El Nacional</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N24" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X24" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>970</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="G2" t="n">
         <v>1.99</v>
@@ -676,7 +676,7 @@
         <v>4.4</v>
       </c>
       <c r="I2" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J2" t="n">
         <v>3.5</v>
@@ -697,7 +697,7 @@
         <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q2" t="n">
         <v>1.94</v>
@@ -730,7 +730,7 @@
         <v>38</v>
       </c>
       <c r="AA2" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB2" t="n">
         <v>9.4</v>
@@ -754,7 +754,7 @@
         <v>19.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AJ2" t="n">
         <v>24</v>
@@ -772,7 +772,7 @@
         <v>15.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -805,13 +805,13 @@
         <v>2.28</v>
       </c>
       <c r="G3" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="H3" t="n">
         <v>3.05</v>
       </c>
       <c r="I3" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J3" t="n">
         <v>3.25</v>
@@ -832,28 +832,28 @@
         <v>1.32</v>
       </c>
       <c r="P3" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="R3" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S3" t="n">
         <v>3.4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="U3" t="n">
         <v>1.92</v>
       </c>
       <c r="V3" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W3" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="X3" t="n">
         <v>17</v>
@@ -874,7 +874,7 @@
         <v>9.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="G4" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="H4" t="n">
         <v>7.8</v>
@@ -952,10 +952,10 @@
         <v>5.3</v>
       </c>
       <c r="K4" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -964,40 +964,40 @@
         <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P4" t="n">
-        <v>2.76</v>
+        <v>2.64</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="R4" t="n">
         <v>1.79</v>
       </c>
       <c r="S4" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T4" t="n">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>1.92</v>
       </c>
       <c r="V4" t="n">
         <v>1.1</v>
       </c>
       <c r="W4" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="X4" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y4" t="n">
         <v>38</v>
       </c>
-      <c r="Y4" t="n">
-        <v>46</v>
-      </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
@@ -1009,7 +1009,7 @@
         <v>16.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1018,7 +1018,7 @@
         <v>11.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH4" t="n">
         <v>28</v>
@@ -1087,7 +1087,7 @@
         <v>6.8</v>
       </c>
       <c r="K5" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="L5" t="n">
         <v>1.28</v>
@@ -1096,7 +1096,7 @@
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="O5" t="n">
         <v>1.18</v>
@@ -1105,16 +1105,16 @@
         <v>2.64</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="R5" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="S5" t="n">
         <v>2.24</v>
       </c>
       <c r="T5" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U5" t="n">
         <v>1.84</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="G6" t="n">
         <v>2.54</v>
@@ -1231,13 +1231,13 @@
         <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O6" t="n">
         <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q6" t="n">
         <v>2.2</v>
@@ -1249,13 +1249,13 @@
         <v>4.2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U6" t="n">
         <v>1.99</v>
       </c>
       <c r="V6" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W6" t="n">
         <v>1.64</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="G7" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H7" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="I7" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J7" t="n">
         <v>4.7</v>
@@ -1366,7 +1366,7 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O7" t="n">
         <v>1.17</v>
@@ -1375,10 +1375,10 @@
         <v>2.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="S7" t="n">
         <v>2.08</v>
@@ -1387,13 +1387,13 @@
         <v>1.6</v>
       </c>
       <c r="U7" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V7" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W7" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="X7" t="n">
         <v>36</v>
@@ -1402,7 +1402,7 @@
         <v>38</v>
       </c>
       <c r="Z7" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
@@ -1417,7 +1417,7 @@
         <v>34</v>
       </c>
       <c r="AE7" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF7" t="n">
         <v>970</v>
@@ -1444,10 +1444,10 @@
         <v>110</v>
       </c>
       <c r="AN7" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AO7" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
@@ -1495,7 +1495,7 @@
         <v>6.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1621,13 +1621,13 @@
         <v>1.81</v>
       </c>
       <c r="I9" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K9" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
         <v>1.42</v>
@@ -1636,7 +1636,7 @@
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O9" t="n">
         <v>1.34</v>
@@ -1660,7 +1660,7 @@
         <v>1.78</v>
       </c>
       <c r="V9" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="W9" t="n">
         <v>1.22</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="G10" t="n">
         <v>12.5</v>
@@ -1759,7 +1759,7 @@
         <v>1.43</v>
       </c>
       <c r="J10" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="K10" t="n">
         <v>7.6</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="G11" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="H11" t="n">
         <v>7.8</v>
       </c>
       <c r="I11" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="J11" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K11" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L11" t="n">
         <v>1.5</v>
@@ -1912,10 +1912,10 @@
         <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="R11" t="n">
         <v>1.24</v>
@@ -1930,10 +1930,10 @@
         <v>1.6</v>
       </c>
       <c r="V11" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W11" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="X11" t="n">
         <v>11.5</v>
@@ -1966,10 +1966,10 @@
         <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI11" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AJ11" t="n">
         <v>13</v>
@@ -1981,7 +1981,7 @@
         <v>60</v>
       </c>
       <c r="AM11" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AN11" t="n">
         <v>12</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="G13" t="n">
         <v>1.51</v>
@@ -2170,7 +2170,7 @@
         <v>5.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2179,19 +2179,19 @@
         <v>4.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
         <v>2.18</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="R13" t="n">
         <v>1.47</v>
       </c>
       <c r="S13" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="T13" t="n">
         <v>1.94</v>
@@ -2440,31 +2440,31 @@
         <v>3.8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="M15" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N15" t="n">
-        <v>2.94</v>
+        <v>2.82</v>
       </c>
       <c r="O15" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P15" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="R15" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T15" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U15" t="n">
         <v>1.89</v>
@@ -2560,16 +2560,16 @@
         <v>1.57</v>
       </c>
       <c r="G16" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="H16" t="n">
         <v>5.9</v>
       </c>
       <c r="I16" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="K16" t="n">
         <v>4.6</v>
@@ -2584,7 +2584,7 @@
         <v>3.45</v>
       </c>
       <c r="O16" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="P16" t="n">
         <v>1.87</v>
@@ -2692,31 +2692,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="G17" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H17" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="I17" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="J17" t="n">
         <v>3.05</v>
       </c>
       <c r="K17" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L17" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M17" t="n">
         <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="O17" t="n">
         <v>1.47</v>
@@ -2731,19 +2731,19 @@
         <v>1.21</v>
       </c>
       <c r="S17" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="T17" t="n">
-        <v>2.04</v>
+        <v>1.86</v>
       </c>
       <c r="U17" t="n">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="V17" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="W17" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X17" t="n">
         <v>10.5</v>
@@ -2836,10 +2836,10 @@
         <v>2.02</v>
       </c>
       <c r="I18" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="J18" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K18" t="n">
         <v>3.5</v>
@@ -2860,22 +2860,22 @@
         <v>1.66</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.22</v>
+        <v>2.06</v>
       </c>
       <c r="R18" t="n">
         <v>1.24</v>
       </c>
       <c r="S18" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U18" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="V18" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="W18" t="n">
         <v>1.29</v>
@@ -2968,7 +2968,7 @@
         <v>2.26</v>
       </c>
       <c r="H19" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
         <v>4.1</v>
@@ -2998,7 +2998,7 @@
         <v>2.34</v>
       </c>
       <c r="R19" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S19" t="n">
         <v>4.4</v>
@@ -3103,13 +3103,13 @@
         <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I20" t="n">
         <v>4.6</v>
       </c>
       <c r="J20" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K20" t="n">
         <v>3.95</v>
@@ -3127,10 +3127,10 @@
         <v>1.28</v>
       </c>
       <c r="P20" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="R20" t="n">
         <v>1.41</v>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="G21" t="n">
         <v>1.87</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1.88</v>
       </c>
       <c r="H21" t="n">
         <v>4.2</v>
@@ -3244,10 +3244,10 @@
         <v>4.3</v>
       </c>
       <c r="J21" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K21" t="n">
         <v>4.3</v>
-      </c>
-      <c r="K21" t="n">
-        <v>4.4</v>
       </c>
       <c r="L21" t="n">
         <v>1.29</v>
@@ -3283,7 +3283,7 @@
         <v>1.3</v>
       </c>
       <c r="W21" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X21" t="n">
         <v>22</v>
@@ -3322,16 +3322,16 @@
         <v>42</v>
       </c>
       <c r="AJ21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK21" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL21" t="n">
         <v>24</v>
       </c>
       <c r="AM21" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN21" t="n">
         <v>8.4</v>
@@ -3373,7 +3373,7 @@
         <v>2.74</v>
       </c>
       <c r="H22" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="I22" t="n">
         <v>2.88</v>
@@ -3508,16 +3508,16 @@
         <v>1.22</v>
       </c>
       <c r="H23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J23" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="K23" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L23" t="n">
         <v>1.3</v>
@@ -3526,7 +3526,7 @@
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O23" t="n">
         <v>1.21</v>
@@ -3535,22 +3535,22 @@
         <v>2.38</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="R23" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U23" t="n">
         <v>1.54</v>
       </c>
-      <c r="S23" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.58</v>
-      </c>
       <c r="V23" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="W23" t="n">
         <v>5.5</v>
@@ -3577,7 +3577,7 @@
         <v>100</v>
       </c>
       <c r="AE23" t="n">
-        <v>470</v>
+        <v>560</v>
       </c>
       <c r="AF23" t="n">
         <v>7.4</v>
@@ -3589,7 +3589,7 @@
         <v>60</v>
       </c>
       <c r="AI23" t="n">
-        <v>320</v>
+        <v>380</v>
       </c>
       <c r="AJ23" t="n">
         <v>8.6</v>
@@ -3598,7 +3598,7 @@
         <v>16</v>
       </c>
       <c r="AL23" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM23" t="n">
         <v>370</v>
@@ -3637,19 +3637,19 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="G24" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="H24" t="n">
         <v>2.12</v>
       </c>
       <c r="I24" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="J24" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K24" t="n">
         <v>4.4</v>
@@ -3685,10 +3685,10 @@
         <v>2.28</v>
       </c>
       <c r="V24" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="W24" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X24" t="n">
         <v>22</v>
@@ -3727,10 +3727,10 @@
         <v>27</v>
       </c>
       <c r="AJ24" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK24" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL24" t="n">
         <v>38</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
@@ -805,13 +805,13 @@
         <v>2.28</v>
       </c>
       <c r="G3" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="H3" t="n">
         <v>3.05</v>
       </c>
       <c r="I3" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J3" t="n">
         <v>3.25</v>
@@ -820,7 +820,7 @@
         <v>4.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -979,10 +979,10 @@
         <v>2.12</v>
       </c>
       <c r="T4" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="U4" t="n">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="V4" t="n">
         <v>1.1</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="G5" t="n">
         <v>1.3</v>
@@ -1102,16 +1102,16 @@
         <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R5" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S5" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="T5" t="n">
         <v>2.04</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="G6" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K6" t="n">
         <v>3.35</v>
@@ -1246,7 +1246,7 @@
         <v>1.27</v>
       </c>
       <c r="S6" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T6" t="n">
         <v>1.89</v>
@@ -1258,7 +1258,7 @@
         <v>1.4</v>
       </c>
       <c r="W6" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="X6" t="n">
         <v>11</v>
@@ -1309,7 +1309,7 @@
         <v>120</v>
       </c>
       <c r="AN6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO6" t="n">
         <v>48</v>
@@ -1351,7 +1351,7 @@
         <v>5.5</v>
       </c>
       <c r="I7" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J7" t="n">
         <v>4.7</v>
@@ -1360,7 +1360,7 @@
         <v>6.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
@@ -1375,13 +1375,13 @@
         <v>2.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R7" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="S7" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T7" t="n">
         <v>1.6</v>
@@ -1396,10 +1396,10 @@
         <v>2.68</v>
       </c>
       <c r="X7" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="Y7" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Z7" t="n">
         <v>75</v>
@@ -1417,7 +1417,7 @@
         <v>34</v>
       </c>
       <c r="AE7" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AF7" t="n">
         <v>970</v>
@@ -1441,7 +1441,7 @@
         <v>34</v>
       </c>
       <c r="AM7" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN7" t="n">
         <v>6.6</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="G8" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="H8" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="J8" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="K8" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L8" t="n">
         <v>1.25</v>
@@ -1507,16 +1507,16 @@
         <v>1.21</v>
       </c>
       <c r="P8" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="R8" t="n">
         <v>1.51</v>
       </c>
       <c r="S8" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="T8" t="n">
         <v>1.76</v>
@@ -1528,10 +1528,10 @@
         <v>1.09</v>
       </c>
       <c r="W8" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="X8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y8" t="n">
         <v>38</v>
@@ -1540,13 +1540,13 @@
         <v>100</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AB8" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC8" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD8" t="n">
         <v>40</v>
@@ -1555,10 +1555,10 @@
         <v>160</v>
       </c>
       <c r="AF8" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
         <v>32</v>
@@ -1567,7 +1567,7 @@
         <v>130</v>
       </c>
       <c r="AJ8" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AK8" t="n">
         <v>18</v>
@@ -1576,10 +1576,10 @@
         <v>42</v>
       </c>
       <c r="AM8" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN8" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AO8" t="n">
         <v>190</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="G9" t="n">
         <v>5.5</v>
@@ -1621,7 +1621,7 @@
         <v>1.81</v>
       </c>
       <c r="I9" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J9" t="n">
         <v>3.45</v>
@@ -1645,7 +1645,7 @@
         <v>1.79</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R9" t="n">
         <v>1.3</v>
@@ -1654,13 +1654,13 @@
         <v>3.6</v>
       </c>
       <c r="T9" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U9" t="n">
         <v>1.78</v>
       </c>
       <c r="V9" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="W9" t="n">
         <v>1.22</v>
@@ -1780,7 +1780,7 @@
         <v>2.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="R10" t="n">
         <v>1.64</v>
@@ -1795,7 +1795,7 @@
         <v>1.85</v>
       </c>
       <c r="V10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="W10" t="n">
         <v>1.1</v>
@@ -1885,13 +1885,13 @@
         <v>1.54</v>
       </c>
       <c r="G11" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="H11" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J11" t="n">
         <v>4.2</v>
@@ -1909,25 +1909,25 @@
         <v>2.96</v>
       </c>
       <c r="O11" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P11" t="n">
         <v>1.67</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R11" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S11" t="n">
         <v>4.5</v>
       </c>
       <c r="T11" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="U11" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="V11" t="n">
         <v>1.12</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="G13" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="H13" t="n">
         <v>7.8</v>
@@ -2167,7 +2167,7 @@
         <v>4.6</v>
       </c>
       <c r="K13" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="L13" t="n">
         <v>1.34</v>
@@ -2191,7 +2191,7 @@
         <v>1.47</v>
       </c>
       <c r="S13" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T13" t="n">
         <v>1.94</v>
@@ -2200,10 +2200,10 @@
         <v>1.92</v>
       </c>
       <c r="V13" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W13" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="X13" t="n">
         <v>20</v>
@@ -2290,7 +2290,7 @@
         <v>1.45</v>
       </c>
       <c r="G14" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="H14" t="n">
         <v>7.6</v>
@@ -2299,13 +2299,13 @@
         <v>12.5</v>
       </c>
       <c r="J14" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K14" t="n">
         <v>5.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
@@ -2320,7 +2320,7 @@
         <v>1.71</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R14" t="n">
         <v>1.26</v>
@@ -2335,10 +2335,10 @@
         <v>1.52</v>
       </c>
       <c r="V14" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W14" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2440,7 +2440,7 @@
         <v>3.8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="M15" t="n">
         <v>1.1</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="G16" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="H16" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I16" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="J16" t="n">
         <v>3.45</v>
       </c>
       <c r="K16" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2581,16 +2581,16 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>3.45</v>
+        <v>2.98</v>
       </c>
       <c r="O16" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="P16" t="n">
-        <v>1.87</v>
+        <v>1.68</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.9</v>
+        <v>2.12</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2695,16 +2695,16 @@
         <v>3.95</v>
       </c>
       <c r="G17" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H17" t="n">
         <v>2.06</v>
       </c>
       <c r="I17" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="J17" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K17" t="n">
         <v>3.85</v>
@@ -2737,10 +2737,10 @@
         <v>1.86</v>
       </c>
       <c r="U17" t="n">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="V17" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="W17" t="n">
         <v>1.27</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G18" t="n">
         <v>4.8</v>
@@ -2851,16 +2851,16 @@
         <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O18" t="n">
         <v>1.42</v>
       </c>
       <c r="P18" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="R18" t="n">
         <v>1.24</v>
@@ -2869,10 +2869,10 @@
         <v>4.2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="U18" t="n">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="V18" t="n">
         <v>1.86</v>
@@ -2881,7 +2881,7 @@
         <v>1.29</v>
       </c>
       <c r="X18" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y18" t="n">
         <v>9.4</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G19" t="n">
         <v>2.26</v>
@@ -2974,7 +2974,7 @@
         <v>4.1</v>
       </c>
       <c r="J19" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K19" t="n">
         <v>3.3</v>
@@ -2992,13 +2992,13 @@
         <v>1.43</v>
       </c>
       <c r="P19" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q19" t="n">
         <v>2.34</v>
       </c>
       <c r="R19" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S19" t="n">
         <v>4.4</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H20" t="n">
         <v>4.1</v>
@@ -3127,10 +3127,10 @@
         <v>1.28</v>
       </c>
       <c r="P20" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="R20" t="n">
         <v>1.41</v>
@@ -3148,7 +3148,7 @@
         <v>1.28</v>
       </c>
       <c r="W20" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X20" t="n">
         <v>17.5</v>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="G21" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H21" t="n">
         <v>4.2</v>
@@ -3283,7 +3283,7 @@
         <v>1.3</v>
       </c>
       <c r="W21" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="X21" t="n">
         <v>22</v>
@@ -3313,7 +3313,7 @@
         <v>13.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
         <v>15.5</v>
@@ -3322,13 +3322,13 @@
         <v>42</v>
       </c>
       <c r="AJ21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK21" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM21" t="n">
         <v>60</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="G22" t="n">
         <v>2.74</v>
@@ -3382,7 +3382,7 @@
         <v>3.5</v>
       </c>
       <c r="K22" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L22" t="n">
         <v>1.42</v>
@@ -3397,7 +3397,7 @@
         <v>1.35</v>
       </c>
       <c r="P22" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q22" t="n">
         <v>2.04</v>
@@ -3637,19 +3637,19 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G24" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="H24" t="n">
-        <v>2.12</v>
+        <v>1.99</v>
       </c>
       <c r="I24" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="J24" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
         <v>4.4</v>
@@ -3658,7 +3658,7 @@
         <v>1.24</v>
       </c>
       <c r="M24" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N24" t="n">
         <v>4.3</v>
@@ -3667,28 +3667,28 @@
         <v>1.2</v>
       </c>
       <c r="P24" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="R24" t="n">
         <v>1.55</v>
       </c>
       <c r="S24" t="n">
-        <v>2.26</v>
+        <v>2.44</v>
       </c>
       <c r="T24" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U24" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="V24" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="W24" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="X24" t="n">
         <v>22</v>
@@ -3712,34 +3712,34 @@
         <v>11</v>
       </c>
       <c r="AE24" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AF24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG24" t="n">
         <v>980</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>15</v>
       </c>
       <c r="AH24" t="n">
         <v>17.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AJ24" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AK24" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AL24" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AO24" t="n">
         <v>970</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
@@ -673,7 +673,7 @@
         <v>1.99</v>
       </c>
       <c r="H2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I2" t="n">
         <v>5.1</v>
@@ -715,7 +715,7 @@
         <v>2.02</v>
       </c>
       <c r="V2" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W2" t="n">
         <v>2</v>
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="G3" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="H3" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
         <v>3.65</v>
@@ -820,7 +820,7 @@
         <v>4.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -832,34 +832,34 @@
         <v>1.32</v>
       </c>
       <c r="P3" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R3" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S3" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T3" t="n">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="U3" t="n">
         <v>1.92</v>
       </c>
       <c r="V3" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W3" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="X3" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -871,7 +871,7 @@
         <v>12.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD3" t="n">
         <v>17</v>
@@ -886,7 +886,7 @@
         <v>14</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -979,10 +979,10 @@
         <v>2.12</v>
       </c>
       <c r="T4" t="n">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="U4" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V4" t="n">
         <v>1.1</v>
@@ -1087,7 +1087,7 @@
         <v>6.8</v>
       </c>
       <c r="K5" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="L5" t="n">
         <v>1.28</v>
@@ -1117,7 +1117,7 @@
         <v>2.04</v>
       </c>
       <c r="U5" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
         <v>1.07</v>
@@ -1210,16 +1210,16 @@
         <v>2.44</v>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
         <v>3.35</v>
@@ -1258,7 +1258,7 @@
         <v>1.4</v>
       </c>
       <c r="W6" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="X6" t="n">
         <v>11</v>
@@ -1309,7 +1309,7 @@
         <v>120</v>
       </c>
       <c r="AN6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO6" t="n">
         <v>48</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="G7" t="n">
         <v>1.6</v>
@@ -1351,13 +1351,13 @@
         <v>5.5</v>
       </c>
       <c r="I7" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="J7" t="n">
         <v>4.7</v>
       </c>
       <c r="K7" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="L7" t="n">
         <v>1.23</v>
@@ -1372,7 +1372,7 @@
         <v>1.17</v>
       </c>
       <c r="P7" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="Q7" t="n">
         <v>1.51</v>
@@ -1390,10 +1390,10 @@
         <v>1.99</v>
       </c>
       <c r="V7" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="W7" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="X7" t="n">
         <v>29</v>
@@ -1402,7 +1402,7 @@
         <v>32</v>
       </c>
       <c r="Z7" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
@@ -1414,7 +1414,7 @@
         <v>970</v>
       </c>
       <c r="AD7" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AE7" t="n">
         <v>95</v>
@@ -1426,10 +1426,10 @@
         <v>970</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ7" t="n">
         <v>970</v>
@@ -1447,7 +1447,7 @@
         <v>6.6</v>
       </c>
       <c r="AO7" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -1516,7 +1516,7 @@
         <v>1.51</v>
       </c>
       <c r="S8" t="n">
-        <v>2.58</v>
+        <v>2.34</v>
       </c>
       <c r="T8" t="n">
         <v>1.76</v>
@@ -1618,13 +1618,13 @@
         <v>5.5</v>
       </c>
       <c r="H9" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="I9" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
         <v>4</v>
@@ -1651,7 +1651,7 @@
         <v>1.3</v>
       </c>
       <c r="S9" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T9" t="n">
         <v>1.77</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="G10" t="n">
+        <v>12</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K10" t="n">
         <v>7.4</v>
-      </c>
-      <c r="G10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="J10" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K10" t="n">
-        <v>7.6</v>
       </c>
       <c r="L10" t="n">
         <v>1.22</v>
@@ -1771,19 +1771,19 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
         <v>2.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="R10" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="S10" t="n">
         <v>2.2</v>
@@ -1795,7 +1795,7 @@
         <v>1.85</v>
       </c>
       <c r="V10" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="W10" t="n">
         <v>1.1</v>
@@ -1834,7 +1834,7 @@
         <v>30</v>
       </c>
       <c r="AI10" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AJ10" t="n">
         <v>1000</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="G11" t="n">
         <v>1.55</v>
@@ -1891,13 +1891,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="J11" t="n">
         <v>4.2</v>
       </c>
       <c r="K11" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L11" t="n">
         <v>1.5</v>
@@ -1906,13 +1906,13 @@
         <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O11" t="n">
         <v>1.45</v>
       </c>
       <c r="P11" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="Q11" t="n">
         <v>2.3</v>
@@ -1924,10 +1924,10 @@
         <v>4.5</v>
       </c>
       <c r="T11" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="U11" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="V11" t="n">
         <v>1.12</v>
@@ -1966,10 +1966,10 @@
         <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AI11" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AJ11" t="n">
         <v>13</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="G14" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="H14" t="n">
         <v>7.6</v>
@@ -2299,10 +2299,10 @@
         <v>12.5</v>
       </c>
       <c r="J14" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K14" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L14" t="n">
         <v>1.39</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="G16" t="n">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="H16" t="n">
         <v>6</v>
@@ -2569,7 +2569,7 @@
         <v>7.6</v>
       </c>
       <c r="J16" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="K16" t="n">
         <v>4.7</v>
@@ -2581,16 +2581,16 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>2.98</v>
+        <v>3.55</v>
       </c>
       <c r="O16" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="P16" t="n">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.12</v>
+        <v>1.89</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2731,10 +2731,10 @@
         <v>1.21</v>
       </c>
       <c r="S17" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="T17" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="U17" t="n">
         <v>1.81</v>
@@ -2869,7 +2869,7 @@
         <v>4.2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.96</v>
+        <v>1.8</v>
       </c>
       <c r="U18" t="n">
         <v>1.88</v>
@@ -2992,13 +2992,13 @@
         <v>1.43</v>
       </c>
       <c r="P19" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="R19" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S19" t="n">
         <v>4.4</v>
@@ -3058,7 +3058,7 @@
         <v>27</v>
       </c>
       <c r="AL19" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM19" t="n">
         <v>140</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="G20" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="H20" t="n">
         <v>4.1</v>
@@ -3109,10 +3109,10 @@
         <v>4.6</v>
       </c>
       <c r="J20" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K20" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L20" t="n">
         <v>1.37</v>
@@ -3127,10 +3127,10 @@
         <v>1.28</v>
       </c>
       <c r="P20" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="R20" t="n">
         <v>1.41</v>
@@ -3145,10 +3145,10 @@
         <v>2.16</v>
       </c>
       <c r="V20" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W20" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X20" t="n">
         <v>17.5</v>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="G21" t="n">
         <v>1.87</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1.88</v>
       </c>
       <c r="H21" t="n">
         <v>4.2</v>
@@ -3262,7 +3262,7 @@
         <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q21" t="n">
         <v>1.61</v>
@@ -3271,19 +3271,19 @@
         <v>1.64</v>
       </c>
       <c r="S21" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="T21" t="n">
         <v>1.61</v>
       </c>
       <c r="U21" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="V21" t="n">
         <v>1.3</v>
       </c>
       <c r="W21" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X21" t="n">
         <v>22</v>
@@ -3313,7 +3313,7 @@
         <v>13.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH21" t="n">
         <v>15.5</v>
@@ -3322,22 +3322,22 @@
         <v>42</v>
       </c>
       <c r="AJ21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK21" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM21" t="n">
         <v>60</v>
       </c>
       <c r="AN21" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO21" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="G22" t="n">
         <v>2.74</v>
@@ -3388,7 +3388,7 @@
         <v>1.42</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
         <v>3.7</v>
@@ -3403,10 +3403,10 @@
         <v>2.04</v>
       </c>
       <c r="R22" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S22" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T22" t="n">
         <v>1.81</v>
@@ -3424,7 +3424,7 @@
         <v>13</v>
       </c>
       <c r="Y22" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z22" t="n">
         <v>18.5</v>
@@ -3463,7 +3463,7 @@
         <v>30</v>
       </c>
       <c r="AL22" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AM22" t="n">
         <v>95</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G23" t="n">
         <v>1.21</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.22</v>
       </c>
       <c r="H23" t="n">
         <v>19</v>
@@ -3514,10 +3514,10 @@
         <v>21</v>
       </c>
       <c r="J23" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="K23" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="L23" t="n">
         <v>1.3</v>
@@ -3526,34 +3526,34 @@
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O23" t="n">
         <v>1.21</v>
       </c>
       <c r="P23" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="R23" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S23" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="T23" t="n">
         <v>2.52</v>
       </c>
       <c r="U23" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="V23" t="n">
         <v>1.05</v>
       </c>
       <c r="W23" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="X23" t="n">
         <v>32</v>
@@ -3562,7 +3562,7 @@
         <v>55</v>
       </c>
       <c r="Z23" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="AA23" t="n">
         <v>1000</v>
@@ -3577,7 +3577,7 @@
         <v>100</v>
       </c>
       <c r="AE23" t="n">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="AF23" t="n">
         <v>7.4</v>
@@ -3589,7 +3589,7 @@
         <v>60</v>
       </c>
       <c r="AI23" t="n">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="AJ23" t="n">
         <v>8.6</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="G24" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H24" t="n">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="I24" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="J24" t="n">
         <v>4</v>
       </c>
       <c r="K24" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="L24" t="n">
         <v>1.24</v>
@@ -3667,7 +3667,7 @@
         <v>1.2</v>
       </c>
       <c r="P24" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q24" t="n">
         <v>1.64</v>
@@ -3679,16 +3679,16 @@
         <v>2.44</v>
       </c>
       <c r="T24" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U24" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V24" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="W24" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X24" t="n">
         <v>22</v>
@@ -3718,7 +3718,7 @@
         <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AH24" t="n">
         <v>17.5</v>
@@ -3730,13 +3730,13 @@
         <v>85</v>
       </c>
       <c r="AK24" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AL24" t="n">
         <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN24" t="n">
         <v>980</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO24"/>
+  <dimension ref="A1:AO26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Farul Constanta</t>
+          <t>Imisli FK</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>UTA Arad</t>
+          <t>Karvan Evlakh</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="G2" t="n">
-        <v>1.99</v>
+        <v>1.76</v>
       </c>
       <c r="H2" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="I2" t="n">
-        <v>5.1</v>
+        <v>7.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="O2" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.94</v>
+        <v>1.71</v>
       </c>
       <c r="R2" t="n">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="S2" t="n">
-        <v>3.4</v>
+        <v>2.58</v>
       </c>
       <c r="T2" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="U2" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>2.26</v>
       </c>
       <c r="X2" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Y2" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="Z2" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AA2" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.4</v>
+        <v>970</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>970</v>
       </c>
       <c r="AD2" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AE2" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AH2" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AI2" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AJ2" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AK2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
         <v>40</v>
       </c>
       <c r="AM2" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AO2" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,117 +788,117 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Neftchi Baku</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>FK Sumqayit</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.32</v>
+        <v>1.93</v>
       </c>
       <c r="G3" t="n">
-        <v>2.66</v>
+        <v>2.18</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="I3" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S3" t="n">
         <v>3.65</v>
       </c>
-      <c r="J3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.45</v>
-      </c>
       <c r="T3" t="n">
-        <v>1.64</v>
+        <v>1.99</v>
       </c>
       <c r="U3" t="n">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="V3" t="n">
-        <v>1.37</v>
+        <v>1.2</v>
       </c>
       <c r="W3" t="n">
-        <v>1.6</v>
+        <v>1.84</v>
       </c>
       <c r="X3" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>12.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF3" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>Farul Constanta</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>UTA Arad</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.37</v>
+        <v>1.84</v>
       </c>
       <c r="G4" t="n">
-        <v>1.46</v>
+        <v>1.99</v>
       </c>
       <c r="H4" t="n">
-        <v>7.8</v>
+        <v>4.4</v>
       </c>
       <c r="I4" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2</v>
+      </c>
+      <c r="X4" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG4" t="n">
         <v>11</v>
       </c>
-      <c r="J4" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="X4" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y4" t="n">
+      <c r="AH4" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL4" t="n">
         <v>38</v>
       </c>
-      <c r="Z4" t="n">
-        <v>100</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.2</v>
+        <v>15.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,118 +1063,118 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.27</v>
+        <v>2.32</v>
       </c>
       <c r="G5" t="n">
-        <v>1.3</v>
+        <v>2.78</v>
       </c>
       <c r="H5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB5" t="n">
         <v>12.5</v>
       </c>
-      <c r="I5" t="n">
+      <c r="AC5" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG5" t="n">
         <v>14</v>
       </c>
-      <c r="J5" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="K5" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N5" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W5" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>150</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>590</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>48</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>240</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AH5" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AI5" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.4</v>
+        <v>27</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CD Nacional Funchal</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.44</v>
+        <v>1.35</v>
       </c>
       <c r="G6" t="n">
-        <v>2.56</v>
+        <v>1.42</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>8.4</v>
       </c>
       <c r="I6" t="n">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>5.4</v>
       </c>
       <c r="K6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W6" t="n">
         <v>3.35</v>
       </c>
-      <c r="L6" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.64</v>
-      </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="Y6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF6" t="n">
         <v>11.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>15</v>
       </c>
       <c r="AG6" t="n">
         <v>11.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="AI6" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL6" t="n">
         <v>36</v>
       </c>
-      <c r="AK6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>48</v>
-      </c>
       <c r="AM6" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>27</v>
+        <v>4.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hapoel Petach Tikva</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.49</v>
+        <v>1.26</v>
       </c>
       <c r="G7" t="n">
-        <v>1.6</v>
+        <v>1.29</v>
       </c>
       <c r="H7" t="n">
-        <v>5.5</v>
+        <v>12.5</v>
       </c>
       <c r="I7" t="n">
-        <v>8.4</v>
+        <v>14</v>
       </c>
       <c r="J7" t="n">
-        <v>4.7</v>
+        <v>6.6</v>
       </c>
       <c r="K7" t="n">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>4.9</v>
+        <v>5.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P7" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="R7" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S7" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="V7" t="n">
-        <v>1.16</v>
+        <v>1.07</v>
       </c>
       <c r="W7" t="n">
-        <v>2.66</v>
+        <v>4.4</v>
       </c>
       <c r="X7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y7" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="Z7" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>590</v>
       </c>
       <c r="AB7" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AC7" t="n">
         <v>970</v>
       </c>
       <c r="AD7" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AE7" t="n">
-        <v>95</v>
+        <v>240</v>
       </c>
       <c r="AF7" t="n">
-        <v>970</v>
+        <v>9</v>
       </c>
       <c r="AG7" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="AI7" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="AJ7" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AM7" t="n">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="AN7" t="n">
-        <v>6.6</v>
+        <v>4.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>CD Nacional Funchal</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Bnei Sakhnin</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.39</v>
+        <v>2.44</v>
       </c>
       <c r="G8" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L8" t="n">
         <v>1.48</v>
       </c>
-      <c r="H8" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="M8" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y8" t="n">
         <v>11.5</v>
       </c>
-      <c r="J8" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K8" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N8" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W8" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN8" t="n">
         <v>27</v>
       </c>
-      <c r="Y8" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>100</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>350</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>160</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>7</v>
-      </c>
       <c r="AO8" t="n">
-        <v>190</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Hapoel Petach Tikva</t>
         </is>
       </c>
       <c r="F9" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J9" t="n">
         <v>4.7</v>
       </c>
-      <c r="G9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.5</v>
-      </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.42</v>
+        <v>1.23</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>3.3</v>
+        <v>4.9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>1.79</v>
+        <v>2.52</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.94</v>
+        <v>1.53</v>
       </c>
       <c r="R9" t="n">
-        <v>1.3</v>
+        <v>1.62</v>
       </c>
       <c r="S9" t="n">
-        <v>3.7</v>
+        <v>2.12</v>
       </c>
       <c r="T9" t="n">
-        <v>1.77</v>
+        <v>1.6</v>
       </c>
       <c r="U9" t="n">
-        <v>1.78</v>
+        <v>1.99</v>
       </c>
       <c r="V9" t="n">
-        <v>2.08</v>
+        <v>1.16</v>
       </c>
       <c r="W9" t="n">
-        <v>1.22</v>
+        <v>2.66</v>
       </c>
       <c r="X9" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.800000000000001</v>
+        <v>32</v>
       </c>
       <c r="Z9" t="n">
-        <v>11.5</v>
+        <v>70</v>
       </c>
       <c r="AA9" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>970</v>
       </c>
       <c r="AD9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF9" t="n">
         <v>970</v>
       </c>
-      <c r="AE9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>42</v>
-      </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI9" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="n">
-        <v>160</v>
+        <v>970</v>
       </c>
       <c r="AK9" t="n">
-        <v>80</v>
+        <v>970</v>
       </c>
       <c r="AL9" t="n">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="AN9" t="n">
-        <v>120</v>
+        <v>6.6</v>
       </c>
       <c r="AO9" t="n">
-        <v>16.5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FK Backa Topola</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Bnei Sakhnin</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>7.6</v>
+        <v>1.39</v>
       </c>
       <c r="G10" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="I10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W10" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="X10" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>38</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>350</v>
+      </c>
+      <c r="AB10" t="n">
         <v>12</v>
       </c>
-      <c r="H10" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="J10" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="V10" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="X10" t="n">
-        <v>36</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>970</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>46</v>
-      </c>
       <c r="AC10" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AE10" t="n">
-        <v>970</v>
+        <v>160</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL10" t="n">
         <v>42</v>
       </c>
-      <c r="AH10" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AO10" t="n">
-        <v>5.4</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.53</v>
+        <v>5.4</v>
       </c>
       <c r="G11" t="n">
-        <v>1.55</v>
+        <v>6.2</v>
       </c>
       <c r="H11" t="n">
-        <v>8.199999999999999</v>
+        <v>1.66</v>
       </c>
       <c r="I11" t="n">
-        <v>9.4</v>
+        <v>1.76</v>
       </c>
       <c r="J11" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="K11" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="M11" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>2.98</v>
+        <v>3.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>1.69</v>
+        <v>1.84</v>
       </c>
       <c r="Q11" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V11" t="n">
         <v>2.3</v>
       </c>
-      <c r="R11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.12</v>
-      </c>
       <c r="W11" t="n">
-        <v>2.78</v>
+        <v>1.2</v>
       </c>
       <c r="X11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z11" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AA11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB11" t="n">
         <v>22</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>420</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>6.2</v>
       </c>
       <c r="AC11" t="n">
         <v>10</v>
       </c>
       <c r="AD11" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AE11" t="n">
-        <v>210</v>
+        <v>970</v>
       </c>
       <c r="AF11" t="n">
-        <v>7.4</v>
+        <v>55</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AH11" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AI11" t="n">
-        <v>210</v>
+        <v>48</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13</v>
+        <v>190</v>
       </c>
       <c r="AK11" t="n">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="AL11" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AM11" t="n">
-        <v>290</v>
+        <v>160</v>
       </c>
       <c r="AN11" t="n">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="AO11" t="n">
-        <v>390</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,108 +2003,108 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo</t>
+          <t>FK Backa Topola</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CDT Real Oruro</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.04</v>
+        <v>8.4</v>
       </c>
       <c r="G12" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="H12" t="n">
-        <v>1.04</v>
+        <v>1.34</v>
       </c>
       <c r="I12" t="n">
-        <v>1000</v>
+        <v>1.42</v>
       </c>
       <c r="J12" t="n">
-        <v>1.02</v>
+        <v>5.4</v>
       </c>
       <c r="K12" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>1.01</v>
+        <v>5.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.07</v>
+        <v>1.17</v>
       </c>
       <c r="P12" t="n">
-        <v>1.55</v>
+        <v>2.68</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.07</v>
+        <v>1.47</v>
       </c>
       <c r="R12" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="S12" t="n">
-        <v>1.07</v>
+        <v>2.2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="U12" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="V12" t="n">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="W12" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AF12" t="n">
         <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ12" t="n">
         <v>1000</v>
@@ -2122,13 +2122,13 @@
         <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CD Castellon</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="G13" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H13" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="I13" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L13" t="n">
         <v>1.5</v>
       </c>
-      <c r="H13" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.34</v>
-      </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>4.4</v>
+        <v>2.98</v>
       </c>
       <c r="O13" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R13" t="n">
         <v>1.25</v>
       </c>
-      <c r="P13" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.47</v>
-      </c>
       <c r="S13" t="n">
-        <v>2.86</v>
+        <v>4.5</v>
       </c>
       <c r="T13" t="n">
-        <v>1.94</v>
+        <v>2.4</v>
       </c>
       <c r="U13" t="n">
-        <v>1.92</v>
+        <v>1.61</v>
       </c>
       <c r="V13" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W13" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="X13" t="n">
-        <v>20</v>
+        <v>11.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AA13" t="n">
-        <v>320</v>
+        <v>420</v>
       </c>
       <c r="AB13" t="n">
-        <v>9</v>
+        <v>6.2</v>
       </c>
       <c r="AC13" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE13" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AG13" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AI13" t="n">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="AJ13" t="n">
         <v>13</v>
       </c>
       <c r="AK13" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AL13" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AM13" t="n">
-        <v>160</v>
+        <v>290</v>
       </c>
       <c r="AN13" t="n">
-        <v>6.8</v>
+        <v>12</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,78 +2273,78 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>San Antonio Bulo Bulo</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ASD Pineto Calcio</t>
+          <t>CDT Real Oruro</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.44</v>
+        <v>1.04</v>
       </c>
       <c r="G14" t="n">
-        <v>1.53</v>
+        <v>1000</v>
       </c>
       <c r="H14" t="n">
-        <v>7.6</v>
+        <v>1.04</v>
       </c>
       <c r="I14" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="J14" t="n">
-        <v>3.85</v>
+        <v>1.02</v>
       </c>
       <c r="K14" t="n">
-        <v>5.3</v>
+        <v>1000</v>
       </c>
       <c r="L14" t="n">
-        <v>1.39</v>
+        <v>1.15</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>3.05</v>
+        <v>1.01</v>
       </c>
       <c r="O14" t="n">
-        <v>1.38</v>
+        <v>1.07</v>
       </c>
       <c r="P14" t="n">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.14</v>
+        <v>1.07</v>
       </c>
       <c r="R14" t="n">
-        <v>1.26</v>
+        <v>1.55</v>
       </c>
       <c r="S14" t="n">
-        <v>3.6</v>
+        <v>1.07</v>
       </c>
       <c r="T14" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="U14" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="W14" t="n">
-        <v>2.84</v>
+        <v>1.01</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
         <v>1000</v>
@@ -2353,10 +2353,10 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
         <v>1000</v>
@@ -2365,22 +2365,22 @@
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
         <v>1000</v>
@@ -2437,31 +2437,31 @@
         <v>3.05</v>
       </c>
       <c r="K15" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L15" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.1</v>
       </c>
       <c r="N15" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="O15" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="P15" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="R15" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="S15" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="T15" t="n">
         <v>1.93</v>
@@ -2560,7 +2560,7 @@
         <v>1.56</v>
       </c>
       <c r="G16" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="H16" t="n">
         <v>6</v>
@@ -2569,10 +2569,10 @@
         <v>7.6</v>
       </c>
       <c r="J16" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K16" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>1.86</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
         <v>4.7</v>
       </c>
       <c r="H17" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="I17" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="J17" t="n">
         <v>3.15</v>
@@ -2710,13 +2710,13 @@
         <v>3.85</v>
       </c>
       <c r="L17" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M17" t="n">
         <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="O17" t="n">
         <v>1.47</v>
@@ -2731,16 +2731,16 @@
         <v>1.21</v>
       </c>
       <c r="S17" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="T17" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="U17" t="n">
-        <v>1.81</v>
+        <v>1.67</v>
       </c>
       <c r="V17" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="W17" t="n">
         <v>1.27</v>
@@ -2803,7 +2803,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Boulogne</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ESTAC Troyes</t>
+          <t>ASD Pineto Calcio</t>
         </is>
       </c>
       <c r="F18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H18" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J18" t="n">
         <v>4.1</v>
       </c>
-      <c r="G18" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K18" t="n">
-        <v>3.5</v>
+        <v>5.3</v>
       </c>
       <c r="L18" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="M18" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.09</v>
       </c>
-      <c r="N18" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.86</v>
-      </c>
       <c r="W18" t="n">
-        <v>1.29</v>
+        <v>2.84</v>
       </c>
       <c r="X18" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.4</v>
+        <v>24</v>
       </c>
       <c r="Z18" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AD18" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AG18" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AH18" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AI18" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>130</v>
+        <v>970</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL18" t="n">
         <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
         <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>CD Castellon</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.24</v>
+        <v>1.48</v>
       </c>
       <c r="G19" t="n">
-        <v>2.26</v>
+        <v>1.5</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>7.8</v>
       </c>
       <c r="I19" t="n">
-        <v>4.1</v>
+        <v>9</v>
       </c>
       <c r="J19" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="K19" t="n">
-        <v>3.3</v>
+        <v>5.1</v>
       </c>
       <c r="L19" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="M19" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="P19" t="n">
-        <v>1.71</v>
+        <v>2.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.38</v>
+        <v>1.72</v>
       </c>
       <c r="R19" t="n">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="S19" t="n">
-        <v>4.4</v>
+        <v>2.84</v>
       </c>
       <c r="T19" t="n">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="U19" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="V19" t="n">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
       <c r="W19" t="n">
-        <v>1.79</v>
+        <v>3</v>
       </c>
       <c r="X19" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Y19" t="n">
-        <v>12.5</v>
+        <v>28</v>
       </c>
       <c r="Z19" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>90</v>
+        <v>320</v>
       </c>
       <c r="AB19" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.2</v>
+        <v>11.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AF19" t="n">
-        <v>12.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AI19" t="n">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="AJ19" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="AK19" t="n">
-        <v>27</v>
+        <v>15.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AM19" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AN19" t="n">
-        <v>23</v>
+        <v>6.8</v>
       </c>
       <c r="AO19" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,127 +3088,127 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Boulogne</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>ESTAC Troyes</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.93</v>
+        <v>4.1</v>
       </c>
       <c r="G20" t="n">
-        <v>1.99</v>
+        <v>4.8</v>
       </c>
       <c r="H20" t="n">
-        <v>4.1</v>
+        <v>2.04</v>
       </c>
       <c r="I20" t="n">
-        <v>4.6</v>
+        <v>2.16</v>
       </c>
       <c r="J20" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="K20" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N20" t="n">
-        <v>4</v>
+        <v>2.98</v>
       </c>
       <c r="O20" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="W20" t="n">
         <v>1.28</v>
       </c>
-      <c r="P20" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W20" t="n">
-        <v>2</v>
-      </c>
       <c r="X20" t="n">
-        <v>17.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>18.5</v>
+        <v>9.4</v>
       </c>
       <c r="Z20" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AA20" t="n">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="AB20" t="n">
-        <v>10.5</v>
+        <v>16</v>
       </c>
       <c r="AC20" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG20" t="n">
         <v>22</v>
       </c>
-      <c r="AE20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AI20" t="n">
         <v>60</v>
       </c>
       <c r="AJ20" t="n">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="AK20" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="AN20" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.86</v>
+        <v>2.24</v>
       </c>
       <c r="G21" t="n">
-        <v>1.87</v>
+        <v>2.26</v>
       </c>
       <c r="H21" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J21" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="K21" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="L21" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="N21" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.2</v>
+        <v>1.43</v>
       </c>
       <c r="P21" t="n">
-        <v>2.6</v>
+        <v>1.72</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.61</v>
+        <v>2.34</v>
       </c>
       <c r="R21" t="n">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="S21" t="n">
-        <v>2.48</v>
+        <v>4.4</v>
       </c>
       <c r="T21" t="n">
-        <v>1.61</v>
+        <v>1.99</v>
       </c>
       <c r="U21" t="n">
-        <v>2.58</v>
+        <v>1.96</v>
       </c>
       <c r="V21" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="W21" t="n">
-        <v>2.14</v>
+        <v>1.79</v>
       </c>
       <c r="X21" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="Y21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH21" t="n">
         <v>20</v>
       </c>
-      <c r="Z21" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AI21" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AJ21" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AK21" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="AL21" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="AM21" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="AN21" t="n">
-        <v>8.199999999999999</v>
+        <v>23</v>
       </c>
       <c r="AO21" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.68</v>
+        <v>1.92</v>
       </c>
       <c r="G22" t="n">
-        <v>2.74</v>
+        <v>1.99</v>
       </c>
       <c r="H22" t="n">
-        <v>2.84</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>2.88</v>
+        <v>4.6</v>
       </c>
       <c r="J22" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K22" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="O22" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="P22" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.04</v>
+        <v>1.73</v>
       </c>
       <c r="R22" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="S22" t="n">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="T22" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="U22" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V22" t="n">
-        <v>1.53</v>
+        <v>1.28</v>
       </c>
       <c r="W22" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="X22" t="n">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>18.5</v>
+        <v>34</v>
       </c>
       <c r="AA22" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB22" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="AD22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG22" t="n">
         <v>12.5</v>
       </c>
-      <c r="AE22" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>12</v>
-      </c>
       <c r="AH22" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AI22" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AJ22" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AK22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AL22" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AM22" t="n">
         <v>95</v>
       </c>
       <c r="AN22" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="AO22" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,260 +3488,530 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Club Football Estrela</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.2</v>
+        <v>1.86</v>
       </c>
       <c r="G23" t="n">
-        <v>1.21</v>
+        <v>1.87</v>
       </c>
       <c r="H23" t="n">
-        <v>19</v>
+        <v>4.2</v>
       </c>
       <c r="I23" t="n">
-        <v>21</v>
+        <v>4.3</v>
       </c>
       <c r="J23" t="n">
-        <v>7.8</v>
+        <v>4.2</v>
       </c>
       <c r="K23" t="n">
-        <v>8.4</v>
+        <v>4.3</v>
       </c>
       <c r="L23" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M23" t="n">
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P23" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="R23" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="S23" t="n">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="T23" t="n">
-        <v>2.52</v>
+        <v>1.6</v>
       </c>
       <c r="U23" t="n">
-        <v>1.59</v>
+        <v>2.58</v>
       </c>
       <c r="V23" t="n">
-        <v>1.05</v>
+        <v>1.3</v>
       </c>
       <c r="W23" t="n">
-        <v>5.7</v>
+        <v>2.14</v>
       </c>
       <c r="X23" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="Y23" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="Z23" t="n">
-        <v>260</v>
+        <v>36</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB23" t="n">
-        <v>8.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>19</v>
+        <v>9.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="AE23" t="n">
-        <v>550</v>
+        <v>42</v>
       </c>
       <c r="AF23" t="n">
-        <v>7.4</v>
+        <v>13.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AH23" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM23" t="n">
         <v>60</v>
       </c>
-      <c r="AI23" t="n">
-        <v>370</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>370</v>
-      </c>
       <c r="AN23" t="n">
-        <v>4.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X24" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Portuguese Primeira Liga</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>17:45:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Club Football Estrela</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H25" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>21</v>
+      </c>
+      <c r="J25" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="K25" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N25" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="W25" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="X25" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>270</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>100</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>560</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>370</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>420</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>Ecuadorian Serie A</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>2025-12-15</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>21:00:00</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Emelec</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>El Nacional</t>
         </is>
       </c>
-      <c r="F24" t="n">
+      <c r="F26" t="n">
         <v>3.3</v>
       </c>
-      <c r="G24" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="I24" t="n">
+      <c r="G26" t="n">
+        <v>4</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I26" t="n">
         <v>2.08</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J26" t="n">
         <v>4</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K26" t="n">
         <v>4.7</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L26" t="n">
         <v>1.24</v>
       </c>
-      <c r="M24" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N24" t="n">
+      <c r="M26" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N26" t="n">
         <v>4.3</v>
       </c>
-      <c r="O24" t="n">
+      <c r="O26" t="n">
         <v>1.2</v>
       </c>
-      <c r="P24" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q24" t="n">
+      <c r="P26" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Q26" t="n">
         <v>1.64</v>
       </c>
-      <c r="R24" t="n">
+      <c r="R26" t="n">
         <v>1.55</v>
       </c>
-      <c r="S24" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="T24" t="n">
+      <c r="S26" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="T26" t="n">
         <v>1.63</v>
       </c>
-      <c r="U24" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V24" t="n">
+      <c r="U26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V26" t="n">
         <v>1.92</v>
       </c>
-      <c r="W24" t="n">
+      <c r="W26" t="n">
         <v>1.33</v>
       </c>
-      <c r="X24" t="n">
+      <c r="X26" t="n">
         <v>22</v>
       </c>
-      <c r="Y24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB24" t="n">
+      <c r="Y26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB26" t="n">
         <v>23</v>
       </c>
-      <c r="AC24" t="n">
+      <c r="AC26" t="n">
         <v>9.4</v>
       </c>
-      <c r="AD24" t="n">
+      <c r="AD26" t="n">
         <v>11</v>
       </c>
-      <c r="AE24" t="n">
+      <c r="AE26" t="n">
         <v>980</v>
       </c>
-      <c r="AF24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH24" t="n">
+      <c r="AF26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH26" t="n">
         <v>17.5</v>
       </c>
-      <c r="AI24" t="n">
+      <c r="AI26" t="n">
         <v>980</v>
       </c>
-      <c r="AJ24" t="n">
+      <c r="AJ26" t="n">
         <v>85</v>
       </c>
-      <c r="AK24" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN24" t="n">
+      <c r="AK26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN26" t="n">
         <v>980</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AO26" t="n">
         <v>970</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
@@ -709,7 +709,7 @@
         <v>2.58</v>
       </c>
       <c r="T2" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="U2" t="n">
         <v>2.04</v>
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="G3" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="H3" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
         <v>5.8</v>
       </c>
       <c r="J3" t="n">
-        <v>2.84</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
         <v>4.1</v>
@@ -826,34 +826,34 @@
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>2.56</v>
+        <v>2.88</v>
       </c>
       <c r="O3" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="P3" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="R3" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="S3" t="n">
         <v>3.65</v>
       </c>
       <c r="T3" t="n">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="U3" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="V3" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W3" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="X3" t="n">
         <v>12.5</v>
@@ -880,10 +880,10 @@
         <v>90</v>
       </c>
       <c r="AF3" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
         <v>27</v>
@@ -892,19 +892,19 @@
         <v>110</v>
       </c>
       <c r="AJ3" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AK3" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AL3" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="G4" t="n">
         <v>1.99</v>
       </c>
       <c r="H4" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I4" t="n">
         <v>5.1</v>
@@ -961,16 +961,16 @@
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O4" t="n">
         <v>1.32</v>
       </c>
       <c r="P4" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R4" t="n">
         <v>1.34</v>
@@ -997,7 +997,7 @@
         <v>17</v>
       </c>
       <c r="Z4" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="n">
         <v>130</v>
@@ -1006,7 +1006,7 @@
         <v>9.4</v>
       </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD4" t="n">
         <v>19.5</v>
@@ -1075,7 +1075,7 @@
         <v>2.32</v>
       </c>
       <c r="G5" t="n">
-        <v>2.78</v>
+        <v>2.66</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
@@ -1084,7 +1084,7 @@
         <v>3.7</v>
       </c>
       <c r="J5" t="n">
-        <v>2.94</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
         <v>4.3</v>
@@ -1096,7 +1096,7 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O5" t="n">
         <v>1.32</v>
@@ -1114,16 +1114,16 @@
         <v>3.45</v>
       </c>
       <c r="T5" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U5" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V5" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W5" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="X5" t="n">
         <v>16.5</v>
@@ -1243,16 +1243,16 @@
         <v>1.48</v>
       </c>
       <c r="R6" t="n">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="S6" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="T6" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="U6" t="n">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="V6" t="n">
         <v>1.1</v>
@@ -1354,7 +1354,7 @@
         <v>14</v>
       </c>
       <c r="J7" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="K7" t="n">
         <v>7.6</v>
@@ -1372,7 +1372,7 @@
         <v>1.18</v>
       </c>
       <c r="P7" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="Q7" t="n">
         <v>1.52</v>
@@ -1387,7 +1387,7 @@
         <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V7" t="n">
         <v>1.07</v>
@@ -1480,7 +1480,7 @@
         <v>2.44</v>
       </c>
       <c r="G8" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
@@ -1489,10 +1489,10 @@
         <v>3.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L8" t="n">
         <v>1.48</v>
@@ -1510,7 +1510,7 @@
         <v>1.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R8" t="n">
         <v>1.27</v>
@@ -1522,13 +1522,13 @@
         <v>1.89</v>
       </c>
       <c r="U8" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="V8" t="n">
         <v>1.4</v>
       </c>
       <c r="W8" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="X8" t="n">
         <v>11</v>
@@ -1579,7 +1579,7 @@
         <v>120</v>
       </c>
       <c r="AN8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO8" t="n">
         <v>48</v>
@@ -1615,19 +1615,19 @@
         <v>1.49</v>
       </c>
       <c r="G9" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="H9" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="I9" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="J9" t="n">
         <v>4.7</v>
       </c>
       <c r="K9" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="L9" t="n">
         <v>1.23</v>
@@ -1636,7 +1636,7 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O9" t="n">
         <v>1.18</v>
@@ -1651,22 +1651,22 @@
         <v>1.62</v>
       </c>
       <c r="S9" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="T9" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="U9" t="n">
-        <v>1.99</v>
+        <v>2.18</v>
       </c>
       <c r="V9" t="n">
         <v>1.16</v>
       </c>
       <c r="W9" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="X9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y9" t="n">
         <v>32</v>
@@ -1696,7 +1696,7 @@
         <v>970</v>
       </c>
       <c r="AH9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
         <v>80</v>
@@ -1714,7 +1714,7 @@
         <v>100</v>
       </c>
       <c r="AN9" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="AO9" t="n">
         <v>85</v>
@@ -1786,13 +1786,13 @@
         <v>1.51</v>
       </c>
       <c r="S10" t="n">
-        <v>2.58</v>
+        <v>2.4</v>
       </c>
       <c r="T10" t="n">
         <v>1.89</v>
       </c>
       <c r="U10" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="V10" t="n">
         <v>1.09</v>
@@ -1807,7 +1807,7 @@
         <v>38</v>
       </c>
       <c r="Z10" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AA10" t="n">
         <v>350</v>
@@ -1888,7 +1888,7 @@
         <v>6.2</v>
       </c>
       <c r="H11" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="I11" t="n">
         <v>1.76</v>
@@ -1897,7 +1897,7 @@
         <v>3.95</v>
       </c>
       <c r="K11" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L11" t="n">
         <v>1.41</v>
@@ -1909,13 +1909,13 @@
         <v>3.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P11" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="R11" t="n">
         <v>1.32</v>
@@ -1924,10 +1924,10 @@
         <v>3.6</v>
       </c>
       <c r="T11" t="n">
-        <v>1.79</v>
+        <v>1.94</v>
       </c>
       <c r="U11" t="n">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="V11" t="n">
         <v>2.3</v>
@@ -1936,10 +1936,10 @@
         <v>1.2</v>
       </c>
       <c r="X11" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="Z11" t="n">
         <v>11.5</v>
@@ -1951,7 +1951,7 @@
         <v>22</v>
       </c>
       <c r="AC11" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AD11" t="n">
         <v>970</v>
@@ -1960,16 +1960,16 @@
         <v>970</v>
       </c>
       <c r="AF11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH11" t="n">
         <v>25</v>
       </c>
-      <c r="AH11" t="n">
-        <v>26</v>
-      </c>
       <c r="AI11" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AJ11" t="n">
         <v>190</v>
@@ -1987,7 +1987,7 @@
         <v>140</v>
       </c>
       <c r="AO11" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="12">
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="G12" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="I12" t="n">
         <v>1.42</v>
@@ -2032,58 +2032,58 @@
         <v>5.4</v>
       </c>
       <c r="K12" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="O12" t="n">
         <v>1.17</v>
       </c>
       <c r="P12" t="n">
-        <v>2.68</v>
+        <v>2.52</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R12" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="S12" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="T12" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U12" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="W12" t="n">
         <v>1.11</v>
       </c>
       <c r="X12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y12" t="n">
         <v>970</v>
       </c>
       <c r="Z12" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AA12" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AB12" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AC12" t="n">
         <v>970</v>
@@ -2098,13 +2098,13 @@
         <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AH12" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AI12" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ12" t="n">
         <v>1000</v>
@@ -2122,7 +2122,7 @@
         <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="13">
@@ -2197,7 +2197,7 @@
         <v>2.4</v>
       </c>
       <c r="U13" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="V13" t="n">
         <v>1.12</v>
@@ -2221,7 +2221,7 @@
         <v>6.2</v>
       </c>
       <c r="AC13" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD13" t="n">
         <v>36</v>
@@ -2305,7 +2305,7 @@
         <v>1000</v>
       </c>
       <c r="L14" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="M14" t="n">
         <v>1.01</v>
@@ -2317,13 +2317,13 @@
         <v>1.07</v>
       </c>
       <c r="P14" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q14" t="n">
         <v>1.07</v>
       </c>
       <c r="R14" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S14" t="n">
         <v>1.07</v>
@@ -2455,7 +2455,7 @@
         <v>1.66</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R15" t="n">
         <v>1.24</v>
@@ -2527,7 +2527,7 @@
         <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="G16" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="H16" t="n">
         <v>6</v>
@@ -2569,7 +2569,7 @@
         <v>7.6</v>
       </c>
       <c r="J16" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="n">
         <v>4.5</v>
@@ -2590,7 +2590,7 @@
         <v>1.86</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2701,7 +2701,7 @@
         <v>2.04</v>
       </c>
       <c r="I17" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="J17" t="n">
         <v>3.15</v>
@@ -2731,16 +2731,16 @@
         <v>1.21</v>
       </c>
       <c r="S17" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="T17" t="n">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="U17" t="n">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="V17" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="W17" t="n">
         <v>1.27</v>
@@ -2881,7 +2881,7 @@
         <v>2.84</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y18" t="n">
         <v>24</v>
@@ -2893,7 +2893,7 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>970</v>
+        <v>6.6</v>
       </c>
       <c r="AC18" t="n">
         <v>970</v>
@@ -2929,7 +2929,7 @@
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2965,13 +2965,13 @@
         <v>1.48</v>
       </c>
       <c r="G19" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="H19" t="n">
         <v>7.8</v>
       </c>
       <c r="I19" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J19" t="n">
         <v>4.7</v>
@@ -2995,7 +2995,7 @@
         <v>2.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R19" t="n">
         <v>1.47</v>
@@ -3013,7 +3013,7 @@
         <v>1.13</v>
       </c>
       <c r="W19" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="X19" t="n">
         <v>20</v>
@@ -3103,13 +3103,13 @@
         <v>4.8</v>
       </c>
       <c r="H20" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="I20" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="J20" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K20" t="n">
         <v>3.5</v>
@@ -3127,7 +3127,7 @@
         <v>1.42</v>
       </c>
       <c r="P20" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q20" t="n">
         <v>2.24</v>
@@ -3139,13 +3139,13 @@
         <v>4.2</v>
       </c>
       <c r="T20" t="n">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="U20" t="n">
         <v>1.88</v>
       </c>
       <c r="V20" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="W20" t="n">
         <v>1.28</v>
@@ -3154,31 +3154,31 @@
         <v>11.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA20" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AB20" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD20" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
         <v>32</v>
       </c>
       <c r="AF20" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AG20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH20" t="n">
         <v>26</v>
@@ -3190,10 +3190,10 @@
         <v>130</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM20" t="n">
         <v>180</v>
@@ -3202,7 +3202,7 @@
         <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
@@ -3244,7 +3244,7 @@
         <v>4.1</v>
       </c>
       <c r="J21" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K21" t="n">
         <v>3.3</v>
@@ -3259,13 +3259,13 @@
         <v>3.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P21" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="R21" t="n">
         <v>1.27</v>
@@ -3337,7 +3337,7 @@
         <v>23</v>
       </c>
       <c r="AO21" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22">
@@ -3367,13 +3367,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="G22" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I22" t="n">
         <v>4.6</v>
@@ -3397,16 +3397,16 @@
         <v>1.28</v>
       </c>
       <c r="P22" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="R22" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>1.71</v>
@@ -3418,7 +3418,7 @@
         <v>1.28</v>
       </c>
       <c r="W22" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X22" t="n">
         <v>17.5</v>
@@ -3445,10 +3445,10 @@
         <v>55</v>
       </c>
       <c r="AF22" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AH22" t="n">
         <v>22</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="G23" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H23" t="n">
         <v>4.2</v>
@@ -3541,7 +3541,7 @@
         <v>1.64</v>
       </c>
       <c r="S23" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T23" t="n">
         <v>1.6</v>
@@ -3553,7 +3553,7 @@
         <v>1.3</v>
       </c>
       <c r="W23" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="X23" t="n">
         <v>22</v>
@@ -3637,19 +3637,19 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G24" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="H24" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="I24" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="J24" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K24" t="n">
         <v>3.55</v>
@@ -3664,7 +3664,7 @@
         <v>3.7</v>
       </c>
       <c r="O24" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P24" t="n">
         <v>1.92</v>
@@ -3688,7 +3688,7 @@
         <v>1.53</v>
       </c>
       <c r="W24" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="X24" t="n">
         <v>13</v>
@@ -3715,7 +3715,7 @@
         <v>32</v>
       </c>
       <c r="AF24" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG24" t="n">
         <v>12</v>
@@ -3724,10 +3724,10 @@
         <v>18</v>
       </c>
       <c r="AI24" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ24" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AK24" t="n">
         <v>30</v>
@@ -3739,7 +3739,7 @@
         <v>95</v>
       </c>
       <c r="AN24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO24" t="n">
         <v>28</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G25" t="n">
         <v>1.2</v>
       </c>
-      <c r="G25" t="n">
-        <v>1.21</v>
-      </c>
       <c r="H25" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="I25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J25" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="K25" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="L25" t="n">
         <v>1.3</v>
@@ -3796,7 +3796,7 @@
         <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="O25" t="n">
         <v>1.2</v>
@@ -3808,7 +3808,7 @@
         <v>1.61</v>
       </c>
       <c r="R25" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S25" t="n">
         <v>2.58</v>
@@ -3820,10 +3820,10 @@
         <v>1.59</v>
       </c>
       <c r="V25" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="W25" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="X25" t="n">
         <v>32</v>
@@ -3844,7 +3844,7 @@
         <v>19</v>
       </c>
       <c r="AD25" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AE25" t="n">
         <v>560</v>
@@ -3856,7 +3856,7 @@
         <v>12.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI25" t="n">
         <v>370</v>
@@ -3907,88 +3907,88 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="H26" t="n">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="I26" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K26" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L26" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M26" t="n">
         <v>1.02</v>
       </c>
       <c r="N26" t="n">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="O26" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P26" t="n">
-        <v>2.24</v>
+        <v>2.44</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="R26" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="S26" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="T26" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="U26" t="n">
-        <v>2.2</v>
+        <v>2.48</v>
       </c>
       <c r="V26" t="n">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="W26" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="X26" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="Y26" t="n">
         <v>1000</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB26" t="n">
         <v>23</v>
       </c>
       <c r="AC26" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AD26" t="n">
         <v>11</v>
       </c>
       <c r="AE26" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AF26" t="n">
         <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AH26" t="n">
         <v>17.5</v>
@@ -3997,10 +3997,10 @@
         <v>980</v>
       </c>
       <c r="AJ26" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL26" t="n">
         <v>1000</v>
@@ -4012,7 +4012,7 @@
         <v>980</v>
       </c>
       <c r="AO26" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
@@ -694,7 +694,7 @@
         <v>3.75</v>
       </c>
       <c r="O2" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P2" t="n">
         <v>1.96</v>
@@ -757,7 +757,7 @@
         <v>85</v>
       </c>
       <c r="AJ2" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AK2" t="n">
         <v>21</v>
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="G3" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="I3" t="n">
         <v>5.8</v>
@@ -817,7 +817,7 @@
         <v>3.25</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
         <v>1.4</v>
@@ -826,10 +826,10 @@
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="O3" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="P3" t="n">
         <v>1.68</v>
@@ -841,19 +841,19 @@
         <v>1.25</v>
       </c>
       <c r="S3" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T3" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U3" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V3" t="n">
         <v>1.21</v>
       </c>
       <c r="W3" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X3" t="n">
         <v>12.5</v>
@@ -967,7 +967,7 @@
         <v>1.32</v>
       </c>
       <c r="P4" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q4" t="n">
         <v>1.94</v>
@@ -1015,7 +1015,7 @@
         <v>65</v>
       </c>
       <c r="AF4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG4" t="n">
         <v>11</v>
@@ -1027,10 +1027,10 @@
         <v>70</v>
       </c>
       <c r="AJ4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
         <v>38</v>
@@ -1039,7 +1039,7 @@
         <v>130</v>
       </c>
       <c r="AN4" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO4" t="n">
         <v>70</v>
@@ -1075,28 +1075,28 @@
         <v>2.32</v>
       </c>
       <c r="G5" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K5" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="L5" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.32</v>
@@ -1105,10 +1105,10 @@
         <v>1.85</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R5" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S5" t="n">
         <v>3.45</v>
@@ -1120,13 +1120,13 @@
         <v>1.93</v>
       </c>
       <c r="V5" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="W5" t="n">
         <v>1.62</v>
       </c>
       <c r="X5" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="n">
         <v>15</v>
@@ -1141,34 +1141,34 @@
         <v>12.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD5" t="n">
         <v>17</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF5" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AG5" t="n">
         <v>14</v>
       </c>
       <c r="AH5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
@@ -1177,7 +1177,7 @@
         <v>27</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
@@ -1210,7 +1210,7 @@
         <v>1.35</v>
       </c>
       <c r="G6" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="H6" t="n">
         <v>8.4</v>
@@ -1225,7 +1225,7 @@
         <v>6.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
@@ -1243,16 +1243,16 @@
         <v>1.48</v>
       </c>
       <c r="R6" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="T6" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="U6" t="n">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="V6" t="n">
         <v>1.1</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="G7" t="n">
         <v>1.29</v>
@@ -1357,7 +1357,7 @@
         <v>6.8</v>
       </c>
       <c r="K7" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="L7" t="n">
         <v>1.28</v>
@@ -1372,22 +1372,22 @@
         <v>1.18</v>
       </c>
       <c r="P7" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="Q7" t="n">
         <v>1.52</v>
       </c>
       <c r="R7" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S7" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="V7" t="n">
         <v>1.07</v>
@@ -1396,25 +1396,25 @@
         <v>4.4</v>
       </c>
       <c r="X7" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="Z7" t="n">
         <v>150</v>
       </c>
       <c r="AA7" t="n">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="AB7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC7" t="n">
         <v>970</v>
       </c>
       <c r="AD7" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AE7" t="n">
         <v>240</v>
@@ -1423,7 +1423,7 @@
         <v>9</v>
       </c>
       <c r="AG7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
         <v>38</v>
@@ -1435,10 +1435,10 @@
         <v>10.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM7" t="n">
         <v>190</v>
@@ -1501,19 +1501,19 @@
         <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="O8" t="n">
         <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q8" t="n">
         <v>2.24</v>
       </c>
       <c r="R8" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S8" t="n">
         <v>4.3</v>
@@ -1654,7 +1654,7 @@
         <v>2.32</v>
       </c>
       <c r="T9" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="U9" t="n">
         <v>2.18</v>
@@ -1696,7 +1696,7 @@
         <v>970</v>
       </c>
       <c r="AH9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
         <v>80</v>
@@ -1789,7 +1789,7 @@
         <v>2.4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U10" t="n">
         <v>1.79</v>
@@ -1885,19 +1885,19 @@
         <v>5.4</v>
       </c>
       <c r="G11" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="I11" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="J11" t="n">
         <v>3.95</v>
       </c>
       <c r="K11" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L11" t="n">
         <v>1.41</v>
@@ -1912,7 +1912,7 @@
         <v>1.34</v>
       </c>
       <c r="P11" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q11" t="n">
         <v>1.98</v>
@@ -1930,7 +1930,7 @@
         <v>1.89</v>
       </c>
       <c r="V11" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="W11" t="n">
         <v>1.2</v>
@@ -1960,16 +1960,16 @@
         <v>970</v>
       </c>
       <c r="AF11" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AG11" t="n">
         <v>23</v>
       </c>
       <c r="AH11" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI11" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ11" t="n">
         <v>190</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="H12" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="I12" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="J12" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="K12" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="L12" t="n">
         <v>1.23</v>
@@ -2041,34 +2041,34 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O12" t="n">
         <v>1.17</v>
       </c>
       <c r="P12" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R12" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="S12" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="T12" t="n">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V12" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="W12" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="X12" t="n">
         <v>34</v>
@@ -2077,13 +2077,13 @@
         <v>970</v>
       </c>
       <c r="Z12" t="n">
-        <v>970</v>
+        <v>9.6</v>
       </c>
       <c r="AA12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB12" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AC12" t="n">
         <v>970</v>
@@ -2092,7 +2092,7 @@
         <v>970</v>
       </c>
       <c r="AE12" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AF12" t="n">
         <v>1000</v>
@@ -2197,7 +2197,7 @@
         <v>2.4</v>
       </c>
       <c r="U13" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="V13" t="n">
         <v>1.12</v>
@@ -2206,7 +2206,7 @@
         <v>2.78</v>
       </c>
       <c r="X13" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y13" t="n">
         <v>22</v>
@@ -2311,28 +2311,28 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="O14" t="n">
         <v>1.07</v>
       </c>
       <c r="P14" t="n">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="Q14" t="n">
         <v>1.07</v>
       </c>
       <c r="R14" t="n">
-        <v>1.54</v>
+        <v>1.18</v>
       </c>
       <c r="S14" t="n">
         <v>1.07</v>
       </c>
       <c r="T14" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U14" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V14" t="n">
         <v>1.01</v>
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Ravenna</t>
+          <t>S.S.D. Casarano Calcio</t>
         </is>
       </c>
       <c r="F15" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+      <c r="I15" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J15" t="n">
         <v>3.4</v>
       </c>
-      <c r="G15" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.05</v>
-      </c>
       <c r="K15" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>2.92</v>
+        <v>3.55</v>
       </c>
       <c r="O15" t="n">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="P15" t="n">
-        <v>1.66</v>
+        <v>1.86</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.24</v>
+        <v>1.89</v>
       </c>
       <c r="R15" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>S.S.D. Casarano Calcio</t>
+          <t>Ravenna</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.58</v>
+        <v>3.4</v>
       </c>
       <c r="G16" t="n">
-        <v>1.75</v>
+        <v>3.95</v>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>2.26</v>
       </c>
       <c r="I16" t="n">
-        <v>7.6</v>
+        <v>2.52</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="K16" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N16" t="n">
-        <v>3.55</v>
+        <v>2.92</v>
       </c>
       <c r="O16" t="n">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="P16" t="n">
-        <v>1.86</v>
+        <v>1.66</v>
       </c>
       <c r="Q16" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U16" t="n">
         <v>1.89</v>
       </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2695,16 +2695,16 @@
         <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H17" t="n">
         <v>2.04</v>
       </c>
       <c r="I17" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="J17" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K17" t="n">
         <v>3.85</v>
@@ -2731,22 +2731,22 @@
         <v>1.21</v>
       </c>
       <c r="S17" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="T17" t="n">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="U17" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="V17" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="W17" t="n">
         <v>1.27</v>
       </c>
       <c r="X17" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y17" t="n">
         <v>7.8</v>
@@ -2842,7 +2842,7 @@
         <v>4.1</v>
       </c>
       <c r="K18" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L18" t="n">
         <v>1.39</v>
@@ -2857,10 +2857,10 @@
         <v>1.39</v>
       </c>
       <c r="P18" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.14</v>
+        <v>1.96</v>
       </c>
       <c r="R18" t="n">
         <v>1.26</v>
@@ -2929,7 +2929,7 @@
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2998,7 +2998,7 @@
         <v>1.73</v>
       </c>
       <c r="R19" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S19" t="n">
         <v>2.84</v>
@@ -3007,7 +3007,7 @@
         <v>1.94</v>
       </c>
       <c r="U19" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V19" t="n">
         <v>1.13</v>
@@ -3022,7 +3022,7 @@
         <v>28</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA19" t="n">
         <v>320</v>
@@ -3115,7 +3115,7 @@
         <v>3.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="M20" t="n">
         <v>1.09</v>
@@ -3133,13 +3133,13 @@
         <v>2.24</v>
       </c>
       <c r="R20" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S20" t="n">
         <v>4.2</v>
       </c>
       <c r="T20" t="n">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="U20" t="n">
         <v>1.88</v>
@@ -3256,16 +3256,16 @@
         <v>1.1</v>
       </c>
       <c r="N21" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O21" t="n">
         <v>1.44</v>
       </c>
       <c r="P21" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="R21" t="n">
         <v>1.27</v>
@@ -3370,16 +3370,16 @@
         <v>1.91</v>
       </c>
       <c r="G22" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="H22" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I22" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J22" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K22" t="n">
         <v>4</v>
@@ -3391,22 +3391,22 @@
         <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O22" t="n">
         <v>1.28</v>
       </c>
       <c r="P22" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q22" t="n">
         <v>1.78</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T22" t="n">
         <v>1.71</v>
@@ -3415,16 +3415,16 @@
         <v>2.16</v>
       </c>
       <c r="V22" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W22" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="X22" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="Z22" t="n">
         <v>34</v>
@@ -3442,7 +3442,7 @@
         <v>22</v>
       </c>
       <c r="AE22" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AF22" t="n">
         <v>12.5</v>
@@ -3469,7 +3469,7 @@
         <v>95</v>
       </c>
       <c r="AN22" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO22" t="n">
         <v>55</v>
@@ -3514,10 +3514,10 @@
         <v>4.3</v>
       </c>
       <c r="J23" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K23" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L23" t="n">
         <v>1.29</v>
@@ -3532,13 +3532,13 @@
         <v>1.2</v>
       </c>
       <c r="P23" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R23" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="S23" t="n">
         <v>2.5</v>
@@ -3571,10 +3571,10 @@
         <v>12.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AD23" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE23" t="n">
         <v>42</v>
@@ -3595,7 +3595,7 @@
         <v>22</v>
       </c>
       <c r="AK23" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL23" t="n">
         <v>24</v>
@@ -3604,10 +3604,10 @@
         <v>60</v>
       </c>
       <c r="AN23" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AO23" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
@@ -3640,7 +3640,7 @@
         <v>2.72</v>
       </c>
       <c r="G24" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="H24" t="n">
         <v>2.82</v>
@@ -3670,7 +3670,7 @@
         <v>1.92</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R24" t="n">
         <v>1.36</v>
@@ -3784,16 +3784,16 @@
         <v>23</v>
       </c>
       <c r="J25" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L25" t="n">
         <v>1.3</v>
       </c>
       <c r="M25" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N25" t="n">
         <v>5.2</v>
@@ -3832,7 +3832,7 @@
         <v>65</v>
       </c>
       <c r="Z25" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
@@ -3847,7 +3847,7 @@
         <v>90</v>
       </c>
       <c r="AE25" t="n">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="AF25" t="n">
         <v>7.4</v>
@@ -3910,61 +3910,61 @@
         <v>3.15</v>
       </c>
       <c r="G26" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H26" t="n">
         <v>2.06</v>
       </c>
       <c r="I26" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="J26" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L26" t="n">
         <v>1.23</v>
       </c>
       <c r="M26" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O26" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P26" t="n">
-        <v>2.44</v>
+        <v>1.62</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R26" t="n">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="S26" t="n">
-        <v>2.36</v>
+        <v>2.08</v>
       </c>
       <c r="T26" t="n">
-        <v>1.58</v>
+        <v>1.04</v>
       </c>
       <c r="U26" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V26" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="W26" t="n">
         <v>1.38</v>
       </c>
       <c r="X26" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z26" t="n">
         <v>21</v>
@@ -3985,13 +3985,13 @@
         <v>21</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AG26" t="n">
         <v>15</v>
       </c>
       <c r="AH26" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI26" t="n">
         <v>980</v>
@@ -4006,13 +4006,13 @@
         <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN26" t="n">
         <v>980</v>
       </c>
       <c r="AO26" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
@@ -673,19 +673,19 @@
         <v>1.76</v>
       </c>
       <c r="H2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I2" t="n">
         <v>7.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="K2" t="n">
         <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -709,7 +709,7 @@
         <v>2.58</v>
       </c>
       <c r="T2" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U2" t="n">
         <v>2.04</v>
@@ -718,7 +718,7 @@
         <v>1.16</v>
       </c>
       <c r="W2" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="X2" t="n">
         <v>23</v>
@@ -727,7 +727,7 @@
         <v>23</v>
       </c>
       <c r="Z2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
@@ -820,7 +820,7 @@
         <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
@@ -835,7 +835,7 @@
         <v>1.68</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="R3" t="n">
         <v>1.25</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="G4" t="n">
         <v>1.99</v>
@@ -952,16 +952,16 @@
         <v>3.55</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L4" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O4" t="n">
         <v>1.32</v>
@@ -970,7 +970,7 @@
         <v>1.93</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R4" t="n">
         <v>1.34</v>
@@ -1075,7 +1075,7 @@
         <v>2.32</v>
       </c>
       <c r="G5" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
@@ -1117,7 +1117,7 @@
         <v>1.65</v>
       </c>
       <c r="U5" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
         <v>1.39</v>
@@ -1126,7 +1126,7 @@
         <v>1.62</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y5" t="n">
         <v>15</v>
@@ -1207,28 +1207,28 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="G6" t="n">
         <v>1.41</v>
       </c>
       <c r="H6" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="J6" t="n">
         <v>5.4</v>
       </c>
       <c r="K6" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
         <v>6</v>
@@ -1240,22 +1240,22 @@
         <v>2.72</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="R6" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S6" t="n">
         <v>2.12</v>
       </c>
       <c r="T6" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U6" t="n">
         <v>2.06</v>
       </c>
       <c r="V6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W6" t="n">
         <v>3.35</v>
@@ -1291,7 +1291,7 @@
         <v>11.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
@@ -1303,7 +1303,7 @@
         <v>14.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
@@ -1348,64 +1348,64 @@
         <v>1.29</v>
       </c>
       <c r="H7" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="I7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="J7" t="n">
         <v>6.8</v>
       </c>
       <c r="K7" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="L7" t="n">
         <v>1.28</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P7" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R7" t="n">
         <v>1.67</v>
       </c>
       <c r="S7" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="T7" t="n">
         <v>2.02</v>
       </c>
       <c r="U7" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V7" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W7" t="n">
         <v>4.4</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="Y7" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Z7" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AA7" t="n">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="AB7" t="n">
         <v>10.5</v>
@@ -1417,19 +1417,19 @@
         <v>46</v>
       </c>
       <c r="AE7" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AF7" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG7" t="n">
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AI7" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AJ7" t="n">
         <v>10.5</v>
@@ -1444,7 +1444,7 @@
         <v>190</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,46 +1477,46 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="G8" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="H8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I8" t="n">
         <v>3.4</v>
       </c>
-      <c r="I8" t="n">
-        <v>3.5</v>
-      </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K8" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L8" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M8" t="n">
         <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="O8" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P8" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q8" t="n">
         <v>2.24</v>
       </c>
       <c r="R8" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S8" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T8" t="n">
         <v>1.89</v>
@@ -1525,10 +1525,10 @@
         <v>2.02</v>
       </c>
       <c r="V8" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W8" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="X8" t="n">
         <v>11</v>
@@ -1579,7 +1579,7 @@
         <v>120</v>
       </c>
       <c r="AN8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO8" t="n">
         <v>48</v>
@@ -1636,19 +1636,19 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R9" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S9" t="n">
         <v>2.32</v>
@@ -1687,7 +1687,7 @@
         <v>27</v>
       </c>
       <c r="AE9" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AF9" t="n">
         <v>970</v>
@@ -1711,7 +1711,7 @@
         <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AN9" t="n">
         <v>6</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="G10" t="n">
         <v>1.48</v>
@@ -1762,22 +1762,22 @@
         <v>4.8</v>
       </c>
       <c r="K10" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O10" t="n">
         <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q10" t="n">
         <v>1.63</v>
@@ -1786,13 +1786,13 @@
         <v>1.51</v>
       </c>
       <c r="S10" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="T10" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U10" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="V10" t="n">
         <v>1.09</v>
@@ -1807,7 +1807,7 @@
         <v>38</v>
       </c>
       <c r="Z10" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AA10" t="n">
         <v>350</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="H11" t="n">
         <v>1.7</v>
       </c>
       <c r="I11" t="n">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="J11" t="n">
         <v>3.95</v>
@@ -1900,7 +1900,7 @@
         <v>4.2</v>
       </c>
       <c r="L11" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
@@ -1924,37 +1924,37 @@
         <v>3.6</v>
       </c>
       <c r="T11" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="U11" t="n">
         <v>1.89</v>
       </c>
       <c r="V11" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="W11" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="X11" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB11" t="n">
         <v>22</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD11" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AE11" t="n">
         <v>970</v>
@@ -1969,7 +1969,7 @@
         <v>23</v>
       </c>
       <c r="AI11" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AJ11" t="n">
         <v>190</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="G12" t="n">
         <v>11</v>
       </c>
       <c r="H12" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="I12" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="J12" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="K12" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="L12" t="n">
         <v>1.23</v>
@@ -2041,7 +2041,7 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.17</v>
@@ -2050,43 +2050,43 @@
         <v>2.62</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="R12" t="n">
         <v>1.64</v>
       </c>
       <c r="S12" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="T12" t="n">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="U12" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="W12" t="n">
         <v>1.1</v>
       </c>
       <c r="X12" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y12" t="n">
         <v>970</v>
       </c>
       <c r="Z12" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AA12" t="n">
         <v>14</v>
       </c>
       <c r="AB12" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC12" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AD12" t="n">
         <v>970</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="G13" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H13" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="I13" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="J13" t="n">
         <v>4.2</v>
       </c>
       <c r="K13" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L13" t="n">
         <v>1.5</v>
@@ -2185,7 +2185,7 @@
         <v>1.69</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R13" t="n">
         <v>1.25</v>
@@ -2197,19 +2197,19 @@
         <v>2.4</v>
       </c>
       <c r="U13" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="V13" t="n">
         <v>1.12</v>
       </c>
       <c r="W13" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="X13" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z13" t="n">
         <v>80</v>
@@ -2233,19 +2233,19 @@
         <v>7.4</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI13" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AJ13" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL13" t="n">
         <v>60</v>
@@ -2257,7 +2257,7 @@
         <v>12</v>
       </c>
       <c r="AO13" t="n">
-        <v>390</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14">
@@ -2329,7 +2329,7 @@
         <v>1.07</v>
       </c>
       <c r="T14" t="n">
-        <v>1.04</v>
+        <v>1.32</v>
       </c>
       <c r="U14" t="n">
         <v>1.04</v>
@@ -2572,31 +2572,31 @@
         <v>3.05</v>
       </c>
       <c r="K16" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M16" t="n">
         <v>1.1</v>
       </c>
       <c r="N16" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="O16" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P16" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="R16" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="S16" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="T16" t="n">
         <v>1.93</v>
@@ -2692,58 +2692,58 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="G17" t="n">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="H17" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I17" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="J17" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="K17" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="L17" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M17" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="O17" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P17" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="R17" t="n">
         <v>1.21</v>
       </c>
       <c r="S17" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="T17" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="U17" t="n">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
       <c r="V17" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W17" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="X17" t="n">
         <v>10</v>
@@ -2752,7 +2752,7 @@
         <v>7.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA17" t="n">
         <v>30</v>
@@ -2776,10 +2776,10 @@
         <v>19</v>
       </c>
       <c r="AH17" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AI17" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ17" t="n">
         <v>1000</v>
@@ -2830,7 +2830,7 @@
         <v>1.44</v>
       </c>
       <c r="G18" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="H18" t="n">
         <v>7.6</v>
@@ -2842,10 +2842,10 @@
         <v>4.1</v>
       </c>
       <c r="K18" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M18" t="n">
         <v>1.08</v>
@@ -2875,10 +2875,10 @@
         <v>1.52</v>
       </c>
       <c r="V18" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W18" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="X18" t="n">
         <v>15</v>
@@ -2980,7 +2980,7 @@
         <v>5.1</v>
       </c>
       <c r="L19" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M19" t="n">
         <v>1.05</v>
@@ -2995,13 +2995,13 @@
         <v>2.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R19" t="n">
         <v>1.48</v>
       </c>
       <c r="S19" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T19" t="n">
         <v>1.94</v>
@@ -3016,22 +3016,22 @@
         <v>2.96</v>
       </c>
       <c r="X19" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y19" t="n">
         <v>28</v>
       </c>
       <c r="Z19" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="AB19" t="n">
         <v>9</v>
       </c>
       <c r="AC19" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD19" t="n">
         <v>1000</v>
@@ -3046,7 +3046,7 @@
         <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI19" t="n">
         <v>130</v>
@@ -3100,19 +3100,19 @@
         <v>4.1</v>
       </c>
       <c r="G20" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="H20" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="I20" t="n">
         <v>2.14</v>
       </c>
       <c r="J20" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K20" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L20" t="n">
         <v>1.47</v>
@@ -3121,7 +3121,7 @@
         <v>1.09</v>
       </c>
       <c r="N20" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O20" t="n">
         <v>1.42</v>
@@ -3130,25 +3130,25 @@
         <v>1.68</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R20" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S20" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T20" t="n">
         <v>1.94</v>
       </c>
       <c r="U20" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V20" t="n">
         <v>1.87</v>
       </c>
       <c r="W20" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X20" t="n">
         <v>11.5</v>
@@ -3190,7 +3190,7 @@
         <v>130</v>
       </c>
       <c r="AK20" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AL20" t="n">
         <v>95</v>
@@ -3232,109 +3232,109 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="G21" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I21" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="J21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K21" t="n">
         <v>3.25</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.3</v>
       </c>
       <c r="L21" t="n">
         <v>1.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N21" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P21" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="R21" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S21" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T21" t="n">
         <v>1.99</v>
       </c>
       <c r="U21" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="V21" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="W21" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="X21" t="n">
         <v>10</v>
       </c>
       <c r="Y21" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA21" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD21" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF21" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH21" t="n">
         <v>20</v>
       </c>
       <c r="AI21" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ21" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK21" t="n">
         <v>28</v>
       </c>
-      <c r="AK21" t="n">
-        <v>27</v>
-      </c>
       <c r="AL21" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AM21" t="n">
         <v>140</v>
       </c>
       <c r="AN21" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO21" t="n">
         <v>70</v>
@@ -3367,19 +3367,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G22" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="H22" t="n">
         <v>4.2</v>
       </c>
       <c r="I22" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="J22" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K22" t="n">
         <v>4</v>
@@ -3400,7 +3400,7 @@
         <v>2.06</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R22" t="n">
         <v>1.41</v>
@@ -3415,16 +3415,16 @@
         <v>2.16</v>
       </c>
       <c r="V22" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W22" t="n">
         <v>2.06</v>
       </c>
       <c r="X22" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="Y22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z22" t="n">
         <v>34</v>
@@ -3433,16 +3433,16 @@
         <v>100</v>
       </c>
       <c r="AB22" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC22" t="n">
         <v>9</v>
       </c>
       <c r="AD22" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE22" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AF22" t="n">
         <v>12.5</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="G23" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="H23" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I23" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J23" t="n">
         <v>4.3</v>
@@ -3520,94 +3520,94 @@
         <v>4.4</v>
       </c>
       <c r="L23" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M23" t="n">
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O23" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P23" t="n">
-        <v>2.58</v>
+        <v>2.74</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="R23" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="S23" t="n">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="T23" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="U23" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="V23" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W23" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="X23" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y23" t="n">
         <v>22</v>
       </c>
-      <c r="Y23" t="n">
-        <v>20</v>
-      </c>
       <c r="Z23" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA23" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AB23" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AE23" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AF23" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG23" t="n">
         <v>10</v>
       </c>
       <c r="AH23" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI23" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AJ23" t="n">
         <v>22</v>
       </c>
       <c r="AK23" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AM23" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN23" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AO23" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
@@ -3637,19 +3637,19 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="G24" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="H24" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="I24" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="J24" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K24" t="n">
         <v>3.55</v>
@@ -3658,13 +3658,13 @@
         <v>1.42</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
         <v>3.7</v>
       </c>
       <c r="O24" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P24" t="n">
         <v>1.92</v>
@@ -3688,10 +3688,10 @@
         <v>1.53</v>
       </c>
       <c r="W24" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y24" t="n">
         <v>11.5</v>
@@ -3721,7 +3721,7 @@
         <v>12</v>
       </c>
       <c r="AH24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI24" t="n">
         <v>44</v>
@@ -3778,16 +3778,16 @@
         <v>1.2</v>
       </c>
       <c r="H25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J25" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="K25" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="L25" t="n">
         <v>1.3</v>
@@ -3799,28 +3799,28 @@
         <v>5.2</v>
       </c>
       <c r="O25" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P25" t="n">
         <v>2.44</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R25" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S25" t="n">
         <v>2.58</v>
       </c>
       <c r="T25" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="U25" t="n">
         <v>1.59</v>
       </c>
       <c r="V25" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="W25" t="n">
         <v>6</v>
@@ -3832,7 +3832,7 @@
         <v>65</v>
       </c>
       <c r="Z25" t="n">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
@@ -3847,7 +3847,7 @@
         <v>90</v>
       </c>
       <c r="AE25" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="AF25" t="n">
         <v>7.4</v>
@@ -3859,19 +3859,19 @@
         <v>55</v>
       </c>
       <c r="AI25" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="AJ25" t="n">
         <v>8.6</v>
       </c>
       <c r="AK25" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AL25" t="n">
         <v>60</v>
       </c>
       <c r="AM25" t="n">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="AN25" t="n">
         <v>4.2</v>
@@ -3907,13 +3907,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="G26" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H26" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
         <v>2.18</v>
@@ -3922,7 +3922,7 @@
         <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L26" t="n">
         <v>1.23</v>
@@ -3931,76 +3931,76 @@
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O26" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P26" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R26" t="n">
         <v>1.62</v>
       </c>
-      <c r="Q26" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.48</v>
-      </c>
       <c r="S26" t="n">
-        <v>2.08</v>
+        <v>2.34</v>
       </c>
       <c r="T26" t="n">
-        <v>1.04</v>
+        <v>1.54</v>
       </c>
       <c r="U26" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="V26" t="n">
         <v>1.84</v>
       </c>
       <c r="W26" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y26" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Z26" t="n">
         <v>21</v>
       </c>
       <c r="AA26" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AB26" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AC26" t="n">
         <v>10.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF26" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AG26" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH26" t="n">
         <v>16.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AJ26" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
         <v>1000</v>
@@ -4009,10 +4009,10 @@
         <v>65</v>
       </c>
       <c r="AN26" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AO26" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO26"/>
+  <dimension ref="A1:AO28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,64 +667,64 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="G2" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="H2" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="I2" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="J2" t="n">
         <v>3.7</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.24</v>
+        <v>1.4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="O2" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1.96</v>
       </c>
-      <c r="Q2" t="n">
-        <v>1.71</v>
-      </c>
       <c r="R2" t="n">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="S2" t="n">
-        <v>2.58</v>
+        <v>3.25</v>
       </c>
       <c r="T2" t="n">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="U2" t="n">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="V2" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="W2" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="X2" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="Y2" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="Z2" t="n">
         <v>55</v>
@@ -739,7 +739,7 @@
         <v>970</v>
       </c>
       <c r="AD2" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -751,19 +751,19 @@
         <v>970</v>
       </c>
       <c r="AH2" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AI2" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>970</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AL2" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -772,13 +772,13 @@
         <v>970</v>
       </c>
       <c r="AO2" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>Italian Serie D</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,123 +788,123 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Neftchi Baku</t>
+          <t>Siena</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FK Sumqayit</t>
+          <t>ASD Camaiore</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.85</v>
+        <v>1.04</v>
       </c>
       <c r="G3" t="n">
-        <v>2.06</v>
+        <v>610</v>
       </c>
       <c r="H3" t="n">
-        <v>4.5</v>
+        <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>5.8</v>
+        <v>610</v>
       </c>
       <c r="J3" t="n">
-        <v>3.25</v>
+        <v>1.04</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>110</v>
       </c>
       <c r="L3" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>2.98</v>
+        <v>1.25</v>
       </c>
       <c r="O3" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.68</v>
+        <v>1.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="R3" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.95</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.21</v>
+        <v>1.02</v>
       </c>
       <c r="W3" t="n">
-        <v>1.94</v>
+        <v>1.02</v>
       </c>
       <c r="X3" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Farul Constanta</t>
+          <t>Neftchi Baku</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>UTA Arad</t>
+          <t>FK Sumqayit</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="G4" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="H4" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I4" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L4" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.6</v>
+        <v>2.98</v>
       </c>
       <c r="O4" t="n">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="P4" t="n">
-        <v>1.93</v>
+        <v>1.68</v>
       </c>
       <c r="Q4" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T4" t="n">
         <v>1.95</v>
       </c>
-      <c r="R4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.8</v>
-      </c>
       <c r="U4" t="n">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="V4" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W4" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="X4" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z4" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AA4" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AE4" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AF4" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>19.5</v>
+        <v>27</v>
       </c>
       <c r="AI4" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AJ4" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AK4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN4" t="n">
         <v>22</v>
       </c>
-      <c r="AL4" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AO4" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Farul Constanta</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>UTA Arad</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.32</v>
+        <v>1.88</v>
       </c>
       <c r="G5" t="n">
-        <v>2.64</v>
+        <v>1.99</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="I5" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J5" t="n">
         <v>3.55</v>
       </c>
-      <c r="J5" t="n">
-        <v>3.3</v>
-      </c>
       <c r="K5" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="L5" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O5" t="n">
         <v>1.32</v>
       </c>
       <c r="P5" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="Q5" t="n">
         <v>1.95</v>
       </c>
       <c r="R5" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S5" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="W5" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="X5" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z5" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB5" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF5" t="n">
         <v>12.5</v>
       </c>
-      <c r="AC5" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF5" t="n">
+      <c r="AG5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH5" t="n">
         <v>19.5</v>
       </c>
-      <c r="AG5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>21</v>
-      </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ5" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="AK5" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AL5" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN5" t="n">
-        <v>27</v>
+        <v>14.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.34</v>
+        <v>2.36</v>
       </c>
       <c r="G6" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L6" t="n">
         <v>1.41</v>
       </c>
-      <c r="H6" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="I6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.21</v>
-      </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.16</v>
+        <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>2.72</v>
+        <v>1.85</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.46</v>
+        <v>1.96</v>
       </c>
       <c r="R6" t="n">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="S6" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U6" t="n">
         <v>2.12</v>
       </c>
-      <c r="T6" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.06</v>
-      </c>
       <c r="V6" t="n">
-        <v>1.11</v>
+        <v>1.41</v>
       </c>
       <c r="W6" t="n">
-        <v>3.35</v>
+        <v>1.64</v>
       </c>
       <c r="X6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK6" t="n">
         <v>34</v>
       </c>
-      <c r="Y6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AL6" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.6</v>
+        <v>27</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,118 +1333,118 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="G7" t="n">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="H7" t="n">
-        <v>11.5</v>
+        <v>8.4</v>
       </c>
       <c r="I7" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="J7" t="n">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="K7" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="M7" t="n">
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="P7" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="R7" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="S7" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="T7" t="n">
-        <v>2.02</v>
+        <v>1.73</v>
       </c>
       <c r="U7" t="n">
-        <v>1.87</v>
+        <v>2.14</v>
       </c>
       <c r="V7" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="W7" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="X7" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="Y7" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AC7" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AD7" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AK7" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM7" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CD Nacional Funchal</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.48</v>
+        <v>1.27</v>
       </c>
       <c r="G8" t="n">
-        <v>2.54</v>
+        <v>1.3</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>11</v>
       </c>
       <c r="I8" t="n">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="J8" t="n">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="K8" t="n">
-        <v>3.35</v>
+        <v>7.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.49</v>
+        <v>1.28</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>3.25</v>
+        <v>5.9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.41</v>
+        <v>1.18</v>
       </c>
       <c r="P8" t="n">
-        <v>1.75</v>
+        <v>2.68</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.24</v>
+        <v>1.54</v>
       </c>
       <c r="R8" t="n">
-        <v>1.27</v>
+        <v>1.63</v>
       </c>
       <c r="S8" t="n">
-        <v>4.2</v>
+        <v>2.38</v>
       </c>
       <c r="T8" t="n">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="U8" t="n">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="V8" t="n">
-        <v>1.41</v>
+        <v>1.08</v>
       </c>
       <c r="W8" t="n">
-        <v>1.65</v>
+        <v>4.3</v>
       </c>
       <c r="X8" t="n">
+        <v>42</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>46</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>140</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>560</v>
+      </c>
+      <c r="AB8" t="n">
         <v>11</v>
       </c>
-      <c r="Y8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AC8" t="n">
-        <v>7.2</v>
+        <v>19</v>
       </c>
       <c r="AD8" t="n">
-        <v>14.5</v>
+        <v>48</v>
       </c>
       <c r="AE8" t="n">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="AF8" t="n">
-        <v>15</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG8" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>19.5</v>
+        <v>34</v>
       </c>
       <c r="AI8" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="AJ8" t="n">
-        <v>36</v>
+        <v>10.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AL8" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AN8" t="n">
-        <v>27</v>
+        <v>4.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>48</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>CD Nacional Funchal</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hapoel Petach Tikva</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="F9" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L9" t="n">
         <v>1.49</v>
       </c>
-      <c r="G9" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="H9" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="K9" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.23</v>
-      </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="O9" t="n">
-        <v>1.18</v>
+        <v>1.41</v>
       </c>
       <c r="P9" t="n">
-        <v>2.56</v>
+        <v>1.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.54</v>
+        <v>2.22</v>
       </c>
       <c r="R9" t="n">
-        <v>1.63</v>
+        <v>1.27</v>
       </c>
       <c r="S9" t="n">
-        <v>2.32</v>
+        <v>4.2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.69</v>
+        <v>1.89</v>
       </c>
       <c r="U9" t="n">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="V9" t="n">
-        <v>1.16</v>
+        <v>1.41</v>
       </c>
       <c r="W9" t="n">
-        <v>2.68</v>
+        <v>1.66</v>
       </c>
       <c r="X9" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="Y9" t="n">
-        <v>32</v>
+        <v>11.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB9" t="n">
-        <v>970</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>970</v>
+        <v>7.2</v>
       </c>
       <c r="AD9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN9" t="n">
         <v>27</v>
       </c>
-      <c r="AE9" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>6</v>
-      </c>
       <c r="AO9" t="n">
-        <v>85</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Bnei Sakhnin</t>
+          <t>Hapoel Petach Tikva</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="G10" t="n">
-        <v>1.48</v>
+        <v>1.59</v>
       </c>
       <c r="H10" t="n">
-        <v>8.199999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="I10" t="n">
-        <v>11.5</v>
+        <v>7.6</v>
       </c>
       <c r="J10" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="K10" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>2.3</v>
+        <v>2.56</v>
       </c>
       <c r="Q10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R10" t="n">
         <v>1.63</v>
       </c>
-      <c r="R10" t="n">
-        <v>1.51</v>
-      </c>
       <c r="S10" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="T10" t="n">
-        <v>1.92</v>
+        <v>1.69</v>
       </c>
       <c r="U10" t="n">
-        <v>1.78</v>
+        <v>2.18</v>
       </c>
       <c r="V10" t="n">
-        <v>1.09</v>
+        <v>1.16</v>
       </c>
       <c r="W10" t="n">
-        <v>3.05</v>
+        <v>2.68</v>
       </c>
       <c r="X10" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD10" t="n">
         <v>27</v>
       </c>
-      <c r="Y10" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>100</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>350</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>40</v>
-      </c>
       <c r="AE10" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AF10" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AH10" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AJ10" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AK10" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AL10" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="AN10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO10" t="n">
-        <v>190</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Bnei Sakhnin</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="G11" t="n">
-        <v>6.2</v>
+        <v>1.47</v>
       </c>
       <c r="H11" t="n">
-        <v>1.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>1.72</v>
+        <v>11.5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.95</v>
+        <v>4.8</v>
       </c>
       <c r="K11" t="n">
-        <v>4.2</v>
+        <v>5.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="P11" t="n">
-        <v>1.84</v>
+        <v>2.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.98</v>
+        <v>1.63</v>
       </c>
       <c r="R11" t="n">
-        <v>1.32</v>
+        <v>1.51</v>
       </c>
       <c r="S11" t="n">
-        <v>3.6</v>
+        <v>2.58</v>
       </c>
       <c r="T11" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="U11" t="n">
-        <v>1.89</v>
+        <v>1.78</v>
       </c>
       <c r="V11" t="n">
-        <v>2.38</v>
+        <v>1.09</v>
       </c>
       <c r="W11" t="n">
-        <v>1.19</v>
+        <v>3.1</v>
       </c>
       <c r="X11" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.199999999999999</v>
+        <v>38</v>
       </c>
       <c r="Z11" t="n">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="AA11" t="n">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="AB11" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.199999999999999</v>
+        <v>14.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>10.5</v>
+        <v>40</v>
       </c>
       <c r="AE11" t="n">
-        <v>970</v>
+        <v>160</v>
       </c>
       <c r="AF11" t="n">
-        <v>46</v>
+        <v>11.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AI11" t="n">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="AJ11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO11" t="n">
         <v>190</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>140</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>12.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FK Backa Topola</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>8.6</v>
+        <v>6</v>
       </c>
       <c r="G12" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X12" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z12" t="n">
         <v>11</v>
       </c>
-      <c r="H12" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="J12" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K12" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2</v>
-      </c>
-      <c r="V12" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="X12" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y12" t="n">
+      <c r="AA12" t="n">
         <v>970</v>
       </c>
-      <c r="Z12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>14</v>
-      </c>
       <c r="AB12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>970</v>
+      </c>
+      <c r="AF12" t="n">
         <v>46</v>
       </c>
-      <c r="AC12" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>1000</v>
-      </c>
       <c r="AG12" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="AH12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI12" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AO12" t="n">
-        <v>5.3</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>FK Backa Topola</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.54</v>
+        <v>8.4</v>
       </c>
       <c r="G13" t="n">
-        <v>1.57</v>
+        <v>10.5</v>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>1.36</v>
       </c>
       <c r="I13" t="n">
-        <v>9</v>
+        <v>1.42</v>
       </c>
       <c r="J13" t="n">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="K13" t="n">
-        <v>4.3</v>
+        <v>6.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.5</v>
+        <v>1.23</v>
       </c>
       <c r="M13" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>2.98</v>
+        <v>5.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.45</v>
+        <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>1.69</v>
+        <v>2.54</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.32</v>
+        <v>1.52</v>
       </c>
       <c r="R13" t="n">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="S13" t="n">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="T13" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="U13" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.12</v>
+        <v>3.35</v>
       </c>
       <c r="W13" t="n">
-        <v>2.74</v>
+        <v>1.11</v>
       </c>
       <c r="X13" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y13" t="n">
         <v>11</v>
       </c>
-      <c r="Y13" t="n">
-        <v>21</v>
-      </c>
       <c r="Z13" t="n">
-        <v>80</v>
+        <v>11.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>420</v>
+        <v>13.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>6.2</v>
+        <v>38</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.6</v>
+        <v>14</v>
       </c>
       <c r="AD13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG13" t="n">
         <v>36</v>
       </c>
-      <c r="AE13" t="n">
-        <v>210</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH13" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AI13" t="n">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="AJ13" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="AL13" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AM13" t="n">
-        <v>290</v>
+        <v>130</v>
       </c>
       <c r="AN13" t="n">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="AO13" t="n">
-        <v>370</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CDT Real Oruro</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.04</v>
+        <v>1.52</v>
       </c>
       <c r="G14" t="n">
-        <v>1000</v>
+        <v>1.55</v>
       </c>
       <c r="H14" t="n">
-        <v>1.04</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="J14" t="n">
-        <v>1.02</v>
+        <v>4.2</v>
       </c>
       <c r="K14" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N14" t="n">
-        <v>1.1</v>
+        <v>3.25</v>
       </c>
       <c r="O14" t="n">
-        <v>1.07</v>
+        <v>1.43</v>
       </c>
       <c r="P14" t="n">
-        <v>1.25</v>
+        <v>1.73</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.07</v>
+        <v>2.28</v>
       </c>
       <c r="R14" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="S14" t="n">
-        <v>1.07</v>
+        <v>4.4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.32</v>
+        <v>2.38</v>
       </c>
       <c r="U14" t="n">
-        <v>1.04</v>
+        <v>1.64</v>
       </c>
       <c r="V14" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="W14" t="n">
-        <v>1.01</v>
+        <v>2.82</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,126 +2408,126 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>San Antonio Bulo Bulo</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>S.S.D. Casarano Calcio</t>
+          <t>CDT Real Oruro</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.58</v>
+        <v>1.07</v>
       </c>
       <c r="G15" t="n">
-        <v>1.75</v>
+        <v>1000</v>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>1.07</v>
       </c>
       <c r="I15" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="J15" t="n">
-        <v>3.4</v>
+        <v>1.09</v>
       </c>
       <c r="K15" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>3.55</v>
+        <v>2.06</v>
       </c>
       <c r="O15" t="n">
-        <v>1.29</v>
+        <v>1.07</v>
       </c>
       <c r="P15" t="n">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.89</v>
+        <v>1.07</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Ravenna</t>
+          <t>S.S.D. Casarano Calcio</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.4</v>
+        <v>1.59</v>
       </c>
       <c r="G16" t="n">
-        <v>3.95</v>
+        <v>1.76</v>
       </c>
       <c r="H16" t="n">
-        <v>2.26</v>
+        <v>6</v>
       </c>
       <c r="I16" t="n">
-        <v>2.52</v>
+        <v>7.6</v>
       </c>
       <c r="J16" t="n">
-        <v>3.05</v>
+        <v>3.65</v>
       </c>
       <c r="K16" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>2.82</v>
+        <v>3.55</v>
       </c>
       <c r="O16" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>1.64</v>
+        <v>1.86</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.28</v>
+        <v>1.89</v>
       </c>
       <c r="R16" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AH16" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2683,31 +2683,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Foggia</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Monopoli</t>
+          <t>Ravenna</t>
         </is>
       </c>
       <c r="F17" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G17" t="n">
         <v>3.95</v>
       </c>
-      <c r="G17" t="n">
-        <v>5.3</v>
-      </c>
       <c r="H17" t="n">
-        <v>2.06</v>
+        <v>2.26</v>
       </c>
       <c r="I17" t="n">
-        <v>2.3</v>
+        <v>2.52</v>
       </c>
       <c r="J17" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L17" t="n">
         <v>1.51</v>
@@ -2716,49 +2716,49 @@
         <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="O17" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P17" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="R17" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S17" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T17" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="U17" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="V17" t="n">
-        <v>1.77</v>
+        <v>1.66</v>
       </c>
       <c r="W17" t="n">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="X17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA17" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AB17" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC17" t="n">
         <v>7.8</v>
@@ -2767,28 +2767,28 @@
         <v>12</v>
       </c>
       <c r="AE17" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AF17" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AH17" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AK17" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM17" t="n">
         <v>1000</v>
@@ -2818,109 +2818,109 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ASD Pineto Calcio</t>
+          <t>Monopoli</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.44</v>
+        <v>3.9</v>
       </c>
       <c r="G18" t="n">
-        <v>1.52</v>
+        <v>4.7</v>
       </c>
       <c r="H18" t="n">
-        <v>7.6</v>
+        <v>2.06</v>
       </c>
       <c r="I18" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB18" t="n">
         <v>12.5</v>
       </c>
-      <c r="J18" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>5</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W18" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="X18" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>6.6</v>
-      </c>
       <c r="AC18" t="n">
-        <v>970</v>
+        <v>7.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AF18" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AG18" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AH18" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AL18" t="n">
         <v>1000</v>
@@ -2932,13 +2932,13 @@
         <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,118 +2953,118 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CD Castellon</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>ASD Pineto Calcio</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="G19" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="H19" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="I19" t="n">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="J19" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>4.4</v>
+        <v>3.15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="P19" t="n">
-        <v>2.2</v>
+        <v>1.76</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.74</v>
+        <v>1.96</v>
       </c>
       <c r="R19" t="n">
-        <v>1.48</v>
+        <v>1.26</v>
       </c>
       <c r="S19" t="n">
-        <v>2.86</v>
+        <v>3.6</v>
       </c>
       <c r="T19" t="n">
-        <v>1.94</v>
+        <v>2.12</v>
       </c>
       <c r="U19" t="n">
-        <v>1.93</v>
+        <v>1.52</v>
       </c>
       <c r="V19" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="W19" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="X19" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Z19" t="n">
         <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>9</v>
+        <v>970</v>
       </c>
       <c r="AC19" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AD19" t="n">
         <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AG19" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AH19" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AI19" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AK19" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AL19" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3073,7 +3073,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Boulogne</t>
+          <t>CD Castellon</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ESTAC Troyes</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.1</v>
+        <v>1.48</v>
       </c>
       <c r="G20" t="n">
-        <v>4.6</v>
+        <v>1.51</v>
       </c>
       <c r="H20" t="n">
-        <v>2.04</v>
+        <v>7.8</v>
       </c>
       <c r="I20" t="n">
-        <v>2.14</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J20" t="n">
-        <v>3.4</v>
+        <v>4.7</v>
       </c>
       <c r="K20" t="n">
-        <v>3.55</v>
+        <v>5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
       <c r="M20" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="P20" t="n">
-        <v>1.68</v>
+        <v>2.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.26</v>
+        <v>1.74</v>
       </c>
       <c r="R20" t="n">
-        <v>1.24</v>
+        <v>1.48</v>
       </c>
       <c r="S20" t="n">
-        <v>4.3</v>
+        <v>2.86</v>
       </c>
       <c r="T20" t="n">
         <v>1.94</v>
       </c>
       <c r="U20" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="V20" t="n">
-        <v>1.87</v>
+        <v>1.13</v>
       </c>
       <c r="W20" t="n">
-        <v>1.29</v>
+        <v>2.96</v>
       </c>
       <c r="X20" t="n">
-        <v>11.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.199999999999999</v>
+        <v>28</v>
       </c>
       <c r="Z20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>310</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>13</v>
       </c>
-      <c r="AA20" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB20" t="n">
+      <c r="AK20" t="n">
         <v>15.5</v>
       </c>
-      <c r="AC20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>130</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>75</v>
-      </c>
       <c r="AL20" t="n">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="AM20" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AO20" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,127 +3223,127 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Boulogne</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>ESTAC Troyes</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.32</v>
+        <v>4.1</v>
       </c>
       <c r="G21" t="n">
-        <v>2.34</v>
+        <v>4.5</v>
       </c>
       <c r="H21" t="n">
-        <v>3.8</v>
+        <v>2.06</v>
       </c>
       <c r="I21" t="n">
-        <v>3.85</v>
+        <v>2.14</v>
       </c>
       <c r="J21" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K21" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="M21" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N21" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O21" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="P21" t="n">
         <v>1.69</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.4</v>
+        <v>2.26</v>
       </c>
       <c r="R21" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S21" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="T21" t="n">
-        <v>1.99</v>
+        <v>1.8</v>
       </c>
       <c r="U21" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="V21" t="n">
-        <v>1.35</v>
+        <v>1.87</v>
       </c>
       <c r="W21" t="n">
-        <v>1.74</v>
+        <v>1.29</v>
       </c>
       <c r="X21" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="Z21" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AA21" t="n">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.800000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AD21" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="AF21" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AG21" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="AH21" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AI21" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ21" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="AK21" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="AN21" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>70</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.9</v>
+        <v>2.32</v>
       </c>
       <c r="G22" t="n">
-        <v>1.93</v>
+        <v>2.34</v>
       </c>
       <c r="H22" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="I22" t="n">
-        <v>4.7</v>
+        <v>3.85</v>
       </c>
       <c r="J22" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="L22" t="n">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N22" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="O22" t="n">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="P22" t="n">
-        <v>2.06</v>
+        <v>1.71</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.79</v>
+        <v>2.38</v>
       </c>
       <c r="R22" t="n">
-        <v>1.41</v>
+        <v>1.26</v>
       </c>
       <c r="S22" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="T22" t="n">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="U22" t="n">
-        <v>2.16</v>
+        <v>1.95</v>
       </c>
       <c r="V22" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="W22" t="n">
-        <v>2.06</v>
+        <v>1.74</v>
       </c>
       <c r="X22" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="Y22" t="n">
-        <v>20</v>
+        <v>11.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AA22" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AB22" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AD22" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AE22" t="n">
         <v>55</v>
       </c>
       <c r="AF22" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI22" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ22" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AK22" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AL22" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AM22" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="AN22" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="AO22" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="G23" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="H23" t="n">
         <v>4.3</v>
       </c>
       <c r="I23" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="J23" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="K23" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L23" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>6</v>
+        <v>4.1</v>
       </c>
       <c r="O23" t="n">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="P23" t="n">
-        <v>2.74</v>
+        <v>2.06</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.55</v>
+        <v>1.81</v>
       </c>
       <c r="R23" t="n">
-        <v>1.71</v>
+        <v>1.41</v>
       </c>
       <c r="S23" t="n">
-        <v>2.34</v>
+        <v>3.05</v>
       </c>
       <c r="T23" t="n">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="U23" t="n">
-        <v>2.68</v>
+        <v>2.18</v>
       </c>
       <c r="V23" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="W23" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="X23" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Y23" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Z23" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AA23" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AB23" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AC23" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AD23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE23" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AF23" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG23" t="n">
         <v>10</v>
       </c>
       <c r="AH23" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AI23" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AJ23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AM23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO23" t="n">
         <v>55</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,127 +3628,127 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.7</v>
+        <v>1.87</v>
       </c>
       <c r="G24" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N24" t="n">
+        <v>6</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P24" t="n">
         <v>2.74</v>
       </c>
-      <c r="H24" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N24" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.92</v>
-      </c>
       <c r="Q24" t="n">
-        <v>2.02</v>
+        <v>1.56</v>
       </c>
       <c r="R24" t="n">
-        <v>1.36</v>
+        <v>1.7</v>
       </c>
       <c r="S24" t="n">
-        <v>3.65</v>
+        <v>2.38</v>
       </c>
       <c r="T24" t="n">
-        <v>1.81</v>
+        <v>1.57</v>
       </c>
       <c r="U24" t="n">
-        <v>2.18</v>
+        <v>2.68</v>
       </c>
       <c r="V24" t="n">
-        <v>1.53</v>
+        <v>1.3</v>
       </c>
       <c r="W24" t="n">
-        <v>1.57</v>
+        <v>2.12</v>
       </c>
       <c r="X24" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="Y24" t="n">
-        <v>11.5</v>
+        <v>23</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.5</v>
+        <v>36</v>
       </c>
       <c r="AA24" t="n">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="AB24" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="AE24" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AF24" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI24" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ24" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="AK24" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AL24" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="AM24" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="AN24" t="n">
-        <v>26</v>
+        <v>7.8</v>
       </c>
       <c r="AO24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,261 +3758,531 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Club Football Estrela</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.19</v>
+        <v>2.8</v>
       </c>
       <c r="G25" t="n">
-        <v>1.2</v>
+        <v>2.84</v>
       </c>
       <c r="H25" t="n">
-        <v>20</v>
+        <v>2.76</v>
       </c>
       <c r="I25" t="n">
-        <v>21</v>
+        <v>2.8</v>
       </c>
       <c r="J25" t="n">
-        <v>8.4</v>
+        <v>3.5</v>
       </c>
       <c r="K25" t="n">
-        <v>8.6</v>
+        <v>3.55</v>
       </c>
       <c r="L25" t="n">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="M25" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>5.2</v>
+        <v>3.7</v>
       </c>
       <c r="O25" t="n">
-        <v>1.21</v>
+        <v>1.35</v>
       </c>
       <c r="P25" t="n">
-        <v>2.44</v>
+        <v>1.92</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.62</v>
+        <v>2.02</v>
       </c>
       <c r="R25" t="n">
-        <v>1.56</v>
+        <v>1.36</v>
       </c>
       <c r="S25" t="n">
-        <v>2.58</v>
+        <v>3.65</v>
       </c>
       <c r="T25" t="n">
-        <v>2.52</v>
+        <v>1.8</v>
       </c>
       <c r="U25" t="n">
-        <v>1.59</v>
+        <v>2.18</v>
       </c>
       <c r="V25" t="n">
-        <v>1.05</v>
+        <v>1.55</v>
       </c>
       <c r="W25" t="n">
-        <v>6</v>
+        <v>1.54</v>
       </c>
       <c r="X25" t="n">
-        <v>32</v>
+        <v>13.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>65</v>
+        <v>11.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>280</v>
+        <v>18.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>19</v>
+        <v>7.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="AE25" t="n">
-        <v>600</v>
+        <v>30</v>
       </c>
       <c r="AF25" t="n">
-        <v>7.4</v>
+        <v>18</v>
       </c>
       <c r="AG25" t="n">
         <v>12.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>55</v>
+        <v>17.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="AJ25" t="n">
-        <v>8.6</v>
+        <v>44</v>
       </c>
       <c r="AK25" t="n">
-        <v>16.5</v>
+        <v>32</v>
       </c>
       <c r="AL25" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AM25" t="n">
-        <v>450</v>
+        <v>95</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.2</v>
+        <v>27</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>Portuguese Primeira Liga</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>17:45:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Club Football Estrela</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H26" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>21</v>
+      </c>
+      <c r="J26" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="K26" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N26" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="W26" t="n">
+        <v>6</v>
+      </c>
+      <c r="X26" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>260</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>90</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>560</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>380</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>430</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Bolivian Liga de Futbol Profesional</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Academia de Balompie Boliviano</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>Ecuadorian Serie A</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>2025-12-15</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>21:00:00</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Emelec</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>El Nacional</t>
         </is>
       </c>
-      <c r="F26" t="n">
+      <c r="F28" t="n">
         <v>3.3</v>
       </c>
-      <c r="G26" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="J26" t="n">
+      <c r="G28" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="J28" t="n">
         <v>4</v>
       </c>
-      <c r="K26" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L26" t="n">
+      <c r="K28" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L28" t="n">
         <v>1.23</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M28" t="n">
         <v>1.01</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N28" t="n">
         <v>5.4</v>
       </c>
-      <c r="O26" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P26" t="n">
+      <c r="O28" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P28" t="n">
         <v>2.48</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q28" t="n">
         <v>1.55</v>
       </c>
-      <c r="R26" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="T26" t="n">
+      <c r="R28" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="T28" t="n">
         <v>1.54</v>
       </c>
-      <c r="U26" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="X26" t="n">
+      <c r="U28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X28" t="n">
         <v>25</v>
       </c>
-      <c r="Y26" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA26" t="n">
+      <c r="Y28" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA28" t="n">
         <v>36</v>
       </c>
-      <c r="AB26" t="n">
+      <c r="AB28" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN28" t="n">
         <v>970</v>
       </c>
-      <c r="AC26" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>970</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>12.5</v>
+      <c r="AO28" t="n">
+        <v>9.6</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="G2" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="H2" t="n">
         <v>5.2</v>
       </c>
       <c r="I2" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J2" t="n">
         <v>3.7</v>
       </c>
       <c r="K2" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.4</v>
@@ -691,34 +691,34 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q2" t="n">
         <v>1.96</v>
       </c>
       <c r="R2" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="S2" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T2" t="n">
         <v>1.94</v>
       </c>
       <c r="U2" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V2" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="W2" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="X2" t="n">
         <v>970</v>
@@ -727,49 +727,49 @@
         <v>970</v>
       </c>
       <c r="Z2" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>55</v>
       </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>970</v>
-      </c>
       <c r="AK2" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="AL2" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>1.45</v>
       </c>
       <c r="G3" t="n">
-        <v>610</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>3.35</v>
       </c>
       <c r="I3" t="n">
-        <v>610</v>
+        <v>44</v>
       </c>
       <c r="J3" t="n">
-        <v>1.04</v>
+        <v>3.15</v>
       </c>
       <c r="K3" t="n">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,16 +826,16 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
@@ -844,16 +844,16 @@
         <v>1.3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.02</v>
+        <v>1.13</v>
       </c>
       <c r="W3" t="n">
-        <v>1.02</v>
+        <v>1.9</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G4" t="n">
         <v>2.06</v>
@@ -949,10 +949,10 @@
         <v>5.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L4" t="n">
         <v>1.46</v>
@@ -964,19 +964,19 @@
         <v>2.98</v>
       </c>
       <c r="O4" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P4" t="n">
         <v>1.68</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R4" t="n">
         <v>1.25</v>
       </c>
       <c r="S4" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="T4" t="n">
         <v>1.95</v>
@@ -985,52 +985,52 @@
         <v>1.83</v>
       </c>
       <c r="V4" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W4" t="n">
         <v>1.94</v>
       </c>
       <c r="X4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z4" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
         <v>90</v>
       </c>
       <c r="AF4" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AG4" t="n">
         <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
         <v>110</v>
       </c>
       <c r="AJ4" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AK4" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AL4" t="n">
         <v>55</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,25 +1072,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="G5" t="n">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="H5" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="L5" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1102,82 +1102,82 @@
         <v>1.32</v>
       </c>
       <c r="P5" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="R5" t="n">
         <v>1.34</v>
       </c>
       <c r="S5" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="T5" t="n">
         <v>1.8</v>
       </c>
       <c r="U5" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V5" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W5" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AA5" t="n">
-        <v>130</v>
+        <v>900</v>
       </c>
       <c r="AB5" t="n">
         <v>9.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="AF5" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG5" t="n">
         <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ5" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="AK5" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL5" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AM5" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AO5" t="n">
-        <v>70</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="G6" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="H6" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J6" t="n">
         <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L6" t="n">
         <v>1.41</v>
@@ -1234,7 +1234,7 @@
         <v>3.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
         <v>1.85</v>
@@ -1255,10 +1255,10 @@
         <v>2.12</v>
       </c>
       <c r="V6" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W6" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="X6" t="n">
         <v>16.5</v>
@@ -1270,25 +1270,25 @@
         <v>28</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="AC6" t="n">
         <v>9.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AE6" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AH6" t="n">
         <v>21</v>
@@ -1303,16 +1303,16 @@
         <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO6" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="G7" t="n">
         <v>1.41</v>
       </c>
       <c r="H7" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="I7" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="J7" t="n">
         <v>5.5</v>
       </c>
       <c r="K7" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L7" t="n">
         <v>1.21</v>
@@ -1372,7 +1372,7 @@
         <v>1.15</v>
       </c>
       <c r="P7" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="Q7" t="n">
         <v>1.45</v>
@@ -1381,25 +1381,25 @@
         <v>1.74</v>
       </c>
       <c r="S7" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="T7" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U7" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W7" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="X7" t="n">
         <v>34</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1414,19 +1414,19 @@
         <v>17</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG7" t="n">
         <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,25 +1477,25 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="G8" t="n">
         <v>1.3</v>
       </c>
       <c r="H8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="I8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="K8" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M8" t="n">
         <v>1.02</v>
@@ -1513,49 +1513,49 @@
         <v>1.54</v>
       </c>
       <c r="R8" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="S8" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="U8" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V8" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W8" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="X8" t="n">
         <v>42</v>
       </c>
       <c r="Y8" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Z8" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AA8" t="n">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="AB8" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AD8" t="n">
         <v>48</v>
       </c>
       <c r="AE8" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AG8" t="n">
         <v>10.5</v>
@@ -1564,7 +1564,7 @@
         <v>34</v>
       </c>
       <c r="AI8" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ8" t="n">
         <v>10.5</v>
@@ -1576,13 +1576,13 @@
         <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>160</v>
+        <v>470</v>
       </c>
       <c r="AN8" t="n">
         <v>4.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9">
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G9" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I9" t="n">
         <v>3.4</v>
@@ -1636,16 +1636,16 @@
         <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O9" t="n">
         <v>1.41</v>
       </c>
       <c r="P9" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R9" t="n">
         <v>1.27</v>
@@ -1675,7 +1675,7 @@
         <v>22</v>
       </c>
       <c r="AA9" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB9" t="n">
         <v>9.199999999999999</v>
@@ -1684,7 +1684,7 @@
         <v>7.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE9" t="n">
         <v>46</v>
@@ -1714,10 +1714,10 @@
         <v>120</v>
       </c>
       <c r="AN9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO9" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="G10" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="H10" t="n">
         <v>6.2</v>
@@ -1762,7 +1762,7 @@
         <v>4.7</v>
       </c>
       <c r="K10" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L10" t="n">
         <v>1.23</v>
@@ -1777,13 +1777,13 @@
         <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="Q10" t="n">
         <v>1.53</v>
       </c>
       <c r="R10" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="S10" t="n">
         <v>2.32</v>
@@ -1792,49 +1792,49 @@
         <v>1.69</v>
       </c>
       <c r="U10" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
         <v>1.16</v>
       </c>
       <c r="W10" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="X10" t="n">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="Y10" t="n">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="Z10" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AC10" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AD10" t="n">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="AE10" t="n">
-        <v>80</v>
+        <v>510</v>
       </c>
       <c r="AF10" t="n">
         <v>970</v>
       </c>
       <c r="AG10" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="AI10" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="AJ10" t="n">
         <v>970</v>
@@ -1843,16 +1843,16 @@
         <v>970</v>
       </c>
       <c r="AL10" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="AM10" t="n">
-        <v>85</v>
+        <v>330</v>
       </c>
       <c r="AN10" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AO10" t="n">
-        <v>85</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11">
@@ -1885,7 +1885,7 @@
         <v>1.4</v>
       </c>
       <c r="G11" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="H11" t="n">
         <v>8.199999999999999</v>
@@ -1921,7 +1921,7 @@
         <v>1.51</v>
       </c>
       <c r="S11" t="n">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="T11" t="n">
         <v>1.92</v>
@@ -1930,7 +1930,7 @@
         <v>1.78</v>
       </c>
       <c r="V11" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W11" t="n">
         <v>3.1</v>
@@ -1951,10 +1951,10 @@
         <v>12</v>
       </c>
       <c r="AC11" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AE11" t="n">
         <v>160</v>
@@ -1975,13 +1975,13 @@
         <v>15</v>
       </c>
       <c r="AK11" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AL11" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AM11" t="n">
-        <v>150</v>
+        <v>470</v>
       </c>
       <c r="AN11" t="n">
         <v>7</v>
@@ -2020,19 +2020,19 @@
         <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="H12" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="I12" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="J12" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L12" t="n">
         <v>1.42</v>
@@ -2041,7 +2041,7 @@
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O12" t="n">
         <v>1.34</v>
@@ -2050,73 +2050,73 @@
         <v>1.85</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
         <v>1.32</v>
       </c>
       <c r="S12" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
       </c>
       <c r="U12" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="V12" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="W12" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="X12" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AA12" t="n">
         <v>17</v>
       </c>
-      <c r="Y12" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>970</v>
-      </c>
       <c r="AB12" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD12" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE12" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH12" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI12" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ12" t="n">
         <v>190</v>
       </c>
       <c r="AK12" t="n">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="AL12" t="n">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="AM12" t="n">
-        <v>160</v>
+        <v>470</v>
       </c>
       <c r="AN12" t="n">
         <v>140</v>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="G13" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="H13" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="I13" t="n">
         <v>1.42</v>
@@ -2167,7 +2167,7 @@
         <v>5.5</v>
       </c>
       <c r="K13" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="L13" t="n">
         <v>1.23</v>
@@ -2176,10 +2176,10 @@
         <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P13" t="n">
         <v>2.54</v>
@@ -2191,46 +2191,46 @@
         <v>1.61</v>
       </c>
       <c r="S13" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="T13" t="n">
         <v>1.8</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V13" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="W13" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="X13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y13" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z13" t="n">
         <v>11.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AC13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
         <v>13.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AG13" t="n">
         <v>36</v>
@@ -2245,19 +2245,19 @@
         <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
         <v>120</v>
       </c>
       <c r="AM13" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="14">
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="G14" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="H14" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J14" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K14" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L14" t="n">
         <v>1.5</v>
@@ -2314,7 +2314,7 @@
         <v>3.25</v>
       </c>
       <c r="O14" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P14" t="n">
         <v>1.73</v>
@@ -2326,31 +2326,31 @@
         <v>1.26</v>
       </c>
       <c r="S14" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T14" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="U14" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="V14" t="n">
         <v>1.12</v>
       </c>
       <c r="W14" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="X14" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z14" t="n">
         <v>80</v>
       </c>
       <c r="AA14" t="n">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="AB14" t="n">
         <v>6.4</v>
@@ -2362,13 +2362,13 @@
         <v>36</v>
       </c>
       <c r="AE14" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AF14" t="n">
         <v>7.4</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH14" t="n">
         <v>34</v>
@@ -2377,13 +2377,13 @@
         <v>190</v>
       </c>
       <c r="AJ14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK14" t="n">
         <v>19.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM14" t="n">
         <v>270</v>
@@ -2392,7 +2392,7 @@
         <v>11.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15">
@@ -2422,43 +2422,43 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="G15" t="n">
-        <v>1000</v>
+        <v>1.6</v>
       </c>
       <c r="H15" t="n">
-        <v>1.07</v>
+        <v>2.36</v>
       </c>
       <c r="I15" t="n">
         <v>1000</v>
       </c>
       <c r="J15" t="n">
-        <v>1.09</v>
+        <v>3.05</v>
       </c>
       <c r="K15" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="L15" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="M15" t="n">
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>2.06</v>
+        <v>1.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="P15" t="n">
-        <v>2.06</v>
+        <v>1.25</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="R15" t="n">
-        <v>2.06</v>
+        <v>1.18</v>
       </c>
       <c r="S15" t="n">
         <v>1.07</v>
@@ -2473,7 +2473,7 @@
         <v>1.01</v>
       </c>
       <c r="W15" t="n">
-        <v>1.01</v>
+        <v>2.66</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="G16" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="H16" t="n">
         <v>6</v>
       </c>
       <c r="I16" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="J16" t="n">
         <v>3.65</v>
@@ -2587,10 +2587,10 @@
         <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>1.22</v>
       </c>
       <c r="S17" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="T17" t="n">
         <v>1.93</v>
@@ -2755,10 +2755,10 @@
         <v>17</v>
       </c>
       <c r="AA17" t="n">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="AB17" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC17" t="n">
         <v>7.8</v>
@@ -2767,10 +2767,10 @@
         <v>12</v>
       </c>
       <c r="AE17" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AF17" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AG17" t="n">
         <v>16</v>
@@ -2779,16 +2779,16 @@
         <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>55</v>
+        <v>400</v>
       </c>
       <c r="AJ17" t="n">
-        <v>80</v>
+        <v>900</v>
       </c>
       <c r="AK17" t="n">
-        <v>55</v>
+        <v>380</v>
       </c>
       <c r="AL17" t="n">
-        <v>70</v>
+        <v>400</v>
       </c>
       <c r="AM17" t="n">
         <v>1000</v>
@@ -2827,58 +2827,58 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="G18" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="H18" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="I18" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="J18" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L18" t="n">
         <v>1.51</v>
       </c>
       <c r="M18" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N18" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="O18" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P18" t="n">
         <v>1.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R18" t="n">
         <v>1.21</v>
       </c>
       <c r="S18" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T18" t="n">
         <v>2</v>
       </c>
       <c r="U18" t="n">
-        <v>1.81</v>
+        <v>1.69</v>
       </c>
       <c r="V18" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="W18" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="X18" t="n">
         <v>10</v>
@@ -2887,40 +2887,40 @@
         <v>7.8</v>
       </c>
       <c r="Z18" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="AB18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD18" t="n">
         <v>12</v>
       </c>
       <c r="AE18" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AF18" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AG18" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AI18" t="n">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="AJ18" t="n">
         <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>75</v>
+        <v>380</v>
       </c>
       <c r="AL18" t="n">
         <v>1000</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="G19" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="H19" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="I19" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K19" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L19" t="n">
         <v>1.41</v>
@@ -3007,19 +3007,19 @@
         <v>2.12</v>
       </c>
       <c r="U19" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="V19" t="n">
         <v>1.1</v>
       </c>
       <c r="W19" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="Z19" t="n">
         <v>1000</v>
@@ -3028,10 +3028,10 @@
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AC19" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AD19" t="n">
         <v>1000</v>
@@ -3040,22 +3040,22 @@
         <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AH19" t="n">
-        <v>36</v>
+        <v>190</v>
       </c>
       <c r="AI19" t="n">
         <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>970</v>
+        <v>180</v>
       </c>
       <c r="AK19" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="AL19" t="n">
         <v>1000</v>
@@ -3064,7 +3064,7 @@
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3100,16 +3100,16 @@
         <v>1.48</v>
       </c>
       <c r="G20" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="H20" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I20" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="J20" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K20" t="n">
         <v>5</v>
@@ -3130,7 +3130,7 @@
         <v>2.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R20" t="n">
         <v>1.48</v>
@@ -3148,7 +3148,7 @@
         <v>1.13</v>
       </c>
       <c r="W20" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="X20" t="n">
         <v>19.5</v>
@@ -3169,7 +3169,7 @@
         <v>11</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AE20" t="n">
         <v>150</v>
@@ -3235,22 +3235,22 @@
         <v>4.1</v>
       </c>
       <c r="G21" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H21" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I21" t="n">
         <v>2.14</v>
       </c>
       <c r="J21" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K21" t="n">
         <v>3.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="M21" t="n">
         <v>1.09</v>
@@ -3265,16 +3265,16 @@
         <v>1.69</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R21" t="n">
         <v>1.25</v>
       </c>
       <c r="S21" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="T21" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="U21" t="n">
         <v>1.89</v>
@@ -3325,16 +3325,16 @@
         <v>130</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AL21" t="n">
         <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>180</v>
+        <v>580</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AO21" t="n">
         <v>22</v>
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="G22" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="H22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I22" t="n">
         <v>3.8</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3.85</v>
       </c>
       <c r="J22" t="n">
         <v>3.2</v>
@@ -3394,7 +3394,7 @@
         <v>3.1</v>
       </c>
       <c r="O22" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P22" t="n">
         <v>1.71</v>
@@ -3418,7 +3418,7 @@
         <v>1.35</v>
       </c>
       <c r="W22" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="X22" t="n">
         <v>10</v>
@@ -3460,7 +3460,7 @@
         <v>30</v>
       </c>
       <c r="AK22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL22" t="n">
         <v>55</v>
@@ -3505,19 +3505,19 @@
         <v>1.89</v>
       </c>
       <c r="G23" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="H23" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I23" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J23" t="n">
         <v>3.85</v>
       </c>
       <c r="K23" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L23" t="n">
         <v>1.37</v>
@@ -3526,7 +3526,7 @@
         <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O23" t="n">
         <v>1.28</v>
@@ -3535,58 +3535,58 @@
         <v>2.06</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="R23" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S23" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T23" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U23" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="V23" t="n">
         <v>1.27</v>
       </c>
       <c r="W23" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="X23" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y23" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Z23" t="n">
         <v>34</v>
       </c>
       <c r="AA23" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AB23" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AC23" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AE23" t="n">
         <v>55</v>
       </c>
       <c r="AF23" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AH23" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AI23" t="n">
         <v>60</v>
@@ -3595,7 +3595,7 @@
         <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL23" t="n">
         <v>34</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="G24" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="H24" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I24" t="n">
         <v>4.2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>4.3</v>
       </c>
       <c r="J24" t="n">
         <v>4.3</v>
@@ -3655,7 +3655,7 @@
         <v>4.4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M24" t="n">
         <v>1.04</v>
@@ -3667,16 +3667,16 @@
         <v>1.19</v>
       </c>
       <c r="P24" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R24" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="S24" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="T24" t="n">
         <v>1.57</v>
@@ -3685,10 +3685,10 @@
         <v>2.68</v>
       </c>
       <c r="V24" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W24" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="X24" t="n">
         <v>25</v>
@@ -3703,7 +3703,7 @@
         <v>85</v>
       </c>
       <c r="AB24" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC24" t="n">
         <v>10.5</v>
@@ -3724,7 +3724,7 @@
         <v>15</v>
       </c>
       <c r="AI24" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ24" t="n">
         <v>23</v>
@@ -3736,13 +3736,13 @@
         <v>24</v>
       </c>
       <c r="AM24" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN24" t="n">
         <v>7.8</v>
       </c>
       <c r="AO24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
@@ -3772,19 +3772,19 @@
         </is>
       </c>
       <c r="F25" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="H25" t="n">
         <v>2.8</v>
       </c>
-      <c r="G25" t="n">
+      <c r="I25" t="n">
         <v>2.84</v>
       </c>
-      <c r="H25" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2.8</v>
-      </c>
       <c r="J25" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K25" t="n">
         <v>3.55</v>
@@ -3796,22 +3796,22 @@
         <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O25" t="n">
         <v>1.35</v>
       </c>
       <c r="P25" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R25" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S25" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T25" t="n">
         <v>1.8</v>
@@ -3820,13 +3820,13 @@
         <v>2.18</v>
       </c>
       <c r="V25" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="W25" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="X25" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y25" t="n">
         <v>11.5</v>
@@ -3841,7 +3841,7 @@
         <v>11.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD25" t="n">
         <v>12</v>
@@ -3868,13 +3868,13 @@
         <v>32</v>
       </c>
       <c r="AL25" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM25" t="n">
         <v>95</v>
       </c>
       <c r="AN25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO25" t="n">
         <v>27</v>
@@ -3910,19 +3910,19 @@
         <v>1.19</v>
       </c>
       <c r="G26" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="H26" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="I26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J26" t="n">
         <v>8.4</v>
       </c>
       <c r="K26" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L26" t="n">
         <v>1.3</v>
@@ -3931,37 +3931,37 @@
         <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O26" t="n">
         <v>1.21</v>
       </c>
       <c r="P26" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="R26" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="S26" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="T26" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="U26" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="V26" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="W26" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="X26" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y26" t="n">
         <v>55</v>
@@ -3973,16 +3973,16 @@
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC26" t="n">
         <v>19</v>
       </c>
       <c r="AD26" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AE26" t="n">
-        <v>560</v>
+        <v>590</v>
       </c>
       <c r="AF26" t="n">
         <v>7.4</v>
@@ -3994,22 +3994,22 @@
         <v>55</v>
       </c>
       <c r="AI26" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="AJ26" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AK26" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL26" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AM26" t="n">
         <v>430</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4042,19 +4042,19 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
       <c r="G27" t="n">
         <v>1.35</v>
       </c>
       <c r="H27" t="n">
-        <v>1.04</v>
+        <v>3.7</v>
       </c>
       <c r="I27" t="n">
         <v>1000</v>
       </c>
       <c r="J27" t="n">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="K27" t="n">
         <v>1000</v>
@@ -4066,28 +4066,28 @@
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="O27" t="n">
         <v>1.07</v>
       </c>
       <c r="P27" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="Q27" t="n">
         <v>1.07</v>
       </c>
       <c r="R27" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S27" t="n">
         <v>1.07</v>
       </c>
       <c r="T27" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U27" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V27" t="n">
         <v>1.01</v>
@@ -4132,10 +4132,10 @@
         <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL27" t="n">
         <v>1000</v>
@@ -4144,7 +4144,7 @@
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="G28" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="H28" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="I28" t="n">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="J28" t="n">
         <v>4</v>
       </c>
       <c r="K28" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="L28" t="n">
         <v>1.23</v>
@@ -4201,88 +4201,88 @@
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O28" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P28" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="R28" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="S28" t="n">
-        <v>2.14</v>
+        <v>2.34</v>
       </c>
       <c r="T28" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="U28" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="V28" t="n">
-        <v>1.86</v>
+        <v>1.76</v>
       </c>
       <c r="W28" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="X28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y28" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AB28" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AC28" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AF28" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AG28" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH28" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AI28" t="n">
         <v>28</v>
       </c>
       <c r="AJ28" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL28" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN28" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
@@ -670,13 +670,13 @@
         <v>1.65</v>
       </c>
       <c r="G2" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="H2" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="I2" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="J2" t="n">
         <v>3.7</v>
@@ -691,40 +691,40 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="R2" t="n">
         <v>1.34</v>
       </c>
       <c r="S2" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T2" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="U2" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V2" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W2" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="X2" t="n">
-        <v>970</v>
+        <v>990</v>
       </c>
       <c r="Y2" t="n">
-        <v>970</v>
+        <v>990</v>
       </c>
       <c r="Z2" t="n">
         <v>130</v>
@@ -739,7 +739,7 @@
         <v>14</v>
       </c>
       <c r="AD2" t="n">
-        <v>65</v>
+        <v>990</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -751,7 +751,7 @@
         <v>19</v>
       </c>
       <c r="AH2" t="n">
-        <v>65</v>
+        <v>990</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -805,7 +805,7 @@
         <v>1.45</v>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="H3" t="n">
         <v>3.35</v>
@@ -814,10 +814,10 @@
         <v>44</v>
       </c>
       <c r="J3" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -844,7 +844,7 @@
         <v>1.3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
         <v>1.04</v>
@@ -853,7 +853,7 @@
         <v>1.13</v>
       </c>
       <c r="W3" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -871,7 +871,7 @@
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -946,10 +946,10 @@
         <v>4.4</v>
       </c>
       <c r="I4" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
         <v>3.8</v>
@@ -961,10 +961,10 @@
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="P4" t="n">
         <v>1.68</v>
@@ -982,10 +982,10 @@
         <v>1.95</v>
       </c>
       <c r="U4" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V4" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W4" t="n">
         <v>1.94</v>
@@ -994,7 +994,7 @@
         <v>12</v>
       </c>
       <c r="Y4" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z4" t="n">
         <v>38</v>
@@ -1012,19 +1012,19 @@
         <v>21</v>
       </c>
       <c r="AE4" t="n">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="AF4" t="n">
         <v>12</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH4" t="n">
         <v>23</v>
       </c>
       <c r="AI4" t="n">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="AJ4" t="n">
         <v>24</v>
@@ -1033,7 +1033,7 @@
         <v>25</v>
       </c>
       <c r="AL4" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
@@ -1075,16 +1075,16 @@
         <v>2.02</v>
       </c>
       <c r="G5" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I5" t="n">
         <v>4.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K5" t="n">
         <v>3.65</v>
@@ -1102,7 +1102,7 @@
         <v>1.32</v>
       </c>
       <c r="P5" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="Q5" t="n">
         <v>1.97</v>
@@ -1123,7 +1123,7 @@
         <v>1.29</v>
       </c>
       <c r="W5" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X5" t="n">
         <v>14.5</v>
@@ -1156,7 +1156,7 @@
         <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI5" t="n">
         <v>65</v>
@@ -1210,7 +1210,7 @@
         <v>2.34</v>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="H6" t="n">
         <v>3.1</v>
@@ -1225,7 +1225,7 @@
         <v>3.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1258,7 +1258,7 @@
         <v>1.4</v>
       </c>
       <c r="W6" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X6" t="n">
         <v>16.5</v>
@@ -1345,19 +1345,19 @@
         <v>1.35</v>
       </c>
       <c r="G7" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="H7" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="I7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="J7" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="K7" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L7" t="n">
         <v>1.21</v>
@@ -1378,22 +1378,22 @@
         <v>1.45</v>
       </c>
       <c r="R7" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="S7" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T7" t="n">
         <v>1.74</v>
       </c>
       <c r="U7" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="V7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W7" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="X7" t="n">
         <v>34</v>
@@ -1435,7 +1435,7 @@
         <v>13</v>
       </c>
       <c r="AK7" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL7" t="n">
         <v>32</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G8" t="n">
         <v>1.28</v>
       </c>
-      <c r="G8" t="n">
-        <v>1.3</v>
-      </c>
       <c r="H8" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="I8" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="J8" t="n">
         <v>7.4</v>
@@ -1495,40 +1495,40 @@
         <v>8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M8" t="n">
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
         <v>1.18</v>
       </c>
       <c r="P8" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R8" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S8" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T8" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V8" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W8" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="X8" t="n">
         <v>42</v>
@@ -1537,25 +1537,25 @@
         <v>55</v>
       </c>
       <c r="Z8" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AA8" t="n">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="AB8" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC8" t="n">
         <v>18.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AE8" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG8" t="n">
         <v>10.5</v>
@@ -1564,7 +1564,7 @@
         <v>34</v>
       </c>
       <c r="AI8" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AJ8" t="n">
         <v>10.5</v>
@@ -1579,7 +1579,7 @@
         <v>470</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AO8" t="n">
         <v>210</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="G9" t="n">
         <v>2.5</v>
@@ -1636,13 +1636,13 @@
         <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O9" t="n">
         <v>1.41</v>
       </c>
       <c r="P9" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q9" t="n">
         <v>2.2</v>
@@ -1663,7 +1663,7 @@
         <v>1.41</v>
       </c>
       <c r="W9" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="X9" t="n">
         <v>11</v>
@@ -1756,10 +1756,10 @@
         <v>6.2</v>
       </c>
       <c r="I10" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="J10" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K10" t="n">
         <v>5.4</v>
@@ -1792,7 +1792,7 @@
         <v>1.69</v>
       </c>
       <c r="U10" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V10" t="n">
         <v>1.16</v>
@@ -1801,10 +1801,10 @@
         <v>2.72</v>
       </c>
       <c r="X10" t="n">
-        <v>90</v>
+        <v>990</v>
       </c>
       <c r="Y10" t="n">
-        <v>100</v>
+        <v>990</v>
       </c>
       <c r="Z10" t="n">
         <v>170</v>
@@ -1813,13 +1813,13 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC10" t="n">
         <v>18</v>
       </c>
       <c r="AD10" t="n">
-        <v>75</v>
+        <v>990</v>
       </c>
       <c r="AE10" t="n">
         <v>510</v>
@@ -1831,13 +1831,13 @@
         <v>11.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>42</v>
+        <v>990</v>
       </c>
       <c r="AI10" t="n">
         <v>400</v>
       </c>
       <c r="AJ10" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AK10" t="n">
         <v>970</v>
@@ -1885,7 +1885,7 @@
         <v>1.4</v>
       </c>
       <c r="G11" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="H11" t="n">
         <v>8.199999999999999</v>
@@ -1915,7 +1915,7 @@
         <v>2.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R11" t="n">
         <v>1.51</v>
@@ -1933,7 +1933,7 @@
         <v>1.1</v>
       </c>
       <c r="W11" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="X11" t="n">
         <v>27</v>
@@ -1954,7 +1954,7 @@
         <v>12.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>100</v>
+        <v>990</v>
       </c>
       <c r="AE11" t="n">
         <v>160</v>
@@ -2023,7 +2023,7 @@
         <v>6.6</v>
       </c>
       <c r="H12" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="I12" t="n">
         <v>1.71</v>
@@ -2050,7 +2050,7 @@
         <v>1.85</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R12" t="n">
         <v>1.32</v>
@@ -2068,13 +2068,13 @@
         <v>2.4</v>
       </c>
       <c r="W12" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="X12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Z12" t="n">
         <v>9.199999999999999</v>
@@ -2098,10 +2098,10 @@
         <v>48</v>
       </c>
       <c r="AG12" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AH12" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI12" t="n">
         <v>48</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="G13" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H13" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="I13" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="J13" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="K13" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L13" t="n">
         <v>1.23</v>
@@ -2176,7 +2176,7 @@
         <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O13" t="n">
         <v>1.17</v>
@@ -2185,79 +2185,79 @@
         <v>2.54</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R13" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S13" t="n">
         <v>2.28</v>
       </c>
       <c r="T13" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U13" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="V13" t="n">
         <v>3.4</v>
       </c>
       <c r="W13" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="X13" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="AA13" t="n">
         <v>12.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="AC13" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
         <v>13.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AG13" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AH13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI13" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AJ13" t="n">
         <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AL13" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AO13" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="14">
@@ -2287,91 +2287,91 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="G14" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="H14" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="I14" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="J14" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K14" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="M14" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O14" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P14" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="R14" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="S14" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="T14" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="U14" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="V14" t="n">
         <v>1.12</v>
       </c>
       <c r="W14" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="X14" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Y14" t="n">
         <v>22</v>
       </c>
       <c r="Z14" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AA14" t="n">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="AB14" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AC14" t="n">
         <v>9.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AE14" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AF14" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AG14" t="n">
         <v>10.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI14" t="n">
         <v>190</v>
@@ -2380,19 +2380,19 @@
         <v>13</v>
       </c>
       <c r="AK14" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM14" t="n">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="AN14" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>340</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="G15" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="H15" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="I15" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="J15" t="n">
         <v>3.05</v>
       </c>
       <c r="K15" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L15" t="n">
         <v>1.14</v>
@@ -2452,13 +2452,13 @@
         <v>1.06</v>
       </c>
       <c r="P15" t="n">
-        <v>1.25</v>
+        <v>2.22</v>
       </c>
       <c r="Q15" t="n">
         <v>1.06</v>
       </c>
       <c r="R15" t="n">
-        <v>1.18</v>
+        <v>2.22</v>
       </c>
       <c r="S15" t="n">
         <v>1.07</v>
@@ -2470,10 +2470,10 @@
         <v>1.04</v>
       </c>
       <c r="V15" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W15" t="n">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2695,7 +2695,7 @@
         <v>3.35</v>
       </c>
       <c r="G17" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="H17" t="n">
         <v>2.26</v>
@@ -2716,7 +2716,7 @@
         <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="O17" t="n">
         <v>1.45</v>
@@ -2743,7 +2743,7 @@
         <v>1.66</v>
       </c>
       <c r="W17" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X17" t="n">
         <v>12</v>
@@ -2797,7 +2797,7 @@
         <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="G18" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="H18" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="I18" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K18" t="n">
         <v>3.45</v>
@@ -2872,13 +2872,13 @@
         <v>2</v>
       </c>
       <c r="U18" t="n">
-        <v>1.69</v>
+        <v>1.82</v>
       </c>
       <c r="V18" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="W18" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="X18" t="n">
         <v>10</v>
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="G19" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="H19" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I19" t="n">
         <v>11.5</v>
@@ -3010,16 +3010,16 @@
         <v>1.53</v>
       </c>
       <c r="V19" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W19" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>90</v>
+        <v>990</v>
       </c>
       <c r="Z19" t="n">
         <v>1000</v>
@@ -3046,7 +3046,7 @@
         <v>40</v>
       </c>
       <c r="AH19" t="n">
-        <v>190</v>
+        <v>990</v>
       </c>
       <c r="AI19" t="n">
         <v>1000</v>
@@ -3100,106 +3100,106 @@
         <v>1.48</v>
       </c>
       <c r="G20" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="H20" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="I20" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="J20" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="K20" t="n">
         <v>5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P20" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="R20" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S20" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="T20" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="U20" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="V20" t="n">
         <v>1.13</v>
       </c>
       <c r="W20" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="X20" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="Y20" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA20" t="n">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="AB20" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AC20" t="n">
         <v>11</v>
       </c>
       <c r="AD20" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="AE20" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AF20" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG20" t="n">
         <v>10.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI20" t="n">
-        <v>130</v>
+        <v>520</v>
       </c>
       <c r="AJ20" t="n">
         <v>13</v>
       </c>
       <c r="AK20" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AL20" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="AM20" t="n">
-        <v>150</v>
+        <v>430</v>
       </c>
       <c r="AN20" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G21" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="H21" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="J21" t="n">
         <v>3.35</v>
@@ -3265,7 +3265,7 @@
         <v>1.69</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R21" t="n">
         <v>1.25</v>
@@ -3280,10 +3280,10 @@
         <v>1.89</v>
       </c>
       <c r="V21" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="W21" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="X21" t="n">
         <v>11.5</v>
@@ -3292,10 +3292,10 @@
         <v>8</v>
       </c>
       <c r="Z21" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB21" t="n">
         <v>15.5</v>
@@ -3304,10 +3304,10 @@
         <v>9</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="AF21" t="n">
         <v>34</v>
@@ -3316,10 +3316,10 @@
         <v>21</v>
       </c>
       <c r="AH21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI21" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ21" t="n">
         <v>130</v>
@@ -3337,7 +3337,7 @@
         <v>300</v>
       </c>
       <c r="AO21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G22" t="n">
         <v>2.36</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2.38</v>
       </c>
       <c r="H22" t="n">
         <v>3.75</v>
@@ -3394,13 +3394,13 @@
         <v>3.1</v>
       </c>
       <c r="O22" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P22" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="R22" t="n">
         <v>1.26</v>
@@ -3409,16 +3409,16 @@
         <v>4.5</v>
       </c>
       <c r="T22" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U22" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V22" t="n">
         <v>1.35</v>
       </c>
       <c r="W22" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X22" t="n">
         <v>10</v>
@@ -3427,13 +3427,13 @@
         <v>11.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA22" t="n">
         <v>75</v>
       </c>
       <c r="AB22" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC22" t="n">
         <v>7</v>
@@ -3460,7 +3460,7 @@
         <v>30</v>
       </c>
       <c r="AK22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL22" t="n">
         <v>55</v>
@@ -3505,10 +3505,10 @@
         <v>1.89</v>
       </c>
       <c r="G23" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="H23" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I23" t="n">
         <v>4.7</v>
@@ -3517,7 +3517,7 @@
         <v>3.85</v>
       </c>
       <c r="K23" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L23" t="n">
         <v>1.37</v>
@@ -3532,10 +3532,10 @@
         <v>1.28</v>
       </c>
       <c r="P23" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="R23" t="n">
         <v>1.42</v>
@@ -3547,13 +3547,13 @@
         <v>1.76</v>
       </c>
       <c r="U23" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="V23" t="n">
         <v>1.27</v>
       </c>
       <c r="W23" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="X23" t="n">
         <v>17</v>
@@ -3565,7 +3565,7 @@
         <v>34</v>
       </c>
       <c r="AA23" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB23" t="n">
         <v>9.6</v>
@@ -3583,7 +3583,7 @@
         <v>11.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH23" t="n">
         <v>19</v>
@@ -3595,7 +3595,7 @@
         <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL23" t="n">
         <v>34</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="G24" t="n">
         <v>1.89</v>
       </c>
-      <c r="G24" t="n">
-        <v>1.9</v>
-      </c>
       <c r="H24" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I24" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J24" t="n">
         <v>4.3</v>
@@ -3655,7 +3655,7 @@
         <v>4.4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M24" t="n">
         <v>1.04</v>
@@ -3670,7 +3670,7 @@
         <v>2.72</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R24" t="n">
         <v>1.69</v>
@@ -3679,19 +3679,19 @@
         <v>2.42</v>
       </c>
       <c r="T24" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U24" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="V24" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W24" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="X24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y24" t="n">
         <v>23</v>
@@ -3700,7 +3700,7 @@
         <v>36</v>
       </c>
       <c r="AA24" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AB24" t="n">
         <v>13</v>
@@ -3712,7 +3712,7 @@
         <v>17</v>
       </c>
       <c r="AE24" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF24" t="n">
         <v>14.5</v>
@@ -3727,7 +3727,7 @@
         <v>38</v>
       </c>
       <c r="AJ24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK24" t="n">
         <v>16</v>
@@ -3742,7 +3742,7 @@
         <v>7.8</v>
       </c>
       <c r="AO24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
@@ -3775,13 +3775,13 @@
         <v>2.76</v>
       </c>
       <c r="G25" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H25" t="n">
         <v>2.78</v>
       </c>
-      <c r="H25" t="n">
-        <v>2.8</v>
-      </c>
       <c r="I25" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="J25" t="n">
         <v>3.45</v>
@@ -3796,10 +3796,10 @@
         <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O25" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P25" t="n">
         <v>1.93</v>
@@ -3808,7 +3808,7 @@
         <v>2.04</v>
       </c>
       <c r="R25" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S25" t="n">
         <v>3.6</v>
@@ -3823,10 +3823,10 @@
         <v>1.54</v>
       </c>
       <c r="W25" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y25" t="n">
         <v>11.5</v>
@@ -3874,7 +3874,7 @@
         <v>95</v>
       </c>
       <c r="AN25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO25" t="n">
         <v>27</v>
@@ -3910,7 +3910,7 @@
         <v>1.19</v>
       </c>
       <c r="G26" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="H26" t="n">
         <v>20</v>
@@ -3925,7 +3925,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="L26" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="M26" t="n">
         <v>1.03</v>
@@ -3934,82 +3934,82 @@
         <v>5.3</v>
       </c>
       <c r="O26" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P26" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="R26" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="S26" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="T26" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="U26" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="V26" t="n">
         <v>1.04</v>
       </c>
       <c r="W26" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="X26" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Y26" t="n">
-        <v>55</v>
+        <v>990</v>
       </c>
       <c r="Z26" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="AA26" t="n">
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC26" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AD26" t="n">
-        <v>75</v>
+        <v>990</v>
       </c>
       <c r="AE26" t="n">
-        <v>590</v>
+        <v>460</v>
       </c>
       <c r="AF26" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AG26" t="n">
         <v>12.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>55</v>
+        <v>990</v>
       </c>
       <c r="AI26" t="n">
-        <v>390</v>
+        <v>310</v>
       </c>
       <c r="AJ26" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AK26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL26" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AM26" t="n">
-        <v>430</v>
+        <v>350</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4048,7 +4048,7 @@
         <v>1.35</v>
       </c>
       <c r="H27" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I27" t="n">
         <v>1000</v>
@@ -4072,13 +4072,13 @@
         <v>1.07</v>
       </c>
       <c r="P27" t="n">
-        <v>1.53</v>
+        <v>2.48</v>
       </c>
       <c r="Q27" t="n">
         <v>1.07</v>
       </c>
       <c r="R27" t="n">
-        <v>1.53</v>
+        <v>2.48</v>
       </c>
       <c r="S27" t="n">
         <v>1.07</v>
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G28" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="H28" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="I28" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="J28" t="n">
         <v>4</v>
@@ -4201,49 +4201,49 @@
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P28" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="R28" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="S28" t="n">
-        <v>2.34</v>
+        <v>2.14</v>
       </c>
       <c r="T28" t="n">
         <v>1.53</v>
       </c>
       <c r="U28" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="V28" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="W28" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X28" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="Y28" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB28" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AC28" t="n">
         <v>9.6</v>
@@ -4258,16 +4258,16 @@
         <v>28</v>
       </c>
       <c r="AG28" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AI28" t="n">
         <v>28</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK28" t="n">
         <v>40</v>
@@ -4279,10 +4279,10 @@
         <v>60</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO28" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
@@ -667,64 +667,64 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="G2" t="n">
         <v>1.75</v>
       </c>
       <c r="H2" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="I2" t="n">
         <v>7.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="U2" t="n">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="V2" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W2" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="X2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
         <v>130</v>
@@ -736,7 +736,7 @@
         <v>18</v>
       </c>
       <c r="AC2" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AD2" t="n">
         <v>990</v>
@@ -751,7 +751,7 @@
         <v>19</v>
       </c>
       <c r="AH2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -835,7 +835,7 @@
         <v>1.28</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.02</v>
+        <v>1.3</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="G4" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="H4" t="n">
         <v>4.4</v>
@@ -949,13 +949,13 @@
         <v>5.3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="n">
         <v>3.8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -964,13 +964,13 @@
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R4" t="n">
         <v>1.25</v>
@@ -988,7 +988,7 @@
         <v>1.24</v>
       </c>
       <c r="W4" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="X4" t="n">
         <v>12</v>
@@ -1075,13 +1075,13 @@
         <v>2.02</v>
       </c>
       <c r="G5" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H5" t="n">
         <v>4.1</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J5" t="n">
         <v>3.35</v>
@@ -1090,64 +1090,64 @@
         <v>3.65</v>
       </c>
       <c r="L5" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P5" t="n">
         <v>1.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="R5" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="S5" t="n">
         <v>3.55</v>
       </c>
       <c r="T5" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U5" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="W5" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="X5" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AA5" t="n">
         <v>900</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="AF5" t="n">
         <v>13.5</v>
@@ -1159,25 +1159,25 @@
         <v>18.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>65</v>
+        <v>330</v>
       </c>
       <c r="AJ5" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="AK5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL5" t="n">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="AM5" t="n">
         <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="AO5" t="n">
-        <v>260</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G6" t="n">
         <v>2.46</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J6" t="n">
         <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L6" t="n">
         <v>1.42</v>
@@ -1231,28 +1231,28 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S6" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="T6" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U6" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V6" t="n">
         <v>1.4</v>
@@ -1273,7 +1273,7 @@
         <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>18</v>
+        <v>990</v>
       </c>
       <c r="AC6" t="n">
         <v>9.4</v>
@@ -1345,19 +1345,19 @@
         <v>1.35</v>
       </c>
       <c r="G7" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="H7" t="n">
         <v>8.4</v>
       </c>
       <c r="I7" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J7" t="n">
         <v>5.7</v>
       </c>
       <c r="K7" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L7" t="n">
         <v>1.21</v>
@@ -1375,31 +1375,31 @@
         <v>2.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R7" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="S7" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T7" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U7" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V7" t="n">
         <v>1.11</v>
       </c>
       <c r="W7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="X7" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="Y7" t="n">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1408,13 +1408,13 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AD7" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
@@ -1435,7 +1435,7 @@
         <v>13</v>
       </c>
       <c r="AK7" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL7" t="n">
         <v>32</v>
@@ -1486,13 +1486,13 @@
         <v>11.5</v>
       </c>
       <c r="I8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="J8" t="n">
         <v>7.4</v>
       </c>
       <c r="K8" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="L8" t="n">
         <v>1.28</v>
@@ -1501,28 +1501,28 @@
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P8" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="Q8" t="n">
         <v>1.53</v>
       </c>
       <c r="R8" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S8" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U8" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V8" t="n">
         <v>1.08</v>
@@ -1543,7 +1543,7 @@
         <v>550</v>
       </c>
       <c r="AB8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC8" t="n">
         <v>18.5</v>
@@ -1555,7 +1555,7 @@
         <v>210</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AG8" t="n">
         <v>10.5</v>
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G9" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="H9" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J9" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
         <v>3.35</v>
@@ -1642,19 +1642,19 @@
         <v>1.41</v>
       </c>
       <c r="P9" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R9" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S9" t="n">
         <v>4.2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="U9" t="n">
         <v>2.02</v>
@@ -1663,7 +1663,7 @@
         <v>1.41</v>
       </c>
       <c r="W9" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="X9" t="n">
         <v>11</v>
@@ -1678,7 +1678,7 @@
         <v>60</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC9" t="n">
         <v>7.2</v>
@@ -1714,10 +1714,10 @@
         <v>120</v>
       </c>
       <c r="AN9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO9" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
@@ -1750,28 +1750,28 @@
         <v>1.53</v>
       </c>
       <c r="G10" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="H10" t="n">
         <v>6.2</v>
       </c>
       <c r="I10" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J10" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="K10" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L10" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O10" t="n">
         <v>1.18</v>
@@ -1780,25 +1780,25 @@
         <v>2.66</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R10" t="n">
         <v>1.66</v>
       </c>
       <c r="S10" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T10" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U10" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="V10" t="n">
         <v>1.16</v>
       </c>
       <c r="W10" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="X10" t="n">
         <v>990</v>
@@ -1813,7 +1813,7 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AC10" t="n">
         <v>18</v>
@@ -1825,10 +1825,10 @@
         <v>510</v>
       </c>
       <c r="AF10" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AG10" t="n">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="AH10" t="n">
         <v>990</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="G11" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="H11" t="n">
         <v>8.199999999999999</v>
@@ -1900,28 +1900,28 @@
         <v>5.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O11" t="n">
         <v>1.21</v>
       </c>
       <c r="P11" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="Q11" t="n">
         <v>1.64</v>
       </c>
       <c r="R11" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S11" t="n">
-        <v>2.5</v>
+        <v>2.64</v>
       </c>
       <c r="T11" t="n">
         <v>1.92</v>
@@ -1933,7 +1933,7 @@
         <v>1.1</v>
       </c>
       <c r="W11" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="X11" t="n">
         <v>27</v>
@@ -1963,7 +1963,7 @@
         <v>11.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH11" t="n">
         <v>32</v>
@@ -1978,13 +1978,13 @@
         <v>25</v>
       </c>
       <c r="AL11" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM11" t="n">
         <v>470</v>
       </c>
       <c r="AN11" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AO11" t="n">
         <v>190</v>
@@ -2020,13 +2020,13 @@
         <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H12" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="I12" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="J12" t="n">
         <v>4</v>
@@ -2035,37 +2035,37 @@
         <v>4.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="O12" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P12" t="n">
         <v>1.85</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R12" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S12" t="n">
         <v>3.9</v>
       </c>
       <c r="T12" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U12" t="n">
         <v>1.87</v>
       </c>
       <c r="V12" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="W12" t="n">
         <v>1.18</v>
@@ -2083,7 +2083,7 @@
         <v>17</v>
       </c>
       <c r="AB12" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC12" t="n">
         <v>8.800000000000001</v>
@@ -2095,10 +2095,10 @@
         <v>19</v>
       </c>
       <c r="AF12" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AG12" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="AH12" t="n">
         <v>25</v>
@@ -2107,13 +2107,13 @@
         <v>48</v>
       </c>
       <c r="AJ12" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AK12" t="n">
         <v>240</v>
       </c>
       <c r="AL12" t="n">
-        <v>330</v>
+        <v>110</v>
       </c>
       <c r="AM12" t="n">
         <v>470</v>
@@ -2155,10 +2155,10 @@
         <v>9.4</v>
       </c>
       <c r="G13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="H13" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="I13" t="n">
         <v>1.4</v>
@@ -2167,10 +2167,10 @@
         <v>5.3</v>
       </c>
       <c r="K13" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="M13" t="n">
         <v>1.02</v>
@@ -2182,46 +2182,46 @@
         <v>1.17</v>
       </c>
       <c r="P13" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R13" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="S13" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="T13" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U13" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="W13" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="X13" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z13" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AA13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB13" t="n">
         <v>42</v>
       </c>
       <c r="AC13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD13" t="n">
         <v>11</v>
@@ -2233,31 +2233,31 @@
         <v>110</v>
       </c>
       <c r="AG13" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AH13" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI13" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AK13" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AL13" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AO13" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="14">
@@ -2287,37 +2287,37 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="G14" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="H14" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="I14" t="n">
         <v>9</v>
       </c>
       <c r="J14" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K14" t="n">
         <v>4.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O14" t="n">
         <v>1.4</v>
       </c>
       <c r="P14" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q14" t="n">
         <v>2.18</v>
@@ -2326,7 +2326,7 @@
         <v>1.29</v>
       </c>
       <c r="S14" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T14" t="n">
         <v>2.32</v>
@@ -2335,10 +2335,10 @@
         <v>1.68</v>
       </c>
       <c r="V14" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W14" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="X14" t="n">
         <v>13.5</v>
@@ -2392,7 +2392,7 @@
         <v>10.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15">
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="G15" t="n">
         <v>1.54</v>
       </c>
       <c r="H15" t="n">
-        <v>2.4</v>
+        <v>3.15</v>
       </c>
       <c r="I15" t="n">
         <v>48</v>
       </c>
       <c r="J15" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K15" t="n">
         <v>28</v>
@@ -2452,13 +2452,13 @@
         <v>1.06</v>
       </c>
       <c r="P15" t="n">
-        <v>2.22</v>
+        <v>2.66</v>
       </c>
       <c r="Q15" t="n">
         <v>1.06</v>
       </c>
       <c r="R15" t="n">
-        <v>2.22</v>
+        <v>2.66</v>
       </c>
       <c r="S15" t="n">
         <v>1.07</v>
@@ -2473,7 +2473,7 @@
         <v>1.02</v>
       </c>
       <c r="W15" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="G16" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="I16" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J16" t="n">
         <v>3.65</v>
       </c>
       <c r="K16" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2581,16 +2581,16 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P16" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2692,70 +2692,70 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="G17" t="n">
         <v>3.8</v>
       </c>
       <c r="H17" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="I17" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K17" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L17" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="M17" t="n">
         <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="O17" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P17" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="R17" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S17" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="T17" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="U17" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="V17" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="W17" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X17" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA17" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="AB17" t="n">
         <v>11.5</v>
@@ -2779,10 +2779,10 @@
         <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>400</v>
+        <v>130</v>
       </c>
       <c r="AJ17" t="n">
-        <v>900</v>
+        <v>530</v>
       </c>
       <c r="AK17" t="n">
         <v>380</v>
@@ -2797,7 +2797,7 @@
         <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="G18" t="n">
         <v>4.2</v>
@@ -2836,22 +2836,22 @@
         <v>2.18</v>
       </c>
       <c r="I18" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="J18" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K18" t="n">
         <v>3.45</v>
       </c>
       <c r="L18" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="M18" t="n">
         <v>1.11</v>
       </c>
       <c r="N18" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="O18" t="n">
         <v>1.47</v>
@@ -2860,22 +2860,22 @@
         <v>1.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="R18" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S18" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T18" t="n">
         <v>2</v>
       </c>
       <c r="U18" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="V18" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W18" t="n">
         <v>1.33</v>
@@ -2884,7 +2884,7 @@
         <v>10</v>
       </c>
       <c r="Y18" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Z18" t="n">
         <v>15.5</v>
@@ -2902,7 +2902,7 @@
         <v>12</v>
       </c>
       <c r="AE18" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AF18" t="n">
         <v>75</v>
@@ -2911,10 +2911,10 @@
         <v>17.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AI18" t="n">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="AJ18" t="n">
         <v>1000</v>
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="G19" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="H19" t="n">
         <v>8.199999999999999</v>
@@ -2977,43 +2977,43 @@
         <v>3.95</v>
       </c>
       <c r="K19" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="M19" t="n">
         <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O19" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P19" t="n">
         <v>1.76</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.96</v>
+        <v>2.16</v>
       </c>
       <c r="R19" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S19" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="T19" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="U19" t="n">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="V19" t="n">
         <v>1.11</v>
       </c>
       <c r="W19" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
@@ -3028,7 +3028,7 @@
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>12</v>
+        <v>990</v>
       </c>
       <c r="AC19" t="n">
         <v>42</v>
@@ -3040,10 +3040,10 @@
         <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AG19" t="n">
-        <v>40</v>
+        <v>990</v>
       </c>
       <c r="AH19" t="n">
         <v>990</v>
@@ -3052,10 +3052,10 @@
         <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>180</v>
+        <v>900</v>
       </c>
       <c r="AK19" t="n">
-        <v>70</v>
+        <v>970</v>
       </c>
       <c r="AL19" t="n">
         <v>1000</v>
@@ -3100,16 +3100,16 @@
         <v>1.48</v>
       </c>
       <c r="G20" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="H20" t="n">
         <v>7.8</v>
       </c>
       <c r="I20" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J20" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K20" t="n">
         <v>5</v>
@@ -3118,10 +3118,10 @@
         <v>1.37</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O20" t="n">
         <v>1.27</v>
@@ -3136,28 +3136,28 @@
         <v>1.44</v>
       </c>
       <c r="S20" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T20" t="n">
         <v>2</v>
       </c>
       <c r="U20" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V20" t="n">
         <v>1.13</v>
       </c>
       <c r="W20" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="X20" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y20" t="n">
         <v>26</v>
       </c>
       <c r="Z20" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
         <v>330</v>
@@ -3181,7 +3181,7 @@
         <v>10.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI20" t="n">
         <v>520</v>
@@ -3199,7 +3199,7 @@
         <v>430</v>
       </c>
       <c r="AN20" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G21" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H21" t="n">
         <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="J21" t="n">
         <v>3.35</v>
@@ -3250,37 +3250,37 @@
         <v>3.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M21" t="n">
         <v>1.09</v>
       </c>
       <c r="N21" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P21" t="n">
         <v>1.69</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="R21" t="n">
         <v>1.25</v>
       </c>
       <c r="S21" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="T21" t="n">
-        <v>1.98</v>
+        <v>1.05</v>
       </c>
       <c r="U21" t="n">
-        <v>1.89</v>
+        <v>1.76</v>
       </c>
       <c r="V21" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="W21" t="n">
         <v>1.27</v>
@@ -3295,13 +3295,13 @@
         <v>12.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="AB21" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AC21" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD21" t="n">
         <v>11.5</v>
@@ -3310,34 +3310,34 @@
         <v>65</v>
       </c>
       <c r="AF21" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="AG21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI21" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AJ21" t="n">
-        <v>130</v>
+        <v>310</v>
       </c>
       <c r="AK21" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AM21" t="n">
         <v>580</v>
       </c>
       <c r="AN21" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G22" t="n">
         <v>2.34</v>
       </c>
-      <c r="G22" t="n">
-        <v>2.36</v>
-      </c>
       <c r="H22" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I22" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J22" t="n">
         <v>3.2</v>
@@ -3385,22 +3385,22 @@
         <v>3.25</v>
       </c>
       <c r="L22" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M22" t="n">
         <v>1.11</v>
       </c>
       <c r="N22" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O22" t="n">
         <v>1.45</v>
       </c>
       <c r="P22" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R22" t="n">
         <v>1.26</v>
@@ -3409,22 +3409,22 @@
         <v>4.5</v>
       </c>
       <c r="T22" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U22" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="V22" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W22" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="X22" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z22" t="n">
         <v>25</v>
@@ -3469,7 +3469,7 @@
         <v>140</v>
       </c>
       <c r="AN22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO22" t="n">
         <v>70</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="G23" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="H23" t="n">
         <v>4.4</v>
       </c>
       <c r="I23" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J23" t="n">
         <v>3.85</v>
       </c>
       <c r="K23" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L23" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M23" t="n">
         <v>1.06</v>
@@ -3535,13 +3535,13 @@
         <v>2.08</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R23" t="n">
         <v>1.42</v>
       </c>
       <c r="S23" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T23" t="n">
         <v>1.76</v>
@@ -3550,16 +3550,16 @@
         <v>2.18</v>
       </c>
       <c r="V23" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W23" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="X23" t="n">
         <v>17</v>
       </c>
       <c r="Y23" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z23" t="n">
         <v>34</v>
@@ -3574,7 +3574,7 @@
         <v>8.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE23" t="n">
         <v>55</v>
@@ -3586,7 +3586,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH23" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AI23" t="n">
         <v>60</v>
@@ -3595,7 +3595,7 @@
         <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL23" t="n">
         <v>34</v>
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="F24" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="G24" t="n">
         <v>1.88</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1.89</v>
       </c>
       <c r="H24" t="n">
         <v>4.2</v>
@@ -3670,13 +3670,13 @@
         <v>2.72</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R24" t="n">
         <v>1.69</v>
       </c>
       <c r="S24" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T24" t="n">
         <v>1.58</v>
@@ -3703,7 +3703,7 @@
         <v>75</v>
       </c>
       <c r="AB24" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC24" t="n">
         <v>10.5</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="G25" t="n">
         <v>2.8</v>
@@ -3784,34 +3784,34 @@
         <v>2.82</v>
       </c>
       <c r="J25" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K25" t="n">
         <v>3.55</v>
       </c>
       <c r="L25" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M25" t="n">
         <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="O25" t="n">
         <v>1.34</v>
       </c>
       <c r="P25" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R25" t="n">
         <v>1.36</v>
       </c>
       <c r="S25" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T25" t="n">
         <v>1.8</v>
@@ -3877,7 +3877,7 @@
         <v>27</v>
       </c>
       <c r="AO25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
@@ -3910,58 +3910,58 @@
         <v>1.19</v>
       </c>
       <c r="G26" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="H26" t="n">
         <v>20</v>
       </c>
       <c r="I26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J26" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="L26" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M26" t="n">
         <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="O26" t="n">
         <v>1.2</v>
       </c>
       <c r="P26" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="Q26" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="U26" t="n">
         <v>1.61</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.59</v>
       </c>
       <c r="V26" t="n">
         <v>1.04</v>
       </c>
       <c r="W26" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="X26" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y26" t="n">
         <v>990</v>
@@ -3976,7 +3976,7 @@
         <v>9</v>
       </c>
       <c r="AC26" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AD26" t="n">
         <v>990</v>
@@ -4000,16 +4000,16 @@
         <v>8.4</v>
       </c>
       <c r="AK26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL26" t="n">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="AM26" t="n">
         <v>350</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4048,7 +4048,7 @@
         <v>1.35</v>
       </c>
       <c r="H27" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I27" t="n">
         <v>1000</v>
@@ -4177,31 +4177,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="G28" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H28" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I28" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="K28" t="n">
         <v>4.2</v>
       </c>
       <c r="L28" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="M28" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="O28" t="n">
         <v>1.18</v>
@@ -4210,49 +4210,49 @@
         <v>2.48</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R28" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="S28" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="T28" t="n">
-        <v>1.53</v>
+        <v>1.04</v>
       </c>
       <c r="U28" t="n">
-        <v>2.6</v>
+        <v>1.04</v>
       </c>
       <c r="V28" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="W28" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X28" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y28" t="n">
         <v>16</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AB28" t="n">
         <v>970</v>
       </c>
       <c r="AC28" t="n">
-        <v>9.6</v>
+        <v>980</v>
       </c>
       <c r="AD28" t="n">
         <v>11.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
         <v>28</v>
@@ -4261,7 +4261,7 @@
         <v>14.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AI28" t="n">
         <v>28</v>
@@ -4270,7 +4270,7 @@
         <v>60</v>
       </c>
       <c r="AK28" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
         <v>36</v>
@@ -4279,10 +4279,10 @@
         <v>60</v>
       </c>
       <c r="AN28" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
@@ -667,94 +667,94 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="G2" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="H2" t="n">
         <v>5.6</v>
       </c>
       <c r="I2" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K2" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N2" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="O2" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="P2" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="R2" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T2" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="U2" t="n">
         <v>1.73</v>
       </c>
       <c r="V2" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="W2" t="n">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Z2" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE2" t="n">
         <v>130</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>990</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1000</v>
       </c>
       <c r="AF2" t="n">
         <v>19</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ2" t="n">
         <v>55</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -838,7 +838,7 @@
         <v>1.3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S3" t="n">
         <v>1.3</v>
@@ -943,28 +943,28 @@
         <v>2.02</v>
       </c>
       <c r="H4" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="I4" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L4" t="n">
         <v>1.48</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N4" t="n">
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P4" t="n">
         <v>1.69</v>
@@ -976,22 +976,22 @@
         <v>1.25</v>
       </c>
       <c r="S4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U4" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V4" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W4" t="n">
         <v>1.98</v>
       </c>
       <c r="X4" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y4" t="n">
         <v>17.5</v>
@@ -1003,34 +1003,34 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE4" t="n">
         <v>230</v>
       </c>
       <c r="AF4" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI4" t="n">
-        <v>260</v>
+        <v>380</v>
       </c>
       <c r="AJ4" t="n">
         <v>24</v>
       </c>
       <c r="AK4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL4" t="n">
         <v>48</v>
@@ -1075,13 +1075,13 @@
         <v>2.02</v>
       </c>
       <c r="G5" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H5" t="n">
         <v>4.1</v>
       </c>
       <c r="I5" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J5" t="n">
         <v>3.35</v>
@@ -1096,22 +1096,22 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O5" t="n">
         <v>1.31</v>
       </c>
       <c r="P5" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="R5" t="n">
         <v>1.37</v>
       </c>
       <c r="S5" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T5" t="n">
         <v>1.79</v>
@@ -1120,19 +1120,19 @@
         <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W5" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z5" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AA5" t="n">
         <v>900</v>
@@ -1141,13 +1141,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE5" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="AF5" t="n">
         <v>13.5</v>
@@ -1159,10 +1159,10 @@
         <v>18.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>330</v>
+        <v>65</v>
       </c>
       <c r="AJ5" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AK5" t="n">
         <v>23</v>
@@ -1174,10 +1174,10 @@
         <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>34</v>
+        <v>15.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>65</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6">
@@ -1213,16 +1213,16 @@
         <v>2.46</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K6" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L6" t="n">
         <v>1.42</v>
@@ -1231,28 +1231,28 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R6" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S6" t="n">
         <v>3.55</v>
       </c>
       <c r="T6" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="U6" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
         <v>1.4</v>
@@ -1261,10 +1261,10 @@
         <v>1.68</v>
       </c>
       <c r="X6" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="Y6" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Z6" t="n">
         <v>28</v>
@@ -1279,19 +1279,19 @@
         <v>9.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH6" t="n">
         <v>20</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>21</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
@@ -1300,7 +1300,7 @@
         <v>42</v>
       </c>
       <c r="AK6" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
@@ -1351,16 +1351,16 @@
         <v>8.4</v>
       </c>
       <c r="I7" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="J7" t="n">
         <v>5.7</v>
       </c>
       <c r="K7" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="M7" t="n">
         <v>1.02</v>
@@ -1375,22 +1375,22 @@
         <v>2.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="R7" t="n">
         <v>1.74</v>
       </c>
       <c r="S7" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="T7" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U7" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W7" t="n">
         <v>3.4</v>
@@ -1399,22 +1399,22 @@
         <v>90</v>
       </c>
       <c r="Y7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z7" t="n">
         <v>100</v>
       </c>
-      <c r="Z7" t="n">
-        <v>1000</v>
-      </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
@@ -1477,25 +1477,25 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G8" t="n">
         <v>1.27</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.28</v>
       </c>
       <c r="H8" t="n">
         <v>11.5</v>
       </c>
       <c r="I8" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="J8" t="n">
         <v>7.4</v>
       </c>
       <c r="K8" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M8" t="n">
         <v>1.02</v>
@@ -1507,28 +1507,28 @@
         <v>1.17</v>
       </c>
       <c r="P8" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="Q8" t="n">
         <v>1.53</v>
       </c>
       <c r="R8" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="S8" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T8" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V8" t="n">
         <v>1.08</v>
       </c>
       <c r="W8" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="X8" t="n">
         <v>42</v>
@@ -1540,13 +1540,13 @@
         <v>140</v>
       </c>
       <c r="AA8" t="n">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="AB8" t="n">
         <v>13</v>
       </c>
       <c r="AC8" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AD8" t="n">
         <v>120</v>
@@ -1579,7 +1579,7 @@
         <v>470</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="AO8" t="n">
         <v>210</v>
@@ -1615,7 +1615,7 @@
         <v>2.46</v>
       </c>
       <c r="G9" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H9" t="n">
         <v>3.3</v>
@@ -1624,7 +1624,7 @@
         <v>3.45</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K9" t="n">
         <v>3.35</v>
@@ -1642,10 +1642,10 @@
         <v>1.41</v>
       </c>
       <c r="P9" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R9" t="n">
         <v>1.28</v>
@@ -1654,19 +1654,19 @@
         <v>4.2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U9" t="n">
         <v>2.02</v>
       </c>
       <c r="V9" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W9" t="n">
         <v>1.66</v>
       </c>
       <c r="X9" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y9" t="n">
         <v>11.5</v>
@@ -1714,7 +1714,7 @@
         <v>120</v>
       </c>
       <c r="AN9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO9" t="n">
         <v>46</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="G10" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="H10" t="n">
         <v>6.2</v>
@@ -1759,19 +1759,19 @@
         <v>7.4</v>
       </c>
       <c r="J10" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K10" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="L10" t="n">
         <v>1.28</v>
       </c>
       <c r="M10" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O10" t="n">
         <v>1.18</v>
@@ -1789,16 +1789,16 @@
         <v>2.34</v>
       </c>
       <c r="T10" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U10" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
         <v>1.16</v>
       </c>
       <c r="W10" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="X10" t="n">
         <v>990</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="G11" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="H11" t="n">
         <v>8.199999999999999</v>
@@ -1897,7 +1897,7 @@
         <v>4.8</v>
       </c>
       <c r="K11" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L11" t="n">
         <v>1.32</v>
@@ -1915,7 +1915,7 @@
         <v>2.34</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R11" t="n">
         <v>1.52</v>
@@ -2023,16 +2023,16 @@
         <v>6.4</v>
       </c>
       <c r="H12" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="I12" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K12" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L12" t="n">
         <v>1.44</v>
@@ -2044,19 +2044,19 @@
         <v>3.55</v>
       </c>
       <c r="O12" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R12" t="n">
         <v>1.31</v>
       </c>
       <c r="S12" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T12" t="n">
         <v>2.02</v>
@@ -2065,10 +2065,10 @@
         <v>1.87</v>
       </c>
       <c r="V12" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="W12" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="X12" t="n">
         <v>13</v>
@@ -2095,7 +2095,7 @@
         <v>19</v>
       </c>
       <c r="AF12" t="n">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="AG12" t="n">
         <v>24</v>
@@ -2119,7 +2119,7 @@
         <v>470</v>
       </c>
       <c r="AN12" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AO12" t="n">
         <v>12.5</v>
@@ -2152,31 +2152,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="G13" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="H13" t="n">
         <v>1.38</v>
       </c>
       <c r="I13" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="J13" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="K13" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="L13" t="n">
         <v>1.28</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.17</v>
@@ -2194,40 +2194,40 @@
         <v>2.34</v>
       </c>
       <c r="T13" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V13" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="W13" t="n">
         <v>1.09</v>
       </c>
       <c r="X13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y13" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB13" t="n">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="AC13" t="n">
         <v>13</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF13" t="n">
         <v>110</v>
@@ -2245,10 +2245,10 @@
         <v>350</v>
       </c>
       <c r="AK13" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AL13" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
@@ -2257,7 +2257,7 @@
         <v>140</v>
       </c>
       <c r="AO13" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="14">
@@ -2290,10 +2290,10 @@
         <v>1.51</v>
       </c>
       <c r="G14" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="H14" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I14" t="n">
         <v>9</v>
@@ -2302,43 +2302,43 @@
         <v>4.4</v>
       </c>
       <c r="K14" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O14" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P14" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q14" t="n">
         <v>2.18</v>
       </c>
       <c r="R14" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S14" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T14" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="U14" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="V14" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W14" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="X14" t="n">
         <v>13.5</v>
@@ -2347,10 +2347,10 @@
         <v>22</v>
       </c>
       <c r="Z14" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AA14" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="AB14" t="n">
         <v>6.6</v>
@@ -2359,10 +2359,10 @@
         <v>9.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE14" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AF14" t="n">
         <v>7.6</v>
@@ -2383,16 +2383,16 @@
         <v>18.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM14" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AN14" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AO14" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15">
@@ -2422,58 +2422,58 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.12</v>
+        <v>1.47</v>
       </c>
       <c r="G15" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="H15" t="n">
-        <v>3.15</v>
+        <v>5</v>
       </c>
       <c r="I15" t="n">
-        <v>48</v>
+        <v>5.9</v>
       </c>
       <c r="J15" t="n">
-        <v>3.25</v>
+        <v>5.2</v>
       </c>
       <c r="K15" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="M15" t="n">
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>1.1</v>
+        <v>3.45</v>
       </c>
       <c r="O15" t="n">
         <v>1.06</v>
       </c>
       <c r="P15" t="n">
-        <v>2.66</v>
+        <v>4.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.06</v>
+        <v>1.2</v>
       </c>
       <c r="R15" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="S15" t="n">
-        <v>1.07</v>
+        <v>1.5</v>
       </c>
       <c r="T15" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="U15" t="n">
-        <v>1.04</v>
+        <v>3.05</v>
       </c>
       <c r="V15" t="n">
-        <v>1.02</v>
+        <v>1.2</v>
       </c>
       <c r="W15" t="n">
-        <v>2.84</v>
+        <v>2.74</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2485,7 +2485,7 @@
         <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB15" t="n">
         <v>1000</v>
@@ -2503,10 +2503,10 @@
         <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
@@ -2524,7 +2524,7 @@
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>3.65</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>S.S.D. Casarano Calcio</t>
+          <t>Ravenna</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.64</v>
+        <v>3.55</v>
       </c>
       <c r="G16" t="n">
-        <v>1.76</v>
+        <v>3.9</v>
       </c>
       <c r="H16" t="n">
-        <v>5.7</v>
+        <v>2.26</v>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>2.46</v>
       </c>
       <c r="J16" t="n">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="K16" t="n">
-        <v>4.3</v>
+        <v>3.45</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N16" t="n">
-        <v>3.6</v>
+        <v>2.84</v>
       </c>
       <c r="O16" t="n">
-        <v>1.31</v>
+        <v>1.48</v>
       </c>
       <c r="P16" t="n">
-        <v>1.89</v>
+        <v>1.63</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.95</v>
+        <v>2.46</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Ravenna</t>
+          <t>S.S.D. Casarano Calcio</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.3</v>
+        <v>1.66</v>
       </c>
       <c r="G17" t="n">
-        <v>3.8</v>
+        <v>1.75</v>
       </c>
       <c r="H17" t="n">
-        <v>2.3</v>
+        <v>5.3</v>
       </c>
       <c r="I17" t="n">
-        <v>2.5</v>
+        <v>6.2</v>
       </c>
       <c r="J17" t="n">
-        <v>3.05</v>
+        <v>3.85</v>
       </c>
       <c r="K17" t="n">
-        <v>3.45</v>
+        <v>4.3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="P17" t="n">
-        <v>1.61</v>
+        <v>1.89</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.44</v>
+        <v>1.98</v>
       </c>
       <c r="R17" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>530</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="G18" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H18" t="n">
         <v>2.18</v>
       </c>
       <c r="I18" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="J18" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K18" t="n">
         <v>3.45</v>
@@ -2869,13 +2869,13 @@
         <v>4.8</v>
       </c>
       <c r="T18" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U18" t="n">
         <v>1.81</v>
       </c>
       <c r="V18" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="W18" t="n">
         <v>1.33</v>
@@ -2914,7 +2914,7 @@
         <v>60</v>
       </c>
       <c r="AI18" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AJ18" t="n">
         <v>1000</v>
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="G19" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="H19" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="I19" t="n">
         <v>11.5</v>
@@ -2977,7 +2977,7 @@
         <v>3.95</v>
       </c>
       <c r="K19" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L19" t="n">
         <v>1.47</v>
@@ -2986,7 +2986,7 @@
         <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O19" t="n">
         <v>1.39</v>
@@ -2998,16 +2998,16 @@
         <v>2.16</v>
       </c>
       <c r="R19" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S19" t="n">
         <v>4.1</v>
       </c>
       <c r="T19" t="n">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="U19" t="n">
-        <v>1.64</v>
+        <v>1.54</v>
       </c>
       <c r="V19" t="n">
         <v>1.11</v>
@@ -3028,10 +3028,10 @@
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>990</v>
+        <v>12</v>
       </c>
       <c r="AC19" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="AD19" t="n">
         <v>1000</v>
@@ -3040,10 +3040,10 @@
         <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>990</v>
+        <v>25</v>
       </c>
       <c r="AH19" t="n">
         <v>990</v>
@@ -3052,13 +3052,13 @@
         <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>900</v>
+        <v>180</v>
       </c>
       <c r="AK19" t="n">
         <v>970</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AM19" t="n">
         <v>1000</v>
@@ -3130,7 +3130,7 @@
         <v>2.18</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R20" t="n">
         <v>1.44</v>
@@ -3142,7 +3142,7 @@
         <v>2</v>
       </c>
       <c r="U20" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V20" t="n">
         <v>1.13</v>
@@ -3157,7 +3157,7 @@
         <v>26</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA20" t="n">
         <v>330</v>
@@ -3169,16 +3169,16 @@
         <v>11</v>
       </c>
       <c r="AD20" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AE20" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AF20" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AG20" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH20" t="n">
         <v>26</v>
@@ -3244,7 +3244,7 @@
         <v>2.08</v>
       </c>
       <c r="J21" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K21" t="n">
         <v>3.5</v>
@@ -3259,7 +3259,7 @@
         <v>3.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P21" t="n">
         <v>1.69</v>
@@ -3271,16 +3271,16 @@
         <v>1.25</v>
       </c>
       <c r="S21" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T21" t="n">
-        <v>1.05</v>
+        <v>1.94</v>
       </c>
       <c r="U21" t="n">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="V21" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="W21" t="n">
         <v>1.27</v>
@@ -3295,40 +3295,40 @@
         <v>12.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="AB21" t="n">
         <v>14</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD21" t="n">
         <v>11.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="AF21" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AG21" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AH21" t="n">
         <v>22</v>
       </c>
       <c r="AI21" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="AJ21" t="n">
         <v>310</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AL21" t="n">
-        <v>380</v>
+        <v>200</v>
       </c>
       <c r="AM21" t="n">
         <v>580</v>
@@ -3337,7 +3337,7 @@
         <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
@@ -3376,7 +3376,7 @@
         <v>3.8</v>
       </c>
       <c r="I22" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J22" t="n">
         <v>3.2</v>
@@ -3400,7 +3400,7 @@
         <v>1.71</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="R22" t="n">
         <v>1.26</v>
@@ -3415,16 +3415,16 @@
         <v>1.95</v>
       </c>
       <c r="V22" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W22" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="X22" t="n">
         <v>10.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z22" t="n">
         <v>25</v>
@@ -3433,7 +3433,7 @@
         <v>75</v>
       </c>
       <c r="AB22" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC22" t="n">
         <v>7</v>
@@ -3454,25 +3454,25 @@
         <v>20</v>
       </c>
       <c r="AI22" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ22" t="n">
         <v>30</v>
       </c>
       <c r="AK22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL22" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM22" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN22" t="n">
         <v>26</v>
       </c>
       <c r="AO22" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="G23" t="n">
         <v>1.93</v>
@@ -3511,7 +3511,7 @@
         <v>4.4</v>
       </c>
       <c r="I23" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J23" t="n">
         <v>3.85</v>
@@ -3535,28 +3535,28 @@
         <v>2.08</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R23" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S23" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T23" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U23" t="n">
         <v>2.18</v>
       </c>
       <c r="V23" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W23" t="n">
         <v>2.06</v>
       </c>
       <c r="X23" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y23" t="n">
         <v>17.5</v>
@@ -3586,7 +3586,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH23" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI23" t="n">
         <v>60</v>
@@ -3595,7 +3595,7 @@
         <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AL23" t="n">
         <v>34</v>
@@ -3604,10 +3604,10 @@
         <v>95</v>
       </c>
       <c r="AN23" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="G24" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="H24" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I24" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J24" t="n">
         <v>4.3</v>
@@ -3664,10 +3664,10 @@
         <v>6</v>
       </c>
       <c r="O24" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P24" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="Q24" t="n">
         <v>1.57</v>
@@ -3676,7 +3676,7 @@
         <v>1.69</v>
       </c>
       <c r="S24" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T24" t="n">
         <v>1.58</v>
@@ -3688,7 +3688,7 @@
         <v>1.3</v>
       </c>
       <c r="W24" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="X24" t="n">
         <v>24</v>
@@ -3703,7 +3703,7 @@
         <v>75</v>
       </c>
       <c r="AB24" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC24" t="n">
         <v>10.5</v>
@@ -3724,7 +3724,7 @@
         <v>15</v>
       </c>
       <c r="AI24" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ24" t="n">
         <v>22</v>
@@ -3742,7 +3742,7 @@
         <v>7.8</v>
       </c>
       <c r="AO24" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -3781,7 +3781,7 @@
         <v>2.78</v>
       </c>
       <c r="I25" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="J25" t="n">
         <v>3.5</v>
@@ -3790,7 +3790,7 @@
         <v>3.55</v>
       </c>
       <c r="L25" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M25" t="n">
         <v>1.08</v>
@@ -3802,7 +3802,7 @@
         <v>1.34</v>
       </c>
       <c r="P25" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q25" t="n">
         <v>2.02</v>
@@ -3820,7 +3820,7 @@
         <v>2.18</v>
       </c>
       <c r="V25" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="W25" t="n">
         <v>1.55</v>
@@ -3907,49 +3907,49 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="G26" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="H26" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J26" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="K26" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L26" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M26" t="n">
         <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="O26" t="n">
         <v>1.2</v>
       </c>
       <c r="P26" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R26" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="S26" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="T26" t="n">
         <v>2.5</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.44</v>
       </c>
       <c r="U26" t="n">
         <v>1.61</v>
@@ -3958,10 +3958,10 @@
         <v>1.04</v>
       </c>
       <c r="W26" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="X26" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Y26" t="n">
         <v>990</v>
@@ -3976,25 +3976,25 @@
         <v>9</v>
       </c>
       <c r="AC26" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AD26" t="n">
         <v>990</v>
       </c>
       <c r="AE26" t="n">
-        <v>460</v>
+        <v>550</v>
       </c>
       <c r="AF26" t="n">
         <v>7.2</v>
       </c>
       <c r="AG26" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH26" t="n">
         <v>990</v>
       </c>
       <c r="AI26" t="n">
-        <v>310</v>
+        <v>390</v>
       </c>
       <c r="AJ26" t="n">
         <v>8.4</v>
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="G27" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="H27" t="n">
-        <v>3.95</v>
+        <v>6</v>
       </c>
       <c r="I27" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="J27" t="n">
-        <v>3.05</v>
+        <v>5.2</v>
       </c>
       <c r="K27" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="L27" t="n">
         <v>1.15</v>
@@ -4066,85 +4066,85 @@
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>1.1</v>
+        <v>3.45</v>
       </c>
       <c r="O27" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="P27" t="n">
-        <v>2.48</v>
+        <v>3.9</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.07</v>
+        <v>1.24</v>
       </c>
       <c r="R27" t="n">
         <v>2.48</v>
       </c>
       <c r="S27" t="n">
-        <v>1.07</v>
+        <v>1.56</v>
       </c>
       <c r="T27" t="n">
-        <v>1.04</v>
+        <v>1.46</v>
       </c>
       <c r="U27" t="n">
-        <v>1.04</v>
+        <v>2.64</v>
       </c>
       <c r="V27" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="W27" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>80</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>30</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN27" t="n">
         <v>3.25</v>
-      </c>
-      <c r="X27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>19</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
@@ -4177,10 +4177,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="G28" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H28" t="n">
         <v>2.16</v>
@@ -4189,10 +4189,10 @@
         <v>2.28</v>
       </c>
       <c r="J28" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K28" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L28" t="n">
         <v>1.29</v>
@@ -4201,13 +4201,13 @@
         <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="O28" t="n">
         <v>1.18</v>
       </c>
       <c r="P28" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="Q28" t="n">
         <v>1.56</v>
@@ -4216,43 +4216,43 @@
         <v>1.61</v>
       </c>
       <c r="S28" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="T28" t="n">
-        <v>1.04</v>
+        <v>1.53</v>
       </c>
       <c r="U28" t="n">
-        <v>1.04</v>
+        <v>2.58</v>
       </c>
       <c r="V28" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="W28" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X28" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="Y28" t="n">
         <v>16</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA28" t="n">
         <v>30</v>
       </c>
       <c r="AB28" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AC28" t="n">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD28" t="n">
         <v>11.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AF28" t="n">
         <v>28</v>
@@ -4264,13 +4264,13 @@
         <v>15.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AJ28" t="n">
         <v>60</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL28" t="n">
         <v>36</v>
@@ -4279,7 +4279,7 @@
         <v>60</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AO28" t="n">
         <v>11</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
@@ -667,64 +667,64 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="G2" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="H2" t="n">
         <v>5.6</v>
       </c>
       <c r="I2" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K2" t="n">
         <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="M2" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="O2" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="R2" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="T2" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="V2" t="n">
         <v>1.19</v>
       </c>
       <c r="W2" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="Z2" t="n">
         <v>980</v>
@@ -733,34 +733,34 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AC2" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AE2" t="n">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="AF2" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
-        <v>17.5</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI2" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="AJ2" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="AK2" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AL2" t="n">
         <v>120</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="G3" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H3" t="n">
         <v>3.35</v>
@@ -814,22 +814,22 @@
         <v>44</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>1.1</v>
+        <v>1.29</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="P3" t="n">
         <v>1.28</v>
@@ -853,7 +853,7 @@
         <v>1.13</v>
       </c>
       <c r="W3" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="G4" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="H4" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="I4" t="n">
-        <v>5.5</v>
+        <v>4.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L4" t="n">
         <v>1.48</v>
@@ -961,13 +961,13 @@
         <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="O4" t="n">
         <v>1.41</v>
       </c>
       <c r="P4" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="Q4" t="n">
         <v>2.2</v>
@@ -979,16 +979,16 @@
         <v>4.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U4" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V4" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="W4" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="X4" t="n">
         <v>11.5</v>
@@ -997,25 +997,25 @@
         <v>17.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="n">
-        <v>230</v>
+        <v>380</v>
       </c>
       <c r="AF4" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG4" t="n">
         <v>11</v>
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="AI4" t="n">
-        <v>380</v>
+        <v>260</v>
       </c>
       <c r="AJ4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK4" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL4" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,25 +1072,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G5" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H5" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
         <v>4.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K5" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1099,13 +1099,13 @@
         <v>3.65</v>
       </c>
       <c r="O5" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P5" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R5" t="n">
         <v>1.37</v>
@@ -1123,7 +1123,7 @@
         <v>1.28</v>
       </c>
       <c r="W5" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X5" t="n">
         <v>14.5</v>
@@ -1132,7 +1132,7 @@
         <v>16</v>
       </c>
       <c r="Z5" t="n">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="AA5" t="n">
         <v>900</v>
@@ -1144,13 +1144,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="AF5" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG5" t="n">
         <v>11</v>
@@ -1159,25 +1159,25 @@
         <v>18.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ5" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AK5" t="n">
         <v>23</v>
       </c>
       <c r="AL5" t="n">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="AM5" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN5" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>600</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6">
@@ -1213,103 +1213,103 @@
         <v>2.46</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K6" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L6" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="R6" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="S6" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="V6" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W6" t="n">
         <v>1.68</v>
       </c>
       <c r="X6" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="Y6" t="n">
-        <v>25</v>
+        <v>990</v>
       </c>
       <c r="Z6" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AA6" t="n">
         <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>990</v>
+        <v>18</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="AK6" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>26</v>
+        <v>600</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1348,19 +1348,19 @@
         <v>1.41</v>
       </c>
       <c r="H7" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="I7" t="n">
         <v>10.5</v>
       </c>
       <c r="J7" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="K7" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M7" t="n">
         <v>1.02</v>
@@ -1372,37 +1372,37 @@
         <v>1.15</v>
       </c>
       <c r="P7" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="R7" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="S7" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U7" t="n">
         <v>2.08</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.1</v>
       </c>
       <c r="V7" t="n">
         <v>1.1</v>
       </c>
       <c r="W7" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="X7" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Y7" t="n">
         <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
@@ -1414,7 +1414,7 @@
         <v>17</v>
       </c>
       <c r="AD7" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
@@ -1426,7 +1426,7 @@
         <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
@@ -1438,13 +1438,13 @@
         <v>15</v>
       </c>
       <c r="AL7" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G8" t="n">
         <v>1.26</v>
       </c>
-      <c r="G8" t="n">
-        <v>1.27</v>
-      </c>
       <c r="H8" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="I8" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="J8" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="K8" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L8" t="n">
         <v>1.27</v>
@@ -1501,7 +1501,7 @@
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O8" t="n">
         <v>1.17</v>
@@ -1510,19 +1510,19 @@
         <v>2.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R8" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="S8" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U8" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="V8" t="n">
         <v>1.08</v>
@@ -1537,22 +1537,22 @@
         <v>55</v>
       </c>
       <c r="Z8" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="AA8" t="n">
-        <v>540</v>
+        <v>580</v>
       </c>
       <c r="AB8" t="n">
         <v>13</v>
       </c>
       <c r="AC8" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AD8" t="n">
         <v>120</v>
       </c>
       <c r="AE8" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AF8" t="n">
         <v>8.4</v>
@@ -1564,25 +1564,25 @@
         <v>34</v>
       </c>
       <c r="AI8" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AJ8" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK8" t="n">
         <v>13</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM8" t="n">
-        <v>470</v>
+        <v>170</v>
       </c>
       <c r="AN8" t="n">
         <v>4.2</v>
       </c>
       <c r="AO8" t="n">
-        <v>210</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9">
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="G9" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J9" t="n">
         <v>3.3</v>
@@ -1630,7 +1630,7 @@
         <v>3.35</v>
       </c>
       <c r="L9" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M9" t="n">
         <v>1.09</v>
@@ -1642,7 +1642,7 @@
         <v>1.41</v>
       </c>
       <c r="P9" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q9" t="n">
         <v>2.2</v>
@@ -1663,7 +1663,7 @@
         <v>1.4</v>
       </c>
       <c r="W9" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="X9" t="n">
         <v>11.5</v>
@@ -1708,7 +1708,7 @@
         <v>29</v>
       </c>
       <c r="AL9" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM9" t="n">
         <v>120</v>
@@ -1717,7 +1717,7 @@
         <v>26</v>
       </c>
       <c r="AO9" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="G10" t="n">
         <v>1.56</v>
@@ -1756,10 +1756,10 @@
         <v>6.2</v>
       </c>
       <c r="I10" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J10" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="K10" t="n">
         <v>5.6</v>
@@ -1777,43 +1777,43 @@
         <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="Q10" t="n">
         <v>1.54</v>
       </c>
       <c r="R10" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="S10" t="n">
         <v>2.34</v>
       </c>
       <c r="T10" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U10" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V10" t="n">
         <v>1.16</v>
       </c>
       <c r="W10" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="X10" t="n">
         <v>990</v>
       </c>
       <c r="Y10" t="n">
-        <v>990</v>
+        <v>34</v>
       </c>
       <c r="Z10" t="n">
         <v>170</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB10" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AC10" t="n">
         <v>18</v>
@@ -1846,7 +1846,7 @@
         <v>75</v>
       </c>
       <c r="AM10" t="n">
-        <v>330</v>
+        <v>580</v>
       </c>
       <c r="AN10" t="n">
         <v>5.9</v>
@@ -1882,73 +1882,73 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="G11" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="H11" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="I11" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L11" t="n">
         <v>1.32</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="P11" t="n">
         <v>2.34</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R11" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="T11" t="n">
         <v>1.92</v>
       </c>
       <c r="U11" t="n">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="V11" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W11" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="X11" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="Y11" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="Z11" t="n">
         <v>85</v>
       </c>
       <c r="AA11" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="AB11" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC11" t="n">
         <v>12.5</v>
@@ -1960,19 +1960,19 @@
         <v>160</v>
       </c>
       <c r="AF11" t="n">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="AG11" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>32</v>
+        <v>990</v>
       </c>
       <c r="AI11" t="n">
         <v>130</v>
       </c>
       <c r="AJ11" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AK11" t="n">
         <v>25</v>
@@ -1984,7 +1984,7 @@
         <v>470</v>
       </c>
       <c r="AN11" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="AO11" t="n">
         <v>190</v>
@@ -2020,16 +2020,16 @@
         <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H12" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="I12" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="J12" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="K12" t="n">
         <v>4.1</v>
@@ -2038,7 +2038,7 @@
         <v>1.44</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
         <v>3.55</v>
@@ -2047,7 +2047,7 @@
         <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q12" t="n">
         <v>2.1</v>
@@ -2062,16 +2062,16 @@
         <v>2.02</v>
       </c>
       <c r="U12" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V12" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="W12" t="n">
         <v>1.19</v>
       </c>
       <c r="X12" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Y12" t="n">
         <v>7.6</v>
@@ -2098,7 +2098,7 @@
         <v>46</v>
       </c>
       <c r="AG12" t="n">
-        <v>24</v>
+        <v>990</v>
       </c>
       <c r="AH12" t="n">
         <v>25</v>
@@ -2107,19 +2107,19 @@
         <v>48</v>
       </c>
       <c r="AJ12" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AK12" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL12" t="n">
         <v>240</v>
       </c>
-      <c r="AL12" t="n">
-        <v>110</v>
-      </c>
       <c r="AM12" t="n">
-        <v>470</v>
+        <v>150</v>
       </c>
       <c r="AN12" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AO12" t="n">
         <v>12.5</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="I13" t="n">
         <v>1.42</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="K13" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L13" t="n">
         <v>1.28</v>
@@ -2179,82 +2179,82 @@
         <v>5.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R13" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="S13" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="T13" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U13" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V13" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="W13" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="X13" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Y13" t="n">
         <v>11.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AA13" t="n">
         <v>13</v>
       </c>
       <c r="AB13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF13" t="n">
         <v>95</v>
       </c>
-      <c r="AC13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF13" t="n">
+      <c r="AG13" t="n">
+        <v>36</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>130</v>
+      </c>
+      <c r="AL13" t="n">
         <v>110</v>
       </c>
-      <c r="AG13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>350</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>150</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>250</v>
-      </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN13" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AO13" t="n">
         <v>5.2</v>
@@ -2296,31 +2296,31 @@
         <v>8.199999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="J14" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K14" t="n">
         <v>4.6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="P14" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R14" t="n">
         <v>1.3</v>
@@ -2332,16 +2332,16 @@
         <v>2.28</v>
       </c>
       <c r="U14" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V14" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W14" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="X14" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y14" t="n">
         <v>22</v>
@@ -2353,7 +2353,7 @@
         <v>330</v>
       </c>
       <c r="AB14" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AC14" t="n">
         <v>9.6</v>
@@ -2383,16 +2383,16 @@
         <v>18.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM14" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AN14" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="G15" t="n">
-        <v>1.57</v>
+        <v>1.46</v>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="I15" t="n">
-        <v>5.9</v>
+        <v>7.2</v>
       </c>
       <c r="J15" t="n">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="K15" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="L15" t="n">
         <v>1.15</v>
@@ -2446,88 +2446,88 @@
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>3.45</v>
+        <v>12</v>
       </c>
       <c r="O15" t="n">
         <v>1.06</v>
       </c>
       <c r="P15" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q15" t="n">
         <v>1.2</v>
       </c>
       <c r="R15" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="S15" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="T15" t="n">
         <v>1.4</v>
       </c>
       <c r="U15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X15" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN15" t="n">
         <v>3.05</v>
       </c>
-      <c r="V15" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W15" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>38</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>990</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3.65</v>
-      </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
@@ -2566,31 +2566,31 @@
         <v>2.26</v>
       </c>
       <c r="I16" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="J16" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K16" t="n">
         <v>3.45</v>
       </c>
       <c r="L16" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="M16" t="n">
         <v>1.1</v>
       </c>
       <c r="N16" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="O16" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P16" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="R16" t="n">
         <v>1.23</v>
@@ -2599,13 +2599,13 @@
         <v>4.8</v>
       </c>
       <c r="T16" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U16" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="V16" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="W16" t="n">
         <v>1.35</v>
@@ -2623,7 +2623,7 @@
         <v>85</v>
       </c>
       <c r="AB16" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC16" t="n">
         <v>7.8</v>
@@ -2635,7 +2635,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="AG16" t="n">
         <v>16.5</v>
@@ -2659,7 +2659,7 @@
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO16" t="n">
         <v>75</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="G17" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H17" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="J17" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K17" t="n">
         <v>4.3</v>
@@ -2722,10 +2722,10 @@
         <v>1.32</v>
       </c>
       <c r="P17" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2836,10 +2836,10 @@
         <v>2.18</v>
       </c>
       <c r="I18" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="J18" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K18" t="n">
         <v>3.45</v>
@@ -2857,7 +2857,7 @@
         <v>1.47</v>
       </c>
       <c r="P18" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q18" t="n">
         <v>2.42</v>
@@ -2887,7 +2887,7 @@
         <v>8</v>
       </c>
       <c r="Z18" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AA18" t="n">
         <v>75</v>
@@ -2914,7 +2914,7 @@
         <v>60</v>
       </c>
       <c r="AI18" t="n">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="AJ18" t="n">
         <v>1000</v>
@@ -2962,40 +2962,40 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.48</v>
+        <v>1.59</v>
       </c>
       <c r="G19" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="H19" t="n">
-        <v>8.4</v>
+        <v>6.6</v>
       </c>
       <c r="I19" t="n">
         <v>11.5</v>
       </c>
       <c r="J19" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="K19" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="L19" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N19" t="n">
         <v>3.15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P19" t="n">
         <v>1.76</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="R19" t="n">
         <v>1.26</v>
@@ -3004,19 +3004,19 @@
         <v>4.1</v>
       </c>
       <c r="T19" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="U19" t="n">
-        <v>1.54</v>
+        <v>1.71</v>
       </c>
       <c r="V19" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W19" t="n">
-        <v>2.8</v>
+        <v>2.56</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Y19" t="n">
         <v>990</v>
@@ -3028,22 +3028,22 @@
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AC19" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE19" t="n">
         <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>17.5</v>
+        <v>8.6</v>
       </c>
       <c r="AG19" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AH19" t="n">
         <v>990</v>
@@ -3052,13 +3052,13 @@
         <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>180</v>
+        <v>970</v>
       </c>
       <c r="AK19" t="n">
         <v>970</v>
       </c>
       <c r="AL19" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
         <v>1000</v>
@@ -3103,16 +3103,16 @@
         <v>1.5</v>
       </c>
       <c r="H20" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="I20" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J20" t="n">
         <v>4.7</v>
       </c>
       <c r="K20" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L20" t="n">
         <v>1.37</v>
@@ -3121,16 +3121,16 @@
         <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O20" t="n">
         <v>1.27</v>
       </c>
       <c r="P20" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R20" t="n">
         <v>1.44</v>
@@ -3160,7 +3160,7 @@
         <v>75</v>
       </c>
       <c r="AA20" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AB20" t="n">
         <v>8.6</v>
@@ -3169,7 +3169,7 @@
         <v>11</v>
       </c>
       <c r="AD20" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="AE20" t="n">
         <v>150</v>
@@ -3181,7 +3181,7 @@
         <v>10</v>
       </c>
       <c r="AH20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI20" t="n">
         <v>520</v>
@@ -3193,7 +3193,7 @@
         <v>16</v>
       </c>
       <c r="AL20" t="n">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="AM20" t="n">
         <v>430</v>
@@ -3235,19 +3235,19 @@
         <v>4.3</v>
       </c>
       <c r="G21" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="I21" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="J21" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K21" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L21" t="n">
         <v>1.5</v>
@@ -3259,7 +3259,7 @@
         <v>3.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P21" t="n">
         <v>1.69</v>
@@ -3280,7 +3280,7 @@
         <v>1.87</v>
       </c>
       <c r="V21" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="W21" t="n">
         <v>1.27</v>
@@ -3295,7 +3295,7 @@
         <v>12.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="AB21" t="n">
         <v>14</v>
@@ -3313,7 +3313,7 @@
         <v>85</v>
       </c>
       <c r="AG21" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AH21" t="n">
         <v>22</v>
@@ -3325,19 +3325,19 @@
         <v>310</v>
       </c>
       <c r="AK21" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="AM21" t="n">
         <v>580</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AO21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="G22" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="H22" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I22" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="J22" t="n">
         <v>3.2</v>
@@ -3385,7 +3385,7 @@
         <v>3.25</v>
       </c>
       <c r="L22" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M22" t="n">
         <v>1.11</v>
@@ -3394,7 +3394,7 @@
         <v>3.15</v>
       </c>
       <c r="O22" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P22" t="n">
         <v>1.71</v>
@@ -3409,16 +3409,16 @@
         <v>4.5</v>
       </c>
       <c r="T22" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="U22" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="V22" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W22" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="X22" t="n">
         <v>10.5</v>
@@ -3445,7 +3445,7 @@
         <v>55</v>
       </c>
       <c r="AF22" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG22" t="n">
         <v>11.5</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="G23" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="H23" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I23" t="n">
         <v>4.4</v>
       </c>
-      <c r="I23" t="n">
-        <v>4.7</v>
-      </c>
       <c r="J23" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K23" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L23" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M23" t="n">
         <v>1.06</v>
@@ -3532,40 +3532,40 @@
         <v>1.28</v>
       </c>
       <c r="P23" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R23" t="n">
         <v>1.41</v>
       </c>
       <c r="S23" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T23" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U23" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W23" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X23" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Z23" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA23" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AB23" t="n">
         <v>9.6</v>
@@ -3574,22 +3574,22 @@
         <v>8.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF23" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG23" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH23" t="n">
         <v>18</v>
       </c>
       <c r="AI23" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ23" t="n">
         <v>23</v>
@@ -3598,16 +3598,16 @@
         <v>19</v>
       </c>
       <c r="AL23" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM23" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN23" t="n">
         <v>12.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24">
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="G24" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="H24" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K24" t="n">
         <v>4.3</v>
-      </c>
-      <c r="I24" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J24" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K24" t="n">
-        <v>4.4</v>
       </c>
       <c r="L24" t="n">
         <v>1.3</v>
@@ -3667,34 +3667,34 @@
         <v>1.18</v>
       </c>
       <c r="P24" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R24" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="S24" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="T24" t="n">
         <v>1.58</v>
       </c>
       <c r="U24" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="V24" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W24" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="X24" t="n">
         <v>24</v>
       </c>
       <c r="Y24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z24" t="n">
         <v>36</v>
@@ -3703,13 +3703,13 @@
         <v>75</v>
       </c>
       <c r="AB24" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC24" t="n">
         <v>10.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE24" t="n">
         <v>40</v>
@@ -3724,13 +3724,13 @@
         <v>15</v>
       </c>
       <c r="AI24" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK24" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AL24" t="n">
         <v>24</v>
@@ -3742,7 +3742,7 @@
         <v>7.8</v>
       </c>
       <c r="AO24" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="G25" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H25" t="n">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="I25" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="J25" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K25" t="n">
         <v>3.5</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.55</v>
       </c>
       <c r="L25" t="n">
         <v>1.44</v>
@@ -3796,22 +3796,22 @@
         <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O25" t="n">
         <v>1.34</v>
       </c>
       <c r="P25" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R25" t="n">
         <v>1.36</v>
       </c>
       <c r="S25" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T25" t="n">
         <v>1.8</v>
@@ -3820,28 +3820,28 @@
         <v>2.18</v>
       </c>
       <c r="V25" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="W25" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="X25" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z25" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AA25" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB25" t="n">
         <v>11.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD25" t="n">
         <v>12</v>
@@ -3850,7 +3850,7 @@
         <v>30</v>
       </c>
       <c r="AF25" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AG25" t="n">
         <v>12.5</v>
@@ -3874,7 +3874,7 @@
         <v>95</v>
       </c>
       <c r="AN25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO25" t="n">
         <v>26</v>
@@ -3910,22 +3910,22 @@
         <v>1.18</v>
       </c>
       <c r="G26" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="H26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I26" t="n">
         <v>24</v>
       </c>
       <c r="J26" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="K26" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L26" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M26" t="n">
         <v>1.03</v>
@@ -3946,28 +3946,28 @@
         <v>1.62</v>
       </c>
       <c r="S26" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="T26" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="U26" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="V26" t="n">
         <v>1.04</v>
       </c>
       <c r="W26" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Y26" t="n">
         <v>990</v>
       </c>
       <c r="Z26" t="n">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="AA26" t="n">
         <v>1000</v>
@@ -3976,19 +3976,19 @@
         <v>9</v>
       </c>
       <c r="AC26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD26" t="n">
         <v>990</v>
       </c>
       <c r="AE26" t="n">
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="AF26" t="n">
         <v>7.2</v>
       </c>
       <c r="AG26" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH26" t="n">
         <v>990</v>
@@ -4003,13 +4003,13 @@
         <v>16</v>
       </c>
       <c r="AL26" t="n">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="AM26" t="n">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4042,58 +4042,58 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="G27" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="H27" t="n">
         <v>6</v>
       </c>
       <c r="I27" t="n">
-        <v>9.6</v>
+        <v>17.5</v>
       </c>
       <c r="J27" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="K27" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="M27" t="n">
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>3.45</v>
+        <v>5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P27" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="R27" t="n">
         <v>2.48</v>
       </c>
       <c r="S27" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="T27" t="n">
-        <v>1.46</v>
+        <v>1.04</v>
       </c>
       <c r="U27" t="n">
-        <v>2.64</v>
+        <v>2.54</v>
       </c>
       <c r="V27" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W27" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4117,7 +4117,7 @@
         <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
         <v>32</v>
@@ -4144,7 +4144,7 @@
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
@@ -4177,76 +4177,76 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="G28" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="H28" t="n">
         <v>2.16</v>
       </c>
       <c r="I28" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="J28" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K28" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L28" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M28" t="n">
         <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="O28" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P28" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="R28" t="n">
         <v>1.61</v>
       </c>
       <c r="S28" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="T28" t="n">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="U28" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="V28" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="W28" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X28" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y28" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AA28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB28" t="n">
         <v>22</v>
       </c>
       <c r="AC28" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD28" t="n">
         <v>11.5</v>
@@ -4279,7 +4279,7 @@
         <v>60</v>
       </c>
       <c r="AN28" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO28" t="n">
         <v>11</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
@@ -667,100 +667,100 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="G2" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="H2" t="n">
-        <v>5.6</v>
+        <v>6.8</v>
       </c>
       <c r="I2" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="J2" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="L2" t="n">
-        <v>1.48</v>
+        <v>2.14</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>3.35</v>
+        <v>2.36</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.69</v>
       </c>
       <c r="P2" t="n">
-        <v>1.76</v>
+        <v>1.44</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.16</v>
+        <v>3.15</v>
       </c>
       <c r="R2" t="n">
-        <v>1.3</v>
+        <v>1.12</v>
       </c>
       <c r="S2" t="n">
-        <v>4.1</v>
+        <v>8</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>2.92</v>
       </c>
       <c r="U2" t="n">
-        <v>1.83</v>
+        <v>1.45</v>
       </c>
       <c r="V2" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="W2" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>7.2</v>
       </c>
       <c r="Y2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z2" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AB2" t="n">
-        <v>8</v>
+        <v>5.1</v>
       </c>
       <c r="AC2" t="n">
         <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="AI2" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="AJ2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="AL2" t="n">
         <v>120</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="G3" t="n">
         <v>2.08</v>
@@ -826,34 +826,34 @@
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>1.29</v>
+        <v>1.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.06</v>
+        <v>1.31</v>
       </c>
       <c r="P3" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="R3" t="n">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="S3" t="n">
-        <v>1.3</v>
+        <v>1.05</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="U3" t="n">
         <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="W3" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -940,64 +940,64 @@
         <v>2.02</v>
       </c>
       <c r="G4" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H4" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="I4" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L4" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="O4" t="n">
         <v>1.41</v>
       </c>
       <c r="P4" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="R4" t="n">
         <v>1.25</v>
       </c>
       <c r="S4" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U4" t="n">
         <v>1.86</v>
       </c>
       <c r="V4" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W4" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="X4" t="n">
         <v>11.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
@@ -1009,7 +1009,7 @@
         <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE4" t="n">
         <v>380</v>
@@ -1027,19 +1027,19 @@
         <v>260</v>
       </c>
       <c r="AJ4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK4" t="n">
         <v>26</v>
       </c>
       <c r="AL4" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1075,55 +1075,55 @@
         <v>2.04</v>
       </c>
       <c r="G5" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L5" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="O5" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
         <v>1.37</v>
       </c>
       <c r="S5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T5" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U5" t="n">
         <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W5" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="X5" t="n">
         <v>14.5</v>
@@ -1147,10 +1147,10 @@
         <v>17.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="AF5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG5" t="n">
         <v>11</v>
@@ -1159,7 +1159,7 @@
         <v>18.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="AJ5" t="n">
         <v>42</v>
@@ -1171,13 +1171,13 @@
         <v>38</v>
       </c>
       <c r="AM5" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN5" t="n">
         <v>16.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>140</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6">
@@ -1207,64 +1207,64 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="G6" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="H6" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="J6" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K6" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L6" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="R6" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.38</v>
       </c>
-      <c r="S6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.41</v>
-      </c>
       <c r="W6" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="X6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y6" t="n">
-        <v>990</v>
+        <v>25</v>
       </c>
       <c r="Z6" t="n">
         <v>65</v>
@@ -1273,46 +1273,46 @@
         <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>18</v>
+        <v>10.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>27</v>
+        <v>15.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG6" t="n">
         <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AJ6" t="n">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AM6" t="n">
         <v>580</v>
       </c>
       <c r="AN6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO6" t="n">
         <v>600</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="G7" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="H7" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="I7" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="J7" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="K7" t="n">
         <v>6.4</v>
@@ -1366,82 +1366,82 @@
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P7" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="R7" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="S7" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="T7" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="U7" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="W7" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="X7" t="n">
+        <v>48</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z7" t="n">
         <v>85</v>
       </c>
-      <c r="Y7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1000</v>
-      </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AD7" t="n">
         <v>85</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AF7" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG7" t="n">
         <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK7" t="n">
         <v>15</v>
       </c>
       <c r="AL7" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM7" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
         <v>4.4</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="G8" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="H8" t="n">
         <v>12.5</v>
       </c>
       <c r="I8" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="J8" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="K8" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="L8" t="n">
         <v>1.27</v>
@@ -1501,37 +1501,37 @@
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P8" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="Q8" t="n">
         <v>1.52</v>
       </c>
       <c r="R8" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="S8" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T8" t="n">
         <v>2.02</v>
       </c>
       <c r="U8" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="V8" t="n">
         <v>1.08</v>
       </c>
       <c r="W8" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="X8" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Y8" t="n">
         <v>55</v>
@@ -1543,16 +1543,16 @@
         <v>580</v>
       </c>
       <c r="AB8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC8" t="n">
         <v>18.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="AE8" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AF8" t="n">
         <v>8.4</v>
@@ -1567,7 +1567,7 @@
         <v>170</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AK8" t="n">
         <v>13</v>
@@ -1576,13 +1576,13 @@
         <v>32</v>
       </c>
       <c r="AM8" t="n">
-        <v>170</v>
+        <v>470</v>
       </c>
       <c r="AN8" t="n">
         <v>4.2</v>
       </c>
       <c r="AO8" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9">
@@ -1615,13 +1615,13 @@
         <v>2.44</v>
       </c>
       <c r="G9" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I9" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J9" t="n">
         <v>3.3</v>
@@ -1633,43 +1633,43 @@
         <v>1.48</v>
       </c>
       <c r="M9" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R9" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U9" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V9" t="n">
         <v>1.4</v>
       </c>
       <c r="W9" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="X9" t="n">
         <v>11.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="n">
         <v>22</v>
@@ -1678,7 +1678,7 @@
         <v>60</v>
       </c>
       <c r="AB9" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AC9" t="n">
         <v>7.2</v>
@@ -1690,7 +1690,7 @@
         <v>46</v>
       </c>
       <c r="AF9" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG9" t="n">
         <v>11.5</v>
@@ -1699,7 +1699,7 @@
         <v>19.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ9" t="n">
         <v>36</v>
@@ -1711,13 +1711,13 @@
         <v>46</v>
       </c>
       <c r="AM9" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN9" t="n">
         <v>26</v>
       </c>
       <c r="AO9" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="G10" t="n">
         <v>1.56</v>
       </c>
       <c r="H10" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I10" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J10" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="K10" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L10" t="n">
         <v>1.28</v>
@@ -1771,40 +1771,40 @@
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R10" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S10" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="T10" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U10" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V10" t="n">
         <v>1.16</v>
       </c>
       <c r="W10" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="X10" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y10" t="n">
         <v>990</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>34</v>
       </c>
       <c r="Z10" t="n">
         <v>170</v>
@@ -1813,34 +1813,34 @@
         <v>190</v>
       </c>
       <c r="AB10" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AC10" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AD10" t="n">
-        <v>990</v>
+        <v>48</v>
       </c>
       <c r="AE10" t="n">
         <v>510</v>
       </c>
       <c r="AF10" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>990</v>
+        <v>38</v>
       </c>
       <c r="AI10" t="n">
         <v>400</v>
       </c>
       <c r="AJ10" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="AK10" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="AL10" t="n">
         <v>75</v>
@@ -1849,7 +1849,7 @@
         <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AO10" t="n">
         <v>270</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="G11" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="H11" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="I11" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="K11" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L11" t="n">
         <v>1.32</v>
@@ -1906,88 +1906,88 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="P11" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="R11" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="S11" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T11" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="U11" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="V11" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="W11" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="X11" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="Y11" t="n">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="Z11" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AA11" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AC11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD11" t="n">
-        <v>990</v>
+        <v>30</v>
       </c>
       <c r="AE11" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG11" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>990</v>
+        <v>26</v>
       </c>
       <c r="AI11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AO11" t="n">
         <v>130</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>470</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>190</v>
       </c>
     </row>
     <row r="12">
@@ -2020,16 +2020,16 @@
         <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="H12" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="I12" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="J12" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K12" t="n">
         <v>4.1</v>
@@ -2047,34 +2047,34 @@
         <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R12" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S12" t="n">
         <v>3.85</v>
       </c>
       <c r="T12" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U12" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="V12" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="W12" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="X12" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Z12" t="n">
         <v>9.199999999999999</v>
@@ -2083,7 +2083,7 @@
         <v>17</v>
       </c>
       <c r="AB12" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC12" t="n">
         <v>8.800000000000001</v>
@@ -2095,10 +2095,10 @@
         <v>19</v>
       </c>
       <c r="AF12" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AG12" t="n">
-        <v>990</v>
+        <v>24</v>
       </c>
       <c r="AH12" t="n">
         <v>25</v>
@@ -2107,19 +2107,19 @@
         <v>48</v>
       </c>
       <c r="AJ12" t="n">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="AK12" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AL12" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="AM12" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AO12" t="n">
         <v>12.5</v>
@@ -2152,112 +2152,112 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="G13" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="H13" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="I13" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="J13" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="K13" t="n">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="O13" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P13" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R13" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="S13" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="T13" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="U13" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="V13" t="n">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="W13" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="X13" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z13" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>46</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD13" t="n">
         <v>10.5</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AE13" t="n">
         <v>13</v>
       </c>
-      <c r="AB13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AF13" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AG13" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AH13" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AI13" t="n">
         <v>32</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AK13" t="n">
+        <v>160</v>
+      </c>
+      <c r="AL13" t="n">
         <v>130</v>
       </c>
-      <c r="AL13" t="n">
-        <v>110</v>
-      </c>
       <c r="AM13" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AO13" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="14">
@@ -2287,82 +2287,82 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="G14" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="H14" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="I14" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="J14" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="K14" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
         <v>3.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P14" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q14" t="n">
         <v>2.16</v>
       </c>
       <c r="R14" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S14" t="n">
         <v>4</v>
       </c>
       <c r="T14" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="U14" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="V14" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W14" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="X14" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="Y14" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Z14" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AA14" t="n">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="AB14" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AD14" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AE14" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AF14" t="n">
         <v>7.6</v>
@@ -2374,25 +2374,25 @@
         <v>32</v>
       </c>
       <c r="AI14" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AJ14" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL14" t="n">
         <v>48</v>
       </c>
       <c r="AM14" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="AN14" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO14" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="G15" t="n">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="H15" t="n">
-        <v>5.6</v>
+        <v>7.8</v>
       </c>
       <c r="I15" t="n">
-        <v>7.2</v>
+        <v>10.5</v>
       </c>
       <c r="J15" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="K15" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L15" t="n">
         <v>1.15</v>
@@ -2446,88 +2446,88 @@
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O15" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P15" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="Q15" t="n">
         <v>1.2</v>
       </c>
       <c r="R15" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="S15" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="T15" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="U15" t="n">
-        <v>3.1</v>
+        <v>1.04</v>
       </c>
       <c r="V15" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="W15" t="n">
-        <v>3.1</v>
+        <v>3.85</v>
       </c>
       <c r="X15" t="n">
         <v>80</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Z15" t="n">
+        <v>140</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>85</v>
+      </c>
+      <c r="AE15" t="n">
         <v>100</v>
       </c>
-      <c r="AA15" t="n">
-        <v>200</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>65</v>
-      </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AG15" t="n">
         <v>14</v>
       </c>
       <c r="AH15" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="AJ15" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="AK15" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AL15" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.05</v>
+        <v>2.76</v>
       </c>
       <c r="AO15" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
@@ -2569,7 +2569,7 @@
         <v>2.42</v>
       </c>
       <c r="J16" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K16" t="n">
         <v>3.45</v>
@@ -2587,7 +2587,7 @@
         <v>1.47</v>
       </c>
       <c r="P16" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q16" t="n">
         <v>2.42</v>
@@ -2602,7 +2602,7 @@
         <v>1.94</v>
       </c>
       <c r="U16" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V16" t="n">
         <v>1.7</v>
@@ -2635,7 +2635,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="AG16" t="n">
         <v>16.5</v>
@@ -2650,7 +2650,7 @@
         <v>530</v>
       </c>
       <c r="AK16" t="n">
-        <v>130</v>
+        <v>380</v>
       </c>
       <c r="AL16" t="n">
         <v>400</v>
@@ -2659,7 +2659,7 @@
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
         <v>75</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="G17" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="H17" t="n">
         <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J17" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="K17" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>3.6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P17" t="n">
         <v>1.95</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="G18" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="H18" t="n">
-        <v>2.18</v>
+        <v>1.94</v>
       </c>
       <c r="I18" t="n">
-        <v>2.32</v>
+        <v>2.08</v>
       </c>
       <c r="J18" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K18" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="L18" t="n">
         <v>1.53</v>
@@ -2851,16 +2851,16 @@
         <v>1.11</v>
       </c>
       <c r="N18" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="O18" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P18" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="R18" t="n">
         <v>1.22</v>
@@ -2869,52 +2869,52 @@
         <v>4.8</v>
       </c>
       <c r="T18" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="U18" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="V18" t="n">
-        <v>1.76</v>
+        <v>1.92</v>
       </c>
       <c r="W18" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="X18" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA18" t="n">
         <v>75</v>
       </c>
       <c r="AB18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE18" t="n">
         <v>70</v>
       </c>
       <c r="AF18" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>17.5</v>
+        <v>36</v>
       </c>
       <c r="AH18" t="n">
         <v>60</v>
       </c>
       <c r="AI18" t="n">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="AJ18" t="n">
         <v>1000</v>
@@ -2932,7 +2932,7 @@
         <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="G19" t="n">
         <v>1.62</v>
       </c>
       <c r="H19" t="n">
-        <v>6.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="J19" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K19" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L19" t="n">
         <v>1.49</v>
@@ -3004,19 +3004,19 @@
         <v>4.1</v>
       </c>
       <c r="T19" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U19" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="V19" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W19" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="X19" t="n">
-        <v>990</v>
+        <v>90</v>
       </c>
       <c r="Y19" t="n">
         <v>990</v>
@@ -3028,19 +3028,19 @@
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AC19" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD19" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
         <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>8.6</v>
+        <v>16</v>
       </c>
       <c r="AG19" t="n">
         <v>40</v>
@@ -3052,7 +3052,7 @@
         <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>970</v>
+        <v>180</v>
       </c>
       <c r="AK19" t="n">
         <v>970</v>
@@ -3097,112 +3097,112 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="G20" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="I20" t="n">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="J20" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="K20" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="O20" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="P20" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="R20" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="S20" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="U20" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="V20" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="W20" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="X20" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="Y20" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Z20" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AA20" t="n">
-        <v>320</v>
+        <v>390</v>
       </c>
       <c r="AB20" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD20" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AE20" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AF20" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG20" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH20" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AI20" t="n">
-        <v>520</v>
+        <v>140</v>
       </c>
       <c r="AJ20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL20" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM20" t="n">
-        <v>430</v>
+        <v>170</v>
       </c>
       <c r="AN20" t="n">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21">
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="G21" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="H21" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="I21" t="n">
         <v>2.02</v>
       </c>
-      <c r="I21" t="n">
-        <v>2.04</v>
-      </c>
       <c r="J21" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K21" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L21" t="n">
         <v>1.5</v>
@@ -3256,46 +3256,46 @@
         <v>1.09</v>
       </c>
       <c r="N21" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O21" t="n">
         <v>1.43</v>
       </c>
       <c r="P21" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="R21" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W21" t="n">
         <v>1.25</v>
       </c>
-      <c r="S21" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.27</v>
-      </c>
       <c r="X21" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y21" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="Z21" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AA21" t="n">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="AB21" t="n">
         <v>14</v>
@@ -3304,40 +3304,40 @@
         <v>8</v>
       </c>
       <c r="AD21" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AF21" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="AG21" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI21" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ21" t="n">
-        <v>310</v>
+        <v>130</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL21" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AM21" t="n">
-        <v>580</v>
+        <v>160</v>
       </c>
       <c r="AN21" t="n">
         <v>300</v>
       </c>
       <c r="AO21" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="22">
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G22" t="n">
         <v>2.36</v>
       </c>
-      <c r="G22" t="n">
-        <v>2.38</v>
-      </c>
       <c r="H22" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I22" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J22" t="n">
         <v>3.2</v>
@@ -3388,7 +3388,7 @@
         <v>1.52</v>
       </c>
       <c r="M22" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N22" t="n">
         <v>3.15</v>
@@ -3397,28 +3397,28 @@
         <v>1.44</v>
       </c>
       <c r="P22" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="R22" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S22" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T22" t="n">
         <v>1.97</v>
       </c>
       <c r="U22" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="V22" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W22" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X22" t="n">
         <v>10.5</v>
@@ -3442,10 +3442,10 @@
         <v>15.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF22" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG22" t="n">
         <v>11.5</v>
@@ -3469,7 +3469,7 @@
         <v>130</v>
       </c>
       <c r="AN22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO22" t="n">
         <v>60</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="G23" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H23" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I23" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J23" t="n">
         <v>3.95</v>
@@ -3532,7 +3532,7 @@
         <v>1.28</v>
       </c>
       <c r="P23" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q23" t="n">
         <v>1.86</v>
@@ -3541,61 +3541,61 @@
         <v>1.41</v>
       </c>
       <c r="S23" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T23" t="n">
         <v>1.76</v>
       </c>
       <c r="U23" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V23" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W23" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="X23" t="n">
         <v>17.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA23" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AB23" t="n">
         <v>9.6</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD23" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE23" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF23" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH23" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI23" t="n">
         <v>55</v>
       </c>
       <c r="AJ23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK23" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL23" t="n">
         <v>32</v>
@@ -3607,7 +3607,7 @@
         <v>12.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
@@ -3637,73 +3637,73 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="G24" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="H24" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I24" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J24" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K24" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M24" t="n">
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O24" t="n">
         <v>1.18</v>
       </c>
       <c r="P24" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="R24" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S24" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="T24" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="U24" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="V24" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W24" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="X24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z24" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA24" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB24" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC24" t="n">
         <v>10.5</v>
@@ -3718,28 +3718,28 @@
         <v>14.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI24" t="n">
         <v>38</v>
       </c>
       <c r="AJ24" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AK24" t="n">
         <v>17.5</v>
       </c>
       <c r="AL24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM24" t="n">
         <v>55</v>
       </c>
       <c r="AN24" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AO24" t="n">
         <v>29</v>
@@ -3775,7 +3775,7 @@
         <v>2.88</v>
       </c>
       <c r="G25" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="H25" t="n">
         <v>2.7</v>
@@ -3796,7 +3796,7 @@
         <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O25" t="n">
         <v>1.34</v>
@@ -3814,10 +3814,10 @@
         <v>3.7</v>
       </c>
       <c r="T25" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U25" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="V25" t="n">
         <v>1.58</v>
@@ -3835,22 +3835,22 @@
         <v>17</v>
       </c>
       <c r="AA25" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB25" t="n">
         <v>11.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD25" t="n">
         <v>12</v>
       </c>
       <c r="AE25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF25" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG25" t="n">
         <v>12.5</v>
@@ -3868,16 +3868,16 @@
         <v>32</v>
       </c>
       <c r="AL25" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM25" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
@@ -3916,10 +3916,10 @@
         <v>21</v>
       </c>
       <c r="I26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J26" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K26" t="n">
         <v>9.199999999999999</v>
@@ -3934,25 +3934,25 @@
         <v>5.6</v>
       </c>
       <c r="O26" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P26" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R26" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S26" t="n">
         <v>2.5</v>
       </c>
       <c r="T26" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="U26" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="V26" t="n">
         <v>1.04</v>
@@ -3961,40 +3961,40 @@
         <v>6.2</v>
       </c>
       <c r="X26" t="n">
-        <v>990</v>
+        <v>40</v>
       </c>
       <c r="Y26" t="n">
         <v>990</v>
       </c>
       <c r="Z26" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="AA26" t="n">
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AD26" t="n">
-        <v>990</v>
+        <v>200</v>
       </c>
       <c r="AE26" t="n">
-        <v>580</v>
+        <v>510</v>
       </c>
       <c r="AF26" t="n">
         <v>7.2</v>
       </c>
       <c r="AG26" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>990</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="AJ26" t="n">
         <v>8.4</v>
@@ -4003,13 +4003,13 @@
         <v>16</v>
       </c>
       <c r="AL26" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AM26" t="n">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="G27" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H27" t="n">
+        <v>7</v>
+      </c>
+      <c r="I27" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J27" t="n">
         <v>6</v>
       </c>
-      <c r="I27" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="J27" t="n">
-        <v>4.8</v>
-      </c>
       <c r="K27" t="n">
-        <v>16.5</v>
+        <v>7.8</v>
       </c>
       <c r="L27" t="n">
         <v>1.16</v>
@@ -4066,13 +4066,13 @@
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="O27" t="n">
         <v>1.07</v>
       </c>
       <c r="P27" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="Q27" t="n">
         <v>1.22</v>
@@ -4081,19 +4081,19 @@
         <v>2.48</v>
       </c>
       <c r="S27" t="n">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="T27" t="n">
-        <v>1.04</v>
+        <v>1.47</v>
       </c>
       <c r="U27" t="n">
-        <v>2.54</v>
+        <v>2.66</v>
       </c>
       <c r="V27" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W27" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4120,7 +4120,7 @@
         <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
         <v>30</v>
@@ -4144,7 +4144,7 @@
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="G28" t="n">
         <v>3.35</v>
@@ -4186,7 +4186,7 @@
         <v>2.16</v>
       </c>
       <c r="I28" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="J28" t="n">
         <v>3.85</v>
@@ -4201,7 +4201,7 @@
         <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="O28" t="n">
         <v>1.2</v>
@@ -4210,40 +4210,40 @@
         <v>2.42</v>
       </c>
       <c r="Q28" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R28" t="n">
         <v>1.59</v>
       </c>
-      <c r="R28" t="n">
-        <v>1.61</v>
-      </c>
       <c r="S28" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="T28" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="U28" t="n">
-        <v>2.52</v>
+        <v>1.04</v>
       </c>
       <c r="V28" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="W28" t="n">
         <v>1.42</v>
       </c>
       <c r="X28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y28" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB28" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AC28" t="n">
         <v>9.6</v>
@@ -4252,25 +4252,25 @@
         <v>11.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
         <v>28</v>
       </c>
       <c r="AG28" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AH28" t="n">
         <v>15.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AJ28" t="n">
         <v>60</v>
       </c>
       <c r="AK28" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
         <v>36</v>
@@ -4279,10 +4279,10 @@
         <v>60</v>
       </c>
       <c r="AN28" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO28"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>Italian Serie D</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,123 +653,123 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Imisli FK</t>
+          <t>Siena</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Karvan Evlakh</t>
+          <t>ASD Camaiore</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.73</v>
+        <v>1.47</v>
       </c>
       <c r="G2" t="n">
-        <v>1.78</v>
+        <v>2.02</v>
       </c>
       <c r="H2" t="n">
-        <v>6.8</v>
+        <v>3.35</v>
       </c>
       <c r="I2" t="n">
-        <v>7.6</v>
+        <v>870</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K2" t="n">
-        <v>3.55</v>
+        <v>8</v>
       </c>
       <c r="L2" t="n">
-        <v>2.14</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.17</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>2.36</v>
+        <v>1.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.69</v>
+        <v>1.31</v>
       </c>
       <c r="P2" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.15</v>
+        <v>1.31</v>
       </c>
       <c r="R2" t="n">
-        <v>1.12</v>
+        <v>1.35</v>
       </c>
       <c r="S2" t="n">
-        <v>8</v>
+        <v>1.05</v>
       </c>
       <c r="T2" t="n">
-        <v>2.92</v>
+        <v>2.04</v>
       </c>
       <c r="U2" t="n">
-        <v>1.45</v>
+        <v>1.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="W2" t="n">
-        <v>2.28</v>
+        <v>1.94</v>
       </c>
       <c r="X2" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>360</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="AD2" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>15.5</v>
+        <v>100</v>
       </c>
       <c r="AH2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>24</v>
+        <v>900</v>
       </c>
       <c r="AK2" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Italian Serie D</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Siena</t>
+          <t>Neftchi Baku</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ASD Camaiore</t>
+          <t>FK Sumqayit</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.47</v>
+        <v>1.77</v>
       </c>
       <c r="G3" t="n">
-        <v>2.08</v>
+        <v>1.83</v>
       </c>
       <c r="H3" t="n">
-        <v>3.35</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>44</v>
+        <v>5.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="K3" t="n">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="P3" t="n">
-        <v>1.35</v>
+        <v>1.73</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.31</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="S3" t="n">
-        <v>1.05</v>
+        <v>4.2</v>
       </c>
       <c r="T3" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.04</v>
+        <v>1.79</v>
       </c>
       <c r="V3" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W3" t="n">
-        <v>1.92</v>
+        <v>2.2</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>42</v>
+        <v>9.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN3" t="n">
-        <v>600</v>
+        <v>17</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Neftchi Baku</t>
+          <t>Farul Constanta</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FK Sumqayit</t>
+          <t>UTA Arad</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="G4" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="K4" t="n">
         <v>3.65</v>
       </c>
       <c r="L4" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="M4" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.05</v>
+        <v>3.75</v>
       </c>
       <c r="O4" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>1.69</v>
+        <v>1.93</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.26</v>
+        <v>2.02</v>
       </c>
       <c r="R4" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="S4" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="T4" t="n">
-        <v>1.96</v>
+        <v>1.79</v>
       </c>
       <c r="U4" t="n">
-        <v>1.86</v>
+        <v>2.14</v>
       </c>
       <c r="V4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W4" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X4" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z4" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB4" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="AC4" t="n">
         <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AE4" t="n">
-        <v>380</v>
+        <v>55</v>
       </c>
       <c r="AF4" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AI4" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="AJ4" t="n">
         <v>26</v>
       </c>
       <c r="AK4" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
       <c r="AN4" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Farul Constanta</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>UTA Arad</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.04</v>
+        <v>2.24</v>
       </c>
       <c r="G5" t="n">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="H5" t="n">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="I5" t="n">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L5" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="R5" t="n">
         <v>1.37</v>
       </c>
       <c r="S5" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="V5" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="W5" t="n">
-        <v>1.91</v>
+        <v>1.74</v>
       </c>
       <c r="X5" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y5" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Z5" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AA5" t="n">
         <v>900</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>17.5</v>
+        <v>27</v>
       </c>
       <c r="AE5" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="AF5" t="n">
-        <v>13.5</v>
+        <v>25</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>18.5</v>
+        <v>25</v>
       </c>
       <c r="AI5" t="n">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="AJ5" t="n">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="AK5" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AL5" t="n">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="AM5" t="n">
         <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>16.5</v>
+        <v>28</v>
       </c>
       <c r="AO5" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U6" t="n">
         <v>2.3</v>
       </c>
-      <c r="G6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.12</v>
-      </c>
       <c r="V6" t="n">
-        <v>1.38</v>
+        <v>1.14</v>
       </c>
       <c r="W6" t="n">
-        <v>1.71</v>
+        <v>3</v>
       </c>
       <c r="X6" t="n">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="Y6" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="Z6" t="n">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="AA6" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.8</v>
+        <v>16.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>15.5</v>
+        <v>46</v>
       </c>
       <c r="AE6" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>24</v>
+        <v>12.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI6" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AJ6" t="n">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="AL6" t="n">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="AM6" t="n">
-        <v>580</v>
+        <v>90</v>
       </c>
       <c r="AN6" t="n">
-        <v>55</v>
+        <v>4.8</v>
       </c>
       <c r="AO6" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,34 +1333,34 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="G7" t="n">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="H7" t="n">
-        <v>7.8</v>
+        <v>12</v>
       </c>
       <c r="I7" t="n">
-        <v>9.4</v>
+        <v>13.5</v>
       </c>
       <c r="J7" t="n">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="K7" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="M7" t="n">
         <v>1.02</v>
@@ -1369,91 +1369,91 @@
         <v>6.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P7" t="n">
-        <v>3.05</v>
+        <v>2.76</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="R7" t="n">
-        <v>1.84</v>
+        <v>1.69</v>
       </c>
       <c r="S7" t="n">
-        <v>2.16</v>
+        <v>2.4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="V7" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="W7" t="n">
-        <v>3.35</v>
+        <v>4.4</v>
       </c>
       <c r="X7" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Y7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Z7" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>540</v>
       </c>
       <c r="AB7" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AC7" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AD7" t="n">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AE7" t="n">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="AF7" t="n">
-        <v>11.5</v>
+        <v>8.4</v>
       </c>
       <c r="AG7" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL7" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>CD Nacional Funchal</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.26</v>
+        <v>2.44</v>
       </c>
       <c r="G8" t="n">
-        <v>1.28</v>
+        <v>2.5</v>
       </c>
       <c r="H8" t="n">
-        <v>12.5</v>
+        <v>3.35</v>
       </c>
       <c r="I8" t="n">
-        <v>13.5</v>
+        <v>3.45</v>
       </c>
       <c r="J8" t="n">
-        <v>7.4</v>
+        <v>3.3</v>
       </c>
       <c r="K8" t="n">
-        <v>7.8</v>
+        <v>3.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.27</v>
+        <v>1.48</v>
       </c>
       <c r="M8" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>6.6</v>
+        <v>3.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.16</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>2.84</v>
+        <v>1.81</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.52</v>
+        <v>2.18</v>
       </c>
       <c r="R8" t="n">
-        <v>1.7</v>
+        <v>1.29</v>
       </c>
       <c r="S8" t="n">
-        <v>2.36</v>
+        <v>4.2</v>
       </c>
       <c r="T8" t="n">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="U8" t="n">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.08</v>
+        <v>1.4</v>
       </c>
       <c r="W8" t="n">
-        <v>4.6</v>
+        <v>1.67</v>
       </c>
       <c r="X8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE8" t="n">
         <v>46</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AF8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI8" t="n">
         <v>55</v>
       </c>
-      <c r="Z8" t="n">
-        <v>170</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>580</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>200</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>170</v>
-      </c>
       <c r="AJ8" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="AK8" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AL8" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="AM8" t="n">
-        <v>470</v>
+        <v>110</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.2</v>
+        <v>27</v>
       </c>
       <c r="AO8" t="n">
-        <v>220</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CD Nacional Funchal</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Hapoel Petach Tikva</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.44</v>
+        <v>1.51</v>
       </c>
       <c r="G9" t="n">
-        <v>2.5</v>
+        <v>1.54</v>
       </c>
       <c r="H9" t="n">
-        <v>3.35</v>
+        <v>6.8</v>
       </c>
       <c r="I9" t="n">
-        <v>3.45</v>
+        <v>7.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="K9" t="n">
-        <v>3.35</v>
+        <v>5.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.48</v>
+        <v>1.27</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>3.4</v>
+        <v>5.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="P9" t="n">
-        <v>1.8</v>
+        <v>2.68</v>
       </c>
       <c r="Q9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U9" t="n">
         <v>2.18</v>
       </c>
-      <c r="R9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S9" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.06</v>
-      </c>
       <c r="V9" t="n">
-        <v>1.4</v>
+        <v>1.15</v>
       </c>
       <c r="W9" t="n">
-        <v>1.66</v>
+        <v>2.84</v>
       </c>
       <c r="X9" t="n">
-        <v>11.5</v>
+        <v>90</v>
       </c>
       <c r="Y9" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="Z9" t="n">
+        <v>170</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>210</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>48</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>510</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH9" t="n">
         <v>22</v>
       </c>
-      <c r="AA9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AI9" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AJ9" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AK9" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="AL9" t="n">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="AM9" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>26</v>
+        <v>5.7</v>
       </c>
       <c r="AO9" t="n">
-        <v>46</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hapoel Petach Tikva</t>
+          <t>Bnei Sakhnin</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="G10" t="n">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J10" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K10" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="P10" t="n">
-        <v>2.68</v>
+        <v>2.36</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.53</v>
+        <v>1.66</v>
       </c>
       <c r="R10" t="n">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="S10" t="n">
-        <v>2.32</v>
+        <v>2.66</v>
       </c>
       <c r="T10" t="n">
         <v>1.7</v>
       </c>
       <c r="U10" t="n">
-        <v>2.22</v>
+        <v>2.02</v>
       </c>
       <c r="V10" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="W10" t="n">
-        <v>2.74</v>
+        <v>3.05</v>
       </c>
       <c r="X10" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="Y10" t="n">
-        <v>990</v>
+        <v>29</v>
       </c>
       <c r="Z10" t="n">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="AA10" t="n">
+        <v>260</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE10" t="n">
         <v>190</v>
       </c>
-      <c r="AB10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>48</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>510</v>
-      </c>
       <c r="AF10" t="n">
-        <v>12.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG10" t="n">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="AJ10" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AK10" t="n">
-        <v>29</v>
+        <v>14.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="AM10" t="n">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="AN10" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AO10" t="n">
-        <v>270</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Bnei Sakhnin</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.45</v>
+        <v>6.2</v>
       </c>
       <c r="G11" t="n">
-        <v>1.47</v>
+        <v>6.8</v>
       </c>
       <c r="H11" t="n">
-        <v>7.8</v>
+        <v>1.65</v>
       </c>
       <c r="I11" t="n">
-        <v>8.6</v>
+        <v>1.69</v>
       </c>
       <c r="J11" t="n">
-        <v>4.9</v>
+        <v>3.95</v>
       </c>
       <c r="K11" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="L11" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>5.1</v>
+        <v>3.55</v>
       </c>
       <c r="O11" t="n">
-        <v>1.21</v>
+        <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>2.36</v>
+        <v>1.86</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.68</v>
+        <v>2.08</v>
       </c>
       <c r="R11" t="n">
-        <v>1.55</v>
+        <v>1.31</v>
       </c>
       <c r="S11" t="n">
-        <v>2.68</v>
+        <v>3.85</v>
       </c>
       <c r="T11" t="n">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="U11" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="V11" t="n">
-        <v>1.13</v>
+        <v>2.44</v>
       </c>
       <c r="W11" t="n">
-        <v>3.1</v>
+        <v>1.17</v>
       </c>
       <c r="X11" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Y11" t="n">
-        <v>32</v>
+        <v>7.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="AA11" t="n">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="AB11" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AC11" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>200</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>470</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>140</v>
+      </c>
+      <c r="AO11" t="n">
         <v>12</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>130</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>FK Backa Topola</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>6</v>
+        <v>8.6</v>
       </c>
       <c r="G12" t="n">
-        <v>6.6</v>
+        <v>10.5</v>
       </c>
       <c r="H12" t="n">
-        <v>1.67</v>
+        <v>1.38</v>
       </c>
       <c r="I12" t="n">
-        <v>1.71</v>
+        <v>1.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.9</v>
+        <v>5.6</v>
       </c>
       <c r="K12" t="n">
-        <v>4.1</v>
+        <v>5.7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>3.55</v>
+        <v>5.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="P12" t="n">
-        <v>1.85</v>
+        <v>2.64</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.08</v>
+        <v>1.55</v>
       </c>
       <c r="R12" t="n">
-        <v>1.32</v>
+        <v>1.65</v>
       </c>
       <c r="S12" t="n">
-        <v>3.85</v>
+        <v>2.38</v>
       </c>
       <c r="T12" t="n">
-        <v>2.04</v>
+        <v>1.79</v>
       </c>
       <c r="U12" t="n">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="V12" t="n">
-        <v>2.4</v>
+        <v>3.45</v>
       </c>
       <c r="W12" t="n">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="X12" t="n">
-        <v>16.5</v>
+        <v>27</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.4</v>
+        <v>11.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AA12" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="AG12" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AH12" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AI12" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="AJ12" t="n">
-        <v>210</v>
+        <v>350</v>
       </c>
       <c r="AK12" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AL12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM12" t="n">
         <v>120</v>
       </c>
-      <c r="AM12" t="n">
-        <v>160</v>
-      </c>
       <c r="AN12" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AO12" t="n">
-        <v>12.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FK Backa Topola</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="F13" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+      <c r="I13" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W13" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="X13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>410</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC13" t="n">
         <v>10.5</v>
       </c>
-      <c r="G13" t="n">
+      <c r="AD13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>200</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>180</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>12.5</v>
       </c>
-      <c r="H13" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="J13" t="n">
-        <v>6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N13" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V13" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="X13" t="n">
-        <v>42</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>46</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>44</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>420</v>
-      </c>
       <c r="AK13" t="n">
-        <v>160</v>
+        <v>17.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN13" t="n">
-        <v>160</v>
+        <v>9</v>
       </c>
       <c r="AO13" t="n">
-        <v>4.7</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>San Antonio Bulo Bulo</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>CDT Real Oruro</t>
         </is>
       </c>
       <c r="F14" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H14" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
         <v>1.48</v>
       </c>
-      <c r="G14" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="H14" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S14" t="n">
-        <v>4</v>
-      </c>
       <c r="T14" t="n">
-        <v>2.24</v>
+        <v>1.45</v>
       </c>
       <c r="U14" t="n">
-        <v>1.73</v>
+        <v>2.78</v>
       </c>
       <c r="V14" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W14" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="X14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>340</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>80</v>
+      </c>
+      <c r="AC14" t="n">
         <v>23</v>
       </c>
-      <c r="Y14" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>360</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>10</v>
-      </c>
       <c r="AD14" t="n">
+        <v>990</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>210</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>48</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL14" t="n">
         <v>36</v>
       </c>
-      <c r="AE14" t="n">
-        <v>180</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>180</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>48</v>
-      </c>
       <c r="AM14" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>9.199999999999999</v>
+        <v>2.78</v>
       </c>
       <c r="AO14" t="n">
-        <v>290</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,126 +2408,126 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CDT Real Oruro</t>
+          <t>Ravenna</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.32</v>
+        <v>3.45</v>
       </c>
       <c r="G15" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W15" t="n">
         <v>1.35</v>
       </c>
-      <c r="H15" t="n">
+      <c r="X15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC15" t="n">
         <v>7.8</v>
       </c>
-      <c r="I15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>7</v>
-      </c>
-      <c r="K15" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N15" t="n">
-        <v>11</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W15" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="X15" t="n">
+      <c r="AD15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE15" t="n">
         <v>80</v>
       </c>
-      <c r="Y15" t="n">
-        <v>90</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>140</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>300</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC15" t="n">
+      <c r="AF15" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH15" t="n">
         <v>22</v>
       </c>
-      <c r="AD15" t="n">
-        <v>85</v>
-      </c>
-      <c r="AE15" t="n">
+      <c r="AI15" t="n">
         <v>100</v>
       </c>
-      <c r="AF15" t="n">
-        <v>48</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>70</v>
-      </c>
       <c r="AJ15" t="n">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="AK15" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AM15" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>2.76</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Ravenna</t>
+          <t>S.S.D. Casarano Calcio</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.55</v>
+        <v>1.73</v>
       </c>
       <c r="G16" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
         <v>3.9</v>
       </c>
-      <c r="H16" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2.86</v>
-      </c>
       <c r="O16" t="n">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
       <c r="P16" t="n">
-        <v>1.63</v>
+        <v>1.96</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.42</v>
+        <v>1.94</v>
       </c>
       <c r="R16" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AH16" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>530</v>
+        <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>S.S.D. Casarano Calcio</t>
+          <t>Monopoli</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.82</v>
+        <v>3.7</v>
       </c>
       <c r="G17" t="n">
-        <v>1.91</v>
+        <v>4.2</v>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>2.18</v>
       </c>
       <c r="I17" t="n">
-        <v>5.8</v>
+        <v>2.3</v>
       </c>
       <c r="J17" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K17" t="n">
         <v>3.5</v>
       </c>
-      <c r="K17" t="n">
-        <v>4</v>
-      </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>3.6</v>
+        <v>2.84</v>
       </c>
       <c r="O17" t="n">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="P17" t="n">
-        <v>1.95</v>
+        <v>1.61</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>2.42</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
@@ -2818,109 +2818,109 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Foggia</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Monopoli</t>
+          <t>ASD Pineto Calcio</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4.4</v>
+        <v>1.54</v>
       </c>
       <c r="G18" t="n">
-        <v>5.1</v>
+        <v>1.58</v>
       </c>
       <c r="H18" t="n">
-        <v>1.94</v>
+        <v>8.4</v>
       </c>
       <c r="I18" t="n">
-        <v>2.08</v>
+        <v>10.5</v>
       </c>
       <c r="J18" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="K18" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="M18" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="O18" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="P18" t="n">
-        <v>1.63</v>
+        <v>1.76</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="R18" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="S18" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="T18" t="n">
         <v>2.04</v>
       </c>
       <c r="U18" t="n">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="V18" t="n">
-        <v>1.92</v>
+        <v>1.11</v>
       </c>
       <c r="W18" t="n">
-        <v>1.25</v>
+        <v>2.68</v>
       </c>
       <c r="X18" t="n">
-        <v>10.5</v>
+        <v>90</v>
       </c>
       <c r="Y18" t="n">
-        <v>7.6</v>
+        <v>990</v>
       </c>
       <c r="Z18" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.8</v>
+        <v>14</v>
       </c>
       <c r="AD18" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>95</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG18" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AH18" t="n">
-        <v>60</v>
+        <v>990</v>
       </c>
       <c r="AI18" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AK18" t="n">
-        <v>380</v>
+        <v>970</v>
       </c>
       <c r="AL18" t="n">
         <v>1000</v>
@@ -2929,16 +2929,16 @@
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO18" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>CD Castellon</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ASD Pineto Calcio</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.56</v>
+        <v>1.38</v>
       </c>
       <c r="G19" t="n">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="H19" t="n">
-        <v>8.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I19" t="n">
+        <v>11</v>
+      </c>
+      <c r="J19" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K19" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>95</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>420</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG19" t="n">
         <v>10</v>
       </c>
-      <c r="J19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N19" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S19" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W19" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="X19" t="n">
-        <v>90</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>990</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>40</v>
-      </c>
       <c r="AH19" t="n">
-        <v>990</v>
+        <v>30</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ19" t="n">
-        <v>180</v>
+        <v>11.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN19" t="n">
-        <v>29</v>
+        <v>5.7</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>CD Castellon</t>
+          <t>Boulogne</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>ESTAC Troyes</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.39</v>
+        <v>3.85</v>
       </c>
       <c r="G20" t="n">
-        <v>1.4</v>
+        <v>3.95</v>
       </c>
       <c r="H20" t="n">
-        <v>9.6</v>
+        <v>2.16</v>
       </c>
       <c r="I20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X20" t="n">
         <v>11</v>
       </c>
-      <c r="J20" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K20" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N20" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="X20" t="n">
-        <v>20</v>
-      </c>
       <c r="Y20" t="n">
-        <v>34</v>
+        <v>8.4</v>
       </c>
       <c r="Z20" t="n">
-        <v>90</v>
+        <v>12.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>390</v>
+        <v>28</v>
       </c>
       <c r="AB20" t="n">
-        <v>8.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="AC20" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AD20" t="n">
-        <v>36</v>
+        <v>11.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>170</v>
+        <v>27</v>
       </c>
       <c r="AF20" t="n">
-        <v>8.199999999999999</v>
+        <v>26</v>
       </c>
       <c r="AG20" t="n">
-        <v>9.800000000000001</v>
+        <v>16.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM20" t="n">
         <v>140</v>
       </c>
-      <c r="AJ20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>170</v>
-      </c>
       <c r="AN20" t="n">
-        <v>6</v>
+        <v>260</v>
       </c>
       <c r="AO20" t="n">
-        <v>220</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,127 +3223,127 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Boulogne</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ESTAC Troyes</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4.6</v>
+        <v>2.32</v>
       </c>
       <c r="G21" t="n">
-        <v>4.9</v>
+        <v>2.34</v>
       </c>
       <c r="H21" t="n">
-        <v>1.96</v>
+        <v>3.8</v>
       </c>
       <c r="I21" t="n">
-        <v>2.02</v>
+        <v>3.85</v>
       </c>
       <c r="J21" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="K21" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L21" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M21" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N21" t="n">
         <v>3.15</v>
       </c>
       <c r="O21" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P21" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="R21" t="n">
         <v>1.26</v>
       </c>
       <c r="S21" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="T21" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U21" t="n">
         <v>1.98</v>
       </c>
-      <c r="U21" t="n">
-        <v>1.86</v>
-      </c>
       <c r="V21" t="n">
-        <v>1.98</v>
+        <v>1.35</v>
       </c>
       <c r="W21" t="n">
-        <v>1.25</v>
+        <v>1.74</v>
       </c>
       <c r="X21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>7.6</v>
+        <v>11.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AA21" t="n">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="AB21" t="n">
-        <v>14</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="AF21" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="AG21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH21" t="n">
         <v>19.5</v>
       </c>
-      <c r="AH21" t="n">
-        <v>23</v>
-      </c>
       <c r="AI21" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AJ21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM21" t="n">
         <v>130</v>
       </c>
-      <c r="AK21" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>160</v>
-      </c>
       <c r="AN21" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="AO21" t="n">
-        <v>19.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,118 +3358,118 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.34</v>
+        <v>1.9</v>
       </c>
       <c r="G22" t="n">
-        <v>2.36</v>
+        <v>1.92</v>
       </c>
       <c r="H22" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="I22" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="J22" t="n">
-        <v>3.2</v>
+        <v>3.85</v>
       </c>
       <c r="K22" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="M22" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>3.15</v>
+        <v>4.2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="P22" t="n">
-        <v>1.72</v>
+        <v>2.06</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.34</v>
+        <v>1.9</v>
       </c>
       <c r="R22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V22" t="n">
         <v>1.27</v>
       </c>
-      <c r="S22" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.35</v>
-      </c>
       <c r="W22" t="n">
-        <v>1.73</v>
+        <v>2.08</v>
       </c>
       <c r="X22" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="Y22" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF22" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z22" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>13</v>
-      </c>
       <c r="AG22" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AH22" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI22" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ22" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AK22" t="n">
-        <v>28</v>
+        <v>18.5</v>
       </c>
       <c r="AL22" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AM22" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN22" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="AO22" t="n">
         <v>60</v>
@@ -3478,7 +3478,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="G23" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="H23" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J23" t="n">
         <v>4.4</v>
       </c>
-      <c r="I23" t="n">
+      <c r="K23" t="n">
         <v>4.5</v>
       </c>
-      <c r="J23" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4.1</v>
-      </c>
       <c r="L23" t="n">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>4.2</v>
+        <v>6.2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="P23" t="n">
-        <v>2.08</v>
+        <v>2.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.86</v>
+        <v>1.54</v>
       </c>
       <c r="R23" t="n">
-        <v>1.41</v>
+        <v>1.74</v>
       </c>
       <c r="S23" t="n">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="T23" t="n">
-        <v>1.76</v>
+        <v>1.57</v>
       </c>
       <c r="U23" t="n">
-        <v>2.18</v>
+        <v>2.72</v>
       </c>
       <c r="V23" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="W23" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="X23" t="n">
-        <v>17.5</v>
+        <v>26</v>
       </c>
       <c r="Y23" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="Z23" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AA23" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AB23" t="n">
-        <v>9.6</v>
+        <v>14</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE23" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AF23" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AJ23" t="n">
         <v>22</v>
       </c>
       <c r="AK23" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AL23" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AM23" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="AN23" t="n">
-        <v>12.5</v>
+        <v>7.2</v>
       </c>
       <c r="AO23" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,127 +3628,127 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.88</v>
+        <v>2.88</v>
       </c>
       <c r="G24" t="n">
-        <v>1.89</v>
+        <v>2.92</v>
       </c>
       <c r="H24" t="n">
-        <v>4.2</v>
+        <v>2.72</v>
       </c>
       <c r="I24" t="n">
-        <v>4.3</v>
+        <v>2.74</v>
       </c>
       <c r="J24" t="n">
-        <v>4.3</v>
+        <v>3.45</v>
       </c>
       <c r="K24" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>6.2</v>
+        <v>3.7</v>
       </c>
       <c r="O24" t="n">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="P24" t="n">
-        <v>2.78</v>
+        <v>1.92</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.55</v>
+        <v>2.06</v>
       </c>
       <c r="R24" t="n">
-        <v>1.73</v>
+        <v>1.36</v>
       </c>
       <c r="S24" t="n">
-        <v>2.34</v>
+        <v>3.7</v>
       </c>
       <c r="T24" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V24" t="n">
         <v>1.57</v>
       </c>
-      <c r="U24" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.3</v>
-      </c>
       <c r="W24" t="n">
-        <v>2.12</v>
+        <v>1.52</v>
       </c>
       <c r="X24" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO24" t="n">
         <v>25</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Club Football Estrela</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.88</v>
+        <v>1.18</v>
       </c>
       <c r="G25" t="n">
-        <v>2.92</v>
+        <v>1.19</v>
       </c>
       <c r="H25" t="n">
-        <v>2.7</v>
+        <v>21</v>
       </c>
       <c r="I25" t="n">
-        <v>2.72</v>
+        <v>23</v>
       </c>
       <c r="J25" t="n">
-        <v>3.45</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="L25" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="M25" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>3.8</v>
+        <v>5.7</v>
       </c>
       <c r="O25" t="n">
-        <v>1.34</v>
+        <v>1.2</v>
       </c>
       <c r="P25" t="n">
-        <v>1.93</v>
+        <v>2.6</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.04</v>
+        <v>1.6</v>
       </c>
       <c r="R25" t="n">
-        <v>1.36</v>
+        <v>1.62</v>
       </c>
       <c r="S25" t="n">
-        <v>3.7</v>
+        <v>2.52</v>
       </c>
       <c r="T25" t="n">
-        <v>1.79</v>
+        <v>2.48</v>
       </c>
       <c r="U25" t="n">
-        <v>2.22</v>
+        <v>1.62</v>
       </c>
       <c r="V25" t="n">
-        <v>1.58</v>
+        <v>1.04</v>
       </c>
       <c r="W25" t="n">
-        <v>1.52</v>
+        <v>6.2</v>
       </c>
       <c r="X25" t="n">
-        <v>13.5</v>
+        <v>40</v>
       </c>
       <c r="Y25" t="n">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="Z25" t="n">
-        <v>17</v>
+        <v>740</v>
       </c>
       <c r="AA25" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>11.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.8</v>
+        <v>22</v>
       </c>
       <c r="AD25" t="n">
+        <v>990</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>580</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AG25" t="n">
         <v>12</v>
       </c>
-      <c r="AE25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH25" t="n">
-        <v>17.5</v>
+        <v>60</v>
       </c>
       <c r="AI25" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="AK25" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="AL25" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AM25" t="n">
-        <v>90</v>
+        <v>390</v>
       </c>
       <c r="AN25" t="n">
-        <v>29</v>
+        <v>3.9</v>
       </c>
       <c r="AO25" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,123 +3893,123 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Club Football Estrela</t>
+          <t>Academia de Balompie Boliviano</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="G26" t="n">
-        <v>1.19</v>
+        <v>1.5</v>
       </c>
       <c r="H26" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="I26" t="n">
-        <v>23</v>
+        <v>6.6</v>
       </c>
       <c r="J26" t="n">
-        <v>8.800000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="K26" t="n">
-        <v>9.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="L26" t="n">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="M26" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>5.6</v>
+        <v>11</v>
       </c>
       <c r="O26" t="n">
-        <v>1.19</v>
+        <v>1.07</v>
       </c>
       <c r="P26" t="n">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.58</v>
+        <v>1.22</v>
       </c>
       <c r="R26" t="n">
-        <v>1.63</v>
+        <v>2.52</v>
       </c>
       <c r="S26" t="n">
-        <v>2.5</v>
+        <v>1.56</v>
       </c>
       <c r="T26" t="n">
-        <v>2.46</v>
+        <v>1.41</v>
       </c>
       <c r="U26" t="n">
-        <v>1.61</v>
+        <v>2.74</v>
       </c>
       <c r="V26" t="n">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="W26" t="n">
-        <v>6.2</v>
+        <v>2.96</v>
       </c>
       <c r="X26" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="Y26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>80</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG26" t="n">
         <v>990</v>
       </c>
-      <c r="Z26" t="n">
-        <v>230</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>27</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>200</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>510</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>12</v>
-      </c>
       <c r="AH26" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AI26" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>8.4</v>
+        <v>29</v>
       </c>
       <c r="AK26" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="AL26" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AM26" t="n">
-        <v>360</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4018,7 +4018,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Ecuadorian Serie A</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,261 +4028,126 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Aurora</t>
+          <t>Emelec</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Academia de Balompie Boliviano</t>
+          <t>El Nacional</t>
         </is>
       </c>
       <c r="F27" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K27" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L27" t="n">
         <v>1.32</v>
       </c>
-      <c r="G27" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
-      </c>
-      <c r="I27" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="J27" t="n">
-        <v>6</v>
-      </c>
-      <c r="K27" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.16</v>
-      </c>
       <c r="M27" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>5.4</v>
+        <v>4.6</v>
       </c>
       <c r="O27" t="n">
-        <v>1.07</v>
+        <v>1.22</v>
       </c>
       <c r="P27" t="n">
-        <v>4.1</v>
+        <v>2.26</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.22</v>
+        <v>1.69</v>
       </c>
       <c r="R27" t="n">
-        <v>2.48</v>
+        <v>1.53</v>
       </c>
       <c r="S27" t="n">
-        <v>1.64</v>
+        <v>2.58</v>
       </c>
       <c r="T27" t="n">
-        <v>1.47</v>
+        <v>1.61</v>
       </c>
       <c r="U27" t="n">
-        <v>2.66</v>
+        <v>2.36</v>
       </c>
       <c r="V27" t="n">
-        <v>1.11</v>
+        <v>1.73</v>
       </c>
       <c r="W27" t="n">
-        <v>3.55</v>
+        <v>1.44</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB27" t="n">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG27" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ27" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AK27" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AL27" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN27" t="n">
-        <v>2.94</v>
+        <v>970</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Ecuadorian Serie A</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2025-12-15</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Emelec</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>El Nacional</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="G28" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K28" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N28" t="n">
-        <v>5</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S28" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="X28" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y28" t="n">
         <v>14.5</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>13.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
@@ -667,67 +667,67 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.47</v>
+        <v>3.85</v>
       </c>
       <c r="G2" t="n">
-        <v>2.02</v>
+        <v>4.1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.35</v>
+        <v>2.18</v>
       </c>
       <c r="I2" t="n">
-        <v>870</v>
+        <v>2.32</v>
       </c>
       <c r="J2" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U2" t="n">
         <v>1.01</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="V2" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="W2" t="n">
         <v>1.31</v>
       </c>
-      <c r="P2" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.94</v>
-      </c>
       <c r="X2" t="n">
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>810</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
@@ -736,10 +736,10 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>42</v>
+        <v>790</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -748,16 +748,16 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>100</v>
+        <v>790</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
         <v>1000</v>
@@ -766,10 +766,10 @@
         <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN2" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,61 +802,61 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="G3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="H3" t="n">
         <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
         <v>1.48</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O3" t="n">
         <v>1.43</v>
       </c>
       <c r="P3" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R3" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S3" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T3" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U3" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="V3" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W3" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="X3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y3" t="n">
         <v>15</v>
@@ -865,46 +865,46 @@
         <v>42</v>
       </c>
       <c r="AA3" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
         <v>21</v>
       </c>
       <c r="AE3" t="n">
-        <v>230</v>
+        <v>85</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AG3" t="n">
         <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ3" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AK3" t="n">
         <v>22</v>
       </c>
       <c r="AL3" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM3" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO3" t="n">
         <v>130</v>
@@ -937,40 +937,40 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="G4" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I4" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K4" t="n">
         <v>3.55</v>
       </c>
-      <c r="K4" t="n">
-        <v>3.65</v>
-      </c>
       <c r="L4" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
         <v>1.36</v>
@@ -979,70 +979,70 @@
         <v>3.6</v>
       </c>
       <c r="T4" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="U4" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="V4" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="W4" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="X4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y4" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA4" t="n">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE4" t="n">
         <v>55</v>
       </c>
       <c r="AF4" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG4" t="n">
         <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="AJ4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
         <v>38</v>
       </c>
       <c r="AM4" t="n">
-        <v>470</v>
+        <v>200</v>
       </c>
       <c r="AN4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO4" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="G5" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H5" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
         <v>3.55</v>
@@ -1096,61 +1096,61 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P5" t="n">
         <v>1.96</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="R5" t="n">
         <v>1.37</v>
       </c>
       <c r="S5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U5" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="W5" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="X5" t="n">
         <v>14</v>
       </c>
       <c r="Y5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="AA5" t="n">
-        <v>900</v>
+        <v>170</v>
       </c>
       <c r="AB5" t="n">
         <v>10.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>27</v>
+        <v>14.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="AF5" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG5" t="n">
         <v>12</v>
@@ -1162,7 +1162,7 @@
         <v>260</v>
       </c>
       <c r="AJ5" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AK5" t="n">
         <v>27</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="G6" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="H6" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="I6" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="J6" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="K6" t="n">
         <v>6.2</v>
@@ -1231,7 +1231,7 @@
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
         <v>1.15</v>
@@ -1240,34 +1240,34 @@
         <v>3.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="R6" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="S6" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="T6" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="U6" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="V6" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W6" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="X6" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="Y6" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="Z6" t="n">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
@@ -1279,37 +1279,37 @@
         <v>16.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
         <v>22</v>
       </c>
       <c r="AI6" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK6" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AM6" t="n">
         <v>90</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="G7" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H7" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="I7" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="J7" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="K7" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="L7" t="n">
         <v>1.27</v>
@@ -1372,55 +1372,55 @@
         <v>1.17</v>
       </c>
       <c r="P7" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="Q7" t="n">
         <v>1.55</v>
       </c>
       <c r="R7" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="S7" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U7" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="V7" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W7" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="X7" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="Y7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z7" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AA7" t="n">
-        <v>540</v>
+        <v>670</v>
       </c>
       <c r="AB7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AE7" t="n">
         <v>220</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG7" t="n">
         <v>10.5</v>
@@ -1429,25 +1429,25 @@
         <v>32</v>
       </c>
       <c r="AI7" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM7" t="n">
-        <v>150</v>
+        <v>470</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AO7" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8">
@@ -1480,7 +1480,7 @@
         <v>2.44</v>
       </c>
       <c r="G8" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="H8" t="n">
         <v>3.35</v>
@@ -1489,28 +1489,28 @@
         <v>3.45</v>
       </c>
       <c r="J8" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K8" t="n">
         <v>3.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O8" t="n">
         <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R8" t="n">
         <v>1.29</v>
@@ -1519,22 +1519,22 @@
         <v>4.2</v>
       </c>
       <c r="T8" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U8" t="n">
         <v>2.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W8" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X8" t="n">
         <v>11.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z8" t="n">
         <v>22</v>
@@ -1555,16 +1555,16 @@
         <v>46</v>
       </c>
       <c r="AF8" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG8" t="n">
         <v>11.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ8" t="n">
         <v>36</v>
@@ -1579,7 +1579,7 @@
         <v>110</v>
       </c>
       <c r="AN8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO8" t="n">
         <v>48</v>
@@ -1612,52 +1612,52 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="G9" t="n">
         <v>1.54</v>
       </c>
       <c r="H9" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="I9" t="n">
         <v>7.6</v>
       </c>
       <c r="J9" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K9" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="R9" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S9" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="U9" t="n">
-        <v>2.18</v>
+        <v>1.98</v>
       </c>
       <c r="V9" t="n">
         <v>1.15</v>
@@ -1666,7 +1666,7 @@
         <v>2.84</v>
       </c>
       <c r="X9" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="Y9" t="n">
         <v>100</v>
@@ -1675,13 +1675,13 @@
         <v>170</v>
       </c>
       <c r="AA9" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AB9" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AC9" t="n">
-        <v>12.5</v>
+        <v>17.5</v>
       </c>
       <c r="AD9" t="n">
         <v>48</v>
@@ -1690,31 +1690,31 @@
         <v>510</v>
       </c>
       <c r="AF9" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AG9" t="n">
         <v>16.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="AI9" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="AJ9" t="n">
         <v>29</v>
       </c>
       <c r="AK9" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="AL9" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM9" t="n">
         <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AO9" t="n">
         <v>270</v>
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="G10" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="H10" t="n">
-        <v>7.4</v>
+        <v>9.4</v>
       </c>
       <c r="I10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J10" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="K10" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="R10" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="S10" t="n">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="T10" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="U10" t="n">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="V10" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="W10" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="X10" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="Y10" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="Z10" t="n">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="AA10" t="n">
-        <v>260</v>
+        <v>420</v>
       </c>
       <c r="AB10" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC10" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AE10" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG10" t="n">
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="AI10" t="n">
-        <v>290</v>
+        <v>130</v>
       </c>
       <c r="AJ10" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL10" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN10" t="n">
-        <v>5.9</v>
+        <v>5</v>
       </c>
       <c r="AO10" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11">
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="G11" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="H11" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="I11" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="J11" t="n">
         <v>3.95</v>
@@ -1900,46 +1900,46 @@
         <v>4.2</v>
       </c>
       <c r="L11" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="O11" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P11" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="R11" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S11" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="T11" t="n">
         <v>2.06</v>
       </c>
       <c r="U11" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="V11" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="W11" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="X11" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="Z11" t="n">
         <v>12</v>
@@ -1948,46 +1948,46 @@
         <v>16</v>
       </c>
       <c r="AB11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD11" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AE11" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG11" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AH11" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI11" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AJ11" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AK11" t="n">
         <v>110</v>
       </c>
       <c r="AL11" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AM11" t="n">
-        <v>470</v>
+        <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AO11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="12">
@@ -2017,112 +2017,112 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="G12" t="n">
         <v>10.5</v>
       </c>
       <c r="H12" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="I12" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="J12" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="K12" t="n">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P12" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="R12" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S12" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="T12" t="n">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="U12" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="V12" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="W12" t="n">
         <v>1.1</v>
       </c>
       <c r="X12" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z12" t="n">
         <v>9.6</v>
       </c>
       <c r="AA12" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AB12" t="n">
         <v>42</v>
       </c>
       <c r="AC12" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE12" t="n">
         <v>13.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AG12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AH12" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AI12" t="n">
         <v>30</v>
       </c>
       <c r="AJ12" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AK12" t="n">
+        <v>140</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM12" t="n">
         <v>130</v>
       </c>
-      <c r="AL12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>120</v>
-      </c>
       <c r="AN12" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="AO12" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="13">
@@ -2155,19 +2155,19 @@
         <v>1.47</v>
       </c>
       <c r="G13" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="J13" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K13" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L13" t="n">
         <v>1.46</v>
@@ -2179,25 +2179,25 @@
         <v>3.55</v>
       </c>
       <c r="O13" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P13" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="R13" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T13" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="U13" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="V13" t="n">
         <v>1.11</v>
@@ -2206,10 +2206,10 @@
         <v>3.05</v>
       </c>
       <c r="X13" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z13" t="n">
         <v>80</v>
@@ -2224,10 +2224,10 @@
         <v>10.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AE13" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AF13" t="n">
         <v>7.4</v>
@@ -2257,7 +2257,7 @@
         <v>9</v>
       </c>
       <c r="AO13" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14">
@@ -2287,100 +2287,100 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="G14" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="H14" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="I14" t="n">
         <v>8.6</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="K14" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="M14" t="n">
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="P14" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="R14" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="S14" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="T14" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="U14" t="n">
-        <v>2.78</v>
+        <v>3.05</v>
       </c>
       <c r="V14" t="n">
         <v>1.13</v>
       </c>
       <c r="W14" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AA14" t="n">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="AB14" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AC14" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="AD14" t="n">
-        <v>990</v>
+        <v>50</v>
       </c>
       <c r="AE14" t="n">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="AF14" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AH14" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AI14" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AJ14" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AK14" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AL14" t="n">
         <v>36</v>
@@ -2389,10 +2389,10 @@
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>2.78</v>
+        <v>2.4</v>
       </c>
       <c r="AO14" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G15" t="n">
         <v>3.95</v>
       </c>
       <c r="H15" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I15" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="J15" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K15" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L15" t="n">
         <v>1.53</v>
@@ -2452,25 +2452,25 @@
         <v>1.46</v>
       </c>
       <c r="P15" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q15" t="n">
         <v>2.4</v>
       </c>
       <c r="R15" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S15" t="n">
         <v>4.8</v>
       </c>
       <c r="T15" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="U15" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="V15" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="W15" t="n">
         <v>1.35</v>
@@ -2485,13 +2485,13 @@
         <v>14.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB15" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD15" t="n">
         <v>12</v>
@@ -2509,16 +2509,16 @@
         <v>22</v>
       </c>
       <c r="AI15" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AJ15" t="n">
-        <v>200</v>
+        <v>530</v>
       </c>
       <c r="AK15" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AL15" t="n">
-        <v>170</v>
+        <v>400</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
@@ -2527,7 +2527,7 @@
         <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -2563,13 +2563,13 @@
         <v>1.79</v>
       </c>
       <c r="H16" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="I16" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K16" t="n">
         <v>4.1</v>
@@ -2584,13 +2584,13 @@
         <v>3.9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P16" t="n">
         <v>1.96</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2707,16 +2707,16 @@
         <v>3.15</v>
       </c>
       <c r="K17" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L17" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M17" t="n">
         <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="O17" t="n">
         <v>1.47</v>
@@ -2725,7 +2725,7 @@
         <v>1.61</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="R17" t="n">
         <v>1.22</v>
@@ -2737,7 +2737,7 @@
         <v>2.02</v>
       </c>
       <c r="U17" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V17" t="n">
         <v>1.76</v>
@@ -2746,10 +2746,10 @@
         <v>1.32</v>
       </c>
       <c r="X17" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Z17" t="n">
         <v>14</v>
@@ -2758,13 +2758,13 @@
         <v>34</v>
       </c>
       <c r="AB17" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC17" t="n">
         <v>7.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE17" t="n">
         <v>32</v>
@@ -2779,13 +2779,13 @@
         <v>44</v>
       </c>
       <c r="AI17" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="AJ17" t="n">
         <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>170</v>
+        <v>380</v>
       </c>
       <c r="AL17" t="n">
         <v>1000</v>
@@ -2794,10 +2794,10 @@
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
@@ -2851,22 +2851,22 @@
         <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P18" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="R18" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S18" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T18" t="n">
         <v>2.04</v>
@@ -2881,7 +2881,7 @@
         <v>2.68</v>
       </c>
       <c r="X18" t="n">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="Y18" t="n">
         <v>990</v>
@@ -2896,7 +2896,7 @@
         <v>7</v>
       </c>
       <c r="AC18" t="n">
-        <v>14</v>
+        <v>9.6</v>
       </c>
       <c r="AD18" t="n">
         <v>1000</v>
@@ -2905,7 +2905,7 @@
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>8.199999999999999</v>
+        <v>16</v>
       </c>
       <c r="AG18" t="n">
         <v>40</v>
@@ -2965,58 +2965,58 @@
         <v>1.38</v>
       </c>
       <c r="G19" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="H19" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="J19" t="n">
         <v>5.4</v>
       </c>
       <c r="K19" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M19" t="n">
         <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P19" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="R19" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="S19" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="T19" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="U19" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V19" t="n">
         <v>1.1</v>
       </c>
       <c r="W19" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="X19" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y19" t="n">
         <v>32</v>
@@ -3025,31 +3025,31 @@
         <v>95</v>
       </c>
       <c r="AA19" t="n">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="AB19" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC19" t="n">
         <v>12</v>
       </c>
       <c r="AD19" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AE19" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AF19" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG19" t="n">
         <v>10</v>
       </c>
       <c r="AH19" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI19" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AJ19" t="n">
         <v>11.5</v>
@@ -3061,13 +3061,13 @@
         <v>38</v>
       </c>
       <c r="AM19" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="AN19" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20">
@@ -3097,40 +3097,40 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="G20" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="H20" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I20" t="n">
         <v>2.16</v>
       </c>
-      <c r="I20" t="n">
-        <v>2.2</v>
-      </c>
       <c r="J20" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K20" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L20" t="n">
         <v>1.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N20" t="n">
         <v>3.1</v>
       </c>
       <c r="O20" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P20" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R20" t="n">
         <v>1.26</v>
@@ -3139,22 +3139,22 @@
         <v>4.5</v>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U20" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="V20" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="W20" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X20" t="n">
         <v>11</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="Z20" t="n">
         <v>12.5</v>
@@ -3166,40 +3166,40 @@
         <v>12</v>
       </c>
       <c r="AC20" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF20" t="n">
         <v>27</v>
       </c>
-      <c r="AF20" t="n">
-        <v>26</v>
-      </c>
       <c r="AG20" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI20" t="n">
         <v>48</v>
       </c>
       <c r="AJ20" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>200</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN20" t="n">
         <v>85</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>260</v>
       </c>
       <c r="AO20" t="n">
         <v>23</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G21" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I21" t="n">
         <v>3.8</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3.85</v>
       </c>
       <c r="J21" t="n">
         <v>3.2</v>
@@ -3262,31 +3262,31 @@
         <v>1.44</v>
       </c>
       <c r="P21" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q21" t="n">
         <v>2.36</v>
       </c>
       <c r="R21" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S21" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T21" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U21" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="V21" t="n">
         <v>1.35</v>
       </c>
       <c r="W21" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="X21" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y21" t="n">
         <v>11.5</v>
@@ -3295,7 +3295,7 @@
         <v>25</v>
       </c>
       <c r="AA21" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB21" t="n">
         <v>8.199999999999999</v>
@@ -3307,19 +3307,19 @@
         <v>15.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF21" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH21" t="n">
         <v>19.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ21" t="n">
         <v>29</v>
@@ -3334,10 +3334,10 @@
         <v>130</v>
       </c>
       <c r="AN21" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AO21" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22">
@@ -3367,64 +3367,64 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="G22" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="H22" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I22" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J22" t="n">
         <v>3.85</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L22" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M22" t="n">
         <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O22" t="n">
         <v>1.29</v>
       </c>
       <c r="P22" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="R22" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="S22" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T22" t="n">
         <v>1.8</v>
       </c>
       <c r="U22" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V22" t="n">
         <v>1.27</v>
       </c>
       <c r="W22" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X22" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z22" t="n">
         <v>34</v>
@@ -3433,13 +3433,13 @@
         <v>100</v>
       </c>
       <c r="AB22" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE22" t="n">
         <v>55</v>
@@ -3448,13 +3448,13 @@
         <v>11.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH22" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ22" t="n">
         <v>22</v>
@@ -3463,7 +3463,7 @@
         <v>18.5</v>
       </c>
       <c r="AL22" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM22" t="n">
         <v>110</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="G23" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="H23" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I23" t="n">
         <v>4.2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4.3</v>
       </c>
       <c r="J23" t="n">
         <v>4.4</v>
@@ -3523,37 +3523,37 @@
         <v>1.29</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
         <v>6.2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P23" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Q23" t="n">
         <v>1.54</v>
       </c>
       <c r="R23" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="S23" t="n">
         <v>2.3</v>
       </c>
       <c r="T23" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="U23" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="V23" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W23" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="X23" t="n">
         <v>26</v>
@@ -3568,19 +3568,19 @@
         <v>85</v>
       </c>
       <c r="AB23" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC23" t="n">
         <v>10.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AE23" t="n">
         <v>40</v>
       </c>
       <c r="AF23" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG23" t="n">
         <v>10.5</v>
@@ -3598,7 +3598,7 @@
         <v>17</v>
       </c>
       <c r="AL23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM23" t="n">
         <v>55</v>
@@ -3607,7 +3607,7 @@
         <v>7.2</v>
       </c>
       <c r="AO23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="G24" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="H24" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="I24" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="J24" t="n">
         <v>3.45</v>
@@ -3661,16 +3661,16 @@
         <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O24" t="n">
         <v>1.35</v>
       </c>
       <c r="P24" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R24" t="n">
         <v>1.36</v>
@@ -3679,31 +3679,31 @@
         <v>3.7</v>
       </c>
       <c r="T24" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U24" t="n">
         <v>2.2</v>
       </c>
       <c r="V24" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="W24" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X24" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y24" t="n">
         <v>11</v>
       </c>
       <c r="Z24" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB24" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC24" t="n">
         <v>7.4</v>
@@ -3727,7 +3727,7 @@
         <v>42</v>
       </c>
       <c r="AJ24" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AK24" t="n">
         <v>32</v>
@@ -3739,10 +3739,10 @@
         <v>90</v>
       </c>
       <c r="AN24" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
@@ -3772,31 +3772,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="G25" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="H25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I25" t="n">
         <v>23</v>
       </c>
       <c r="J25" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="L25" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M25" t="n">
         <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="O25" t="n">
         <v>1.2</v>
@@ -3811,34 +3811,34 @@
         <v>1.62</v>
       </c>
       <c r="S25" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="T25" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="U25" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="V25" t="n">
         <v>1.04</v>
       </c>
       <c r="W25" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="X25" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="Y25" t="n">
-        <v>130</v>
+        <v>990</v>
       </c>
       <c r="Z25" t="n">
-        <v>740</v>
+        <v>260</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC25" t="n">
         <v>22</v>
@@ -3847,19 +3847,19 @@
         <v>990</v>
       </c>
       <c r="AE25" t="n">
-        <v>580</v>
+        <v>540</v>
       </c>
       <c r="AF25" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AG25" t="n">
         <v>12</v>
       </c>
       <c r="AH25" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AJ25" t="n">
         <v>8</v>
@@ -3871,10 +3871,10 @@
         <v>55</v>
       </c>
       <c r="AM25" t="n">
-        <v>390</v>
+        <v>320</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3907,58 +3907,58 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
       <c r="G26" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>7.8</v>
       </c>
       <c r="I26" t="n">
-        <v>6.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J26" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="K26" t="n">
-        <v>6.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L26" t="n">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="M26" t="n">
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="P26" t="n">
-        <v>4.3</v>
+        <v>6</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="R26" t="n">
-        <v>2.52</v>
+        <v>3.25</v>
       </c>
       <c r="S26" t="n">
-        <v>1.56</v>
+        <v>1.37</v>
       </c>
       <c r="T26" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="U26" t="n">
-        <v>2.74</v>
+        <v>3.3</v>
       </c>
       <c r="V26" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W26" t="n">
-        <v>2.96</v>
+        <v>3.6</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -3985,10 +3985,10 @@
         <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>990</v>
+        <v>28</v>
       </c>
       <c r="AH26" t="n">
         <v>1000</v>
@@ -4003,13 +4003,13 @@
         <v>34</v>
       </c>
       <c r="AL26" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="AM26" t="n">
         <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>3.15</v>
+        <v>2.7</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G27" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="H27" t="n">
         <v>2.24</v>
       </c>
       <c r="I27" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="J27" t="n">
         <v>3.7</v>
       </c>
       <c r="K27" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L27" t="n">
         <v>1.32</v>
@@ -4066,52 +4066,52 @@
         <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="O27" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P27" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="Q27" t="n">
         <v>1.69</v>
       </c>
       <c r="R27" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="S27" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="T27" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U27" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="V27" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="W27" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y27" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA27" t="n">
         <v>32</v>
       </c>
       <c r="AB27" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AC27" t="n">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AD27" t="n">
         <v>11.5</v>
@@ -4120,34 +4120,34 @@
         <v>22</v>
       </c>
       <c r="AF27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG27" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH27" t="n">
         <v>15</v>
       </c>
-      <c r="AH27" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AI27" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AJ27" t="n">
         <v>55</v>
       </c>
       <c r="AK27" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM27" t="n">
         <v>70</v>
       </c>
       <c r="AN27" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AO27" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO27"/>
+  <dimension ref="A1:AO26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Italian Serie D</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Siena</t>
+          <t>Neftchi Baku</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ASD Camaiore</t>
+          <t>FK Sumqayit</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.85</v>
+        <v>1.26</v>
       </c>
       <c r="G2" t="n">
-        <v>4.1</v>
+        <v>1.27</v>
       </c>
       <c r="H2" t="n">
-        <v>2.18</v>
+        <v>40</v>
       </c>
       <c r="I2" t="n">
-        <v>2.32</v>
+        <v>70</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>70</v>
+        <v>5.5</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,43 +691,43 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.13</v>
+        <v>1.64</v>
       </c>
       <c r="S2" t="n">
-        <v>5.7</v>
+        <v>2.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.01</v>
       </c>
-      <c r="V2" t="n">
-        <v>1.77</v>
-      </c>
       <c r="W2" t="n">
-        <v>1.31</v>
+        <v>4.8</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>810</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
@@ -736,10 +736,10 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>790</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -748,28 +748,28 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>790</v>
+        <v>1.7</v>
       </c>
       <c r="AH2" t="n">
-        <v>990</v>
+        <v>7.8</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM2" t="n">
-        <v>130</v>
+        <v>990</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Neftchi Baku</t>
+          <t>Farul Constanta</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FK Sumqayit</t>
+          <t>UTA Arad</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.82</v>
+        <v>1.41</v>
       </c>
       <c r="G3" t="n">
-        <v>1.84</v>
+        <v>1.43</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I3" t="n">
-        <v>5.4</v>
+        <v>14</v>
       </c>
       <c r="J3" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="K3" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>4</v>
       </c>
-      <c r="L3" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W3" t="n">
         <v>3.25</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2.18</v>
-      </c>
       <c r="X3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.6</v>
+        <v>4.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>5.9</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AF3" t="n">
-        <v>10</v>
+        <v>5.7</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI3" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="AJ3" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AL3" t="n">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AN3" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="AO3" t="n">
-        <v>130</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,45 +923,45 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Farul Constanta</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>UTA Arad</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.12</v>
+        <v>2.5</v>
       </c>
       <c r="G4" t="n">
-        <v>2.18</v>
+        <v>2.6</v>
       </c>
       <c r="H4" t="n">
-        <v>3.9</v>
+        <v>3.15</v>
       </c>
       <c r="I4" t="n">
-        <v>4.1</v>
+        <v>3.35</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L4" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -979,76 +979,76 @@
         <v>3.6</v>
       </c>
       <c r="T4" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U4" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="W4" t="n">
-        <v>1.85</v>
+        <v>1.63</v>
       </c>
       <c r="X4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD4" t="n">
         <v>14</v>
       </c>
-      <c r="Y4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>16</v>
-      </c>
       <c r="AE4" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AG4" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
         <v>17.5</v>
       </c>
       <c r="AI4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM4" t="n">
         <v>110</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>200</v>
-      </c>
       <c r="AN4" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AO4" t="n">
-        <v>75</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,118 +1063,118 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.28</v>
+        <v>1.31</v>
       </c>
       <c r="G5" t="n">
-        <v>2.36</v>
+        <v>1.33</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="I5" t="n">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>6.6</v>
       </c>
       <c r="K5" t="n">
-        <v>3.55</v>
+        <v>7.4</v>
       </c>
       <c r="L5" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1.41</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.96</v>
-      </c>
       <c r="R5" t="n">
-        <v>1.37</v>
+        <v>1.9</v>
       </c>
       <c r="S5" t="n">
-        <v>3.5</v>
+        <v>2.06</v>
       </c>
       <c r="T5" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U5" t="n">
         <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.38</v>
+        <v>1.09</v>
       </c>
       <c r="W5" t="n">
-        <v>1.73</v>
+        <v>4.2</v>
       </c>
       <c r="X5" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="Y5" t="n">
-        <v>13.5</v>
+        <v>70</v>
       </c>
       <c r="Z5" t="n">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="AA5" t="n">
-        <v>170</v>
+        <v>450</v>
       </c>
       <c r="AB5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF5" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>15</v>
       </c>
       <c r="AG5" t="n">
         <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AI5" t="n">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="AJ5" t="n">
-        <v>110</v>
+        <v>11.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="AL5" t="n">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="AM5" t="n">
-        <v>580</v>
+        <v>790</v>
       </c>
       <c r="AN5" t="n">
-        <v>28</v>
+        <v>3.65</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,31 +1198,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.41</v>
+        <v>1.26</v>
       </c>
       <c r="G6" t="n">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="H6" t="n">
-        <v>7.6</v>
+        <v>14</v>
       </c>
       <c r="I6" t="n">
-        <v>8.4</v>
+        <v>14.5</v>
       </c>
       <c r="J6" t="n">
-        <v>5.5</v>
+        <v>7.2</v>
       </c>
       <c r="K6" t="n">
-        <v>6.2</v>
+        <v>7.4</v>
       </c>
       <c r="L6" t="n">
         <v>1.25</v>
@@ -1231,94 +1231,94 @@
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="R6" t="n">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="S6" t="n">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.66</v>
+        <v>2.02</v>
       </c>
       <c r="U6" t="n">
-        <v>2.36</v>
+        <v>1.91</v>
       </c>
       <c r="V6" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="W6" t="n">
-        <v>3.25</v>
+        <v>4.8</v>
       </c>
       <c r="X6" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y6" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="Z6" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AB6" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AC6" t="n">
         <v>16.5</v>
       </c>
       <c r="AD6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>200</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH6" t="n">
         <v>32</v>
       </c>
-      <c r="AE6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF6" t="n">
+      <c r="AI6" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AK6" t="n">
         <v>12</v>
       </c>
-      <c r="AG6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AL6" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM6" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>CD Nacional Funchal</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.26</v>
+        <v>2.44</v>
       </c>
       <c r="G7" t="n">
-        <v>1.27</v>
+        <v>2.46</v>
       </c>
       <c r="H7" t="n">
-        <v>13.5</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="X7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD7" t="n">
         <v>14.5</v>
       </c>
-      <c r="J7" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W7" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="X7" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y7" t="n">
+      <c r="AE7" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO7" t="n">
         <v>55</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>160</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>670</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>220</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>470</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>240</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,126 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CD Nacional Funchal</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Hapoel Petach Tikva</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.44</v>
+        <v>1.49</v>
       </c>
       <c r="G8" t="n">
-        <v>2.46</v>
+        <v>1.54</v>
       </c>
       <c r="H8" t="n">
-        <v>3.35</v>
+        <v>6.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3.45</v>
+        <v>7.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35</v>
+        <v>4.8</v>
       </c>
       <c r="K8" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.49</v>
+        <v>1.28</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>3.35</v>
+        <v>5.7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.4</v>
+        <v>1.19</v>
       </c>
       <c r="P8" t="n">
-        <v>1.78</v>
+        <v>2.58</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.22</v>
+        <v>1.57</v>
       </c>
       <c r="R8" t="n">
-        <v>1.29</v>
+        <v>1.62</v>
       </c>
       <c r="S8" t="n">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="T8" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="U8" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="V8" t="n">
-        <v>1.41</v>
+        <v>1.15</v>
       </c>
       <c r="W8" t="n">
-        <v>1.68</v>
+        <v>2.82</v>
       </c>
       <c r="X8" t="n">
-        <v>11.5</v>
+        <v>32</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.5</v>
+        <v>34</v>
       </c>
       <c r="Z8" t="n">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="AA8" t="n">
-        <v>60</v>
+        <v>490</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.2</v>
+        <v>12</v>
       </c>
       <c r="AD8" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="AE8" t="n">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="AF8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>14.5</v>
       </c>
-      <c r="AG8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>36</v>
-      </c>
       <c r="AK8" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AL8" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="AM8" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN8" t="n">
-        <v>28</v>
+        <v>6.2</v>
       </c>
       <c r="AO8" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hapoel Petach Tikva</t>
+          <t>Bnei Sakhnin</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="G9" t="n">
-        <v>1.54</v>
+        <v>1.42</v>
       </c>
       <c r="H9" t="n">
-        <v>6.4</v>
+        <v>9</v>
       </c>
       <c r="I9" t="n">
-        <v>7.6</v>
+        <v>10.5</v>
       </c>
       <c r="J9" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="K9" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="P9" t="n">
-        <v>2.6</v>
+        <v>2.42</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="R9" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="S9" t="n">
-        <v>2.4</v>
+        <v>2.56</v>
       </c>
       <c r="T9" t="n">
-        <v>1.76</v>
+        <v>1.94</v>
       </c>
       <c r="U9" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="V9" t="n">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="W9" t="n">
-        <v>2.84</v>
+        <v>3.35</v>
       </c>
       <c r="X9" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="Y9" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="Z9" t="n">
+        <v>190</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>380</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>650</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AO9" t="n">
         <v>170</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>190</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>48</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>510</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>400</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>270</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Bnei Sakhnin</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.36</v>
+        <v>7.6</v>
       </c>
       <c r="G10" t="n">
-        <v>1.4</v>
+        <v>7.8</v>
       </c>
       <c r="H10" t="n">
-        <v>9.4</v>
+        <v>1.65</v>
       </c>
       <c r="I10" t="n">
-        <v>11</v>
+        <v>1.68</v>
       </c>
       <c r="J10" t="n">
-        <v>5.5</v>
+        <v>3.65</v>
       </c>
       <c r="K10" t="n">
-        <v>6.2</v>
+        <v>3.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.31</v>
+        <v>1.46</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="N10" t="n">
-        <v>5.3</v>
+        <v>3.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="P10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V10" t="n">
         <v>2.46</v>
       </c>
-      <c r="Q10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.1</v>
-      </c>
       <c r="W10" t="n">
-        <v>3.5</v>
+        <v>1.14</v>
       </c>
       <c r="X10" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="Y10" t="n">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="Z10" t="n">
-        <v>190</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA10" t="n">
-        <v>420</v>
+        <v>16.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AC10" t="n">
-        <v>13.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD10" t="n">
-        <v>38</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF10" t="n">
         <v>160</v>
       </c>
-      <c r="AF10" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="AH10" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="AI10" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AK10" t="n">
         <v>130</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>14</v>
-      </c>
       <c r="AL10" t="n">
-        <v>34</v>
+        <v>330</v>
       </c>
       <c r="AM10" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>5</v>
+        <v>510</v>
       </c>
       <c r="AO10" t="n">
-        <v>180</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>FK Backa Topola</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6.4</v>
+        <v>10.5</v>
       </c>
       <c r="G11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="K11" t="n">
         <v>7.2</v>
       </c>
-      <c r="H11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N11" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V11" t="n">
         <v>4.2</v>
       </c>
-      <c r="L11" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.48</v>
-      </c>
       <c r="W11" t="n">
-        <v>1.16</v>
+        <v>1.09</v>
       </c>
       <c r="X11" t="n">
-        <v>16.5</v>
+        <v>40</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.8</v>
+        <v>12</v>
       </c>
       <c r="Z11" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA11" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="AC11" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AD11" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
-        <v>18.5</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AG11" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="AH11" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AI11" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="AJ11" t="n">
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="AK11" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="AL11" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="AM11" t="n">
-        <v>580</v>
+        <v>140</v>
       </c>
       <c r="AN11" t="n">
         <v>150</v>
       </c>
       <c r="AO11" t="n">
-        <v>11.5</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FK Backa Topola</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>9.4</v>
+        <v>1.46</v>
       </c>
       <c r="G12" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H12" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X12" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>400</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC12" t="n">
         <v>10.5</v>
       </c>
-      <c r="H12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="J12" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="K12" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N12" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="X12" t="n">
-        <v>38</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>42</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AD12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG12" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>34</v>
       </c>
       <c r="AH12" t="n">
         <v>34</v>
       </c>
       <c r="AI12" t="n">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="AJ12" t="n">
-        <v>400</v>
+        <v>12</v>
       </c>
       <c r="AK12" t="n">
-        <v>140</v>
+        <v>17.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM12" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>190</v>
+        <v>8.6</v>
       </c>
       <c r="AO12" t="n">
-        <v>4.8</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>San Antonio Bulo Bulo</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>CDT Real Oruro</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.47</v>
+        <v>1.28</v>
       </c>
       <c r="G13" t="n">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="H13" t="n">
-        <v>9.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="I13" t="n">
+        <v>11</v>
+      </c>
+      <c r="J13" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="K13" t="n">
         <v>9.6</v>
       </c>
-      <c r="J13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4.7</v>
-      </c>
       <c r="L13" t="n">
-        <v>1.46</v>
+        <v>1.11</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>3.55</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.37</v>
+        <v>1.05</v>
       </c>
       <c r="P13" t="n">
-        <v>1.87</v>
+        <v>5.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.1</v>
+        <v>1.17</v>
       </c>
       <c r="R13" t="n">
-        <v>1.32</v>
+        <v>3.15</v>
       </c>
       <c r="S13" t="n">
-        <v>3.95</v>
+        <v>1.43</v>
       </c>
       <c r="T13" t="n">
-        <v>2.34</v>
+        <v>1.36</v>
       </c>
       <c r="U13" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="V13" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="W13" t="n">
-        <v>3.05</v>
+        <v>3.9</v>
       </c>
       <c r="X13" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="Z13" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="AA13" t="n">
-        <v>410</v>
+        <v>340</v>
       </c>
       <c r="AB13" t="n">
-        <v>6.6</v>
+        <v>38</v>
       </c>
       <c r="AC13" t="n">
-        <v>10.5</v>
+        <v>25</v>
       </c>
       <c r="AD13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL13" t="n">
         <v>36</v>
       </c>
-      <c r="AE13" t="n">
-        <v>190</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>180</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>50</v>
-      </c>
       <c r="AM13" t="n">
-        <v>240</v>
+        <v>55</v>
       </c>
       <c r="AN13" t="n">
-        <v>9</v>
+        <v>2.48</v>
       </c>
       <c r="AO13" t="n">
-        <v>300</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,126 +2273,126 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo</t>
+          <t>CD Castellon</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CDT Real Oruro</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="F14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+      <c r="I14" t="n">
+        <v>11</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L14" t="n">
         <v>1.34</v>
       </c>
-      <c r="G14" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="H14" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="I14" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="J14" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="K14" t="n">
-        <v>8</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.12</v>
-      </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>16.5</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.04</v>
+        <v>1.23</v>
       </c>
       <c r="P14" t="n">
-        <v>5.8</v>
+        <v>2.38</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.16</v>
+        <v>1.69</v>
       </c>
       <c r="R14" t="n">
-        <v>3.1</v>
+        <v>1.54</v>
       </c>
       <c r="S14" t="n">
-        <v>1.43</v>
+        <v>2.78</v>
       </c>
       <c r="T14" t="n">
-        <v>1.4</v>
+        <v>2.08</v>
       </c>
       <c r="U14" t="n">
-        <v>3.05</v>
+        <v>1.87</v>
       </c>
       <c r="V14" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="W14" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="X14" t="n">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="Y14" t="n">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="Z14" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>370</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI14" t="n">
         <v>140</v>
       </c>
-      <c r="AA14" t="n">
-        <v>280</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>40</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>50</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>85</v>
-      </c>
       <c r="AJ14" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AK14" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="AL14" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN14" t="n">
-        <v>2.4</v>
+        <v>5.3</v>
       </c>
       <c r="AO14" t="n">
-        <v>30</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Ravenna</t>
+          <t>ASD Pineto Calcio</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.5</v>
+        <v>1.53</v>
       </c>
       <c r="G15" t="n">
-        <v>3.95</v>
+        <v>1.59</v>
       </c>
       <c r="H15" t="n">
-        <v>2.26</v>
+        <v>7.8</v>
       </c>
       <c r="I15" t="n">
-        <v>2.46</v>
+        <v>9.4</v>
       </c>
       <c r="J15" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="K15" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="M15" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>2.88</v>
+        <v>3.35</v>
       </c>
       <c r="O15" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="P15" t="n">
-        <v>1.63</v>
+        <v>1.77</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.4</v>
+        <v>2.14</v>
       </c>
       <c r="R15" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="S15" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.95</v>
+        <v>2.16</v>
       </c>
       <c r="U15" t="n">
-        <v>1.86</v>
+        <v>1.62</v>
       </c>
       <c r="V15" t="n">
-        <v>1.68</v>
+        <v>1.12</v>
       </c>
       <c r="W15" t="n">
-        <v>1.35</v>
+        <v>2.68</v>
       </c>
       <c r="X15" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.4</v>
+        <v>90</v>
       </c>
       <c r="Z15" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>11.5</v>
+        <v>7</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.6</v>
+        <v>14</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>350</v>
       </c>
       <c r="AE15" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="AG15" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>22</v>
+        <v>990</v>
       </c>
       <c r="AI15" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>530</v>
+        <v>180</v>
       </c>
       <c r="AK15" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO15" t="n">
         <v>1000</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>S.S.D. Casarano Calcio</t>
+          <t>Ravenna</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.73</v>
+        <v>3.35</v>
       </c>
       <c r="G16" t="n">
-        <v>1.79</v>
+        <v>3.8</v>
       </c>
       <c r="H16" t="n">
-        <v>5.3</v>
+        <v>2.32</v>
       </c>
       <c r="I16" t="n">
-        <v>6.6</v>
+        <v>2.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="K16" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N16" t="n">
-        <v>3.9</v>
+        <v>2.88</v>
       </c>
       <c r="O16" t="n">
-        <v>1.31</v>
+        <v>1.47</v>
       </c>
       <c r="P16" t="n">
-        <v>1.96</v>
+        <v>1.62</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.92</v>
+        <v>2.42</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Foggia</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Monopoli</t>
+          <t>S.S.D. Casarano Calcio</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.7</v>
+        <v>1.72</v>
       </c>
       <c r="G17" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K17" t="n">
         <v>4.2</v>
       </c>
-      <c r="H17" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.45</v>
-      </c>
       <c r="L17" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>2.82</v>
+        <v>3.9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
       <c r="P17" t="n">
-        <v>1.61</v>
+        <v>1.96</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.44</v>
+        <v>1.92</v>
       </c>
       <c r="R17" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ASD Pineto Calcio</t>
+          <t>Monopoli</t>
         </is>
       </c>
       <c r="F18" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L18" t="n">
         <v>1.54</v>
       </c>
-      <c r="G18" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="H18" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="I18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.48</v>
-      </c>
       <c r="M18" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N18" t="n">
-        <v>3.3</v>
+        <v>2.84</v>
       </c>
       <c r="O18" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="P18" t="n">
-        <v>1.79</v>
+        <v>1.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.14</v>
+        <v>2.46</v>
       </c>
       <c r="R18" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="T18" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="U18" t="n">
-        <v>1.58</v>
+        <v>1.81</v>
       </c>
       <c r="V18" t="n">
-        <v>1.11</v>
+        <v>1.78</v>
       </c>
       <c r="W18" t="n">
-        <v>2.68</v>
+        <v>1.32</v>
       </c>
       <c r="X18" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="Y18" t="n">
-        <v>990</v>
+        <v>8</v>
       </c>
       <c r="Z18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>48</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>1000</v>
       </c>
-      <c r="AA18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>990</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>180</v>
-      </c>
       <c r="AK18" t="n">
-        <v>970</v>
+        <v>380</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CD Castellon</t>
+          <t>Boulogne</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>ESTAC Troyes</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.38</v>
+        <v>3.95</v>
       </c>
       <c r="G19" t="n">
-        <v>1.39</v>
+        <v>4.2</v>
       </c>
       <c r="H19" t="n">
-        <v>9.199999999999999</v>
+        <v>2.12</v>
       </c>
       <c r="I19" t="n">
-        <v>10.5</v>
+        <v>2.16</v>
       </c>
       <c r="J19" t="n">
-        <v>5.4</v>
+        <v>3.5</v>
       </c>
       <c r="K19" t="n">
-        <v>5.8</v>
+        <v>3.6</v>
       </c>
       <c r="L19" t="n">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N19" t="n">
-        <v>5</v>
+        <v>3.15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.24</v>
+        <v>1.43</v>
       </c>
       <c r="P19" t="n">
-        <v>2.36</v>
+        <v>1.72</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.71</v>
+        <v>2.28</v>
       </c>
       <c r="R19" t="n">
-        <v>1.53</v>
+        <v>1.26</v>
       </c>
       <c r="S19" t="n">
-        <v>2.8</v>
+        <v>4.4</v>
       </c>
       <c r="T19" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="U19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V19" t="n">
         <v>1.87</v>
       </c>
-      <c r="V19" t="n">
-        <v>1.1</v>
-      </c>
       <c r="W19" t="n">
-        <v>3.55</v>
+        <v>1.32</v>
       </c>
       <c r="X19" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH19" t="n">
         <v>22</v>
       </c>
-      <c r="Y19" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z19" t="n">
+      <c r="AI19" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>95</v>
       </c>
-      <c r="AA19" t="n">
-        <v>370</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>160</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>180</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AK19" t="n">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="AL19" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AM19" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AN19" t="n">
-        <v>5.5</v>
+        <v>260</v>
       </c>
       <c r="AO19" t="n">
-        <v>200</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,127 +3088,127 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Boulogne</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ESTAC Troyes</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.9</v>
+        <v>2.34</v>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>2.36</v>
       </c>
       <c r="H20" t="n">
-        <v>2.12</v>
+        <v>3.8</v>
       </c>
       <c r="I20" t="n">
-        <v>2.16</v>
+        <v>3.85</v>
       </c>
       <c r="J20" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="K20" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L20" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="M20" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N20" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O20" t="n">
         <v>1.44</v>
       </c>
       <c r="P20" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="R20" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S20" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="T20" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="U20" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="V20" t="n">
-        <v>1.86</v>
+        <v>1.35</v>
       </c>
       <c r="W20" t="n">
-        <v>1.33</v>
+        <v>1.73</v>
       </c>
       <c r="X20" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y20" t="n">
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AA20" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK20" t="n">
         <v>28</v>
       </c>
-      <c r="AB20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF20" t="n">
+      <c r="AL20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN20" t="n">
         <v>27</v>
       </c>
-      <c r="AG20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>200</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>85</v>
-      </c>
       <c r="AO20" t="n">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,127 +3223,127 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.34</v>
+        <v>1.89</v>
       </c>
       <c r="G21" t="n">
-        <v>2.36</v>
+        <v>1.9</v>
       </c>
       <c r="H21" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="I21" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="J21" t="n">
-        <v>3.2</v>
+        <v>3.95</v>
       </c>
       <c r="K21" t="n">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="L21" t="n">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="M21" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>3.15</v>
+        <v>4.4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="P21" t="n">
-        <v>1.71</v>
+        <v>2.16</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.36</v>
+        <v>1.82</v>
       </c>
       <c r="R21" t="n">
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
       <c r="S21" t="n">
-        <v>4.7</v>
+        <v>3.05</v>
       </c>
       <c r="T21" t="n">
-        <v>1.98</v>
+        <v>1.76</v>
       </c>
       <c r="U21" t="n">
-        <v>1.96</v>
+        <v>2.28</v>
       </c>
       <c r="V21" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="W21" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="X21" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Y21" t="n">
-        <v>11.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AA21" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>7</v>
+        <v>8.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE21" t="n">
         <v>55</v>
       </c>
       <c r="AF21" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN21" t="n">
         <v>11</v>
       </c>
-      <c r="AH21" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>27</v>
-      </c>
       <c r="AO21" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="G22" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H22" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="I22" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="J22" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="K22" t="n">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>4.3</v>
+        <v>6.4</v>
       </c>
       <c r="O22" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="V22" t="n">
         <v>1.29</v>
       </c>
-      <c r="P22" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S22" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.27</v>
-      </c>
       <c r="W22" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="X22" t="n">
-        <v>17.5</v>
+        <v>26</v>
       </c>
       <c r="Y22" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="Z22" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AA22" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AB22" t="n">
-        <v>9.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE22" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM22" t="n">
         <v>55</v>
       </c>
-      <c r="AF22" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>110</v>
-      </c>
       <c r="AN22" t="n">
-        <v>12.5</v>
+        <v>7</v>
       </c>
       <c r="AO22" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3493,127 +3493,127 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.87</v>
+        <v>2.94</v>
       </c>
       <c r="G23" t="n">
-        <v>1.88</v>
+        <v>2.96</v>
       </c>
       <c r="H23" t="n">
-        <v>4.1</v>
+        <v>2.66</v>
       </c>
       <c r="I23" t="n">
-        <v>4.2</v>
+        <v>2.68</v>
       </c>
       <c r="J23" t="n">
-        <v>4.4</v>
+        <v>3.45</v>
       </c>
       <c r="K23" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="M23" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>6.2</v>
+        <v>3.8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.17</v>
+        <v>1.34</v>
       </c>
       <c r="P23" t="n">
-        <v>2.82</v>
+        <v>1.94</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.54</v>
+        <v>2.04</v>
       </c>
       <c r="R23" t="n">
-        <v>1.75</v>
+        <v>1.35</v>
       </c>
       <c r="S23" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="T23" t="n">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="U23" t="n">
-        <v>2.74</v>
+        <v>2.18</v>
       </c>
       <c r="V23" t="n">
-        <v>1.31</v>
+        <v>1.59</v>
       </c>
       <c r="W23" t="n">
-        <v>2.12</v>
+        <v>1.51</v>
       </c>
       <c r="X23" t="n">
-        <v>26</v>
+        <v>13.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Z23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA23" t="n">
         <v>38</v>
       </c>
-      <c r="AA23" t="n">
-        <v>85</v>
-      </c>
       <c r="AB23" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>10.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="AE23" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AF23" t="n">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AI23" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AJ23" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="AK23" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="AL23" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="AM23" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AN23" t="n">
-        <v>7.2</v>
+        <v>32</v>
       </c>
       <c r="AO23" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Club Football Estrela</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.94</v>
+        <v>1.19</v>
       </c>
       <c r="G24" t="n">
-        <v>2.96</v>
+        <v>1.21</v>
       </c>
       <c r="H24" t="n">
-        <v>2.66</v>
+        <v>22</v>
       </c>
       <c r="I24" t="n">
-        <v>2.68</v>
+        <v>24</v>
       </c>
       <c r="J24" t="n">
-        <v>3.45</v>
+        <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>3.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L24" t="n">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>3.75</v>
+        <v>5.6</v>
       </c>
       <c r="O24" t="n">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="P24" t="n">
-        <v>1.93</v>
+        <v>2.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.04</v>
+        <v>1.6</v>
       </c>
       <c r="R24" t="n">
-        <v>1.36</v>
+        <v>1.62</v>
       </c>
       <c r="S24" t="n">
-        <v>3.7</v>
+        <v>2.56</v>
       </c>
       <c r="T24" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="U24" t="n">
-        <v>2.2</v>
+        <v>1.61</v>
       </c>
       <c r="V24" t="n">
-        <v>1.59</v>
+        <v>1.04</v>
       </c>
       <c r="W24" t="n">
-        <v>1.51</v>
+        <v>5.8</v>
       </c>
       <c r="X24" t="n">
-        <v>13.5</v>
+        <v>34</v>
       </c>
       <c r="Y24" t="n">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="Z24" t="n">
-        <v>16.5</v>
+        <v>250</v>
       </c>
       <c r="AA24" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>990</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>540</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG24" t="n">
         <v>12</v>
       </c>
-      <c r="AC24" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH24" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="AI24" t="n">
-        <v>42</v>
+        <v>380</v>
       </c>
       <c r="AJ24" t="n">
-        <v>46</v>
+        <v>8.4</v>
       </c>
       <c r="AK24" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="AL24" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AM24" t="n">
-        <v>90</v>
+        <v>340</v>
       </c>
       <c r="AN24" t="n">
-        <v>32</v>
+        <v>3.85</v>
       </c>
       <c r="AO24" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Club Football Estrela</t>
+          <t>Academia de Balompie Boliviano</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="G25" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="H25" t="n">
-        <v>22</v>
+        <v>7.6</v>
       </c>
       <c r="I25" t="n">
-        <v>23</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J25" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="K25" t="n">
         <v>8.4</v>
       </c>
       <c r="L25" t="n">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="M25" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>5.6</v>
+        <v>16</v>
       </c>
       <c r="O25" t="n">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="P25" t="n">
-        <v>2.6</v>
+        <v>6.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.6</v>
+        <v>1.15</v>
       </c>
       <c r="R25" t="n">
-        <v>1.62</v>
+        <v>3.35</v>
       </c>
       <c r="S25" t="n">
-        <v>2.54</v>
+        <v>1.38</v>
       </c>
       <c r="T25" t="n">
-        <v>2.56</v>
+        <v>1.39</v>
       </c>
       <c r="U25" t="n">
-        <v>1.63</v>
+        <v>3.1</v>
       </c>
       <c r="V25" t="n">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
       <c r="W25" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="X25" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="Y25" t="n">
-        <v>990</v>
+        <v>120</v>
       </c>
       <c r="Z25" t="n">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="AA25" t="n">
+        <v>330</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE25" t="n">
         <v>1000</v>
       </c>
-      <c r="AB25" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>22</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>990</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>540</v>
-      </c>
       <c r="AF25" t="n">
-        <v>7.2</v>
+        <v>23</v>
       </c>
       <c r="AG25" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="AH25" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI25" t="n">
         <v>55</v>
       </c>
-      <c r="AI25" t="n">
-        <v>350</v>
-      </c>
       <c r="AJ25" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AK25" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL25" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AM25" t="n">
         <v>55</v>
       </c>
-      <c r="AM25" t="n">
-        <v>320</v>
-      </c>
       <c r="AN25" t="n">
-        <v>4</v>
+        <v>2.48</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Ecuadorian Serie A</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,261 +3893,126 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Aurora</t>
+          <t>Emelec</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Academia de Balompie Boliviano</t>
+          <t>El Nacional</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.34</v>
+        <v>2.46</v>
       </c>
       <c r="G26" t="n">
-        <v>1.38</v>
+        <v>2.52</v>
       </c>
       <c r="H26" t="n">
-        <v>7.8</v>
+        <v>2.98</v>
       </c>
       <c r="I26" t="n">
-        <v>8.199999999999999</v>
+        <v>3.15</v>
       </c>
       <c r="J26" t="n">
-        <v>6.4</v>
+        <v>3.65</v>
       </c>
       <c r="K26" t="n">
-        <v>8.199999999999999</v>
+        <v>3.85</v>
       </c>
       <c r="L26" t="n">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="M26" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>15.5</v>
+        <v>4.8</v>
       </c>
       <c r="O26" t="n">
-        <v>1.05</v>
+        <v>1.21</v>
       </c>
       <c r="P26" t="n">
-        <v>6</v>
+        <v>2.32</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.14</v>
+        <v>1.64</v>
       </c>
       <c r="R26" t="n">
-        <v>3.25</v>
+        <v>1.52</v>
       </c>
       <c r="S26" t="n">
-        <v>1.37</v>
+        <v>2.48</v>
       </c>
       <c r="T26" t="n">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="U26" t="n">
-        <v>3.3</v>
+        <v>2.42</v>
       </c>
       <c r="V26" t="n">
-        <v>1.14</v>
+        <v>1.47</v>
       </c>
       <c r="W26" t="n">
-        <v>3.6</v>
+        <v>1.65</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA26" t="n">
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>80</v>
+        <v>15.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD26" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>28</v>
+        <v>13.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ26" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="AK26" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AL26" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM26" t="n">
         <v>65</v>
       </c>
-      <c r="AM26" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN26" t="n">
-        <v>2.7</v>
+        <v>16.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Ecuadorian Serie A</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2025-12-15</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Emelec</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>El Nacional</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="G27" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K27" t="n">
-        <v>4</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N27" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P27" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S27" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U27" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="X27" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>22</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO26"/>
+  <dimension ref="A1:AO24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Neftchi Baku</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FK Sumqayit</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.26</v>
+        <v>12</v>
       </c>
       <c r="G2" t="n">
-        <v>1.27</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>40</v>
+        <v>1.48</v>
       </c>
       <c r="I2" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="S2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE2" t="n">
         <v>70</v>
       </c>
-      <c r="J2" t="n">
-        <v>5</v>
-      </c>
-      <c r="K2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W2" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1000</v>
-      </c>
       <c r="AF2" t="n">
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.7</v>
+        <v>18.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>7.8</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="n">
-        <v>75</v>
+        <v>240</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>7.4</v>
+        <v>150</v>
       </c>
       <c r="AL2" t="n">
-        <v>42</v>
+        <v>280</v>
       </c>
       <c r="AM2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Farul Constanta</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>UTA Arad</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="G3" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="H3" t="n">
-        <v>13</v>
+        <v>250</v>
       </c>
       <c r="I3" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>4.4</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -826,34 +826,34 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="T3" t="n">
         <v>4</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S3" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.1</v>
-      </c>
       <c r="U3" t="n">
-        <v>1.87</v>
+        <v>1.11</v>
       </c>
       <c r="V3" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>3.25</v>
+        <v>100</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -868,52 +868,52 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.9</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>15.5</v>
+        <v>1.76</v>
       </c>
       <c r="AK3" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>460</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>36</v>
+        <v>16.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>460</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -928,127 +928,127 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.5</v>
+        <v>1.01</v>
       </c>
       <c r="G4" t="n">
-        <v>2.6</v>
+        <v>1.01</v>
       </c>
       <c r="H4" t="n">
-        <v>3.15</v>
+        <v>1000</v>
       </c>
       <c r="I4" t="n">
-        <v>3.35</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>180</v>
       </c>
       <c r="K4" t="n">
-        <v>3.45</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.36</v>
+        <v>1.66</v>
       </c>
       <c r="S4" t="n">
-        <v>3.6</v>
+        <v>2.48</v>
       </c>
       <c r="T4" t="n">
-        <v>1.78</v>
+        <v>5.5</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.63</v>
+        <v>100</v>
       </c>
       <c r="X4" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>38</v>
+        <v>1.77</v>
       </c>
       <c r="AK4" t="n">
-        <v>29</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AL4" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="AM4" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>25</v>
+        <v>3.55</v>
       </c>
       <c r="AO4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>CD Nacional Funchal</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.31</v>
+        <v>7.2</v>
       </c>
       <c r="G5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>1.33</v>
       </c>
-      <c r="H5" t="n">
+      <c r="N5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="S5" t="n">
+        <v>24</v>
+      </c>
+      <c r="T5" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="X5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC5" t="n">
         <v>10</v>
       </c>
-      <c r="I5" t="n">
-        <v>12</v>
-      </c>
-      <c r="J5" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K5" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N5" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="X5" t="n">
-        <v>38</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z5" t="n">
+      <c r="AD5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AH5" t="n">
         <v>120</v>
       </c>
-      <c r="AA5" t="n">
-        <v>450</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>190</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>30</v>
-      </c>
       <c r="AI5" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11.5</v>
+        <v>620</v>
       </c>
       <c r="AK5" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>790</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.65</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Hapoel Petach Tikva</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.26</v>
+        <v>1.46</v>
       </c>
       <c r="G6" t="n">
-        <v>1.27</v>
+        <v>1.48</v>
       </c>
       <c r="H6" t="n">
+        <v>10</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>3</v>
+      </c>
+      <c r="X6" t="n">
         <v>14</v>
       </c>
-      <c r="I6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="Y6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
         <v>7.4</v>
       </c>
-      <c r="L6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W6" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="X6" t="n">
-        <v>40</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>190</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>580</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>11</v>
-      </c>
       <c r="AC6" t="n">
-        <v>16.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>50</v>
+        <v>990</v>
       </c>
       <c r="AE6" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG6" t="n">
-        <v>10.5</v>
+        <v>990</v>
       </c>
       <c r="AH6" t="n">
-        <v>32</v>
+        <v>990</v>
       </c>
       <c r="AI6" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.800000000000001</v>
+        <v>23</v>
       </c>
       <c r="AK6" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.85</v>
+        <v>75</v>
       </c>
       <c r="AO6" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CD Nacional Funchal</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Bnei Sakhnin</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.44</v>
+        <v>1.39</v>
       </c>
       <c r="G7" t="n">
-        <v>2.46</v>
+        <v>1.42</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>3.45</v>
+        <v>11</v>
       </c>
       <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W7" t="n">
         <v>3.35</v>
       </c>
-      <c r="K7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.68</v>
-      </c>
       <c r="X7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>420</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>48</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>200</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG7" t="n">
         <v>11</v>
       </c>
-      <c r="Y7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AH7" t="n">
-        <v>18.5</v>
+        <v>34</v>
       </c>
       <c r="AI7" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="AJ7" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="AK7" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AL7" t="n">
         <v>46</v>
       </c>
       <c r="AM7" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="AN7" t="n">
-        <v>29</v>
+        <v>6.8</v>
       </c>
       <c r="AO7" t="n">
-        <v>55</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Hapoel Petach Tikva</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.49</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>1.54</v>
+        <v>10.5</v>
       </c>
       <c r="H8" t="n">
-        <v>6.4</v>
+        <v>1.51</v>
       </c>
       <c r="I8" t="n">
-        <v>7.6</v>
+        <v>1.53</v>
       </c>
       <c r="J8" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="K8" t="n">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.28</v>
+        <v>1.66</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>5.7</v>
+        <v>2.9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.19</v>
+        <v>1.51</v>
       </c>
       <c r="P8" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2.58</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="U8" t="n">
         <v>1.57</v>
       </c>
-      <c r="R8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.16</v>
-      </c>
       <c r="V8" t="n">
-        <v>1.15</v>
+        <v>2.88</v>
       </c>
       <c r="W8" t="n">
-        <v>2.82</v>
+        <v>1.07</v>
       </c>
       <c r="X8" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
-        <v>34</v>
+        <v>5.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AA8" t="n">
-        <v>490</v>
+        <v>13.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>12.5</v>
+        <v>19</v>
       </c>
       <c r="AC8" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="AF8" t="n">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="AG8" t="n">
-        <v>10.5</v>
+        <v>38</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="AI8" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AJ8" t="n">
-        <v>14.5</v>
+        <v>450</v>
       </c>
       <c r="AK8" t="n">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="AL8" t="n">
-        <v>30</v>
+        <v>260</v>
       </c>
       <c r="AM8" t="n">
-        <v>90</v>
+        <v>480</v>
       </c>
       <c r="AN8" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>80</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>FK Backa Topola</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Bnei Sakhnin</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.38</v>
+        <v>12</v>
       </c>
       <c r="G9" t="n">
-        <v>1.42</v>
+        <v>12.5</v>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>1.29</v>
       </c>
       <c r="I9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V9" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="X9" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AA9" t="n">
         <v>10.5</v>
       </c>
-      <c r="J9" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N9" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W9" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="X9" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>190</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>380</v>
-      </c>
       <c r="AB9" t="n">
-        <v>10.5</v>
+        <v>55</v>
       </c>
       <c r="AC9" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AD9" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.199999999999999</v>
+        <v>140</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="AH9" t="n">
         <v>32</v>
       </c>
       <c r="AI9" t="n">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="AJ9" t="n">
-        <v>12</v>
+        <v>580</v>
       </c>
       <c r="AK9" t="n">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="AL9" t="n">
-        <v>34</v>
+        <v>180</v>
       </c>
       <c r="AM9" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.2</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>170</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>7.6</v>
+        <v>1.47</v>
       </c>
       <c r="G10" t="n">
-        <v>7.8</v>
+        <v>1.49</v>
       </c>
       <c r="H10" t="n">
-        <v>1.65</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>1.68</v>
+        <v>9.6</v>
       </c>
       <c r="J10" t="n">
-        <v>3.65</v>
+        <v>4.6</v>
       </c>
       <c r="K10" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="M10" t="n">
         <v>1.09</v>
       </c>
       <c r="N10" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O10" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="P10" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="R10" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="T10" t="n">
-        <v>2.1</v>
+        <v>2.48</v>
       </c>
       <c r="U10" t="n">
-        <v>1.81</v>
+        <v>1.65</v>
       </c>
       <c r="V10" t="n">
-        <v>2.46</v>
+        <v>1.11</v>
       </c>
       <c r="W10" t="n">
-        <v>1.14</v>
+        <v>3.05</v>
       </c>
       <c r="X10" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>480</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>12</v>
       </c>
-      <c r="Y10" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>160</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>30</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>240</v>
-      </c>
       <c r="AK10" t="n">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="AL10" t="n">
-        <v>330</v>
+        <v>60</v>
       </c>
       <c r="AM10" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="AN10" t="n">
-        <v>510</v>
+        <v>11</v>
       </c>
       <c r="AO10" t="n">
-        <v>12</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FK Backa Topola</t>
+          <t>San Antonio Bulo Bulo</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>CDT Real Oruro</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>10.5</v>
+        <v>1.17</v>
       </c>
       <c r="G11" t="n">
-        <v>12.5</v>
+        <v>1.19</v>
       </c>
       <c r="H11" t="n">
-        <v>1.29</v>
+        <v>13.5</v>
       </c>
       <c r="I11" t="n">
+        <v>19</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>12</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P11" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="T11" t="n">
         <v>1.31</v>
       </c>
-      <c r="J11" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K11" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N11" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.87</v>
-      </c>
       <c r="U11" t="n">
-        <v>1.94</v>
+        <v>1.04</v>
       </c>
       <c r="V11" t="n">
-        <v>4.2</v>
+        <v>1.06</v>
       </c>
       <c r="W11" t="n">
-        <v>1.09</v>
+        <v>6</v>
       </c>
       <c r="X11" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>120</v>
+        <v>970</v>
       </c>
       <c r="AG11" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>460</v>
+        <v>85</v>
       </c>
       <c r="AK11" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>150</v>
+        <v>1.77</v>
       </c>
       <c r="AO11" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>CD Castellon</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="G12" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="H12" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="I12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>95</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>420</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG12" t="n">
         <v>10</v>
       </c>
-      <c r="J12" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W12" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="X12" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>85</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>400</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>190</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH12" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AI12" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AJ12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK12" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AM12" t="n">
-        <v>580</v>
+        <v>170</v>
       </c>
       <c r="AN12" t="n">
-        <v>8.6</v>
+        <v>6.2</v>
       </c>
       <c r="AO12" t="n">
-        <v>330</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CDT Real Oruro</t>
+          <t>ASD Pineto Calcio</t>
         </is>
       </c>
       <c r="F13" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H13" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="I13" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R13" t="n">
         <v>1.28</v>
       </c>
-      <c r="G13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="H13" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="I13" t="n">
-        <v>11</v>
-      </c>
-      <c r="J13" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="K13" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N13" t="n">
-        <v>15</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="R13" t="n">
-        <v>3.15</v>
-      </c>
       <c r="S13" t="n">
-        <v>1.43</v>
+        <v>4.1</v>
       </c>
       <c r="T13" t="n">
-        <v>1.36</v>
+        <v>2.2</v>
       </c>
       <c r="U13" t="n">
-        <v>3.7</v>
+        <v>1.61</v>
       </c>
       <c r="V13" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W13" t="n">
-        <v>3.9</v>
+        <v>2.74</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y13" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="Z13" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="AC13" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AD13" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AE13" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AG13" t="n">
-        <v>38</v>
+        <v>10.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>40</v>
+        <v>990</v>
       </c>
       <c r="AI13" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AK13" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="AM13" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>2.48</v>
+        <v>17.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CD Castellon</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>S.S.D. Casarano Calcio</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.36</v>
+        <v>1.72</v>
       </c>
       <c r="G14" t="n">
-        <v>1.38</v>
+        <v>1.77</v>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>5.6</v>
       </c>
       <c r="I14" t="n">
-        <v>11</v>
+        <v>6.4</v>
       </c>
       <c r="J14" t="n">
-        <v>5.6</v>
+        <v>3.7</v>
       </c>
       <c r="K14" t="n">
-        <v>5.9</v>
+        <v>4.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>3.85</v>
       </c>
       <c r="O14" t="n">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="P14" t="n">
-        <v>2.38</v>
+        <v>1.96</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.69</v>
+        <v>1.94</v>
       </c>
       <c r="R14" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AM14" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ASD Pineto Calcio</t>
+          <t>Ravenna</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.53</v>
+        <v>3.4</v>
       </c>
       <c r="G15" t="n">
-        <v>1.59</v>
+        <v>3.8</v>
       </c>
       <c r="H15" t="n">
-        <v>7.8</v>
+        <v>2.32</v>
       </c>
       <c r="I15" t="n">
-        <v>9.4</v>
+        <v>2.5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.9</v>
+        <v>3.15</v>
       </c>
       <c r="K15" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="M15" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N15" t="n">
-        <v>3.35</v>
+        <v>2.88</v>
       </c>
       <c r="O15" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="P15" t="n">
-        <v>1.77</v>
+        <v>1.62</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.14</v>
+        <v>2.48</v>
       </c>
       <c r="R15" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="T15" t="n">
-        <v>2.16</v>
+        <v>1.97</v>
       </c>
       <c r="U15" t="n">
-        <v>1.62</v>
+        <v>1.87</v>
       </c>
       <c r="V15" t="n">
-        <v>1.12</v>
+        <v>1.67</v>
       </c>
       <c r="W15" t="n">
-        <v>2.68</v>
+        <v>1.36</v>
       </c>
       <c r="X15" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y15" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK15" t="n">
         <v>90</v>
       </c>
-      <c r="Z15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>350</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>990</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>180</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -2548,49 +2548,49 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Ravenna</t>
+          <t>Monopoli</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="G16" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="H16" t="n">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="I16" t="n">
-        <v>2.5</v>
+        <v>2.28</v>
       </c>
       <c r="J16" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K16" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L16" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M16" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="O16" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="P16" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="R16" t="n">
         <v>1.22</v>
@@ -2599,76 +2599,76 @@
         <v>4.8</v>
       </c>
       <c r="T16" t="n">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="U16" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="V16" t="n">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="W16" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="X16" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="Z16" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB16" t="n">
         <v>11.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE16" t="n">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="AF16" t="n">
         <v>42</v>
       </c>
       <c r="AG16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH16" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AI16" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AJ16" t="n">
-        <v>530</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>380</v>
+        <v>170</v>
       </c>
       <c r="AL16" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO16" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>Boulogne</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>S.S.D. Casarano Calcio</t>
+          <t>ESTAC Troyes</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.72</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>1.78</v>
+        <v>4.1</v>
       </c>
       <c r="H17" t="n">
-        <v>5.7</v>
+        <v>2.1</v>
       </c>
       <c r="I17" t="n">
-        <v>6.4</v>
+        <v>2.14</v>
       </c>
       <c r="J17" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K17" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="O17" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="W17" t="n">
         <v>1.32</v>
       </c>
-      <c r="P17" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Foggia</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Monopoli</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.7</v>
+        <v>2.32</v>
       </c>
       <c r="G18" t="n">
-        <v>4.2</v>
+        <v>2.34</v>
       </c>
       <c r="H18" t="n">
-        <v>2.18</v>
+        <v>3.85</v>
       </c>
       <c r="I18" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="J18" t="n">
         <v>3.2</v>
       </c>
       <c r="K18" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="L18" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="M18" t="n">
         <v>1.11</v>
       </c>
       <c r="N18" t="n">
-        <v>2.84</v>
+        <v>3.15</v>
       </c>
       <c r="O18" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="P18" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="R18" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="S18" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="T18" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U18" t="n">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="V18" t="n">
-        <v>1.78</v>
+        <v>1.34</v>
       </c>
       <c r="W18" t="n">
-        <v>1.32</v>
+        <v>1.74</v>
       </c>
       <c r="X18" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AA18" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="AB18" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG18" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC18" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>48</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>17</v>
-      </c>
       <c r="AH18" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="AI18" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK18" t="n">
-        <v>380</v>
+        <v>28</v>
       </c>
       <c r="AL18" t="n">
-        <v>380</v>
+        <v>50</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO18" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Boulogne</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ESTAC Troyes</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.95</v>
+        <v>2.1</v>
       </c>
       <c r="G19" t="n">
-        <v>4.2</v>
+        <v>2.16</v>
       </c>
       <c r="H19" t="n">
-        <v>2.12</v>
+        <v>3.8</v>
       </c>
       <c r="I19" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P19" t="n">
         <v>2.16</v>
       </c>
-      <c r="J19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N19" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.72</v>
-      </c>
       <c r="Q19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U19" t="n">
         <v>2.28</v>
       </c>
-      <c r="R19" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S19" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.9</v>
-      </c>
       <c r="V19" t="n">
-        <v>1.87</v>
+        <v>1.35</v>
       </c>
       <c r="W19" t="n">
-        <v>1.32</v>
+        <v>1.84</v>
       </c>
       <c r="X19" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Y19" t="n">
-        <v>8</v>
+        <v>16.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="AA19" t="n">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="AB19" t="n">
-        <v>17.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AF19" t="n">
-        <v>28</v>
+        <v>13.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>29</v>
+        <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AI19" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ19" t="n">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="AK19" t="n">
-        <v>170</v>
+        <v>21</v>
       </c>
       <c r="AL19" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="AM19" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AN19" t="n">
-        <v>260</v>
+        <v>15</v>
       </c>
       <c r="AO19" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.34</v>
+        <v>1.83</v>
       </c>
       <c r="G20" t="n">
-        <v>2.36</v>
+        <v>1.84</v>
       </c>
       <c r="H20" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="I20" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="J20" t="n">
-        <v>3.15</v>
+        <v>4.4</v>
       </c>
       <c r="K20" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.59</v>
+        <v>1.29</v>
       </c>
       <c r="M20" t="n">
-        <v>1.11</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>3.2</v>
+        <v>6.4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.44</v>
+        <v>1.18</v>
       </c>
       <c r="P20" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.4</v>
+        <v>1.54</v>
       </c>
       <c r="R20" t="n">
-        <v>1.25</v>
+        <v>1.73</v>
       </c>
       <c r="S20" t="n">
-        <v>4.7</v>
+        <v>2.32</v>
       </c>
       <c r="T20" t="n">
-        <v>2.02</v>
+        <v>1.57</v>
       </c>
       <c r="U20" t="n">
-        <v>1.98</v>
+        <v>2.72</v>
       </c>
       <c r="V20" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="W20" t="n">
-        <v>1.73</v>
+        <v>2.18</v>
       </c>
       <c r="X20" t="n">
-        <v>9.800000000000001</v>
+        <v>26</v>
       </c>
       <c r="Y20" t="n">
-        <v>11.5</v>
+        <v>24</v>
       </c>
       <c r="Z20" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="AA20" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB20" t="n">
-        <v>8.199999999999999</v>
+        <v>14.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>6.8</v>
+        <v>10.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM20" t="n">
         <v>55</v>
       </c>
-      <c r="AF20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>140</v>
-      </c>
       <c r="AN20" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="AO20" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.89</v>
+        <v>2.94</v>
       </c>
       <c r="G21" t="n">
-        <v>1.9</v>
+        <v>2.96</v>
       </c>
       <c r="H21" t="n">
-        <v>4.4</v>
+        <v>2.64</v>
       </c>
       <c r="I21" t="n">
-        <v>4.6</v>
+        <v>2.68</v>
       </c>
       <c r="J21" t="n">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="K21" t="n">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="L21" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="O21" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="P21" t="n">
-        <v>2.16</v>
+        <v>1.91</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.82</v>
+        <v>2.04</v>
       </c>
       <c r="R21" t="n">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="S21" t="n">
-        <v>3.05</v>
+        <v>3.65</v>
       </c>
       <c r="T21" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="U21" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.28</v>
+        <v>1.59</v>
       </c>
       <c r="W21" t="n">
-        <v>2.1</v>
+        <v>1.51</v>
       </c>
       <c r="X21" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>17.5</v>
+        <v>11</v>
       </c>
       <c r="Z21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK21" t="n">
         <v>34</v>
       </c>
-      <c r="AA21" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>18</v>
-      </c>
       <c r="AL21" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN21" t="n">
         <v>32</v>
       </c>
-      <c r="AM21" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>11</v>
-      </c>
       <c r="AO21" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Club Football Estrela</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.84</v>
+        <v>1.18</v>
       </c>
       <c r="G22" t="n">
-        <v>1.85</v>
+        <v>1.19</v>
       </c>
       <c r="H22" t="n">
-        <v>4.3</v>
+        <v>22</v>
       </c>
       <c r="I22" t="n">
-        <v>4.4</v>
+        <v>23</v>
       </c>
       <c r="J22" t="n">
-        <v>4.4</v>
+        <v>8.6</v>
       </c>
       <c r="K22" t="n">
-        <v>4.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L22" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P22" t="n">
-        <v>2.82</v>
+        <v>2.62</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="R22" t="n">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="S22" t="n">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
       <c r="T22" t="n">
-        <v>1.57</v>
+        <v>2.54</v>
       </c>
       <c r="U22" t="n">
-        <v>2.68</v>
+        <v>1.6</v>
       </c>
       <c r="V22" t="n">
-        <v>1.29</v>
+        <v>1.04</v>
       </c>
       <c r="W22" t="n">
-        <v>2.16</v>
+        <v>6.2</v>
       </c>
       <c r="X22" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Y22" t="n">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="Z22" t="n">
-        <v>38</v>
+        <v>270</v>
       </c>
       <c r="AA22" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>14</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC22" t="n">
-        <v>10.5</v>
+        <v>19.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>16.5</v>
+        <v>90</v>
       </c>
       <c r="AE22" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>14</v>
+        <v>7.2</v>
       </c>
       <c r="AG22" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AH22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AK22" t="n">
         <v>15</v>
       </c>
-      <c r="AI22" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AL22" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AM22" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="AO22" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Academia de Balompie Boliviano</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.94</v>
+        <v>1.29</v>
       </c>
       <c r="G23" t="n">
-        <v>2.96</v>
+        <v>1.34</v>
       </c>
       <c r="H23" t="n">
-        <v>2.66</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>2.68</v>
+        <v>11</v>
       </c>
       <c r="J23" t="n">
-        <v>3.45</v>
+        <v>7.4</v>
       </c>
       <c r="K23" t="n">
-        <v>3.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L23" t="n">
-        <v>1.44</v>
+        <v>1.12</v>
       </c>
       <c r="M23" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>3.8</v>
+        <v>14.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.34</v>
+        <v>1.05</v>
       </c>
       <c r="P23" t="n">
-        <v>1.94</v>
+        <v>6.2</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.04</v>
+        <v>1.15</v>
       </c>
       <c r="R23" t="n">
-        <v>1.35</v>
+        <v>3.3</v>
       </c>
       <c r="S23" t="n">
-        <v>3.7</v>
+        <v>1.39</v>
       </c>
       <c r="T23" t="n">
-        <v>1.81</v>
+        <v>1.39</v>
       </c>
       <c r="U23" t="n">
-        <v>2.18</v>
+        <v>3.1</v>
       </c>
       <c r="V23" t="n">
-        <v>1.59</v>
+        <v>1.11</v>
       </c>
       <c r="W23" t="n">
-        <v>1.51</v>
+        <v>3.95</v>
       </c>
       <c r="X23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>130</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>330</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>38</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK23" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y23" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>32</v>
-      </c>
       <c r="AL23" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="AM23" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AN23" t="n">
-        <v>32</v>
+        <v>2.38</v>
       </c>
       <c r="AO23" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Ecuadorian Serie A</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,396 +3623,126 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Emelec</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Club Football Estrela</t>
+          <t>El Nacional</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.19</v>
+        <v>2.42</v>
       </c>
       <c r="G24" t="n">
-        <v>1.21</v>
+        <v>2.44</v>
       </c>
       <c r="H24" t="n">
-        <v>22</v>
+        <v>2.88</v>
       </c>
       <c r="I24" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N24" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="X24" t="n">
         <v>24</v>
       </c>
-      <c r="J24" t="n">
-        <v>8</v>
-      </c>
-      <c r="K24" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N24" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W24" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="X24" t="n">
+      <c r="Y24" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>970</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE24" t="n">
         <v>34</v>
       </c>
-      <c r="Y24" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>250</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC24" t="n">
+      <c r="AF24" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO24" t="n">
         <v>21</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>990</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>540</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>380</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>340</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2025-12-15</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Aurora</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Academia de Balompie Boliviano</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="H25" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="I25" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="J25" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K25" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N25" t="n">
-        <v>16</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P25" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="R25" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="U25" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W25" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="X25" t="n">
-        <v>110</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>120</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>150</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>330</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>28</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>44</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Ecuadorian Serie A</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2025-12-15</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Emelec</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>El Nacional</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="G26" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N26" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="X26" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>970</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO24"/>
+  <dimension ref="A1:AO16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>12</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>14</v>
+        <v>1.02</v>
       </c>
       <c r="H2" t="n">
-        <v>1.48</v>
+        <v>1000</v>
       </c>
       <c r="I2" t="n">
-        <v>1.52</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>3.8</v>
+        <v>50</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,79 +691,79 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3</v>
+        <v>1.07</v>
       </c>
       <c r="O2" t="n">
-        <v>1.49</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.6</v>
+        <v>100</v>
       </c>
       <c r="R2" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>12.5</v>
+        <v>100</v>
       </c>
       <c r="T2" t="n">
-        <v>2.22</v>
+        <v>1.65</v>
       </c>
       <c r="U2" t="n">
-        <v>1.73</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>2.9</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.08</v>
+        <v>65</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.98</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>1.03</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.5</v>
+        <v>850</v>
       </c>
       <c r="AD2" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="AG2" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -772,13 +772,13 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>San Antonio Bulo Bulo</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>CDT Real Oruro</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -808,13 +808,13 @@
         <v>1.01</v>
       </c>
       <c r="H3" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="I3" t="n">
         <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K3" t="n">
         <v>1000</v>
@@ -838,16 +838,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>1.01</v>
@@ -892,7 +892,7 @@
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.76</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>16.5</v>
+        <v>1.01</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,36 +923,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>S.S.D. Casarano Calcio</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="G4" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="H4" t="n">
-        <v>1000</v>
+        <v>1.02</v>
       </c>
       <c r="I4" t="n">
         <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,28 +967,28 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="R4" t="n">
-        <v>1.66</v>
+        <v>1.55</v>
       </c>
       <c r="S4" t="n">
-        <v>2.48</v>
+        <v>2.68</v>
       </c>
       <c r="T4" t="n">
-        <v>5.5</v>
+        <v>2.84</v>
       </c>
       <c r="U4" t="n">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="V4" t="n">
         <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1015,31 +1015,31 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>430</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1.77</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>9.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.55</v>
+        <v>5</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CD Nacional Funchal</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Ravenna</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7.2</v>
+        <v>1.53</v>
       </c>
       <c r="G5" t="n">
-        <v>7.6</v>
+        <v>1.57</v>
       </c>
       <c r="H5" t="n">
-        <v>1.99</v>
+        <v>10</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>10.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.72</v>
+        <v>3.8</v>
       </c>
       <c r="K5" t="n">
-        <v>2.76</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1.62</v>
+        <v>3.3</v>
       </c>
       <c r="O5" t="n">
-        <v>2.56</v>
+        <v>1.41</v>
       </c>
       <c r="P5" t="n">
-        <v>1.16</v>
+        <v>1.44</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.8</v>
+        <v>3.15</v>
       </c>
       <c r="R5" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="S5" t="n">
-        <v>24</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="T5" t="n">
-        <v>4.8</v>
+        <v>1.98</v>
       </c>
       <c r="U5" t="n">
-        <v>1.24</v>
+        <v>1.93</v>
       </c>
       <c r="V5" t="n">
-        <v>1.98</v>
+        <v>1.1</v>
       </c>
       <c r="W5" t="n">
-        <v>1.15</v>
+        <v>2.78</v>
       </c>
       <c r="X5" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.75</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>11.5</v>
+        <v>3.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>4.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AF5" t="n">
-        <v>65</v>
+        <v>6.6</v>
       </c>
       <c r="AG5" t="n">
-        <v>65</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="AI5" t="n">
-        <v>500</v>
+        <v>170</v>
       </c>
       <c r="AJ5" t="n">
-        <v>620</v>
+        <v>30</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AO5" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,75 +1193,75 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hapoel Petach Tikva</t>
+          <t>Monopoli</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
       <c r="G6" t="n">
-        <v>1.48</v>
+        <v>1.65</v>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="P6" t="n">
-        <v>1.68</v>
+        <v>1.38</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.34</v>
+        <v>3.25</v>
       </c>
       <c r="R6" t="n">
-        <v>1.24</v>
+        <v>1.08</v>
       </c>
       <c r="S6" t="n">
-        <v>4.7</v>
+        <v>12</v>
       </c>
       <c r="T6" t="n">
-        <v>2.6</v>
+        <v>1.94</v>
       </c>
       <c r="U6" t="n">
-        <v>1.56</v>
+        <v>1.95</v>
       </c>
       <c r="V6" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="W6" t="n">
-        <v>3</v>
+        <v>2.48</v>
       </c>
       <c r="X6" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
         <v>1000</v>
@@ -1273,52 +1273,52 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.4</v>
+        <v>3.25</v>
       </c>
       <c r="AC6" t="n">
-        <v>11.5</v>
+        <v>4.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>990</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AG6" t="n">
-        <v>990</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>990</v>
+        <v>40</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Bnei Sakhnin</t>
+          <t>ASD Pineto Calcio</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.39</v>
+        <v>2.06</v>
       </c>
       <c r="G7" t="n">
-        <v>1.42</v>
+        <v>2.16</v>
       </c>
       <c r="H7" t="n">
-        <v>9.800000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="I7" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>2.58</v>
       </c>
       <c r="K7" t="n">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="W7" t="n">
-        <v>3.35</v>
+        <v>1.84</v>
       </c>
       <c r="X7" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>230</v>
+        <v>4.1</v>
       </c>
       <c r="AN7" t="n">
-        <v>6.8</v>
+        <v>2.22</v>
       </c>
       <c r="AO7" t="n">
-        <v>310</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>CD Castellon</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>9.199999999999999</v>
+        <v>1.84</v>
       </c>
       <c r="G8" t="n">
-        <v>10.5</v>
+        <v>1.86</v>
       </c>
       <c r="H8" t="n">
-        <v>1.51</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>1.53</v>
+        <v>8.6</v>
       </c>
       <c r="J8" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>4.1</v>
       </c>
-      <c r="K8" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.61</v>
-      </c>
       <c r="Q8" t="n">
-        <v>2.58</v>
+        <v>1.31</v>
       </c>
       <c r="R8" t="n">
-        <v>1.22</v>
+        <v>1.67</v>
       </c>
       <c r="S8" t="n">
-        <v>5.2</v>
+        <v>2.44</v>
       </c>
       <c r="T8" t="n">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>2.88</v>
+        <v>1.13</v>
       </c>
       <c r="W8" t="n">
-        <v>1.07</v>
+        <v>2.2</v>
       </c>
       <c r="X8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AH8" t="n">
         <v>11</v>
       </c>
-      <c r="Y8" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA8" t="n">
+      <c r="AI8" t="n">
+        <v>490</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN8" t="n">
         <v>13.5</v>
       </c>
-      <c r="AB8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>38</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>44</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>450</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>260</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>260</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>480</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO8" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FK Backa Topola</t>
+          <t>Boulogne</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>ESTAC Troyes</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>12.5</v>
+        <v>4.2</v>
       </c>
       <c r="H9" t="n">
-        <v>1.29</v>
+        <v>2.74</v>
       </c>
       <c r="I9" t="n">
-        <v>1.3</v>
+        <v>2.82</v>
       </c>
       <c r="J9" t="n">
-        <v>6.6</v>
+        <v>2.52</v>
       </c>
       <c r="K9" t="n">
-        <v>6.8</v>
+        <v>2.56</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1.34</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N9" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.57</v>
-      </c>
       <c r="R9" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="S9" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="T9" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>4.3</v>
+        <v>1.54</v>
       </c>
       <c r="W9" t="n">
-        <v>1.08</v>
+        <v>1.31</v>
       </c>
       <c r="X9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL9" t="n">
         <v>32</v>
       </c>
-      <c r="Y9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>16</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>140</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>580</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>200</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>180</v>
-      </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO9" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.47</v>
+        <v>2.46</v>
       </c>
       <c r="G10" t="n">
-        <v>1.49</v>
+        <v>2.48</v>
       </c>
       <c r="H10" t="n">
-        <v>9.199999999999999</v>
+        <v>4.7</v>
       </c>
       <c r="I10" t="n">
-        <v>9.6</v>
+        <v>4.8</v>
       </c>
       <c r="J10" t="n">
-        <v>4.6</v>
+        <v>2.56</v>
       </c>
       <c r="K10" t="n">
-        <v>4.7</v>
+        <v>2.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.09</v>
+        <v>1.31</v>
       </c>
       <c r="N10" t="n">
-        <v>3.25</v>
+        <v>1.73</v>
       </c>
       <c r="O10" t="n">
-        <v>1.43</v>
+        <v>2.34</v>
       </c>
       <c r="P10" t="n">
-        <v>1.78</v>
+        <v>1.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.26</v>
+        <v>5.8</v>
       </c>
       <c r="R10" t="n">
-        <v>1.28</v>
+        <v>1.05</v>
       </c>
       <c r="S10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X10" t="n">
         <v>4.4</v>
       </c>
-      <c r="T10" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W10" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="X10" t="n">
-        <v>13</v>
-      </c>
       <c r="Y10" t="n">
-        <v>22</v>
+        <v>7.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="AA10" t="n">
-        <v>480</v>
+        <v>190</v>
       </c>
       <c r="AB10" t="n">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AE10" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="AF10" t="n">
-        <v>7</v>
+        <v>11.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>10.5</v>
+        <v>19.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AI10" t="n">
-        <v>200</v>
+        <v>540</v>
       </c>
       <c r="AJ10" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="AK10" t="n">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="AL10" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="AM10" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="AO10" t="n">
-        <v>470</v>
+        <v>590</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,72 +1868,72 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CDT Real Oruro</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="G11" t="n">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="H11" t="n">
         <v>13.5</v>
       </c>
       <c r="I11" t="n">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>4.6</v>
       </c>
       <c r="K11" t="n">
-        <v>12</v>
+        <v>4.7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>13.5</v>
+        <v>4.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.02</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>9.199999999999999</v>
+        <v>1.83</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.09</v>
+        <v>2.18</v>
       </c>
       <c r="R11" t="n">
-        <v>5.1</v>
+        <v>1.24</v>
       </c>
       <c r="S11" t="n">
-        <v>1.21</v>
+        <v>5</v>
       </c>
       <c r="T11" t="n">
-        <v>1.31</v>
+        <v>1.95</v>
       </c>
       <c r="U11" t="n">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="V11" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W11" t="n">
-        <v>6</v>
+        <v>3.45</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -1948,52 +1948,52 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF11" t="n">
-        <v>970</v>
+        <v>5.7</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ11" t="n">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AN11" t="n">
-        <v>1.77</v>
+        <v>22</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CD Castellon</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.38</v>
+        <v>1.88</v>
       </c>
       <c r="G12" t="n">
-        <v>1.41</v>
+        <v>1.89</v>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>5.2</v>
       </c>
       <c r="I12" t="n">
-        <v>10.5</v>
+        <v>5.7</v>
       </c>
       <c r="J12" t="n">
-        <v>5.3</v>
+        <v>3.6</v>
       </c>
       <c r="K12" t="n">
-        <v>5.5</v>
+        <v>3.65</v>
       </c>
       <c r="L12" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.24</v>
+        <v>8.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.76</v>
+        <v>1.12</v>
       </c>
       <c r="R12" t="n">
-        <v>1.48</v>
+        <v>2.72</v>
       </c>
       <c r="S12" t="n">
-        <v>3</v>
+        <v>1.57</v>
       </c>
       <c r="T12" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>1.1</v>
+        <v>1.23</v>
       </c>
       <c r="W12" t="n">
-        <v>3.5</v>
+        <v>2.08</v>
       </c>
       <c r="X12" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>38</v>
+        <v>12.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="AF12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AH12" t="n">
         <v>8</v>
       </c>
-      <c r="AG12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>30</v>
-      </c>
       <c r="AI12" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>14.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AL12" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="AM12" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="AN12" t="n">
-        <v>6.2</v>
+        <v>8</v>
       </c>
       <c r="AO12" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ASD Pineto Calcio</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.54</v>
+        <v>2.92</v>
       </c>
       <c r="G13" t="n">
-        <v>1.57</v>
+        <v>3.05</v>
       </c>
       <c r="H13" t="n">
-        <v>8.199999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>9.4</v>
+        <v>3.35</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>2.74</v>
       </c>
       <c r="K13" t="n">
-        <v>4.3</v>
+        <v>2.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.48</v>
+        <v>3.85</v>
       </c>
       <c r="M13" t="n">
-        <v>1.09</v>
+        <v>1.22</v>
       </c>
       <c r="N13" t="n">
-        <v>3.3</v>
+        <v>2.04</v>
       </c>
       <c r="O13" t="n">
-        <v>1.39</v>
+        <v>1.93</v>
       </c>
       <c r="P13" t="n">
-        <v>1.78</v>
+        <v>1.31</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.18</v>
+        <v>4.1</v>
       </c>
       <c r="R13" t="n">
-        <v>1.28</v>
+        <v>1.08</v>
       </c>
       <c r="S13" t="n">
-        <v>4.1</v>
+        <v>12</v>
       </c>
       <c r="T13" t="n">
-        <v>2.2</v>
+        <v>2.88</v>
       </c>
       <c r="U13" t="n">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="V13" t="n">
-        <v>1.12</v>
+        <v>1.43</v>
       </c>
       <c r="W13" t="n">
-        <v>2.74</v>
+        <v>1.5</v>
       </c>
       <c r="X13" t="n">
-        <v>13</v>
+        <v>5.7</v>
       </c>
       <c r="Y13" t="n">
-        <v>90</v>
+        <v>6.8</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB13" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AC13" t="n">
-        <v>14</v>
+        <v>6.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>100</v>
+        <v>19.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF13" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AG13" t="n">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="AH13" t="n">
-        <v>990</v>
+        <v>50</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AJ13" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="AK13" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="AL13" t="n">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>17.5</v>
+        <v>120</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>S.S.D. Casarano Calcio</t>
+          <t>Club Football Estrela</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.72</v>
+        <v>1.17</v>
       </c>
       <c r="G14" t="n">
-        <v>1.77</v>
+        <v>1.18</v>
       </c>
       <c r="H14" t="n">
-        <v>5.6</v>
+        <v>22</v>
       </c>
       <c r="I14" t="n">
-        <v>6.4</v>
+        <v>24</v>
       </c>
       <c r="J14" t="n">
-        <v>3.7</v>
+        <v>9.4</v>
       </c>
       <c r="K14" t="n">
-        <v>4.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>3.85</v>
+        <v>6.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>1.96</v>
+        <v>2.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.94</v>
+        <v>1.56</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Ravenna</t>
+          <t>Academia de Balompie Boliviano</t>
         </is>
       </c>
       <c r="F15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H15" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J15" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K15" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P15" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W15" t="n">
         <v>3.4</v>
       </c>
-      <c r="G15" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S15" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.36</v>
-      </c>
       <c r="X15" t="n">
-        <v>10.5</v>
+        <v>120</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.6</v>
+        <v>110</v>
       </c>
       <c r="Z15" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>50</v>
+        <v>290</v>
       </c>
       <c r="AB15" t="n">
-        <v>11.5</v>
+        <v>60</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.6</v>
+        <v>30</v>
       </c>
       <c r="AD15" t="n">
-        <v>12.5</v>
+        <v>130</v>
       </c>
       <c r="AE15" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF15" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>22</v>
       </c>
-      <c r="AI15" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>900</v>
-      </c>
       <c r="AK15" t="n">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="AL15" t="n">
-        <v>400</v>
+        <v>19.5</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>2.78</v>
       </c>
       <c r="AO15" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Ecuadorian Serie A</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,1205 +2543,125 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Foggia</t>
+          <t>Emelec</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Monopoli</t>
+          <t>El Nacional</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.8</v>
+        <v>2.34</v>
       </c>
       <c r="G16" t="n">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="H16" t="n">
-        <v>2.18</v>
+        <v>2.86</v>
       </c>
       <c r="I16" t="n">
-        <v>2.28</v>
+        <v>2.98</v>
       </c>
       <c r="J16" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>3.45</v>
+        <v>4.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.54</v>
+        <v>1.33</v>
       </c>
       <c r="M16" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>2.86</v>
+        <v>4.7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.49</v>
+        <v>1.22</v>
       </c>
       <c r="P16" t="n">
-        <v>1.61</v>
+        <v>2.32</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.46</v>
+        <v>1.69</v>
       </c>
       <c r="R16" t="n">
-        <v>1.22</v>
+        <v>1.55</v>
       </c>
       <c r="S16" t="n">
-        <v>4.8</v>
+        <v>2.74</v>
       </c>
       <c r="T16" t="n">
-        <v>2.04</v>
+        <v>1.62</v>
       </c>
       <c r="U16" t="n">
-        <v>1.81</v>
+        <v>2.3</v>
       </c>
       <c r="V16" t="n">
-        <v>1.79</v>
+        <v>1.51</v>
       </c>
       <c r="W16" t="n">
-        <v>1.32</v>
+        <v>1.71</v>
       </c>
       <c r="X16" t="n">
-        <v>9.800000000000001</v>
+        <v>23</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.8</v>
+        <v>19</v>
       </c>
       <c r="Z16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD16" t="n">
         <v>13.5</v>
       </c>
-      <c r="AA16" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>12</v>
-      </c>
       <c r="AE16" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AF16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI16" t="n">
         <v>42</v>
       </c>
-      <c r="AG16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>85</v>
-      </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK16" t="n">
-        <v>170</v>
+        <v>27</v>
       </c>
       <c r="AL16" t="n">
-        <v>250</v>
+        <v>32</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN16" t="n">
-        <v>600</v>
+        <v>14</v>
       </c>
       <c r="AO16" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>French Ligue 2</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2025-12-15</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Boulogne</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ESTAC Troyes</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
-      </c>
-      <c r="G17" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S17" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="X17" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>95</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>110</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Italian Serie A</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2025-12-15</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Como</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="H18" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="X18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Scottish Premiership</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2025-12-15</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Rangers</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Hibernian</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="H19" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N19" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="X19" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>English Premier League</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2025-12-15</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Man Utd</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Bournemouth</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="H20" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K20" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N20" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W20" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="X20" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Spanish La Liga</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2025-12-15</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Rayo Vallecano</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Betis</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="G21" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="X21" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Portuguese Primeira Liga</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2025-12-15</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>17:45:00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Porto</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Club Football Estrela</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="H22" t="n">
-        <v>22</v>
-      </c>
-      <c r="I22" t="n">
-        <v>23</v>
-      </c>
-      <c r="J22" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="K22" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N22" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W22" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="X22" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>80</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>270</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>90</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2025-12-15</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Aurora</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Academia de Balompie Boliviano</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="H23" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="I23" t="n">
-        <v>11</v>
-      </c>
-      <c r="J23" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="K23" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N23" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P23" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="R23" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="U23" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W23" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="X23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>130</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>330</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>38</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Ecuadorian Serie A</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2025-12-15</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Emelec</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>El Nacional</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K24" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N24" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="X24" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>970</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AO24" t="n">
         <v>21</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
@@ -667,61 +667,61 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="I2" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>7.8</v>
+        <v>150</v>
       </c>
       <c r="K2" t="n">
-        <v>9</v>
+        <v>990</v>
       </c>
       <c r="L2" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S2" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="T2" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.01</v>
       </c>
-      <c r="N2" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P2" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="R2" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.11</v>
-      </c>
       <c r="W2" t="n">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -730,46 +730,46 @@
         <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN2" t="n">
         <v>32</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>990</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>250</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>2.62</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.22</v>
+        <v>1.39</v>
       </c>
       <c r="G3" t="n">
-        <v>2.36</v>
+        <v>1.41</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>11.5</v>
       </c>
       <c r="I3" t="n">
-        <v>3.25</v>
+        <v>13</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="K3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S3" t="n">
         <v>4.3</v>
       </c>
-      <c r="L3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.74</v>
-      </c>
       <c r="T3" t="n">
-        <v>1.63</v>
+        <v>1.92</v>
       </c>
       <c r="U3" t="n">
-        <v>2.12</v>
+        <v>1.96</v>
       </c>
       <c r="V3" t="n">
-        <v>1.45</v>
+        <v>1.08</v>
       </c>
       <c r="W3" t="n">
-        <v>1.76</v>
+        <v>3.4</v>
       </c>
       <c r="X3" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>14</v>
+        <v>5.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AF3" t="n">
-        <v>17</v>
+        <v>5.8</v>
       </c>
       <c r="AG3" t="n">
-        <v>11.5</v>
+        <v>8.4</v>
       </c>
       <c r="AH3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>790</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN3" t="n">
         <v>19.5</v>
       </c>
-      <c r="AI3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AO3" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO3"/>
+  <dimension ref="A1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,276 +640,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2025-12-15</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Aurora</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Academia de Balompie Boliviano</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="H2" t="n">
-        <v>46</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J2" t="n">
-        <v>150</v>
-      </c>
-      <c r="K2" t="n">
-        <v>990</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S2" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="T2" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Ecuadorian Serie A</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-12-15</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Emelec</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>El Nacional</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="H3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="I3" t="n">
-        <v>13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>790</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>980</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
